--- a/StructureDefinition-be-performer-task.xlsx
+++ b/StructureDefinition-be-performer-task.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-04T16:05:57+00:00</t>
+    <t>2022-07-04T19:16:38+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-be-performer-task.xlsx
+++ b/StructureDefinition-be-performer-task.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-04T19:16:38+00:00</t>
+    <t>2022-07-06T06:33:21+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-be-performer-task.xlsx
+++ b/StructureDefinition-be-performer-task.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-06T06:33:21+00:00</t>
+    <t>2022-07-06T06:34:35+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-be-performer-task.xlsx
+++ b/StructureDefinition-be-performer-task.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-06T06:34:35+00:00</t>
+    <t>2022-07-28T12:59:06+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1613,39 +1613,39 @@
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
     <col min="1" max="1" width="32.42578125" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="12.65625" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="12.66015625" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="39.9140625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="6.7734375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="6.77734375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="4.9453125" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="5.4296875" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="16.2734375" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="13.2578125" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="14.44140625" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="16.27734375" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="13.26171875" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="14.4453125" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="92.48046875" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="92.484375" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
-    <col min="15" max="15" width="15.265625" customWidth="true" bestFit="true"/>
+    <col min="15" max="15" width="15.26953125" customWidth="true" bestFit="true"/>
     <col min="16" max="16" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="17.16796875" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="17.171875" customWidth="true" bestFit="true"/>
     <col min="21" max="21" width="17.65625" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="19.03125" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="18.85546875" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="19.03515625" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="18.859375" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="169.1328125" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="45.796875" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="45.80078125" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="6.34765625" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="22.71484375" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="20.58984375" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="17.2109375" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="22.71875" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="20.59375" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="17.21484375" customWidth="true" bestFit="true"/>
     <col min="30" max="30" width="14.4140625" customWidth="true" bestFit="true"/>
     <col min="31" max="31" width="34.859375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="10.55078125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="11.03515625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="13.87109375" customWidth="true" bestFit="true"/>
+    <col min="32" max="32" width="10.5546875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="11.0390625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="13.875" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
     <col min="36" max="36" width="55.72265625" customWidth="true" bestFit="true"/>
     <col min="37" max="37" width="109.98828125" customWidth="true" bestFit="true"/>

--- a/StructureDefinition-be-performer-task.xlsx
+++ b/StructureDefinition-be-performer-task.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-28T12:59:06+00:00</t>
+    <t>2022-07-28T13:03:13+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-be-performer-task.xlsx
+++ b/StructureDefinition-be-performer-task.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-28T13:03:13+00:00</t>
+    <t>2022-07-28T13:55:09+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-be-performer-task.xlsx
+++ b/StructureDefinition-be-performer-task.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-28T13:55:09+00:00</t>
+    <t>2022-07-28T14:03:02+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-be-performer-task.xlsx
+++ b/StructureDefinition-be-performer-task.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-28T14:03:02+00:00</t>
+    <t>2022-07-28T14:09:03+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-be-performer-task.xlsx
+++ b/StructureDefinition-be-performer-task.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-28T14:09:03+00:00</t>
+    <t>2022-07-28T14:11:37+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-be-performer-task.xlsx
+++ b/StructureDefinition-be-performer-task.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-26T07:00:23+00:00</t>
+    <t>2022-09-26T07:01:19+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-be-performer-task.xlsx
+++ b/StructureDefinition-be-performer-task.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-26T07:01:19+00:00</t>
+    <t>2022-09-26T07:14:34+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-be-performer-task.xlsx
+++ b/StructureDefinition-be-performer-task.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-26T07:14:34+00:00</t>
+    <t>2022-09-26T07:35:57+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-be-performer-task.xlsx
+++ b/StructureDefinition-be-performer-task.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-26T07:35:57+00:00</t>
+    <t>2022-09-26T07:40:38+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-be-performer-task.xlsx
+++ b/StructureDefinition-be-performer-task.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-26T07:40:38+00:00</t>
+    <t>2022-09-26T07:47:59+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-be-performer-task.xlsx
+++ b/StructureDefinition-be-performer-task.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-26T07:47:59+00:00</t>
+    <t>2022-09-26T09:04:29+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-be-performer-task.xlsx
+++ b/StructureDefinition-be-performer-task.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-26T09:04:29+00:00</t>
+    <t>2022-09-26T12:48:08+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-be-performer-task.xlsx
+++ b/StructureDefinition-be-performer-task.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2027" uniqueCount="416">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2029" uniqueCount="418">
   <si>
     <t>Property</t>
   </si>
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.2.0</t>
+    <t>1.0.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,10 +57,16 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-26T12:48:08+00:00</t>
+    <t>2022-09-26T15:07:54+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
+  </si>
+  <si>
+    <t>Jurisdiction</t>
+  </si>
+  <si>
+    <t>Belgium</t>
   </si>
   <si>
     <t>Description</t>
@@ -1456,7 +1462,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B18"/>
+  <dimension ref="A1:B19"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -1544,21 +1550,21 @@
       <c r="A11" t="s" s="2">
         <v>17</v>
       </c>
-      <c r="B11" s="2"/>
+      <c r="B11" t="s" s="2">
+        <v>18</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B12" s="2"/>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="B13" t="s" s="2">
         <v>20</v>
       </c>
+      <c r="B13" s="2"/>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
@@ -1598,6 +1604,14 @@
       </c>
       <c r="B18" t="s" s="2">
         <v>30</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s" s="2">
+        <v>31</v>
+      </c>
+      <c r="B19" t="s" s="2">
+        <v>32</v>
       </c>
     </row>
   </sheetData>
@@ -1659,6331 +1673,6331 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="1">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B1" t="s" s="1">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C1" t="s" s="1">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D1" t="s" s="1">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E1" t="s" s="1">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="F1" t="s" s="1">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="G1" t="s" s="1">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="H1" t="s" s="1">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="I1" t="s" s="1">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="J1" t="s" s="1">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="K1" t="s" s="1">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="L1" t="s" s="1">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="M1" t="s" s="1">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="N1" t="s" s="1">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="O1" t="s" s="1">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="P1" t="s" s="1">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="Q1" t="s" s="1">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="R1" t="s" s="1">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="S1" t="s" s="1">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="T1" t="s" s="1">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="U1" t="s" s="1">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="V1" t="s" s="1">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="W1" t="s" s="1">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="X1" t="s" s="1">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="Y1" t="s" s="1">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="Z1" t="s" s="1">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="AA1" t="s" s="1">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="AB1" t="s" s="1">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="AC1" t="s" s="1">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="AD1" t="s" s="1">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="AE1" t="s" s="1">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="AF1" t="s" s="1">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="AG1" t="s" s="1">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="AH1" t="s" s="1">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="AI1" t="s" s="1">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="AJ1" t="s" s="1">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="AK1" t="s" s="1">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="AL1" t="s" s="1">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="AM1" t="s" s="1">
-        <v>69</v>
+        <v>71</v>
       </c>
     </row>
     <row r="2" hidden="true">
       <c r="A2" t="s" s="2">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B2" s="2"/>
       <c r="C2" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="D2" s="2"/>
       <c r="E2" t="s" s="2">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="F2" t="s" s="2">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="G2" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="H2" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="I2" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="J2" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="K2" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="L2" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="M2" s="2"/>
       <c r="N2" s="2"/>
       <c r="O2" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="P2" s="2"/>
       <c r="Q2" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="R2" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="S2" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="T2" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="U2" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="V2" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="W2" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="X2" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="Y2" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="Z2" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="AA2" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="AB2" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="AC2" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="AD2" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="AE2" t="s" s="2">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="AF2" t="s" s="2">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="AG2" t="s" s="2">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="AH2" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="AI2" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="AJ2" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="AK2" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="AL2" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="AM2" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
     </row>
     <row r="3" hidden="true">
       <c r="A3" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="D3" s="2"/>
       <c r="E3" t="s" s="2">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="F3" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="G3" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="H3" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="I3" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="J3" t="s" s="2">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="K3" t="s" s="2">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="L3" t="s" s="2">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="M3" t="s" s="2">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="N3" s="2"/>
       <c r="O3" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="P3" s="2"/>
       <c r="Q3" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="R3" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="S3" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="T3" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="U3" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="V3" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="W3" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="X3" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="Y3" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="Z3" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="AA3" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="AB3" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="AC3" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="AD3" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="AE3" t="s" s="2">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="AF3" t="s" s="2">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="AG3" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="AH3" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="AI3" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="AJ3" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="AK3" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="AL3" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="AM3" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
     </row>
     <row r="4" hidden="true">
       <c r="A4" t="s" s="2">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B4" s="2"/>
       <c r="C4" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="D4" s="2"/>
       <c r="E4" t="s" s="2">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="F4" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="G4" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="H4" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="I4" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="J4" t="s" s="2">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="K4" t="s" s="2">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="L4" t="s" s="2">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="M4" s="2"/>
       <c r="N4" s="2"/>
       <c r="O4" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="P4" s="2"/>
       <c r="Q4" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="R4" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="S4" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="T4" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="U4" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="V4" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="W4" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="X4" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="Y4" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="Z4" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="AA4" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="AB4" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="AC4" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="AD4" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="AE4" t="s" s="2">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="AF4" t="s" s="2">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="AG4" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="AH4" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="AI4" t="s" s="2">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="AJ4" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="AK4" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="AL4" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="AM4" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
     </row>
     <row r="5" hidden="true">
       <c r="A5" t="s" s="2">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B5" s="2"/>
       <c r="C5" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="D5" s="2"/>
       <c r="E5" t="s" s="2">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="F5" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="G5" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="H5" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="I5" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="J5" t="s" s="2">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="K5" t="s" s="2">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="L5" t="s" s="2">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="M5" t="s" s="2">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="N5" s="2"/>
       <c r="O5" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="P5" s="2"/>
       <c r="Q5" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="R5" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="S5" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="T5" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="U5" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="V5" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="W5" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="X5" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="Y5" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="Z5" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="AA5" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="AB5" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="AC5" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="AD5" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="AE5" t="s" s="2">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="AF5" t="s" s="2">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="AG5" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="AH5" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="AI5" t="s" s="2">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="AJ5" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="AK5" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="AL5" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="AM5" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
     </row>
     <row r="6" hidden="true">
       <c r="A6" t="s" s="2">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B6" s="2"/>
       <c r="C6" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" t="s" s="2">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="F6" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="G6" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="H6" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="I6" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="J6" t="s" s="2">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="K6" t="s" s="2">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="L6" t="s" s="2">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="M6" t="s" s="2">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="N6" s="2"/>
       <c r="O6" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="P6" s="2"/>
       <c r="Q6" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="R6" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="S6" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="T6" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="U6" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="V6" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="W6" t="s" s="2">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="X6" t="s" s="2">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="Y6" t="s" s="2">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="Z6" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="AA6" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="AB6" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="AC6" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="AD6" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="AE6" t="s" s="2">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="AF6" t="s" s="2">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="AG6" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="AH6" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="AI6" t="s" s="2">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="AJ6" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="AK6" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="AL6" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="AM6" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
     </row>
     <row r="7" hidden="true">
       <c r="A7" t="s" s="2">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B7" s="2"/>
       <c r="C7" t="s" s="2">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="D7" s="2"/>
       <c r="E7" t="s" s="2">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="F7" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="G7" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="H7" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="I7" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="J7" t="s" s="2">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="K7" t="s" s="2">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="L7" t="s" s="2">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="M7" t="s" s="2">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="N7" s="2"/>
       <c r="O7" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="P7" s="2"/>
       <c r="Q7" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="R7" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="S7" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="T7" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="U7" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="V7" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="W7" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="X7" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="Y7" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="Z7" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="AA7" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="AB7" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="AC7" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="AD7" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="AE7" t="s" s="2">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="AF7" t="s" s="2">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="AG7" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="AH7" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="AI7" t="s" s="2">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="AJ7" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="AK7" t="s" s="2">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="AL7" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="AM7" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
     </row>
     <row r="8" hidden="true">
       <c r="A8" t="s" s="2">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B8" s="2"/>
       <c r="C8" t="s" s="2">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="D8" s="2"/>
       <c r="E8" t="s" s="2">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="F8" t="s" s="2">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="G8" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="H8" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="I8" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="J8" t="s" s="2">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="K8" t="s" s="2">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="L8" t="s" s="2">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="M8" t="s" s="2">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="N8" s="2"/>
       <c r="O8" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="P8" s="2"/>
       <c r="Q8" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="R8" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="S8" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="T8" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="U8" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="V8" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="W8" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="X8" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="Y8" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="Z8" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="AA8" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="AB8" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="AC8" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="AD8" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="AE8" t="s" s="2">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="AF8" t="s" s="2">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="AG8" t="s" s="2">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="AH8" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="AI8" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="AJ8" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="AK8" t="s" s="2">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="AL8" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="AM8" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
     </row>
     <row r="9" hidden="true">
       <c r="A9" t="s" s="2">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B9" s="2"/>
       <c r="C9" t="s" s="2">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="D9" s="2"/>
       <c r="E9" t="s" s="2">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="F9" t="s" s="2">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="G9" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="H9" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="I9" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="J9" t="s" s="2">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="L9" t="s" s="2">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="M9" t="s" s="2">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="N9" s="2"/>
       <c r="O9" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="P9" s="2"/>
       <c r="Q9" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="R9" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="S9" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="T9" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="U9" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="V9" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="W9" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="X9" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="Y9" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="Z9" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="AA9" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="AB9" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="AC9" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="AD9" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="AE9" t="s" s="2">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="AF9" t="s" s="2">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="AG9" t="s" s="2">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="AH9" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="AI9" t="s" s="2">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="AK9" t="s" s="2">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="AL9" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="AM9" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
     </row>
     <row r="10" hidden="true">
       <c r="A10" t="s" s="2">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="B10" s="2"/>
       <c r="C10" t="s" s="2">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" t="s" s="2">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="F10" t="s" s="2">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="G10" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="H10" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="I10" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="J10" t="s" s="2">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="N10" t="s" s="2">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="O10" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="P10" s="2"/>
       <c r="Q10" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="R10" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="S10" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="T10" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="U10" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="V10" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="W10" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="X10" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="Y10" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="Z10" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="AA10" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="AB10" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="AC10" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="AD10" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="AE10" t="s" s="2">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="AG10" t="s" s="2">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="AH10" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="AI10" t="s" s="2">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="AJ10" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="AK10" t="s" s="2">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="AL10" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="AM10" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
     </row>
     <row r="11" hidden="true">
       <c r="A11" t="s" s="2">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="B11" s="2"/>
       <c r="C11" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="D11" s="2"/>
       <c r="E11" t="s" s="2">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="F11" t="s" s="2">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="G11" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="H11" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="I11" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="J11" t="s" s="2">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="M11" s="2"/>
       <c r="N11" s="2"/>
       <c r="O11" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="P11" s="2"/>
       <c r="Q11" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="R11" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="S11" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="T11" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="U11" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="V11" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="W11" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="X11" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="Y11" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="Z11" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="AA11" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="AB11" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="AC11" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="AD11" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="AE11" t="s" s="2">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="AG11" t="s" s="2">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="AH11" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="AI11" t="s" s="2">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="AK11" t="s" s="2">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="AL11" t="s" s="2">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="AM11" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
     </row>
     <row r="12" hidden="true">
       <c r="A12" t="s" s="2">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B12" s="2"/>
       <c r="C12" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="D12" s="2"/>
       <c r="E12" t="s" s="2">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="F12" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="G12" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="H12" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="I12" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="M12" s="2"/>
       <c r="N12" t="s" s="2">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="O12" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="P12" s="2"/>
       <c r="Q12" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="R12" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="S12" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="T12" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="U12" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="V12" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="W12" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="X12" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="Y12" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="Z12" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="AA12" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="AB12" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="AC12" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="AD12" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="AE12" t="s" s="2">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="AG12" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="AH12" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="AI12" t="s" s="2">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="AK12" t="s" s="2">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="AL12" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="AM12" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
     </row>
     <row r="13" hidden="true">
       <c r="A13" t="s" s="2">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="B13" s="2"/>
       <c r="C13" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="D13" s="2"/>
       <c r="E13" t="s" s="2">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="F13" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="G13" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="H13" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="I13" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="M13" s="2"/>
       <c r="N13" t="s" s="2">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="O13" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="P13" s="2"/>
       <c r="Q13" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="R13" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="S13" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="T13" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="U13" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="V13" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="W13" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="X13" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="Y13" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="Z13" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="AA13" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="AB13" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="AC13" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="AD13" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="AE13" t="s" s="2">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="AG13" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="AH13" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="AI13" t="s" s="2">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="AK13" t="s" s="2">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="AL13" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="AM13" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
     </row>
     <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="B14" s="2"/>
       <c r="C14" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="D14" s="2"/>
       <c r="E14" t="s" s="2">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="F14" t="s" s="2">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="G14" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="H14" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="I14" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="M14" s="2"/>
       <c r="N14" s="2"/>
       <c r="O14" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="P14" s="2"/>
       <c r="Q14" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="R14" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="S14" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="T14" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="U14" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="V14" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="W14" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="X14" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="Y14" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="Z14" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="AA14" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="AB14" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="AC14" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="AD14" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="AE14" t="s" s="2">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="AG14" t="s" s="2">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="AH14" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="AI14" t="s" s="2">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="AK14" t="s" s="2">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="AL14" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="AM14" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
     </row>
     <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="B15" s="2"/>
       <c r="C15" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="D15" s="2"/>
       <c r="E15" t="s" s="2">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="F15" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="G15" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="H15" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="I15" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="M15" s="2"/>
       <c r="N15" t="s" s="2">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="O15" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="P15" s="2"/>
       <c r="Q15" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="R15" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="S15" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="T15" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="U15" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="V15" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="W15" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="X15" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="Y15" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="Z15" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="AA15" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="AB15" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="AC15" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="AD15" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="AG15" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="AH15" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="AI15" t="s" s="2">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="AJ15" t="s" s="2">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="AK15" t="s" s="2">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="AL15" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="AM15" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="D16" s="2"/>
       <c r="E16" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="F16" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="G16" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="H16" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="I16" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="N16" t="s" s="2">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="O16" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="P16" s="2"/>
       <c r="Q16" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="R16" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="S16" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="T16" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="U16" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="V16" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="W16" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="X16" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="Y16" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="Z16" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="AA16" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="AB16" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="AC16" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="AD16" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="AG16" t="s" s="2">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="AH16" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="AI16" t="s" s="2">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="AK16" t="s" s="2">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="AL16" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="AM16" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="D17" s="2"/>
       <c r="E17" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="F17" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="G17" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="H17" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="I17" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="M17" s="2"/>
       <c r="N17" t="s" s="2">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="O17" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="P17" s="2"/>
       <c r="Q17" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="R17" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="S17" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="T17" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="U17" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="V17" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="W17" t="s" s="2">
+        <v>180</v>
+      </c>
+      <c r="X17" t="s" s="2">
         <v>178</v>
       </c>
-      <c r="X17" t="s" s="2">
+      <c r="Y17" t="s" s="2">
+        <v>181</v>
+      </c>
+      <c r="Z17" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AA17" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AB17" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AC17" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AD17" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AE17" t="s" s="2">
         <v>176</v>
       </c>
-      <c r="Y17" t="s" s="2">
-        <v>179</v>
-      </c>
-      <c r="Z17" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="AA17" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="AB17" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="AC17" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="AD17" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="AE17" t="s" s="2">
-        <v>174</v>
-      </c>
       <c r="AF17" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="AG17" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="AH17" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="AI17" t="s" s="2">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="AK17" t="s" s="2">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="AL17" t="s" s="2">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="AM17" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="D18" s="2"/>
       <c r="E18" t="s" s="2">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="F18" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="G18" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="H18" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="I18" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="N18" s="2"/>
       <c r="O18" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="P18" s="2"/>
       <c r="Q18" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="R18" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="S18" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="T18" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="U18" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="V18" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="W18" t="s" s="2">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="X18" t="s" s="2">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="Y18" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="Z18" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="AA18" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="AB18" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="AC18" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="AD18" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="AG18" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="AH18" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="AI18" t="s" s="2">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="AL18" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="AM18" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="D19" s="2"/>
       <c r="E19" t="s" s="2">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="F19" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="G19" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="H19" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="I19" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="M19" s="2"/>
       <c r="N19" t="s" s="2">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="O19" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="P19" s="2"/>
       <c r="Q19" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="R19" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="S19" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="T19" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="U19" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="V19" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="W19" t="s" s="2">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="X19" t="s" s="2">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="Y19" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="Z19" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="AA19" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="AB19" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="AC19" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="AD19" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="AG19" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="AH19" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="AI19" t="s" s="2">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="AM19" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="D20" s="2"/>
       <c r="E20" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="F20" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="G20" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="H20" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="I20" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="N20" s="2"/>
       <c r="O20" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="P20" s="2"/>
       <c r="Q20" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="R20" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="S20" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="T20" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="U20" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="V20" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="W20" t="s" s="2">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="X20" t="s" s="2">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="Y20" t="s" s="2">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="Z20" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="AA20" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="AB20" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="AC20" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="AD20" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="AG20" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="AH20" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="AI20" t="s" s="2">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="AM20" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="D21" s="2"/>
       <c r="E21" t="s" s="2">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="F21" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="G21" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="H21" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="I21" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="M21" s="2"/>
       <c r="N21" t="s" s="2">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="O21" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="P21" t="s" s="2">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="Q21" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="R21" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="S21" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="T21" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="U21" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="V21" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="W21" t="s" s="2">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="X21" t="s" s="2">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="Y21" t="s" s="2">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="Z21" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="AA21" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="AB21" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="AC21" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="AD21" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="AG21" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="AH21" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="AI21" t="s" s="2">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="AM21" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="D22" s="2"/>
       <c r="E22" t="s" s="2">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="F22" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="G22" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="H22" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="I22" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="N22" s="2"/>
       <c r="O22" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="P22" s="2"/>
       <c r="Q22" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="R22" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="S22" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="T22" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="U22" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="V22" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="W22" t="s" s="2">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="X22" t="s" s="2">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="Y22" t="s" s="2">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="Z22" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="AA22" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="AB22" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="AC22" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="AD22" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="AG22" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="AH22" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="AI22" t="s" s="2">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="AM22" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="D23" s="2"/>
       <c r="E23" t="s" s="2">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="F23" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="G23" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="H23" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="I23" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="M23" s="2"/>
       <c r="N23" s="2"/>
       <c r="O23" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="P23" s="2"/>
       <c r="Q23" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="R23" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="S23" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="T23" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="U23" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="V23" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="W23" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="X23" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="Y23" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="Z23" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="AA23" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="AB23" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="AC23" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="AD23" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="AG23" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="AH23" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="AI23" t="s" s="2">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="AM23" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="D24" s="2"/>
       <c r="E24" t="s" s="2">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="F24" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="G24" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="H24" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="I24" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="N24" t="s" s="2">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="O24" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="P24" s="2"/>
       <c r="Q24" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="R24" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="S24" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="T24" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="U24" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="V24" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="W24" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="X24" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="Y24" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="Z24" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="AA24" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="AB24" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="AC24" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="AD24" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="AG24" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="AH24" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="AI24" t="s" s="2">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="AM24" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="D25" s="2"/>
       <c r="E25" t="s" s="2">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="F25" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="G25" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="H25" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="I25" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="M25" s="2"/>
       <c r="N25" t="s" s="2">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="O25" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="P25" s="2"/>
       <c r="Q25" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="R25" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="S25" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="T25" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="U25" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="V25" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="W25" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="X25" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="Y25" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="Z25" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="AA25" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="AB25" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="AC25" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="AD25" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="AG25" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="AH25" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="AI25" t="s" s="2">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="D26" s="2"/>
       <c r="E26" t="s" s="2">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="F26" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="G26" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="H26" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="I26" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="M26" s="2"/>
       <c r="N26" t="s" s="2">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="O26" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="P26" s="2"/>
       <c r="Q26" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="R26" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="S26" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="T26" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="U26" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="V26" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="W26" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="X26" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="Y26" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="Z26" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="AA26" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="AB26" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="AC26" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="AD26" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="AG26" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="AH26" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="AI26" t="s" s="2">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="D27" s="2"/>
       <c r="E27" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="F27" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="G27" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="H27" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="I27" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="M27" s="2"/>
       <c r="N27" s="2"/>
       <c r="O27" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="P27" s="2"/>
       <c r="Q27" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="R27" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="S27" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="T27" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="U27" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="V27" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="W27" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="X27" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="Y27" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="Z27" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="AA27" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="AB27" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="AC27" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="AD27" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="AG27" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="AH27" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="AI27" t="s" s="2">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="D28" s="2"/>
       <c r="E28" t="s" s="2">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="F28" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="G28" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="H28" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="I28" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="M28" s="2"/>
       <c r="N28" t="s" s="2">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="O28" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="P28" s="2"/>
       <c r="Q28" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="R28" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="S28" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="T28" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="U28" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="V28" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="W28" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="X28" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="Y28" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="Z28" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="AA28" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="AB28" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="AC28" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="AD28" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="AG28" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="AH28" t="s" s="2">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="AI28" t="s" s="2">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="D29" s="2"/>
       <c r="E29" t="s" s="2">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="F29" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="G29" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="H29" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="I29" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="M29" s="2"/>
       <c r="N29" t="s" s="2">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="O29" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="P29" s="2"/>
       <c r="Q29" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="R29" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="S29" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="T29" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="U29" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="V29" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="W29" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="X29" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="Y29" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="Z29" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="AA29" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="AB29" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="AC29" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="AD29" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="AG29" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="AH29" t="s" s="2">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="AI29" t="s" s="2">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="D30" s="2"/>
       <c r="E30" t="s" s="2">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="F30" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="G30" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="H30" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="I30" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="M30" s="2"/>
       <c r="N30" t="s" s="2">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="O30" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="P30" s="2"/>
       <c r="Q30" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="R30" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="S30" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="T30" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="U30" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="V30" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="W30" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="X30" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="Y30" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="Z30" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="AA30" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="AB30" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="AC30" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="AD30" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="AG30" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="AH30" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="AI30" t="s" s="2">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="D31" s="2"/>
       <c r="E31" t="s" s="2">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="F31" t="s" s="2">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="G31" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="H31" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="I31" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="M31" s="2"/>
       <c r="N31" t="s" s="2">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="O31" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="P31" s="2"/>
       <c r="Q31" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="R31" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="S31" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="T31" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="U31" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="V31" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="W31" t="s" s="2">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="X31" t="s" s="2">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="Y31" t="s" s="2">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="Z31" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="AA31" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="AB31" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="AC31" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="AD31" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="AG31" t="s" s="2">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="AH31" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="AI31" t="s" s="2">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="D32" s="2"/>
       <c r="E32" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="F32" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="G32" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="H32" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="I32" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="N32" t="s" s="2">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="O32" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="P32" s="2"/>
       <c r="Q32" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="R32" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="S32" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="T32" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="U32" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="V32" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="W32" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="X32" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="Y32" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="Z32" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="AA32" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="AB32" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="AC32" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="AD32" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="AG32" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="AH32" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="AI32" t="s" s="2">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="D33" s="2"/>
       <c r="E33" t="s" s="2">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="F33" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="G33" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="H33" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="I33" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="M33" s="2"/>
       <c r="N33" t="s" s="2">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="O33" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="P33" s="2"/>
       <c r="Q33" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="R33" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="S33" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="T33" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="U33" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="V33" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="W33" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="X33" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="Y33" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="Z33" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="AA33" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="AB33" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="AC33" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="AD33" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="AG33" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="AH33" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="AI33" t="s" s="2">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="D34" s="2"/>
       <c r="E34" t="s" s="2">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="F34" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="G34" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="H34" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="I34" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="N34" s="2"/>
       <c r="O34" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="P34" s="2"/>
       <c r="Q34" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="R34" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="S34" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="T34" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="U34" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="V34" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="W34" t="s" s="2">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="X34" t="s" s="2">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="Y34" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="Z34" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="AA34" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="AB34" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="AC34" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="AD34" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="AG34" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="AH34" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="AI34" t="s" s="2">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>317</v>
+        <v>319</v>
       </c>
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="D35" s="2"/>
       <c r="E35" t="s" s="2">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="F35" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="G35" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="H35" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="I35" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="N35" s="2"/>
       <c r="O35" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="P35" s="2"/>
       <c r="Q35" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="R35" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="S35" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="T35" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="U35" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="V35" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="W35" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="X35" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="Y35" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="Z35" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="AA35" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="AB35" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="AC35" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="AD35" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="AE35" t="s" s="2">
+        <v>320</v>
+      </c>
+      <c r="AF35" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AG35" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AH35" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AI35" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="AJ35" t="s" s="2">
+        <v>323</v>
+      </c>
+      <c r="AK35" t="s" s="2">
+        <v>324</v>
+      </c>
+      <c r="AL35" t="s" s="2">
         <v>318</v>
       </c>
-      <c r="AF35" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AG35" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH35" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="AI35" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="AJ35" t="s" s="2">
-        <v>321</v>
-      </c>
-      <c r="AK35" t="s" s="2">
-        <v>322</v>
-      </c>
-      <c r="AL35" t="s" s="2">
-        <v>316</v>
-      </c>
       <c r="AM35" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="D36" s="2"/>
       <c r="E36" t="s" s="2">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="F36" t="s" s="2">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="G36" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="H36" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="I36" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="M36" s="2"/>
       <c r="N36" s="2"/>
       <c r="O36" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="P36" s="2"/>
       <c r="Q36" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="R36" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="S36" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="T36" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="U36" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="V36" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="W36" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="X36" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="Y36" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="Z36" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="AA36" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="AB36" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="AC36" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="AD36" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="AG36" t="s" s="2">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="AH36" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="AI36" t="s" s="2">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>329</v>
+        <v>331</v>
       </c>
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="D37" s="2"/>
       <c r="E37" t="s" s="2">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="F37" t="s" s="2">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="G37" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="H37" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="I37" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="M37" s="2"/>
       <c r="N37" s="2"/>
       <c r="O37" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="P37" s="2"/>
       <c r="Q37" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="R37" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="S37" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="T37" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="U37" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="V37" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="W37" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="X37" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="Y37" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="Z37" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="AA37" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="AB37" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="AC37" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="AD37" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="AG37" t="s" s="2">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="AH37" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="AI37" t="s" s="2">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="D38" s="2"/>
       <c r="E38" t="s" s="2">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="F38" t="s" s="2">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="G38" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="H38" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="I38" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="N38" s="2"/>
       <c r="O38" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="P38" s="2"/>
       <c r="Q38" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="R38" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="S38" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="T38" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="U38" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="V38" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="W38" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="X38" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="Y38" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="Z38" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="AA38" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="AB38" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="AC38" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="AD38" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="AG38" t="s" s="2">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="AH38" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="AI38" t="s" s="2">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="D39" s="2"/>
       <c r="E39" t="s" s="2">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="F39" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="G39" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="H39" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="I39" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="M39" s="2"/>
       <c r="N39" t="s" s="2">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="O39" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="P39" s="2"/>
       <c r="Q39" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="R39" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="S39" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="T39" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="U39" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="V39" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="W39" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="X39" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="Y39" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="Z39" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="AA39" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="AB39" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="AC39" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="AD39" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="AG39" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="AH39" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="AI39" t="s" s="2">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="D40" s="2"/>
       <c r="E40" t="s" s="2">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="F40" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="G40" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="H40" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="I40" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="M40" s="2"/>
       <c r="N40" s="2"/>
       <c r="O40" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="P40" s="2"/>
       <c r="Q40" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="R40" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="S40" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="T40" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="U40" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="V40" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="W40" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="X40" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="Y40" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="Z40" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="AA40" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="AB40" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="AC40" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="AD40" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="AG40" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="AH40" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="AI40" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="D41" s="2"/>
       <c r="E41" t="s" s="2">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="F41" t="s" s="2">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="G41" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="H41" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="I41" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="N41" s="2"/>
       <c r="O41" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="P41" s="2"/>
       <c r="Q41" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="R41" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="S41" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="T41" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="U41" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="V41" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="W41" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="X41" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="Y41" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="Z41" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="AA41" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="AB41" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="AC41" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="AD41" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="AG41" t="s" s="2">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="AH41" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="AI41" t="s" s="2">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="D42" s="2"/>
       <c r="E42" t="s" s="2">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="F42" t="s" s="2">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="G42" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="H42" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="I42" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="N42" t="s" s="2">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="O42" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="P42" s="2"/>
       <c r="Q42" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="R42" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="S42" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="T42" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="U42" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="V42" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="W42" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="X42" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="Y42" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="Z42" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="AA42" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="AB42" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="AC42" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="AD42" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="AG42" t="s" s="2">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="AH42" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="AI42" t="s" s="2">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="D43" s="2"/>
       <c r="E43" t="s" s="2">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="F43" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="G43" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="H43" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="I43" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="M43" s="2"/>
       <c r="N43" t="s" s="2">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="O43" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="P43" s="2"/>
       <c r="Q43" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="R43" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="S43" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="T43" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="U43" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="V43" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="W43" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="X43" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="Y43" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="Z43" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="AA43" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="AB43" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="AC43" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="AD43" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="AG43" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="AH43" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="AI43" t="s" s="2">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="D44" s="2"/>
       <c r="E44" t="s" s="2">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="F44" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="G44" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="H44" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="I44" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="N44" t="s" s="2">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="O44" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="P44" s="2"/>
       <c r="Q44" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="R44" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="S44" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="T44" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="U44" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="V44" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="W44" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="X44" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="Y44" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="Z44" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="AA44" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="AB44" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="AC44" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="AD44" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="AG44" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="AH44" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="AI44" t="s" s="2">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="D45" s="2"/>
       <c r="E45" t="s" s="2">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="F45" t="s" s="2">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="G45" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="H45" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="I45" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="M45" s="2"/>
       <c r="N45" s="2"/>
       <c r="O45" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="P45" s="2"/>
       <c r="Q45" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="R45" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="S45" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="T45" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="U45" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="V45" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="W45" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="X45" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="Y45" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="Z45" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="AA45" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="AB45" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="AC45" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="AD45" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="AG45" t="s" s="2">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="AH45" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="AI45" t="s" s="2">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="D46" s="2"/>
       <c r="E46" t="s" s="2">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="F46" t="s" s="2">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="G46" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="H46" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="I46" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="M46" s="2"/>
       <c r="N46" t="s" s="2">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="O46" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="P46" s="2"/>
       <c r="Q46" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="R46" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="S46" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="T46" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="U46" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="V46" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="W46" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="X46" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="Y46" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="Z46" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="AA46" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="AB46" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="AC46" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="AD46" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="AG46" t="s" s="2">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="AH46" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="AI46" t="s" s="2">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="AM46" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="D47" s="2"/>
       <c r="E47" t="s" s="2">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="F47" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="G47" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="H47" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="I47" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="M47" s="2"/>
       <c r="N47" s="2"/>
       <c r="O47" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="P47" s="2"/>
       <c r="Q47" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="R47" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="S47" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="T47" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="U47" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="V47" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="W47" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="X47" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="Y47" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="Z47" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="AA47" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="AB47" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="AC47" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="AD47" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="AG47" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="AH47" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="AI47" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="AM47" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="D48" s="2"/>
       <c r="E48" t="s" s="2">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="F48" t="s" s="2">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="G48" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="H48" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="I48" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="N48" s="2"/>
       <c r="O48" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="P48" s="2"/>
       <c r="Q48" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="R48" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="S48" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="T48" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="U48" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="V48" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="W48" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="X48" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="Y48" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="Z48" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="AA48" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="AB48" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="AC48" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="AD48" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="AG48" t="s" s="2">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="AH48" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="AI48" t="s" s="2">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="AM48" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="D49" s="2"/>
       <c r="E49" t="s" s="2">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="F49" t="s" s="2">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="G49" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="H49" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="I49" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="N49" t="s" s="2">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="O49" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="P49" s="2"/>
       <c r="Q49" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="R49" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="S49" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="T49" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="U49" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="V49" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="W49" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="X49" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="Y49" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="Z49" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="AA49" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="AB49" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="AC49" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="AD49" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="AG49" t="s" s="2">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="AH49" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="AI49" t="s" s="2">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="AM49" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="D50" s="2"/>
       <c r="E50" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="F50" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="G50" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="H50" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="I50" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="N50" t="s" s="2">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="O50" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="P50" s="2"/>
       <c r="Q50" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="R50" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="S50" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="T50" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="U50" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="V50" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="W50" t="s" s="2">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="X50" t="s" s="2">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="Y50" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="Z50" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="AA50" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="AB50" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="AC50" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="AD50" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="AG50" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="AH50" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="AI50" t="s" s="2">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="AM50" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="D51" s="2"/>
       <c r="E51" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="F51" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="G51" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="H51" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="I51" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="M51" s="2"/>
       <c r="N51" s="2"/>
       <c r="O51" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="P51" s="2"/>
       <c r="Q51" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="R51" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="S51" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="T51" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="U51" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="V51" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="W51" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="X51" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="Y51" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="Z51" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="AA51" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="AB51" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="AC51" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="AD51" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="AG51" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="AH51" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="AI51" t="s" s="2">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="AJ51" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="AM51" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="D52" s="2"/>
       <c r="E52" t="s" s="2">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="F52" t="s" s="2">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="G52" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="H52" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="I52" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="M52" s="2"/>
       <c r="N52" t="s" s="2">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="O52" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="P52" s="2"/>
       <c r="Q52" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="R52" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="S52" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="T52" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="U52" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="V52" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="W52" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="X52" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="Y52" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="Z52" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="AA52" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="AB52" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="AC52" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="AD52" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="AG52" t="s" s="2">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="AH52" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="AI52" t="s" s="2">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="AJ52" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="AM52" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="D53" s="2"/>
       <c r="E53" t="s" s="2">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="F53" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="G53" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="H53" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="I53" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="M53" s="2"/>
       <c r="N53" s="2"/>
       <c r="O53" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="P53" s="2"/>
       <c r="Q53" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="R53" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="S53" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="T53" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="U53" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="V53" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="W53" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="X53" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="Y53" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="Z53" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="AA53" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="AB53" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="AC53" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="AD53" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="AG53" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="AH53" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="AI53" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="AJ53" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="AK53" t="s" s="2">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="AL53" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="AM53" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="D54" s="2"/>
       <c r="E54" t="s" s="2">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="F54" t="s" s="2">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="G54" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="H54" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="I54" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="N54" s="2"/>
       <c r="O54" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="P54" s="2"/>
       <c r="Q54" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="R54" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="S54" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="T54" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="U54" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="V54" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="W54" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="X54" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="Y54" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="Z54" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="AA54" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="AB54" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="AC54" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="AD54" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="AG54" t="s" s="2">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="AH54" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="AI54" t="s" s="2">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="AJ54" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="AK54" t="s" s="2">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="AL54" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="AM54" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="D55" s="2"/>
       <c r="E55" t="s" s="2">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="F55" t="s" s="2">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="G55" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="H55" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="I55" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="N55" t="s" s="2">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="O55" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="P55" s="2"/>
       <c r="Q55" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="R55" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="S55" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="T55" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="U55" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="V55" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="W55" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="X55" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="Y55" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="Z55" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="AA55" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="AB55" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="AC55" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="AD55" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="AG55" t="s" s="2">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="AH55" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="AI55" t="s" s="2">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="AJ55" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="AK55" t="s" s="2">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="AL55" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="AM55" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="D56" s="2"/>
       <c r="E56" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="F56" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="G56" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="H56" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="I56" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="M56" s="2"/>
       <c r="N56" t="s" s="2">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="O56" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="P56" s="2"/>
       <c r="Q56" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="R56" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="S56" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="T56" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="U56" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="V56" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="W56" t="s" s="2">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="X56" t="s" s="2">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="Y56" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="Z56" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="AA56" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="AB56" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="AC56" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="AD56" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="AG56" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="AH56" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="AI56" t="s" s="2">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="AJ56" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="AK56" t="s" s="2">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="AL56" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="AM56" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="D57" s="2"/>
       <c r="E57" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="F57" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="G57" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="H57" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="I57" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="J57" t="s" s="2">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="M57" s="2"/>
       <c r="N57" t="s" s="2">
-        <v>415</v>
+        <v>417</v>
       </c>
       <c r="O57" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="P57" s="2"/>
       <c r="Q57" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="R57" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="S57" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="T57" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="U57" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="V57" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="W57" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="X57" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="Y57" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="Z57" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="AA57" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="AB57" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="AC57" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="AD57" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="AG57" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="AH57" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="AI57" t="s" s="2">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="AJ57" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="AK57" t="s" s="2">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="AL57" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="AM57" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
     </row>
   </sheetData>

--- a/StructureDefinition-be-performer-task.xlsx
+++ b/StructureDefinition-be-performer-task.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-26T15:07:54+00:00</t>
+    <t>2022-10-03T11:30:02+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-be-performer-task.xlsx
+++ b/StructureDefinition-be-performer-task.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2029" uniqueCount="418">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2029" uniqueCount="417">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-10-03T11:30:02+00:00</t>
+    <t>2022-10-14T14:40:23+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -247,10 +247,6 @@
   </si>
   <si>
     <t>A task to be performed.</t>
-  </si>
-  <si>
-    <t>dom-2:If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}
-dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}inv-1:Last modified date must be greater than or equal to authored-on date. {lastModified.exists().not() or authoredOn.exists().not() or lastModified &gt;= authoredOn}</t>
   </si>
   <si>
     <t>Request, Event</t>
@@ -1884,13 +1880,13 @@
         <v>72</v>
       </c>
       <c r="AI2" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AJ2" t="s" s="2">
         <v>77</v>
       </c>
-      <c r="AJ2" t="s" s="2">
+      <c r="AK2" t="s" s="2">
         <v>78</v>
-      </c>
-      <c r="AK2" t="s" s="2">
-        <v>79</v>
       </c>
       <c r="AL2" t="s" s="2">
         <v>72</v>
@@ -1901,7 +1897,7 @@
     </row>
     <row r="3" hidden="true">
       <c r="A3" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" t="s" s="2">
@@ -1912,28 +1908,28 @@
         <v>73</v>
       </c>
       <c r="F3" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G3" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="H3" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="I3" t="s" s="2">
         <v>81</v>
       </c>
-      <c r="G3" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="H3" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="I3" t="s" s="2">
+      <c r="J3" t="s" s="2">
         <v>82</v>
       </c>
-      <c r="J3" t="s" s="2">
+      <c r="K3" t="s" s="2">
         <v>83</v>
       </c>
-      <c r="K3" t="s" s="2">
+      <c r="L3" t="s" s="2">
         <v>84</v>
       </c>
-      <c r="L3" t="s" s="2">
+      <c r="M3" t="s" s="2">
         <v>85</v>
-      </c>
-      <c r="M3" t="s" s="2">
-        <v>86</v>
       </c>
       <c r="N3" s="2"/>
       <c r="O3" t="s" s="2">
@@ -1983,13 +1979,13 @@
         <v>72</v>
       </c>
       <c r="AE3" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="AF3" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AG3" t="s" s="2">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="AH3" t="s" s="2">
         <v>72</v>
@@ -2012,7 +2008,7 @@
     </row>
     <row r="4" hidden="true">
       <c r="A4" t="s" s="2">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B4" s="2"/>
       <c r="C4" t="s" s="2">
@@ -2023,25 +2019,25 @@
         <v>73</v>
       </c>
       <c r="F4" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G4" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="H4" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="I4" t="s" s="2">
         <v>81</v>
       </c>
-      <c r="G4" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="H4" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="I4" t="s" s="2">
-        <v>82</v>
-      </c>
       <c r="J4" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="K4" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="K4" t="s" s="2">
+      <c r="L4" t="s" s="2">
         <v>90</v>
-      </c>
-      <c r="L4" t="s" s="2">
-        <v>91</v>
       </c>
       <c r="M4" s="2"/>
       <c r="N4" s="2"/>
@@ -2092,19 +2088,19 @@
         <v>72</v>
       </c>
       <c r="AE4" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="AF4" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AG4" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH4" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AI4" t="s" s="2">
         <v>92</v>
-      </c>
-      <c r="AF4" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AG4" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AH4" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AI4" t="s" s="2">
-        <v>93</v>
       </c>
       <c r="AJ4" t="s" s="2">
         <v>72</v>
@@ -2121,7 +2117,7 @@
     </row>
     <row r="5" hidden="true">
       <c r="A5" t="s" s="2">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B5" s="2"/>
       <c r="C5" t="s" s="2">
@@ -2132,28 +2128,28 @@
         <v>73</v>
       </c>
       <c r="F5" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G5" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="H5" t="s" s="2">
         <v>81</v>
       </c>
-      <c r="G5" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="H5" t="s" s="2">
-        <v>82</v>
-      </c>
       <c r="I5" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="J5" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="K5" t="s" s="2">
         <v>95</v>
       </c>
-      <c r="K5" t="s" s="2">
+      <c r="L5" t="s" s="2">
         <v>96</v>
       </c>
-      <c r="L5" t="s" s="2">
+      <c r="M5" t="s" s="2">
         <v>97</v>
-      </c>
-      <c r="M5" t="s" s="2">
-        <v>98</v>
       </c>
       <c r="N5" s="2"/>
       <c r="O5" t="s" s="2">
@@ -2203,19 +2199,19 @@
         <v>72</v>
       </c>
       <c r="AE5" t="s" s="2">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AF5" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AG5" t="s" s="2">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="AH5" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AI5" t="s" s="2">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AJ5" t="s" s="2">
         <v>72</v>
@@ -2232,7 +2228,7 @@
     </row>
     <row r="6" hidden="true">
       <c r="A6" t="s" s="2">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B6" s="2"/>
       <c r="C6" t="s" s="2">
@@ -2243,7 +2239,7 @@
         <v>73</v>
       </c>
       <c r="F6" t="s" s="2">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G6" t="s" s="2">
         <v>72</v>
@@ -2255,16 +2251,16 @@
         <v>72</v>
       </c>
       <c r="J6" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="K6" t="s" s="2">
         <v>101</v>
       </c>
-      <c r="K6" t="s" s="2">
+      <c r="L6" t="s" s="2">
         <v>102</v>
       </c>
-      <c r="L6" t="s" s="2">
+      <c r="M6" t="s" s="2">
         <v>103</v>
-      </c>
-      <c r="M6" t="s" s="2">
-        <v>104</v>
       </c>
       <c r="N6" s="2"/>
       <c r="O6" t="s" s="2">
@@ -2290,43 +2286,43 @@
         <v>72</v>
       </c>
       <c r="W6" t="s" s="2">
+        <v>104</v>
+      </c>
+      <c r="X6" t="s" s="2">
         <v>105</v>
       </c>
-      <c r="X6" t="s" s="2">
+      <c r="Y6" t="s" s="2">
         <v>106</v>
       </c>
-      <c r="Y6" t="s" s="2">
+      <c r="Z6" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AA6" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AB6" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AC6" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AD6" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AE6" t="s" s="2">
         <v>107</v>
       </c>
-      <c r="Z6" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AA6" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AB6" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AC6" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AD6" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AE6" t="s" s="2">
-        <v>108</v>
-      </c>
       <c r="AF6" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AG6" t="s" s="2">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="AH6" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AI6" t="s" s="2">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AJ6" t="s" s="2">
         <v>72</v>
@@ -2343,18 +2339,18 @@
     </row>
     <row r="7" hidden="true">
       <c r="A7" t="s" s="2">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B7" s="2"/>
       <c r="C7" t="s" s="2">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D7" s="2"/>
       <c r="E7" t="s" s="2">
         <v>73</v>
       </c>
       <c r="F7" t="s" s="2">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G7" t="s" s="2">
         <v>72</v>
@@ -2366,16 +2362,16 @@
         <v>72</v>
       </c>
       <c r="J7" t="s" s="2">
+        <v>110</v>
+      </c>
+      <c r="K7" t="s" s="2">
         <v>111</v>
       </c>
-      <c r="K7" t="s" s="2">
+      <c r="L7" t="s" s="2">
         <v>112</v>
       </c>
-      <c r="L7" t="s" s="2">
+      <c r="M7" t="s" s="2">
         <v>113</v>
-      </c>
-      <c r="M7" t="s" s="2">
-        <v>114</v>
       </c>
       <c r="N7" s="2"/>
       <c r="O7" t="s" s="2">
@@ -2425,25 +2421,25 @@
         <v>72</v>
       </c>
       <c r="AE7" t="s" s="2">
+        <v>114</v>
+      </c>
+      <c r="AF7" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AG7" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH7" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AI7" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="AJ7" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AK7" t="s" s="2">
         <v>115</v>
-      </c>
-      <c r="AF7" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AG7" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AH7" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AI7" t="s" s="2">
-        <v>93</v>
-      </c>
-      <c r="AJ7" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AK7" t="s" s="2">
-        <v>116</v>
       </c>
       <c r="AL7" t="s" s="2">
         <v>72</v>
@@ -2454,11 +2450,11 @@
     </row>
     <row r="8" hidden="true">
       <c r="A8" t="s" s="2">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B8" s="2"/>
       <c r="C8" t="s" s="2">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D8" s="2"/>
       <c r="E8" t="s" s="2">
@@ -2477,16 +2473,16 @@
         <v>72</v>
       </c>
       <c r="J8" t="s" s="2">
+        <v>118</v>
+      </c>
+      <c r="K8" t="s" s="2">
         <v>119</v>
       </c>
-      <c r="K8" t="s" s="2">
+      <c r="L8" t="s" s="2">
         <v>120</v>
       </c>
-      <c r="L8" t="s" s="2">
+      <c r="M8" t="s" s="2">
         <v>121</v>
-      </c>
-      <c r="M8" t="s" s="2">
-        <v>122</v>
       </c>
       <c r="N8" s="2"/>
       <c r="O8" t="s" s="2">
@@ -2536,7 +2532,7 @@
         <v>72</v>
       </c>
       <c r="AE8" t="s" s="2">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="AF8" t="s" s="2">
         <v>73</v>
@@ -2554,7 +2550,7 @@
         <v>72</v>
       </c>
       <c r="AK8" t="s" s="2">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="AL8" t="s" s="2">
         <v>72</v>
@@ -2565,11 +2561,11 @@
     </row>
     <row r="9" hidden="true">
       <c r="A9" t="s" s="2">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B9" s="2"/>
       <c r="C9" t="s" s="2">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D9" s="2"/>
       <c r="E9" t="s" s="2">
@@ -2588,16 +2584,16 @@
         <v>72</v>
       </c>
       <c r="J9" t="s" s="2">
+        <v>126</v>
+      </c>
+      <c r="K9" t="s" s="2">
         <v>127</v>
       </c>
-      <c r="K9" t="s" s="2">
+      <c r="L9" t="s" s="2">
         <v>128</v>
       </c>
-      <c r="L9" t="s" s="2">
+      <c r="M9" t="s" s="2">
         <v>129</v>
-      </c>
-      <c r="M9" t="s" s="2">
-        <v>130</v>
       </c>
       <c r="N9" s="2"/>
       <c r="O9" t="s" s="2">
@@ -2647,7 +2643,7 @@
         <v>72</v>
       </c>
       <c r="AE9" t="s" s="2">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="AF9" t="s" s="2">
         <v>73</v>
@@ -2659,13 +2655,13 @@
         <v>72</v>
       </c>
       <c r="AI9" t="s" s="2">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AJ9" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AK9" t="s" s="2">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="AL9" t="s" s="2">
         <v>72</v>
@@ -2676,11 +2672,11 @@
     </row>
     <row r="10" hidden="true">
       <c r="A10" t="s" s="2">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B10" s="2"/>
       <c r="C10" t="s" s="2">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" t="s" s="2">
@@ -2693,25 +2689,25 @@
         <v>72</v>
       </c>
       <c r="H10" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I10" t="s" s="2">
         <v>72</v>
       </c>
       <c r="J10" t="s" s="2">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="K10" t="s" s="2">
+        <v>133</v>
+      </c>
+      <c r="L10" t="s" s="2">
         <v>134</v>
       </c>
-      <c r="L10" t="s" s="2">
+      <c r="M10" t="s" s="2">
+        <v>129</v>
+      </c>
+      <c r="N10" t="s" s="2">
         <v>135</v>
-      </c>
-      <c r="M10" t="s" s="2">
-        <v>130</v>
-      </c>
-      <c r="N10" t="s" s="2">
-        <v>136</v>
       </c>
       <c r="O10" t="s" s="2">
         <v>72</v>
@@ -2760,7 +2756,7 @@
         <v>72</v>
       </c>
       <c r="AE10" t="s" s="2">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="AF10" t="s" s="2">
         <v>73</v>
@@ -2772,13 +2768,13 @@
         <v>72</v>
       </c>
       <c r="AI10" t="s" s="2">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AJ10" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AK10" t="s" s="2">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="AL10" t="s" s="2">
         <v>72</v>
@@ -2789,7 +2785,7 @@
     </row>
     <row r="11" hidden="true">
       <c r="A11" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B11" s="2"/>
       <c r="C11" t="s" s="2">
@@ -2812,13 +2808,13 @@
         <v>72</v>
       </c>
       <c r="J11" t="s" s="2">
+        <v>138</v>
+      </c>
+      <c r="K11" t="s" s="2">
         <v>139</v>
       </c>
-      <c r="K11" t="s" s="2">
+      <c r="L11" t="s" s="2">
         <v>140</v>
-      </c>
-      <c r="L11" t="s" s="2">
-        <v>141</v>
       </c>
       <c r="M11" s="2"/>
       <c r="N11" s="2"/>
@@ -2869,7 +2865,7 @@
         <v>72</v>
       </c>
       <c r="AE11" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="AF11" t="s" s="2">
         <v>73</v>
@@ -2881,16 +2877,16 @@
         <v>72</v>
       </c>
       <c r="AI11" t="s" s="2">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AJ11" t="s" s="2">
+        <v>141</v>
+      </c>
+      <c r="AK11" t="s" s="2">
         <v>142</v>
       </c>
-      <c r="AK11" t="s" s="2">
+      <c r="AL11" t="s" s="2">
         <v>143</v>
-      </c>
-      <c r="AL11" t="s" s="2">
-        <v>144</v>
       </c>
       <c r="AM11" t="s" s="2">
         <v>72</v>
@@ -2898,7 +2894,7 @@
     </row>
     <row r="12" hidden="true">
       <c r="A12" t="s" s="2">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B12" s="2"/>
       <c r="C12" t="s" s="2">
@@ -2909,29 +2905,29 @@
         <v>73</v>
       </c>
       <c r="F12" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G12" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="H12" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="I12" t="s" s="2">
         <v>81</v>
       </c>
-      <c r="G12" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="H12" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="I12" t="s" s="2">
-        <v>82</v>
-      </c>
       <c r="J12" t="s" s="2">
+        <v>145</v>
+      </c>
+      <c r="K12" t="s" s="2">
         <v>146</v>
       </c>
-      <c r="K12" t="s" s="2">
+      <c r="L12" t="s" s="2">
         <v>147</v>
-      </c>
-      <c r="L12" t="s" s="2">
-        <v>148</v>
       </c>
       <c r="M12" s="2"/>
       <c r="N12" t="s" s="2">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="O12" t="s" s="2">
         <v>72</v>
@@ -2980,25 +2976,25 @@
         <v>72</v>
       </c>
       <c r="AE12" t="s" s="2">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="AF12" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AG12" t="s" s="2">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="AH12" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AI12" t="s" s="2">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AJ12" t="s" s="2">
+        <v>149</v>
+      </c>
+      <c r="AK12" t="s" s="2">
         <v>150</v>
-      </c>
-      <c r="AK12" t="s" s="2">
-        <v>151</v>
       </c>
       <c r="AL12" t="s" s="2">
         <v>72</v>
@@ -3009,7 +3005,7 @@
     </row>
     <row r="13" hidden="true">
       <c r="A13" t="s" s="2">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B13" s="2"/>
       <c r="C13" t="s" s="2">
@@ -3020,29 +3016,29 @@
         <v>73</v>
       </c>
       <c r="F13" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G13" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="H13" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="I13" t="s" s="2">
         <v>81</v>
       </c>
-      <c r="G13" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="H13" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="I13" t="s" s="2">
-        <v>82</v>
-      </c>
       <c r="J13" t="s" s="2">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="M13" s="2"/>
       <c r="N13" t="s" s="2">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="O13" t="s" s="2">
         <v>72</v>
@@ -3091,25 +3087,25 @@
         <v>72</v>
       </c>
       <c r="AE13" t="s" s="2">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="AF13" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AG13" t="s" s="2">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="AH13" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AI13" t="s" s="2">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="AK13" t="s" s="2">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="AL13" t="s" s="2">
         <v>72</v>
@@ -3120,7 +3116,7 @@
     </row>
     <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B14" s="2"/>
       <c r="C14" t="s" s="2">
@@ -3140,16 +3136,16 @@
         <v>72</v>
       </c>
       <c r="I14" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="J14" t="s" s="2">
+        <v>156</v>
+      </c>
+      <c r="K14" t="s" s="2">
         <v>157</v>
       </c>
-      <c r="K14" t="s" s="2">
+      <c r="L14" t="s" s="2">
         <v>158</v>
-      </c>
-      <c r="L14" t="s" s="2">
-        <v>159</v>
       </c>
       <c r="M14" s="2"/>
       <c r="N14" s="2"/>
@@ -3200,7 +3196,7 @@
         <v>72</v>
       </c>
       <c r="AE14" t="s" s="2">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="AF14" t="s" s="2">
         <v>73</v>
@@ -3212,13 +3208,13 @@
         <v>72</v>
       </c>
       <c r="AI14" t="s" s="2">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AJ14" t="s" s="2">
+        <v>159</v>
+      </c>
+      <c r="AK14" t="s" s="2">
         <v>160</v>
-      </c>
-      <c r="AK14" t="s" s="2">
-        <v>161</v>
       </c>
       <c r="AL14" t="s" s="2">
         <v>72</v>
@@ -3229,7 +3225,7 @@
     </row>
     <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B15" s="2"/>
       <c r="C15" t="s" s="2">
@@ -3240,29 +3236,29 @@
         <v>73</v>
       </c>
       <c r="F15" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G15" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="H15" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="I15" t="s" s="2">
         <v>81</v>
       </c>
-      <c r="G15" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="H15" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="I15" t="s" s="2">
-        <v>82</v>
-      </c>
       <c r="J15" t="s" s="2">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="K15" t="s" s="2">
+        <v>162</v>
+      </c>
+      <c r="L15" t="s" s="2">
         <v>163</v>
-      </c>
-      <c r="L15" t="s" s="2">
-        <v>164</v>
       </c>
       <c r="M15" s="2"/>
       <c r="N15" t="s" s="2">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="O15" t="s" s="2">
         <v>72</v>
@@ -3311,25 +3307,25 @@
         <v>72</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="AF15" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AG15" t="s" s="2">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="AH15" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AI15" t="s" s="2">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AJ15" t="s" s="2">
+        <v>165</v>
+      </c>
+      <c r="AK15" t="s" s="2">
         <v>166</v>
-      </c>
-      <c r="AK15" t="s" s="2">
-        <v>167</v>
       </c>
       <c r="AL15" t="s" s="2">
         <v>72</v>
@@ -3340,7 +3336,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" t="s" s="2">
@@ -3348,34 +3344,34 @@
       </c>
       <c r="D16" s="2"/>
       <c r="E16" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="F16" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G16" t="s" s="2">
         <v>81</v>
       </c>
-      <c r="F16" t="s" s="2">
+      <c r="H16" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="I16" t="s" s="2">
         <v>81</v>
       </c>
-      <c r="G16" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="H16" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="I16" t="s" s="2">
-        <v>82</v>
-      </c>
       <c r="J16" t="s" s="2">
+        <v>168</v>
+      </c>
+      <c r="K16" t="s" s="2">
         <v>169</v>
       </c>
-      <c r="K16" t="s" s="2">
+      <c r="L16" t="s" s="2">
         <v>170</v>
       </c>
-      <c r="L16" t="s" s="2">
+      <c r="M16" t="s" s="2">
         <v>171</v>
       </c>
-      <c r="M16" t="s" s="2">
+      <c r="N16" t="s" s="2">
         <v>172</v>
-      </c>
-      <c r="N16" t="s" s="2">
-        <v>173</v>
       </c>
       <c r="O16" t="s" s="2">
         <v>72</v>
@@ -3424,7 +3420,7 @@
         <v>72</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="AF16" t="s" s="2">
         <v>73</v>
@@ -3436,13 +3432,13 @@
         <v>72</v>
       </c>
       <c r="AI16" t="s" s="2">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AJ16" t="s" s="2">
+        <v>173</v>
+      </c>
+      <c r="AK16" t="s" s="2">
         <v>174</v>
-      </c>
-      <c r="AK16" t="s" s="2">
-        <v>175</v>
       </c>
       <c r="AL16" t="s" s="2">
         <v>72</v>
@@ -3453,7 +3449,7 @@
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" t="s" s="2">
@@ -3461,32 +3457,32 @@
       </c>
       <c r="D17" s="2"/>
       <c r="E17" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="F17" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G17" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="H17" t="s" s="2">
         <v>81</v>
       </c>
-      <c r="F17" t="s" s="2">
+      <c r="I17" t="s" s="2">
         <v>81</v>
       </c>
-      <c r="G17" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="H17" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="I17" t="s" s="2">
-        <v>82</v>
-      </c>
       <c r="J17" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="K17" t="s" s="2">
+        <v>176</v>
+      </c>
+      <c r="L17" t="s" s="2">
         <v>177</v>
-      </c>
-      <c r="L17" t="s" s="2">
-        <v>178</v>
       </c>
       <c r="M17" s="2"/>
       <c r="N17" t="s" s="2">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="O17" t="s" s="2">
         <v>72</v>
@@ -3511,52 +3507,52 @@
         <v>72</v>
       </c>
       <c r="W17" t="s" s="2">
+        <v>179</v>
+      </c>
+      <c r="X17" t="s" s="2">
+        <v>177</v>
+      </c>
+      <c r="Y17" t="s" s="2">
         <v>180</v>
       </c>
-      <c r="X17" t="s" s="2">
-        <v>178</v>
-      </c>
-      <c r="Y17" t="s" s="2">
+      <c r="Z17" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AA17" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AB17" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AC17" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AD17" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AE17" t="s" s="2">
+        <v>175</v>
+      </c>
+      <c r="AF17" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AG17" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH17" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AI17" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="AJ17" t="s" s="2">
         <v>181</v>
       </c>
-      <c r="Z17" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AA17" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AB17" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AC17" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AD17" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AE17" t="s" s="2">
-        <v>176</v>
-      </c>
-      <c r="AF17" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AG17" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AH17" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AI17" t="s" s="2">
-        <v>93</v>
-      </c>
-      <c r="AJ17" t="s" s="2">
+      <c r="AK17" t="s" s="2">
         <v>182</v>
       </c>
-      <c r="AK17" t="s" s="2">
+      <c r="AL17" t="s" s="2">
         <v>183</v>
-      </c>
-      <c r="AL17" t="s" s="2">
-        <v>184</v>
       </c>
       <c r="AM17" t="s" s="2">
         <v>72</v>
@@ -3564,7 +3560,7 @@
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" t="s" s="2">
@@ -3575,28 +3571,28 @@
         <v>73</v>
       </c>
       <c r="F18" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G18" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="H18" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="I18" t="s" s="2">
         <v>81</v>
       </c>
-      <c r="G18" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="H18" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="I18" t="s" s="2">
-        <v>82</v>
-      </c>
       <c r="J18" t="s" s="2">
+        <v>185</v>
+      </c>
+      <c r="K18" t="s" s="2">
         <v>186</v>
       </c>
-      <c r="K18" t="s" s="2">
+      <c r="L18" t="s" s="2">
         <v>187</v>
       </c>
-      <c r="L18" t="s" s="2">
+      <c r="M18" t="s" s="2">
         <v>188</v>
-      </c>
-      <c r="M18" t="s" s="2">
-        <v>189</v>
       </c>
       <c r="N18" s="2"/>
       <c r="O18" t="s" s="2">
@@ -3622,49 +3618,49 @@
         <v>72</v>
       </c>
       <c r="W18" t="s" s="2">
+        <v>189</v>
+      </c>
+      <c r="X18" t="s" s="2">
         <v>190</v>
       </c>
-      <c r="X18" t="s" s="2">
+      <c r="Y18" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Z18" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AA18" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AB18" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AC18" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AD18" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AE18" t="s" s="2">
+        <v>184</v>
+      </c>
+      <c r="AF18" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AG18" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH18" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AI18" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="AJ18" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AK18" t="s" s="2">
         <v>191</v>
-      </c>
-      <c r="Y18" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="Z18" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AA18" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AB18" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AC18" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AD18" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AE18" t="s" s="2">
-        <v>185</v>
-      </c>
-      <c r="AF18" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AG18" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AH18" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AI18" t="s" s="2">
-        <v>93</v>
-      </c>
-      <c r="AJ18" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AK18" t="s" s="2">
-        <v>192</v>
       </c>
       <c r="AL18" t="s" s="2">
         <v>72</v>
@@ -3675,7 +3671,7 @@
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" t="s" s="2">
@@ -3686,29 +3682,29 @@
         <v>73</v>
       </c>
       <c r="F19" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G19" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="H19" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="I19" t="s" s="2">
         <v>81</v>
       </c>
-      <c r="G19" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="H19" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="I19" t="s" s="2">
-        <v>82</v>
-      </c>
       <c r="J19" t="s" s="2">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="K19" t="s" s="2">
+        <v>193</v>
+      </c>
+      <c r="L19" t="s" s="2">
         <v>194</v>
-      </c>
-      <c r="L19" t="s" s="2">
-        <v>195</v>
       </c>
       <c r="M19" s="2"/>
       <c r="N19" t="s" s="2">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="O19" t="s" s="2">
         <v>72</v>
@@ -3733,49 +3729,49 @@
         <v>72</v>
       </c>
       <c r="W19" t="s" s="2">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="X19" t="s" s="2">
+        <v>196</v>
+      </c>
+      <c r="Y19" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Z19" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AA19" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AB19" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AC19" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AD19" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AE19" t="s" s="2">
+        <v>192</v>
+      </c>
+      <c r="AF19" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AG19" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH19" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AI19" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="AJ19" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AK19" t="s" s="2">
         <v>197</v>
-      </c>
-      <c r="Y19" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="Z19" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AA19" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AB19" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AC19" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AD19" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AE19" t="s" s="2">
-        <v>193</v>
-      </c>
-      <c r="AF19" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AG19" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AH19" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AI19" t="s" s="2">
-        <v>93</v>
-      </c>
-      <c r="AJ19" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AK19" t="s" s="2">
-        <v>198</v>
       </c>
       <c r="AL19" t="s" s="2">
         <v>72</v>
@@ -3786,7 +3782,7 @@
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" t="s" s="2">
@@ -3794,31 +3790,31 @@
       </c>
       <c r="D20" s="2"/>
       <c r="E20" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="F20" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G20" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="H20" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="I20" t="s" s="2">
         <v>81</v>
       </c>
-      <c r="F20" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="G20" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="H20" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="I20" t="s" s="2">
-        <v>82</v>
-      </c>
       <c r="J20" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="K20" t="s" s="2">
+        <v>199</v>
+      </c>
+      <c r="L20" t="s" s="2">
         <v>200</v>
       </c>
-      <c r="L20" t="s" s="2">
+      <c r="M20" t="s" s="2">
         <v>201</v>
-      </c>
-      <c r="M20" t="s" s="2">
-        <v>202</v>
       </c>
       <c r="N20" s="2"/>
       <c r="O20" t="s" s="2">
@@ -3844,52 +3840,52 @@
         <v>72</v>
       </c>
       <c r="W20" t="s" s="2">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="X20" t="s" s="2">
+        <v>202</v>
+      </c>
+      <c r="Y20" t="s" s="2">
         <v>203</v>
       </c>
-      <c r="Y20" t="s" s="2">
+      <c r="Z20" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AA20" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AB20" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AC20" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AD20" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AE20" t="s" s="2">
+        <v>198</v>
+      </c>
+      <c r="AF20" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AG20" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH20" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AI20" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="AJ20" t="s" s="2">
         <v>204</v>
       </c>
-      <c r="Z20" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AA20" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AB20" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AC20" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AD20" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AE20" t="s" s="2">
-        <v>199</v>
-      </c>
-      <c r="AF20" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AG20" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AH20" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AI20" t="s" s="2">
-        <v>93</v>
-      </c>
-      <c r="AJ20" t="s" s="2">
+      <c r="AK20" t="s" s="2">
         <v>205</v>
       </c>
-      <c r="AK20" t="s" s="2">
+      <c r="AL20" t="s" s="2">
         <v>206</v>
-      </c>
-      <c r="AL20" t="s" s="2">
-        <v>207</v>
       </c>
       <c r="AM20" t="s" s="2">
         <v>72</v>
@@ -3897,7 +3893,7 @@
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
@@ -3908,7 +3904,7 @@
         <v>73</v>
       </c>
       <c r="F21" t="s" s="2">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G21" t="s" s="2">
         <v>72</v>
@@ -3920,89 +3916,89 @@
         <v>72</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="K21" t="s" s="2">
+        <v>208</v>
+      </c>
+      <c r="L21" t="s" s="2">
         <v>209</v>
-      </c>
-      <c r="L21" t="s" s="2">
-        <v>210</v>
       </c>
       <c r="M21" s="2"/>
       <c r="N21" t="s" s="2">
+        <v>210</v>
+      </c>
+      <c r="O21" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="P21" t="s" s="2">
         <v>211</v>
       </c>
-      <c r="O21" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="P21" t="s" s="2">
+      <c r="Q21" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="R21" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="S21" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="T21" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="U21" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="V21" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="W21" t="s" s="2">
+        <v>179</v>
+      </c>
+      <c r="X21" t="s" s="2">
         <v>212</v>
       </c>
-      <c r="Q21" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="R21" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="S21" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="T21" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="U21" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="V21" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="W21" t="s" s="2">
-        <v>180</v>
-      </c>
-      <c r="X21" t="s" s="2">
+      <c r="Y21" t="s" s="2">
         <v>213</v>
       </c>
-      <c r="Y21" t="s" s="2">
+      <c r="Z21" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AA21" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AB21" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AC21" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AD21" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AE21" t="s" s="2">
+        <v>207</v>
+      </c>
+      <c r="AF21" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AG21" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH21" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AI21" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="AJ21" t="s" s="2">
         <v>214</v>
       </c>
-      <c r="Z21" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AA21" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AB21" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AC21" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AD21" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AE21" t="s" s="2">
-        <v>208</v>
-      </c>
-      <c r="AF21" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AG21" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AH21" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AI21" t="s" s="2">
-        <v>93</v>
-      </c>
-      <c r="AJ21" t="s" s="2">
+      <c r="AK21" t="s" s="2">
         <v>215</v>
       </c>
-      <c r="AK21" t="s" s="2">
+      <c r="AL21" t="s" s="2">
         <v>216</v>
-      </c>
-      <c r="AL21" t="s" s="2">
-        <v>217</v>
       </c>
       <c r="AM21" t="s" s="2">
         <v>72</v>
@@ -4010,7 +4006,7 @@
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
@@ -4021,28 +4017,28 @@
         <v>73</v>
       </c>
       <c r="F22" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G22" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="H22" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="I22" t="s" s="2">
         <v>81</v>
       </c>
-      <c r="G22" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="H22" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="I22" t="s" s="2">
-        <v>82</v>
-      </c>
       <c r="J22" t="s" s="2">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="K22" t="s" s="2">
+        <v>218</v>
+      </c>
+      <c r="L22" t="s" s="2">
         <v>219</v>
       </c>
-      <c r="L22" t="s" s="2">
+      <c r="M22" t="s" s="2">
         <v>220</v>
-      </c>
-      <c r="M22" t="s" s="2">
-        <v>221</v>
       </c>
       <c r="N22" s="2"/>
       <c r="O22" t="s" s="2">
@@ -4068,52 +4064,52 @@
         <v>72</v>
       </c>
       <c r="W22" t="s" s="2">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="X22" t="s" s="2">
+        <v>221</v>
+      </c>
+      <c r="Y22" t="s" s="2">
         <v>222</v>
       </c>
-      <c r="Y22" t="s" s="2">
+      <c r="Z22" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AA22" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AB22" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AC22" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AD22" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AE22" t="s" s="2">
+        <v>217</v>
+      </c>
+      <c r="AF22" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AG22" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH22" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AI22" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="AJ22" t="s" s="2">
         <v>223</v>
       </c>
-      <c r="Z22" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AA22" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AB22" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AC22" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AD22" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AE22" t="s" s="2">
-        <v>218</v>
-      </c>
-      <c r="AF22" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AG22" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AH22" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AI22" t="s" s="2">
-        <v>93</v>
-      </c>
-      <c r="AJ22" t="s" s="2">
+      <c r="AK22" t="s" s="2">
         <v>224</v>
       </c>
-      <c r="AK22" t="s" s="2">
+      <c r="AL22" t="s" s="2">
         <v>225</v>
-      </c>
-      <c r="AL22" t="s" s="2">
-        <v>226</v>
       </c>
       <c r="AM22" t="s" s="2">
         <v>72</v>
@@ -4121,7 +4117,7 @@
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
@@ -4132,25 +4128,25 @@
         <v>73</v>
       </c>
       <c r="F23" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G23" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="H23" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="I23" t="s" s="2">
         <v>81</v>
       </c>
-      <c r="G23" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="H23" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="I23" t="s" s="2">
-        <v>82</v>
-      </c>
       <c r="J23" t="s" s="2">
+        <v>227</v>
+      </c>
+      <c r="K23" t="s" s="2">
         <v>228</v>
       </c>
-      <c r="K23" t="s" s="2">
+      <c r="L23" t="s" s="2">
         <v>229</v>
-      </c>
-      <c r="L23" t="s" s="2">
-        <v>230</v>
       </c>
       <c r="M23" s="2"/>
       <c r="N23" s="2"/>
@@ -4201,25 +4197,25 @@
         <v>72</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="AF23" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AG23" t="s" s="2">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="AH23" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AI23" t="s" s="2">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AJ23" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="AL23" t="s" s="2">
         <v>72</v>
@@ -4230,7 +4226,7 @@
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
@@ -4241,31 +4237,31 @@
         <v>73</v>
       </c>
       <c r="F24" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G24" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="H24" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="I24" t="s" s="2">
         <v>81</v>
       </c>
-      <c r="G24" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="H24" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="I24" t="s" s="2">
-        <v>82</v>
-      </c>
       <c r="J24" t="s" s="2">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="K24" t="s" s="2">
+        <v>232</v>
+      </c>
+      <c r="L24" t="s" s="2">
         <v>233</v>
       </c>
-      <c r="L24" t="s" s="2">
+      <c r="M24" t="s" s="2">
         <v>234</v>
       </c>
-      <c r="M24" t="s" s="2">
+      <c r="N24" t="s" s="2">
         <v>235</v>
-      </c>
-      <c r="N24" t="s" s="2">
-        <v>236</v>
       </c>
       <c r="O24" t="s" s="2">
         <v>72</v>
@@ -4314,28 +4310,28 @@
         <v>72</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="AF24" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AG24" t="s" s="2">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="AH24" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AI24" t="s" s="2">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AJ24" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="AM24" t="s" s="2">
         <v>72</v>
@@ -4343,40 +4339,40 @@
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D25" s="2"/>
       <c r="E25" t="s" s="2">
         <v>73</v>
       </c>
       <c r="F25" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G25" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="H25" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="I25" t="s" s="2">
         <v>81</v>
       </c>
-      <c r="G25" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="H25" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="I25" t="s" s="2">
-        <v>82</v>
-      </c>
       <c r="J25" t="s" s="2">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="K25" t="s" s="2">
+        <v>239</v>
+      </c>
+      <c r="L25" t="s" s="2">
         <v>240</v>
-      </c>
-      <c r="L25" t="s" s="2">
-        <v>241</v>
       </c>
       <c r="M25" s="2"/>
       <c r="N25" t="s" s="2">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="O25" t="s" s="2">
         <v>72</v>
@@ -4425,28 +4421,28 @@
         <v>72</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AG25" t="s" s="2">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="AH25" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AI25" t="s" s="2">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AJ25" t="s" s="2">
+        <v>242</v>
+      </c>
+      <c r="AK25" t="s" s="2">
         <v>243</v>
       </c>
-      <c r="AK25" t="s" s="2">
+      <c r="AL25" t="s" s="2">
         <v>244</v>
-      </c>
-      <c r="AL25" t="s" s="2">
-        <v>245</v>
       </c>
       <c r="AM25" t="s" s="2">
         <v>72</v>
@@ -4454,7 +4450,7 @@
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
@@ -4465,29 +4461,29 @@
         <v>73</v>
       </c>
       <c r="F26" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G26" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="H26" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="I26" t="s" s="2">
         <v>81</v>
       </c>
-      <c r="G26" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="H26" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="I26" t="s" s="2">
-        <v>82</v>
-      </c>
       <c r="J26" t="s" s="2">
+        <v>246</v>
+      </c>
+      <c r="K26" t="s" s="2">
         <v>247</v>
       </c>
-      <c r="K26" t="s" s="2">
+      <c r="L26" t="s" s="2">
         <v>248</v>
-      </c>
-      <c r="L26" t="s" s="2">
-        <v>249</v>
       </c>
       <c r="M26" s="2"/>
       <c r="N26" t="s" s="2">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="O26" t="s" s="2">
         <v>72</v>
@@ -4536,28 +4532,28 @@
         <v>72</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="AF26" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AG26" t="s" s="2">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="AH26" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AI26" t="s" s="2">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AJ26" t="s" s="2">
+        <v>250</v>
+      </c>
+      <c r="AK26" t="s" s="2">
         <v>251</v>
       </c>
-      <c r="AK26" t="s" s="2">
+      <c r="AL26" t="s" s="2">
         <v>252</v>
-      </c>
-      <c r="AL26" t="s" s="2">
-        <v>253</v>
       </c>
       <c r="AM26" t="s" s="2">
         <v>72</v>
@@ -4565,7 +4561,7 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
@@ -4573,28 +4569,28 @@
       </c>
       <c r="D27" s="2"/>
       <c r="E27" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="F27" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G27" t="s" s="2">
         <v>81</v>
       </c>
-      <c r="F27" t="s" s="2">
+      <c r="H27" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="I27" t="s" s="2">
         <v>81</v>
       </c>
-      <c r="G27" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="H27" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="I27" t="s" s="2">
-        <v>82</v>
-      </c>
       <c r="J27" t="s" s="2">
+        <v>254</v>
+      </c>
+      <c r="K27" t="s" s="2">
         <v>255</v>
       </c>
-      <c r="K27" t="s" s="2">
+      <c r="L27" t="s" s="2">
         <v>256</v>
-      </c>
-      <c r="L27" t="s" s="2">
-        <v>257</v>
       </c>
       <c r="M27" s="2"/>
       <c r="N27" s="2"/>
@@ -4645,28 +4641,28 @@
         <v>72</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AG27" t="s" s="2">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="AH27" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AI27" t="s" s="2">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AJ27" t="s" s="2">
+        <v>257</v>
+      </c>
+      <c r="AK27" t="s" s="2">
         <v>258</v>
       </c>
-      <c r="AK27" t="s" s="2">
+      <c r="AL27" t="s" s="2">
         <v>259</v>
-      </c>
-      <c r="AL27" t="s" s="2">
-        <v>260</v>
       </c>
       <c r="AM27" t="s" s="2">
         <v>72</v>
@@ -4674,18 +4670,18 @@
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="D28" s="2"/>
       <c r="E28" t="s" s="2">
         <v>73</v>
       </c>
       <c r="F28" t="s" s="2">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G28" t="s" s="2">
         <v>72</v>
@@ -4697,17 +4693,17 @@
         <v>72</v>
       </c>
       <c r="J28" t="s" s="2">
+        <v>262</v>
+      </c>
+      <c r="K28" t="s" s="2">
         <v>263</v>
       </c>
-      <c r="K28" t="s" s="2">
+      <c r="L28" t="s" s="2">
         <v>264</v>
-      </c>
-      <c r="L28" t="s" s="2">
-        <v>265</v>
       </c>
       <c r="M28" s="2"/>
       <c r="N28" t="s" s="2">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="O28" t="s" s="2">
         <v>72</v>
@@ -4756,28 +4752,28 @@
         <v>72</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AG28" t="s" s="2">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="AH28" t="s" s="2">
+        <v>266</v>
+      </c>
+      <c r="AI28" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="AJ28" t="s" s="2">
         <v>267</v>
       </c>
-      <c r="AI28" t="s" s="2">
-        <v>93</v>
-      </c>
-      <c r="AJ28" t="s" s="2">
+      <c r="AK28" t="s" s="2">
         <v>268</v>
       </c>
-      <c r="AK28" t="s" s="2">
+      <c r="AL28" t="s" s="2">
         <v>269</v>
-      </c>
-      <c r="AL28" t="s" s="2">
-        <v>270</v>
       </c>
       <c r="AM28" t="s" s="2">
         <v>72</v>
@@ -4785,40 +4781,40 @@
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="D29" s="2"/>
       <c r="E29" t="s" s="2">
         <v>73</v>
       </c>
       <c r="F29" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G29" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="H29" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="I29" t="s" s="2">
         <v>81</v>
       </c>
-      <c r="G29" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="H29" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="I29" t="s" s="2">
-        <v>82</v>
-      </c>
       <c r="J29" t="s" s="2">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="K29" t="s" s="2">
+        <v>272</v>
+      </c>
+      <c r="L29" t="s" s="2">
         <v>273</v>
-      </c>
-      <c r="L29" t="s" s="2">
-        <v>274</v>
       </c>
       <c r="M29" s="2"/>
       <c r="N29" t="s" s="2">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="O29" t="s" s="2">
         <v>72</v>
@@ -4867,25 +4863,25 @@
         <v>72</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AG29" t="s" s="2">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="AH29" t="s" s="2">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="AI29" t="s" s="2">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AJ29" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="AL29" t="s" s="2">
         <v>72</v>
@@ -4896,7 +4892,7 @@
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
@@ -4907,29 +4903,29 @@
         <v>73</v>
       </c>
       <c r="F30" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G30" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="H30" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="I30" t="s" s="2">
         <v>81</v>
       </c>
-      <c r="G30" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="H30" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="I30" t="s" s="2">
-        <v>82</v>
-      </c>
       <c r="J30" t="s" s="2">
+        <v>277</v>
+      </c>
+      <c r="K30" t="s" s="2">
         <v>278</v>
       </c>
-      <c r="K30" t="s" s="2">
+      <c r="L30" t="s" s="2">
         <v>279</v>
-      </c>
-      <c r="L30" t="s" s="2">
-        <v>280</v>
       </c>
       <c r="M30" s="2"/>
       <c r="N30" t="s" s="2">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="O30" t="s" s="2">
         <v>72</v>
@@ -4978,28 +4974,28 @@
         <v>72</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AG30" t="s" s="2">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="AH30" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AI30" t="s" s="2">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AJ30" t="s" s="2">
+        <v>281</v>
+      </c>
+      <c r="AK30" t="s" s="2">
         <v>282</v>
       </c>
-      <c r="AK30" t="s" s="2">
+      <c r="AL30" t="s" s="2">
         <v>283</v>
-      </c>
-      <c r="AL30" t="s" s="2">
-        <v>284</v>
       </c>
       <c r="AM30" t="s" s="2">
         <v>72</v>
@@ -5007,7 +5003,7 @@
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
@@ -5030,17 +5026,17 @@
         <v>72</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="K31" t="s" s="2">
+        <v>285</v>
+      </c>
+      <c r="L31" t="s" s="2">
         <v>286</v>
-      </c>
-      <c r="L31" t="s" s="2">
-        <v>287</v>
       </c>
       <c r="M31" s="2"/>
       <c r="N31" t="s" s="2">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="O31" t="s" s="2">
         <v>72</v>
@@ -5065,14 +5061,14 @@
         <v>72</v>
       </c>
       <c r="W31" t="s" s="2">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="X31" t="s" s="2">
+        <v>288</v>
+      </c>
+      <c r="Y31" t="s" s="2">
         <v>289</v>
       </c>
-      <c r="Y31" t="s" s="2">
-        <v>290</v>
-      </c>
       <c r="Z31" t="s" s="2">
         <v>72</v>
       </c>
@@ -5089,7 +5085,7 @@
         <v>72</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>73</v>
@@ -5101,16 +5097,16 @@
         <v>72</v>
       </c>
       <c r="AI31" t="s" s="2">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AJ31" t="s" s="2">
+        <v>290</v>
+      </c>
+      <c r="AK31" t="s" s="2">
         <v>291</v>
       </c>
-      <c r="AK31" t="s" s="2">
+      <c r="AL31" t="s" s="2">
         <v>292</v>
-      </c>
-      <c r="AL31" t="s" s="2">
-        <v>293</v>
       </c>
       <c r="AM31" t="s" s="2">
         <v>72</v>
@@ -5118,42 +5114,42 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="D32" s="2"/>
       <c r="E32" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="F32" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G32" t="s" s="2">
         <v>81</v>
       </c>
-      <c r="F32" t="s" s="2">
+      <c r="H32" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="I32" t="s" s="2">
         <v>81</v>
       </c>
-      <c r="G32" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="H32" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="I32" t="s" s="2">
-        <v>82</v>
-      </c>
       <c r="J32" t="s" s="2">
+        <v>295</v>
+      </c>
+      <c r="K32" t="s" s="2">
         <v>296</v>
       </c>
-      <c r="K32" t="s" s="2">
+      <c r="L32" t="s" s="2">
         <v>297</v>
       </c>
-      <c r="L32" t="s" s="2">
+      <c r="M32" t="s" s="2">
         <v>298</v>
       </c>
-      <c r="M32" t="s" s="2">
+      <c r="N32" t="s" s="2">
         <v>299</v>
-      </c>
-      <c r="N32" t="s" s="2">
-        <v>300</v>
       </c>
       <c r="O32" t="s" s="2">
         <v>72</v>
@@ -5202,28 +5198,28 @@
         <v>72</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AG32" t="s" s="2">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="AH32" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AI32" t="s" s="2">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AJ32" t="s" s="2">
+        <v>300</v>
+      </c>
+      <c r="AK32" t="s" s="2">
         <v>301</v>
       </c>
-      <c r="AK32" t="s" s="2">
-        <v>302</v>
-      </c>
       <c r="AL32" t="s" s="2">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="AM32" t="s" s="2">
         <v>72</v>
@@ -5231,7 +5227,7 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
@@ -5242,29 +5238,29 @@
         <v>73</v>
       </c>
       <c r="F33" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G33" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="H33" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="I33" t="s" s="2">
         <v>81</v>
       </c>
-      <c r="G33" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="H33" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="I33" t="s" s="2">
-        <v>82</v>
-      </c>
       <c r="J33" t="s" s="2">
+        <v>303</v>
+      </c>
+      <c r="K33" t="s" s="2">
         <v>304</v>
       </c>
-      <c r="K33" t="s" s="2">
+      <c r="L33" t="s" s="2">
         <v>305</v>
-      </c>
-      <c r="L33" t="s" s="2">
-        <v>306</v>
       </c>
       <c r="M33" s="2"/>
       <c r="N33" t="s" s="2">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="O33" t="s" s="2">
         <v>72</v>
@@ -5313,28 +5309,28 @@
         <v>72</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AG33" t="s" s="2">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="AH33" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AI33" t="s" s="2">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AJ33" t="s" s="2">
+        <v>307</v>
+      </c>
+      <c r="AK33" t="s" s="2">
         <v>308</v>
       </c>
-      <c r="AK33" t="s" s="2">
+      <c r="AL33" t="s" s="2">
         <v>309</v>
-      </c>
-      <c r="AL33" t="s" s="2">
-        <v>310</v>
       </c>
       <c r="AM33" t="s" s="2">
         <v>72</v>
@@ -5342,7 +5338,7 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
@@ -5353,7 +5349,7 @@
         <v>73</v>
       </c>
       <c r="F34" t="s" s="2">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G34" t="s" s="2">
         <v>72</v>
@@ -5365,16 +5361,16 @@
         <v>72</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="K34" t="s" s="2">
+        <v>311</v>
+      </c>
+      <c r="L34" t="s" s="2">
         <v>312</v>
       </c>
-      <c r="L34" t="s" s="2">
+      <c r="M34" t="s" s="2">
         <v>313</v>
-      </c>
-      <c r="M34" t="s" s="2">
-        <v>314</v>
       </c>
       <c r="N34" s="2"/>
       <c r="O34" t="s" s="2">
@@ -5400,60 +5396,60 @@
         <v>72</v>
       </c>
       <c r="W34" t="s" s="2">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="X34" t="s" s="2">
+        <v>314</v>
+      </c>
+      <c r="Y34" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Z34" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AA34" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AB34" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AC34" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AD34" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AE34" t="s" s="2">
+        <v>310</v>
+      </c>
+      <c r="AF34" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AG34" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH34" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AI34" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="AJ34" t="s" s="2">
         <v>315</v>
       </c>
-      <c r="Y34" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="Z34" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AA34" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AB34" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AC34" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AD34" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AE34" t="s" s="2">
-        <v>311</v>
-      </c>
-      <c r="AF34" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AG34" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AH34" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AI34" t="s" s="2">
-        <v>93</v>
-      </c>
-      <c r="AJ34" t="s" s="2">
+      <c r="AK34" t="s" s="2">
         <v>316</v>
       </c>
-      <c r="AK34" t="s" s="2">
+      <c r="AL34" t="s" s="2">
         <v>317</v>
       </c>
-      <c r="AL34" t="s" s="2">
+      <c r="AM34" t="s" s="2">
         <v>318</v>
-      </c>
-      <c r="AM34" t="s" s="2">
-        <v>319</v>
       </c>
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
@@ -5464,7 +5460,7 @@
         <v>73</v>
       </c>
       <c r="F35" t="s" s="2">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G35" t="s" s="2">
         <v>72</v>
@@ -5476,16 +5472,16 @@
         <v>72</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="L35" t="s" s="2">
+        <v>320</v>
+      </c>
+      <c r="M35" t="s" s="2">
         <v>321</v>
-      </c>
-      <c r="M35" t="s" s="2">
-        <v>322</v>
       </c>
       <c r="N35" s="2"/>
       <c r="O35" t="s" s="2">
@@ -5535,28 +5531,28 @@
         <v>72</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AG35" t="s" s="2">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="AH35" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AI35" t="s" s="2">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AJ35" t="s" s="2">
+        <v>322</v>
+      </c>
+      <c r="AK35" t="s" s="2">
         <v>323</v>
       </c>
-      <c r="AK35" t="s" s="2">
-        <v>324</v>
-      </c>
       <c r="AL35" t="s" s="2">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="AM35" t="s" s="2">
         <v>72</v>
@@ -5564,7 +5560,7 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
@@ -5587,13 +5583,13 @@
         <v>72</v>
       </c>
       <c r="J36" t="s" s="2">
+        <v>325</v>
+      </c>
+      <c r="K36" t="s" s="2">
         <v>326</v>
       </c>
-      <c r="K36" t="s" s="2">
+      <c r="L36" t="s" s="2">
         <v>327</v>
-      </c>
-      <c r="L36" t="s" s="2">
-        <v>328</v>
       </c>
       <c r="M36" s="2"/>
       <c r="N36" s="2"/>
@@ -5644,7 +5640,7 @@
         <v>72</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>73</v>
@@ -5656,24 +5652,24 @@
         <v>72</v>
       </c>
       <c r="AI36" t="s" s="2">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AJ36" t="s" s="2">
+        <v>328</v>
+      </c>
+      <c r="AK36" t="s" s="2">
         <v>329</v>
       </c>
-      <c r="AK36" t="s" s="2">
+      <c r="AL36" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AM36" t="s" s="2">
         <v>330</v>
-      </c>
-      <c r="AL36" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AM36" t="s" s="2">
-        <v>331</v>
       </c>
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
@@ -5696,13 +5692,13 @@
         <v>72</v>
       </c>
       <c r="J37" t="s" s="2">
+        <v>332</v>
+      </c>
+      <c r="K37" t="s" s="2">
         <v>333</v>
       </c>
-      <c r="K37" t="s" s="2">
+      <c r="L37" t="s" s="2">
         <v>334</v>
-      </c>
-      <c r="L37" t="s" s="2">
-        <v>335</v>
       </c>
       <c r="M37" s="2"/>
       <c r="N37" s="2"/>
@@ -5753,7 +5749,7 @@
         <v>72</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>73</v>
@@ -5765,13 +5761,13 @@
         <v>72</v>
       </c>
       <c r="AI37" t="s" s="2">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AJ37" t="s" s="2">
+        <v>335</v>
+      </c>
+      <c r="AK37" t="s" s="2">
         <v>336</v>
-      </c>
-      <c r="AK37" t="s" s="2">
-        <v>337</v>
       </c>
       <c r="AL37" t="s" s="2">
         <v>72</v>
@@ -5782,11 +5778,11 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="D38" s="2"/>
       <c r="E38" t="s" s="2">
@@ -5805,16 +5801,16 @@
         <v>72</v>
       </c>
       <c r="J38" t="s" s="2">
+        <v>339</v>
+      </c>
+      <c r="K38" t="s" s="2">
         <v>340</v>
       </c>
-      <c r="K38" t="s" s="2">
+      <c r="L38" t="s" s="2">
         <v>341</v>
       </c>
-      <c r="L38" t="s" s="2">
+      <c r="M38" t="s" s="2">
         <v>342</v>
-      </c>
-      <c r="M38" t="s" s="2">
-        <v>343</v>
       </c>
       <c r="N38" s="2"/>
       <c r="O38" t="s" s="2">
@@ -5864,7 +5860,7 @@
         <v>72</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>73</v>
@@ -5876,13 +5872,13 @@
         <v>72</v>
       </c>
       <c r="AI38" t="s" s="2">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AJ38" t="s" s="2">
+        <v>343</v>
+      </c>
+      <c r="AK38" t="s" s="2">
         <v>344</v>
-      </c>
-      <c r="AK38" t="s" s="2">
-        <v>345</v>
       </c>
       <c r="AL38" t="s" s="2">
         <v>72</v>
@@ -5893,7 +5889,7 @@
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
@@ -5904,7 +5900,7 @@
         <v>73</v>
       </c>
       <c r="F39" t="s" s="2">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G39" t="s" s="2">
         <v>72</v>
@@ -5916,17 +5912,17 @@
         <v>72</v>
       </c>
       <c r="J39" t="s" s="2">
+        <v>346</v>
+      </c>
+      <c r="K39" t="s" s="2">
         <v>347</v>
       </c>
-      <c r="K39" t="s" s="2">
+      <c r="L39" t="s" s="2">
         <v>348</v>
-      </c>
-      <c r="L39" t="s" s="2">
-        <v>349</v>
       </c>
       <c r="M39" s="2"/>
       <c r="N39" t="s" s="2">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="O39" t="s" s="2">
         <v>72</v>
@@ -5975,25 +5971,25 @@
         <v>72</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AG39" t="s" s="2">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="AH39" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AI39" t="s" s="2">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AJ39" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="AL39" t="s" s="2">
         <v>72</v>
@@ -6004,7 +6000,7 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
@@ -6015,7 +6011,7 @@
         <v>73</v>
       </c>
       <c r="F40" t="s" s="2">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G40" t="s" s="2">
         <v>72</v>
@@ -6027,13 +6023,13 @@
         <v>72</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="K40" t="s" s="2">
+        <v>352</v>
+      </c>
+      <c r="L40" t="s" s="2">
         <v>353</v>
-      </c>
-      <c r="L40" t="s" s="2">
-        <v>354</v>
       </c>
       <c r="M40" s="2"/>
       <c r="N40" s="2"/>
@@ -6084,25 +6080,25 @@
         <v>72</v>
       </c>
       <c r="AE40" t="s" s="2">
+        <v>354</v>
+      </c>
+      <c r="AF40" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AG40" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH40" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AI40" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AJ40" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AK40" t="s" s="2">
         <v>355</v>
-      </c>
-      <c r="AF40" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AG40" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AH40" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AI40" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AJ40" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AK40" t="s" s="2">
-        <v>356</v>
       </c>
       <c r="AL40" t="s" s="2">
         <v>72</v>
@@ -6113,11 +6109,11 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D41" s="2"/>
       <c r="E41" t="s" s="2">
@@ -6136,16 +6132,16 @@
         <v>72</v>
       </c>
       <c r="J41" t="s" s="2">
+        <v>126</v>
+      </c>
+      <c r="K41" t="s" s="2">
         <v>127</v>
       </c>
-      <c r="K41" t="s" s="2">
-        <v>128</v>
-      </c>
       <c r="L41" t="s" s="2">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="N41" s="2"/>
       <c r="O41" t="s" s="2">
@@ -6195,7 +6191,7 @@
         <v>72</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="AF41" t="s" s="2">
         <v>73</v>
@@ -6207,13 +6203,13 @@
         <v>72</v>
       </c>
       <c r="AI41" t="s" s="2">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AJ41" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="AL41" t="s" s="2">
         <v>72</v>
@@ -6224,11 +6220,11 @@
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="D42" s="2"/>
       <c r="E42" t="s" s="2">
@@ -6241,25 +6237,25 @@
         <v>72</v>
       </c>
       <c r="H42" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I42" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="K42" t="s" s="2">
+        <v>361</v>
+      </c>
+      <c r="L42" t="s" s="2">
         <v>362</v>
       </c>
-      <c r="L42" t="s" s="2">
-        <v>363</v>
-      </c>
       <c r="M42" t="s" s="2">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="N42" t="s" s="2">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="O42" t="s" s="2">
         <v>72</v>
@@ -6308,7 +6304,7 @@
         <v>72</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="AF42" t="s" s="2">
         <v>73</v>
@@ -6320,13 +6316,13 @@
         <v>72</v>
       </c>
       <c r="AI42" t="s" s="2">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AJ42" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="AL42" t="s" s="2">
         <v>72</v>
@@ -6337,7 +6333,7 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
@@ -6348,7 +6344,7 @@
         <v>73</v>
       </c>
       <c r="F43" t="s" s="2">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G43" t="s" s="2">
         <v>72</v>
@@ -6360,17 +6356,17 @@
         <v>72</v>
       </c>
       <c r="J43" t="s" s="2">
+        <v>365</v>
+      </c>
+      <c r="K43" t="s" s="2">
         <v>366</v>
       </c>
-      <c r="K43" t="s" s="2">
+      <c r="L43" t="s" s="2">
         <v>367</v>
-      </c>
-      <c r="L43" t="s" s="2">
-        <v>368</v>
       </c>
       <c r="M43" s="2"/>
       <c r="N43" t="s" s="2">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="O43" t="s" s="2">
         <v>72</v>
@@ -6419,25 +6415,25 @@
         <v>72</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="AF43" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AG43" t="s" s="2">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="AH43" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AI43" t="s" s="2">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AJ43" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="AL43" t="s" s="2">
         <v>72</v>
@@ -6448,7 +6444,7 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
@@ -6459,7 +6455,7 @@
         <v>73</v>
       </c>
       <c r="F44" t="s" s="2">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G44" t="s" s="2">
         <v>72</v>
@@ -6471,19 +6467,19 @@
         <v>72</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="K44" t="s" s="2">
+        <v>371</v>
+      </c>
+      <c r="L44" t="s" s="2">
         <v>372</v>
       </c>
-      <c r="L44" t="s" s="2">
+      <c r="M44" t="s" s="2">
         <v>373</v>
       </c>
-      <c r="M44" t="s" s="2">
+      <c r="N44" t="s" s="2">
         <v>374</v>
-      </c>
-      <c r="N44" t="s" s="2">
-        <v>375</v>
       </c>
       <c r="O44" t="s" s="2">
         <v>72</v>
@@ -6532,25 +6528,25 @@
         <v>72</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="AF44" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AG44" t="s" s="2">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="AH44" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AI44" t="s" s="2">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AJ44" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="AL44" t="s" s="2">
         <v>72</v>
@@ -6561,7 +6557,7 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
@@ -6584,13 +6580,13 @@
         <v>72</v>
       </c>
       <c r="J45" t="s" s="2">
+        <v>377</v>
+      </c>
+      <c r="K45" t="s" s="2">
         <v>378</v>
       </c>
-      <c r="K45" t="s" s="2">
+      <c r="L45" t="s" s="2">
         <v>379</v>
-      </c>
-      <c r="L45" t="s" s="2">
-        <v>380</v>
       </c>
       <c r="M45" s="2"/>
       <c r="N45" s="2"/>
@@ -6641,7 +6637,7 @@
         <v>72</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="AF45" t="s" s="2">
         <v>73</v>
@@ -6653,13 +6649,13 @@
         <v>72</v>
       </c>
       <c r="AI45" t="s" s="2">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AJ45" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="AL45" t="s" s="2">
         <v>72</v>
@@ -6670,11 +6666,11 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="D46" s="2"/>
       <c r="E46" t="s" s="2">
@@ -6693,17 +6689,17 @@
         <v>72</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="K46" t="s" s="2">
+        <v>383</v>
+      </c>
+      <c r="L46" t="s" s="2">
         <v>384</v>
-      </c>
-      <c r="L46" t="s" s="2">
-        <v>385</v>
       </c>
       <c r="M46" s="2"/>
       <c r="N46" t="s" s="2">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="O46" t="s" s="2">
         <v>72</v>
@@ -6752,7 +6748,7 @@
         <v>72</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="AF46" t="s" s="2">
         <v>73</v>
@@ -6764,13 +6760,13 @@
         <v>72</v>
       </c>
       <c r="AI46" t="s" s="2">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AJ46" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="AL46" t="s" s="2">
         <v>72</v>
@@ -6781,7 +6777,7 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
@@ -6792,7 +6788,7 @@
         <v>73</v>
       </c>
       <c r="F47" t="s" s="2">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G47" t="s" s="2">
         <v>72</v>
@@ -6804,13 +6800,13 @@
         <v>72</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="K47" t="s" s="2">
+        <v>352</v>
+      </c>
+      <c r="L47" t="s" s="2">
         <v>353</v>
-      </c>
-      <c r="L47" t="s" s="2">
-        <v>354</v>
       </c>
       <c r="M47" s="2"/>
       <c r="N47" s="2"/>
@@ -6861,25 +6857,25 @@
         <v>72</v>
       </c>
       <c r="AE47" t="s" s="2">
+        <v>354</v>
+      </c>
+      <c r="AF47" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AG47" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH47" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AI47" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AJ47" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AK47" t="s" s="2">
         <v>355</v>
-      </c>
-      <c r="AF47" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AG47" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AH47" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AI47" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AJ47" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AK47" t="s" s="2">
-        <v>356</v>
       </c>
       <c r="AL47" t="s" s="2">
         <v>72</v>
@@ -6890,11 +6886,11 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D48" s="2"/>
       <c r="E48" t="s" s="2">
@@ -6913,16 +6909,16 @@
         <v>72</v>
       </c>
       <c r="J48" t="s" s="2">
+        <v>126</v>
+      </c>
+      <c r="K48" t="s" s="2">
         <v>127</v>
       </c>
-      <c r="K48" t="s" s="2">
-        <v>128</v>
-      </c>
       <c r="L48" t="s" s="2">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="N48" s="2"/>
       <c r="O48" t="s" s="2">
@@ -6972,7 +6968,7 @@
         <v>72</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="AF48" t="s" s="2">
         <v>73</v>
@@ -6984,13 +6980,13 @@
         <v>72</v>
       </c>
       <c r="AI48" t="s" s="2">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AJ48" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="AL48" t="s" s="2">
         <v>72</v>
@@ -7001,11 +6997,11 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="D49" s="2"/>
       <c r="E49" t="s" s="2">
@@ -7018,25 +7014,25 @@
         <v>72</v>
       </c>
       <c r="H49" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I49" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="K49" t="s" s="2">
+        <v>361</v>
+      </c>
+      <c r="L49" t="s" s="2">
         <v>362</v>
       </c>
-      <c r="L49" t="s" s="2">
-        <v>363</v>
-      </c>
       <c r="M49" t="s" s="2">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="N49" t="s" s="2">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="O49" t="s" s="2">
         <v>72</v>
@@ -7085,7 +7081,7 @@
         <v>72</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="AF49" t="s" s="2">
         <v>73</v>
@@ -7097,13 +7093,13 @@
         <v>72</v>
       </c>
       <c r="AI49" t="s" s="2">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AJ49" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="AL49" t="s" s="2">
         <v>72</v>
@@ -7114,18 +7110,18 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="D50" s="2"/>
       <c r="E50" t="s" s="2">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F50" t="s" s="2">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G50" t="s" s="2">
         <v>72</v>
@@ -7137,19 +7133,19 @@
         <v>72</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="K50" t="s" s="2">
+        <v>392</v>
+      </c>
+      <c r="L50" t="s" s="2">
         <v>393</v>
       </c>
-      <c r="L50" t="s" s="2">
+      <c r="M50" t="s" s="2">
         <v>394</v>
       </c>
-      <c r="M50" t="s" s="2">
+      <c r="N50" t="s" s="2">
         <v>395</v>
-      </c>
-      <c r="N50" t="s" s="2">
-        <v>396</v>
       </c>
       <c r="O50" t="s" s="2">
         <v>72</v>
@@ -7174,10 +7170,10 @@
         <v>72</v>
       </c>
       <c r="W50" t="s" s="2">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="X50" t="s" s="2">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="Y50" t="s" s="2">
         <v>72</v>
@@ -7198,25 +7194,25 @@
         <v>72</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="AG50" t="s" s="2">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="AH50" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AI50" t="s" s="2">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AJ50" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="AL50" t="s" s="2">
         <v>72</v>
@@ -7227,7 +7223,7 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
@@ -7235,10 +7231,10 @@
       </c>
       <c r="D51" s="2"/>
       <c r="E51" t="s" s="2">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F51" t="s" s="2">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G51" t="s" s="2">
         <v>72</v>
@@ -7250,13 +7246,13 @@
         <v>72</v>
       </c>
       <c r="J51" t="s" s="2">
+        <v>398</v>
+      </c>
+      <c r="K51" t="s" s="2">
         <v>399</v>
       </c>
-      <c r="K51" t="s" s="2">
+      <c r="L51" t="s" s="2">
         <v>400</v>
-      </c>
-      <c r="L51" t="s" s="2">
-        <v>401</v>
       </c>
       <c r="M51" s="2"/>
       <c r="N51" s="2"/>
@@ -7307,25 +7303,25 @@
         <v>72</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="AG51" t="s" s="2">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="AH51" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AI51" t="s" s="2">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AJ51" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="AL51" t="s" s="2">
         <v>72</v>
@@ -7336,7 +7332,7 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
@@ -7359,17 +7355,17 @@
         <v>72</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="K52" t="s" s="2">
+        <v>402</v>
+      </c>
+      <c r="L52" t="s" s="2">
         <v>403</v>
-      </c>
-      <c r="L52" t="s" s="2">
-        <v>404</v>
       </c>
       <c r="M52" s="2"/>
       <c r="N52" t="s" s="2">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="O52" t="s" s="2">
         <v>72</v>
@@ -7418,7 +7414,7 @@
         <v>72</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="AF52" t="s" s="2">
         <v>73</v>
@@ -7430,13 +7426,13 @@
         <v>72</v>
       </c>
       <c r="AI52" t="s" s="2">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AJ52" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="AL52" t="s" s="2">
         <v>72</v>
@@ -7447,7 +7443,7 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
@@ -7458,7 +7454,7 @@
         <v>73</v>
       </c>
       <c r="F53" t="s" s="2">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G53" t="s" s="2">
         <v>72</v>
@@ -7470,13 +7466,13 @@
         <v>72</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="K53" t="s" s="2">
+        <v>352</v>
+      </c>
+      <c r="L53" t="s" s="2">
         <v>353</v>
-      </c>
-      <c r="L53" t="s" s="2">
-        <v>354</v>
       </c>
       <c r="M53" s="2"/>
       <c r="N53" s="2"/>
@@ -7527,25 +7523,25 @@
         <v>72</v>
       </c>
       <c r="AE53" t="s" s="2">
+        <v>354</v>
+      </c>
+      <c r="AF53" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AG53" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH53" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AI53" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AJ53" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AK53" t="s" s="2">
         <v>355</v>
-      </c>
-      <c r="AF53" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AG53" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AH53" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AI53" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AJ53" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AK53" t="s" s="2">
-        <v>356</v>
       </c>
       <c r="AL53" t="s" s="2">
         <v>72</v>
@@ -7556,11 +7552,11 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D54" s="2"/>
       <c r="E54" t="s" s="2">
@@ -7579,16 +7575,16 @@
         <v>72</v>
       </c>
       <c r="J54" t="s" s="2">
+        <v>126</v>
+      </c>
+      <c r="K54" t="s" s="2">
         <v>127</v>
       </c>
-      <c r="K54" t="s" s="2">
-        <v>128</v>
-      </c>
       <c r="L54" t="s" s="2">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="N54" s="2"/>
       <c r="O54" t="s" s="2">
@@ -7638,7 +7634,7 @@
         <v>72</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="AF54" t="s" s="2">
         <v>73</v>
@@ -7650,13 +7646,13 @@
         <v>72</v>
       </c>
       <c r="AI54" t="s" s="2">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AJ54" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AK54" t="s" s="2">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="AL54" t="s" s="2">
         <v>72</v>
@@ -7667,11 +7663,11 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="D55" s="2"/>
       <c r="E55" t="s" s="2">
@@ -7684,25 +7680,25 @@
         <v>72</v>
       </c>
       <c r="H55" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I55" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="K55" t="s" s="2">
+        <v>361</v>
+      </c>
+      <c r="L55" t="s" s="2">
         <v>362</v>
       </c>
-      <c r="L55" t="s" s="2">
-        <v>363</v>
-      </c>
       <c r="M55" t="s" s="2">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="N55" t="s" s="2">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="O55" t="s" s="2">
         <v>72</v>
@@ -7751,7 +7747,7 @@
         <v>72</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="AF55" t="s" s="2">
         <v>73</v>
@@ -7763,13 +7759,13 @@
         <v>72</v>
       </c>
       <c r="AI55" t="s" s="2">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AJ55" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AK55" t="s" s="2">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="AL55" t="s" s="2">
         <v>72</v>
@@ -7780,18 +7776,18 @@
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="D56" s="2"/>
       <c r="E56" t="s" s="2">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F56" t="s" s="2">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G56" t="s" s="2">
         <v>72</v>
@@ -7803,17 +7799,17 @@
         <v>72</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="K56" t="s" s="2">
+        <v>409</v>
+      </c>
+      <c r="L56" t="s" s="2">
         <v>410</v>
-      </c>
-      <c r="L56" t="s" s="2">
-        <v>411</v>
       </c>
       <c r="M56" s="2"/>
       <c r="N56" t="s" s="2">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="O56" t="s" s="2">
         <v>72</v>
@@ -7838,10 +7834,10 @@
         <v>72</v>
       </c>
       <c r="W56" t="s" s="2">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="X56" t="s" s="2">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="Y56" t="s" s="2">
         <v>72</v>
@@ -7862,25 +7858,25 @@
         <v>72</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="AG56" t="s" s="2">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="AH56" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AI56" t="s" s="2">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AJ56" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AK56" t="s" s="2">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="AL56" t="s" s="2">
         <v>72</v>
@@ -7891,7 +7887,7 @@
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
@@ -7899,10 +7895,10 @@
       </c>
       <c r="D57" s="2"/>
       <c r="E57" t="s" s="2">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F57" t="s" s="2">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G57" t="s" s="2">
         <v>72</v>
@@ -7914,17 +7910,17 @@
         <v>72</v>
       </c>
       <c r="J57" t="s" s="2">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="K57" t="s" s="2">
+        <v>414</v>
+      </c>
+      <c r="L57" t="s" s="2">
         <v>415</v>
-      </c>
-      <c r="L57" t="s" s="2">
-        <v>416</v>
       </c>
       <c r="M57" s="2"/>
       <c r="N57" t="s" s="2">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="O57" t="s" s="2">
         <v>72</v>
@@ -7973,25 +7969,25 @@
         <v>72</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="AG57" t="s" s="2">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="AH57" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AI57" t="s" s="2">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AJ57" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AK57" t="s" s="2">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="AL57" t="s" s="2">
         <v>72</v>

--- a/StructureDefinition-be-performer-task.xlsx
+++ b/StructureDefinition-be-performer-task.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2029" uniqueCount="417">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2028" uniqueCount="417">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-10-14T14:40:23+00:00</t>
+    <t>2022-10-14T20:29:20+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -603,25 +603,25 @@
     <t>This applies to the current status.  Look at the history of the task to see reasons for past statuses.</t>
   </si>
   <si>
+    <t>https://www.ehealth.fgov.be/standards/fhir/referral/ValueSet/be-vs-performer-task-status-reason</t>
+  </si>
+  <si>
+    <t>.inboundRelationship[typeCode=SUBJ].source[classCode=CACT, moodCode=EVN, code="status change"].reasonCode</t>
+  </si>
+  <si>
+    <t>Task.businessStatus</t>
+  </si>
+  <si>
+    <t>E.g. "Specimen collected", "IV prepped"</t>
+  </si>
+  <si>
+    <t>Contains business-specific nuances of the business state.</t>
+  </si>
+  <si>
+    <t>There's often a need to track substates of a task - this is often variable by specific workflow implementation.</t>
+  </si>
+  <si>
     <t>example</t>
-  </si>
-  <si>
-    <t>Codes to identify the reason for current status.  These will typically be specific to a particular workflow.</t>
-  </si>
-  <si>
-    <t>.inboundRelationship[typeCode=SUBJ].source[classCode=CACT, moodCode=EVN, code="status change"].reasonCode</t>
-  </si>
-  <si>
-    <t>Task.businessStatus</t>
-  </si>
-  <si>
-    <t>E.g. "Specimen collected", "IV prepped"</t>
-  </si>
-  <si>
-    <t>Contains business-specific nuances of the business state.</t>
-  </si>
-  <si>
-    <t>There's often a need to track substates of a task - this is often variable by specific workflow implementation.</t>
   </si>
   <si>
     <t>The domain-specific business-contextual sub-state of the task.  For example: "Blood drawn", "IV inserted", "Awaiting physician signature", etc.</t>
@@ -932,7 +932,7 @@
 Executer</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Practitioner|PractitionerRole|Organization|CareTeam|HealthcareService|Patient|Device|RelatedPerson)
+    <t xml:space="preserve">Reference(https://www.ehealth.fgov.be/standards/fhir/core/StructureDefinition/be-practitionerrole)
 </t>
   </si>
   <si>
@@ -1650,7 +1650,7 @@
     <col min="22" max="22" width="19.03515625" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="18.859375" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="169.1328125" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="45.80078125" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="89.97265625" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="6.34765625" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="22.71875" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="20.59375" customWidth="true" bestFit="true"/>
@@ -3447,7 +3447,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="17" hidden="true">
+    <row r="17">
       <c r="A17" t="s" s="2">
         <v>175</v>
       </c>
@@ -3463,7 +3463,7 @@
         <v>80</v>
       </c>
       <c r="G17" t="s" s="2">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="H17" t="s" s="2">
         <v>81</v>
@@ -3558,7 +3558,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="18" hidden="true">
+    <row r="18">
       <c r="A18" t="s" s="2">
         <v>184</v>
       </c>
@@ -3574,7 +3574,7 @@
         <v>80</v>
       </c>
       <c r="G18" t="s" s="2">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="H18" t="s" s="2">
         <v>72</v>
@@ -3618,13 +3618,11 @@
         <v>72</v>
       </c>
       <c r="W18" t="s" s="2">
+        <v>179</v>
+      </c>
+      <c r="X18" s="2"/>
+      <c r="Y18" t="s" s="2">
         <v>189</v>
-      </c>
-      <c r="X18" t="s" s="2">
-        <v>190</v>
-      </c>
-      <c r="Y18" t="s" s="2">
-        <v>72</v>
       </c>
       <c r="Z18" t="s" s="2">
         <v>72</v>
@@ -3660,7 +3658,7 @@
         <v>72</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="AL18" t="s" s="2">
         <v>72</v>
@@ -3671,7 +3669,7 @@
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" t="s" s="2">
@@ -3697,14 +3695,14 @@
         <v>185</v>
       </c>
       <c r="K19" t="s" s="2">
+        <v>192</v>
+      </c>
+      <c r="L19" t="s" s="2">
         <v>193</v>
-      </c>
-      <c r="L19" t="s" s="2">
-        <v>194</v>
       </c>
       <c r="M19" s="2"/>
       <c r="N19" t="s" s="2">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="O19" t="s" s="2">
         <v>72</v>
@@ -3729,7 +3727,7 @@
         <v>72</v>
       </c>
       <c r="W19" t="s" s="2">
-        <v>189</v>
+        <v>195</v>
       </c>
       <c r="X19" t="s" s="2">
         <v>196</v>
@@ -3753,7 +3751,7 @@
         <v>72</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="AF19" t="s" s="2">
         <v>73</v>
@@ -4064,7 +4062,7 @@
         <v>72</v>
       </c>
       <c r="W22" t="s" s="2">
-        <v>189</v>
+        <v>195</v>
       </c>
       <c r="X22" t="s" s="2">
         <v>221</v>
@@ -5396,7 +5394,7 @@
         <v>72</v>
       </c>
       <c r="W34" t="s" s="2">
-        <v>189</v>
+        <v>195</v>
       </c>
       <c r="X34" t="s" s="2">
         <v>314</v>
@@ -7170,7 +7168,7 @@
         <v>72</v>
       </c>
       <c r="W50" t="s" s="2">
-        <v>189</v>
+        <v>195</v>
       </c>
       <c r="X50" t="s" s="2">
         <v>396</v>
@@ -7834,7 +7832,7 @@
         <v>72</v>
       </c>
       <c r="W56" t="s" s="2">
-        <v>189</v>
+        <v>195</v>
       </c>
       <c r="X56" t="s" s="2">
         <v>412</v>

--- a/StructureDefinition-be-performer-task.xlsx
+++ b/StructureDefinition-be-performer-task.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-10-14T20:29:20+00:00</t>
+    <t>2022-10-21T19:41:46+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-be-performer-task.xlsx
+++ b/StructureDefinition-be-performer-task.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-10-21T19:41:46+00:00</t>
+    <t>2022-10-24T13:30:48+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-be-performer-task.xlsx
+++ b/StructureDefinition-be-performer-task.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-10-24T13:30:48+00:00</t>
+    <t>2022-10-25T13:43:34+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-be-performer-task.xlsx
+++ b/StructureDefinition-be-performer-task.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-10-25T13:43:34+00:00</t>
+    <t>2022-11-17T10:59:49+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-be-performer-task.xlsx
+++ b/StructureDefinition-be-performer-task.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-17T10:59:49+00:00</t>
+    <t>2022-11-17T12:13:42+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-be-performer-task.xlsx
+++ b/StructureDefinition-be-performer-task.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-17T12:13:42+00:00</t>
+    <t>2022-11-24T13:50:37+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-be-performer-task.xlsx
+++ b/StructureDefinition-be-performer-task.xlsx
@@ -10,13 +10,13 @@
     <sheet name="Elements" r:id="rId4" sheetId="2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AM$57</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AN$57</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2028" uniqueCount="417">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2085" uniqueCount="418">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-24T13:50:37+00:00</t>
+    <t>2023-01-05T08:20:17+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -115,6 +115,9 @@
   </si>
   <si>
     <t>constraint</t>
+  </si>
+  <si>
+    <t>ID</t>
   </si>
   <si>
     <t>Path</t>
@@ -1617,7 +1620,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AM57"/>
+  <dimension ref="A1:AN57"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1627,44 +1630,44 @@
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
     <col min="1" max="1" width="32.42578125" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="12.66015625" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="39.9140625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="6.77734375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="4.9453125" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="5.4296875" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="16.27734375" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="13.26171875" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="14.4453125" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="32.42578125" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="12.66015625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="39.9140625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="6.77734375" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="4.9453125" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="5.4296875" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="16.27734375" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="13.26171875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="92.484375" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="255.0" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
-    <col min="15" max="15" width="15.26953125" customWidth="true" bestFit="true"/>
+    <col min="15" max="15" width="255.0" customWidth="true" bestFit="true"/>
     <col min="16" max="16" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="17.171875" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="17.65625" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="19.03515625" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="18.859375" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="169.1328125" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="89.97265625" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="6.34765625" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="22.71875" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="20.59375" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="17.21484375" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="14.4140625" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="34.859375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="10.5546875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="11.0390625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="13.875" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="9.953125" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="17.171875" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="17.65625" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="19.03515625" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="18.859375" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="169.1328125" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="89.97265625" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="6.34765625" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="22.71875" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="20.59375" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="17.21484375" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="14.4140625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="34.859375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="10.5546875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="11.0390625" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="36" max="36" width="55.72265625" customWidth="true" bestFit="true"/>
-    <col min="37" max="37" width="109.98828125" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="36.91796875" customWidth="true" bestFit="true"/>
-    <col min="39" max="39" width="28.1484375" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="55.72265625" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="109.98828125" customWidth="true" bestFit="true"/>
+    <col min="39" max="39" width="36.91796875" customWidth="true" bestFit="true"/>
+    <col min="40" max="40" width="28.1484375" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -1785,139 +1788,145 @@
       <c r="AM1" t="s" s="1">
         <v>71</v>
       </c>
+      <c r="AN1" t="s" s="1">
+        <v>72</v>
+      </c>
     </row>
     <row r="2" hidden="true">
       <c r="A2" t="s" s="2">
         <v>26</v>
       </c>
-      <c r="B2" s="2"/>
-      <c r="C2" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="D2" s="2"/>
-      <c r="E2" t="s" s="2">
-        <v>73</v>
-      </c>
+      <c r="B2" t="s" s="2">
+        <v>26</v>
+      </c>
+      <c r="C2" s="2"/>
+      <c r="D2" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="E2" s="2"/>
       <c r="F2" t="s" s="2">
         <v>74</v>
       </c>
       <c r="G2" t="s" s="2">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="H2" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="I2" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="J2" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="K2" t="s" s="2">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="L2" t="s" s="2">
         <v>76</v>
       </c>
-      <c r="M2" s="2"/>
+      <c r="M2" t="s" s="2">
+        <v>77</v>
+      </c>
       <c r="N2" s="2"/>
-      <c r="O2" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="P2" s="2"/>
-      <c r="Q2" t="s" s="2">
-        <v>72</v>
-      </c>
+      <c r="O2" s="2"/>
+      <c r="P2" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Q2" s="2"/>
       <c r="R2" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="S2" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="T2" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="U2" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="V2" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="W2" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="X2" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Y2" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Z2" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AA2" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AB2" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AC2" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AD2" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AE2" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AF2" t="s" s="2">
         <v>26</v>
       </c>
-      <c r="AF2" t="s" s="2">
-        <v>73</v>
-      </c>
       <c r="AG2" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AH2" t="s" s="2">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="AI2" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AJ2" t="s" s="2">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="AK2" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL2" t="s" s="2">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="AM2" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
+      </c>
+      <c r="AN2" t="s" s="2">
+        <v>73</v>
       </c>
     </row>
     <row r="3" hidden="true">
       <c r="A3" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="B3" s="2"/>
-      <c r="C3" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="D3" s="2"/>
-      <c r="E3" t="s" s="2">
-        <v>73</v>
-      </c>
+        <v>80</v>
+      </c>
+      <c r="B3" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="C3" s="2"/>
+      <c r="D3" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="E3" s="2"/>
       <c r="F3" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="G3" t="s" s="2">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="H3" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="I3" t="s" s="2">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="J3" t="s" s="2">
         <v>82</v>
@@ -1931,107 +1940,110 @@
       <c r="M3" t="s" s="2">
         <v>85</v>
       </c>
-      <c r="N3" s="2"/>
-      <c r="O3" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="P3" s="2"/>
-      <c r="Q3" t="s" s="2">
-        <v>72</v>
-      </c>
+      <c r="N3" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="O3" s="2"/>
+      <c r="P3" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Q3" s="2"/>
       <c r="R3" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="S3" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="T3" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="U3" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="V3" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="W3" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="X3" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Y3" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Z3" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AA3" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AB3" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AC3" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AD3" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AE3" t="s" s="2">
-        <v>86</v>
+        <v>73</v>
       </c>
       <c r="AF3" t="s" s="2">
-        <v>73</v>
+        <v>87</v>
       </c>
       <c r="AG3" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="AH3" t="s" s="2">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="AI3" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AJ3" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AK3" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AL3" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AM3" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
+      </c>
+      <c r="AN3" t="s" s="2">
+        <v>73</v>
       </c>
     </row>
     <row r="4" hidden="true">
       <c r="A4" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="B4" s="2"/>
-      <c r="C4" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="D4" s="2"/>
-      <c r="E4" t="s" s="2">
-        <v>73</v>
-      </c>
+        <v>88</v>
+      </c>
+      <c r="B4" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="C4" s="2"/>
+      <c r="D4" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="E4" s="2"/>
       <c r="F4" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="G4" t="s" s="2">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="H4" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="I4" t="s" s="2">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="J4" t="s" s="2">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="K4" t="s" s="2">
         <v>89</v>
@@ -2039,108 +2051,111 @@
       <c r="L4" t="s" s="2">
         <v>90</v>
       </c>
-      <c r="M4" s="2"/>
+      <c r="M4" t="s" s="2">
+        <v>91</v>
+      </c>
       <c r="N4" s="2"/>
-      <c r="O4" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="P4" s="2"/>
-      <c r="Q4" t="s" s="2">
-        <v>72</v>
-      </c>
+      <c r="O4" s="2"/>
+      <c r="P4" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Q4" s="2"/>
       <c r="R4" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="S4" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="T4" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="U4" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="V4" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="W4" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="X4" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Y4" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Z4" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AA4" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AB4" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AC4" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AD4" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AE4" t="s" s="2">
-        <v>91</v>
+        <v>73</v>
       </c>
       <c r="AF4" t="s" s="2">
-        <v>73</v>
+        <v>92</v>
       </c>
       <c r="AG4" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="AH4" t="s" s="2">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="AI4" t="s" s="2">
-        <v>92</v>
+        <v>73</v>
       </c>
       <c r="AJ4" t="s" s="2">
-        <v>72</v>
+        <v>93</v>
       </c>
       <c r="AK4" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AL4" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AM4" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
+      </c>
+      <c r="AN4" t="s" s="2">
+        <v>73</v>
       </c>
     </row>
     <row r="5" hidden="true">
       <c r="A5" t="s" s="2">
-        <v>93</v>
-      </c>
-      <c r="B5" s="2"/>
-      <c r="C5" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="D5" s="2"/>
-      <c r="E5" t="s" s="2">
-        <v>73</v>
-      </c>
+        <v>94</v>
+      </c>
+      <c r="B5" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="C5" s="2"/>
+      <c r="D5" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="E5" s="2"/>
       <c r="F5" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="G5" t="s" s="2">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="H5" t="s" s="2">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="I5" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="J5" t="s" s="2">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="K5" t="s" s="2">
         <v>95</v>
@@ -2151,107 +2166,110 @@
       <c r="M5" t="s" s="2">
         <v>97</v>
       </c>
-      <c r="N5" s="2"/>
-      <c r="O5" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="P5" s="2"/>
-      <c r="Q5" t="s" s="2">
-        <v>72</v>
-      </c>
+      <c r="N5" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="O5" s="2"/>
+      <c r="P5" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Q5" s="2"/>
       <c r="R5" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="S5" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="T5" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="U5" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="V5" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="W5" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="X5" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Y5" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Z5" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AA5" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AB5" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AC5" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AD5" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AE5" t="s" s="2">
-        <v>98</v>
+        <v>73</v>
       </c>
       <c r="AF5" t="s" s="2">
-        <v>73</v>
+        <v>99</v>
       </c>
       <c r="AG5" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="AH5" t="s" s="2">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="AI5" t="s" s="2">
-        <v>92</v>
+        <v>73</v>
       </c>
       <c r="AJ5" t="s" s="2">
-        <v>72</v>
+        <v>93</v>
       </c>
       <c r="AK5" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AL5" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AM5" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
+      </c>
+      <c r="AN5" t="s" s="2">
+        <v>73</v>
       </c>
     </row>
     <row r="6" hidden="true">
       <c r="A6" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="B6" s="2"/>
-      <c r="C6" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="D6" s="2"/>
-      <c r="E6" t="s" s="2">
-        <v>73</v>
-      </c>
+        <v>100</v>
+      </c>
+      <c r="B6" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="C6" s="2"/>
+      <c r="D6" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="E6" s="2"/>
       <c r="F6" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="G6" t="s" s="2">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="H6" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="I6" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="J6" t="s" s="2">
-        <v>100</v>
+        <v>73</v>
       </c>
       <c r="K6" t="s" s="2">
         <v>101</v>
@@ -2262,31 +2280,31 @@
       <c r="M6" t="s" s="2">
         <v>103</v>
       </c>
-      <c r="N6" s="2"/>
-      <c r="O6" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="P6" s="2"/>
-      <c r="Q6" t="s" s="2">
-        <v>72</v>
-      </c>
+      <c r="N6" t="s" s="2">
+        <v>104</v>
+      </c>
+      <c r="O6" s="2"/>
+      <c r="P6" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Q6" s="2"/>
       <c r="R6" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="S6" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="T6" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="U6" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="V6" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="W6" t="s" s="2">
-        <v>104</v>
+        <v>73</v>
       </c>
       <c r="X6" t="s" s="2">
         <v>105</v>
@@ -2295,74 +2313,77 @@
         <v>106</v>
       </c>
       <c r="Z6" t="s" s="2">
-        <v>72</v>
+        <v>107</v>
       </c>
       <c r="AA6" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AB6" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AC6" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AD6" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AE6" t="s" s="2">
-        <v>107</v>
+        <v>73</v>
       </c>
       <c r="AF6" t="s" s="2">
-        <v>73</v>
+        <v>108</v>
       </c>
       <c r="AG6" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="AH6" t="s" s="2">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="AI6" t="s" s="2">
-        <v>92</v>
+        <v>73</v>
       </c>
       <c r="AJ6" t="s" s="2">
-        <v>72</v>
+        <v>93</v>
       </c>
       <c r="AK6" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AL6" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AM6" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
+      </c>
+      <c r="AN6" t="s" s="2">
+        <v>73</v>
       </c>
     </row>
     <row r="7" hidden="true">
       <c r="A7" t="s" s="2">
-        <v>108</v>
-      </c>
-      <c r="B7" s="2"/>
-      <c r="C7" t="s" s="2">
         <v>109</v>
       </c>
-      <c r="D7" s="2"/>
-      <c r="E7" t="s" s="2">
-        <v>73</v>
-      </c>
+      <c r="B7" t="s" s="2">
+        <v>109</v>
+      </c>
+      <c r="C7" s="2"/>
+      <c r="D7" t="s" s="2">
+        <v>110</v>
+      </c>
+      <c r="E7" s="2"/>
       <c r="F7" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="G7" t="s" s="2">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="H7" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="I7" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="J7" t="s" s="2">
-        <v>110</v>
+        <v>73</v>
       </c>
       <c r="K7" t="s" s="2">
         <v>111</v>
@@ -2373,107 +2394,110 @@
       <c r="M7" t="s" s="2">
         <v>113</v>
       </c>
-      <c r="N7" s="2"/>
-      <c r="O7" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="P7" s="2"/>
-      <c r="Q7" t="s" s="2">
-        <v>72</v>
-      </c>
+      <c r="N7" t="s" s="2">
+        <v>114</v>
+      </c>
+      <c r="O7" s="2"/>
+      <c r="P7" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Q7" s="2"/>
       <c r="R7" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="S7" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="T7" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="U7" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="V7" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="W7" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="X7" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Y7" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Z7" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AA7" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AB7" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AC7" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AD7" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AE7" t="s" s="2">
-        <v>114</v>
+        <v>73</v>
       </c>
       <c r="AF7" t="s" s="2">
-        <v>73</v>
+        <v>115</v>
       </c>
       <c r="AG7" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="AH7" t="s" s="2">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="AI7" t="s" s="2">
-        <v>92</v>
+        <v>73</v>
       </c>
       <c r="AJ7" t="s" s="2">
-        <v>72</v>
+        <v>93</v>
       </c>
       <c r="AK7" t="s" s="2">
-        <v>115</v>
+        <v>73</v>
       </c>
       <c r="AL7" t="s" s="2">
-        <v>72</v>
+        <v>116</v>
       </c>
       <c r="AM7" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
+      </c>
+      <c r="AN7" t="s" s="2">
+        <v>73</v>
       </c>
     </row>
     <row r="8" hidden="true">
       <c r="A8" t="s" s="2">
-        <v>116</v>
-      </c>
-      <c r="B8" s="2"/>
-      <c r="C8" t="s" s="2">
         <v>117</v>
       </c>
-      <c r="D8" s="2"/>
-      <c r="E8" t="s" s="2">
-        <v>73</v>
-      </c>
+      <c r="B8" t="s" s="2">
+        <v>117</v>
+      </c>
+      <c r="C8" s="2"/>
+      <c r="D8" t="s" s="2">
+        <v>118</v>
+      </c>
+      <c r="E8" s="2"/>
       <c r="F8" t="s" s="2">
         <v>74</v>
       </c>
       <c r="G8" t="s" s="2">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="H8" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="I8" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="J8" t="s" s="2">
-        <v>118</v>
+        <v>73</v>
       </c>
       <c r="K8" t="s" s="2">
         <v>119</v>
@@ -2484,107 +2508,110 @@
       <c r="M8" t="s" s="2">
         <v>121</v>
       </c>
-      <c r="N8" s="2"/>
-      <c r="O8" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="P8" s="2"/>
-      <c r="Q8" t="s" s="2">
-        <v>72</v>
-      </c>
+      <c r="N8" t="s" s="2">
+        <v>122</v>
+      </c>
+      <c r="O8" s="2"/>
+      <c r="P8" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Q8" s="2"/>
       <c r="R8" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="S8" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="T8" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="U8" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="V8" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="W8" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="X8" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Y8" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Z8" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AA8" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AB8" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AC8" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AD8" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AE8" t="s" s="2">
-        <v>122</v>
+        <v>73</v>
       </c>
       <c r="AF8" t="s" s="2">
-        <v>73</v>
+        <v>123</v>
       </c>
       <c r="AG8" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AH8" t="s" s="2">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="AI8" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AJ8" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AK8" t="s" s="2">
-        <v>123</v>
+        <v>73</v>
       </c>
       <c r="AL8" t="s" s="2">
-        <v>72</v>
+        <v>124</v>
       </c>
       <c r="AM8" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
+      </c>
+      <c r="AN8" t="s" s="2">
+        <v>73</v>
       </c>
     </row>
     <row r="9" hidden="true">
       <c r="A9" t="s" s="2">
-        <v>124</v>
-      </c>
-      <c r="B9" s="2"/>
-      <c r="C9" t="s" s="2">
         <v>125</v>
       </c>
-      <c r="D9" s="2"/>
-      <c r="E9" t="s" s="2">
-        <v>73</v>
-      </c>
+      <c r="B9" t="s" s="2">
+        <v>125</v>
+      </c>
+      <c r="C9" s="2"/>
+      <c r="D9" t="s" s="2">
+        <v>126</v>
+      </c>
+      <c r="E9" s="2"/>
       <c r="F9" t="s" s="2">
         <v>74</v>
       </c>
       <c r="G9" t="s" s="2">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="H9" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="I9" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="J9" t="s" s="2">
-        <v>126</v>
+        <v>73</v>
       </c>
       <c r="K9" t="s" s="2">
         <v>127</v>
@@ -2595,220 +2622,226 @@
       <c r="M9" t="s" s="2">
         <v>129</v>
       </c>
-      <c r="N9" s="2"/>
-      <c r="O9" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="P9" s="2"/>
-      <c r="Q9" t="s" s="2">
-        <v>72</v>
-      </c>
+      <c r="N9" t="s" s="2">
+        <v>130</v>
+      </c>
+      <c r="O9" s="2"/>
+      <c r="P9" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Q9" s="2"/>
       <c r="R9" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="S9" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="T9" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="U9" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="V9" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="W9" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="X9" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Y9" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Z9" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AA9" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AB9" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AC9" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AD9" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AE9" t="s" s="2">
-        <v>130</v>
+        <v>73</v>
       </c>
       <c r="AF9" t="s" s="2">
-        <v>73</v>
+        <v>131</v>
       </c>
       <c r="AG9" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AH9" t="s" s="2">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="AI9" t="s" s="2">
-        <v>131</v>
+        <v>73</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>72</v>
+        <v>132</v>
       </c>
       <c r="AK9" t="s" s="2">
-        <v>123</v>
+        <v>73</v>
       </c>
       <c r="AL9" t="s" s="2">
-        <v>72</v>
+        <v>124</v>
       </c>
       <c r="AM9" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
+      </c>
+      <c r="AN9" t="s" s="2">
+        <v>73</v>
       </c>
     </row>
     <row r="10" hidden="true">
       <c r="A10" t="s" s="2">
-        <v>132</v>
-      </c>
-      <c r="B10" s="2"/>
-      <c r="C10" t="s" s="2">
-        <v>125</v>
-      </c>
-      <c r="D10" s="2"/>
-      <c r="E10" t="s" s="2">
-        <v>73</v>
-      </c>
+        <v>133</v>
+      </c>
+      <c r="B10" t="s" s="2">
+        <v>133</v>
+      </c>
+      <c r="C10" s="2"/>
+      <c r="D10" t="s" s="2">
+        <v>126</v>
+      </c>
+      <c r="E10" s="2"/>
       <c r="F10" t="s" s="2">
         <v>74</v>
       </c>
       <c r="G10" t="s" s="2">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="H10" t="s" s="2">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="I10" t="s" s="2">
-        <v>72</v>
+        <v>82</v>
       </c>
       <c r="J10" t="s" s="2">
-        <v>126</v>
+        <v>73</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="L10" t="s" s="2">
         <v>134</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>129</v>
+        <v>135</v>
       </c>
       <c r="N10" t="s" s="2">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="O10" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="P10" s="2"/>
-      <c r="Q10" t="s" s="2">
-        <v>72</v>
-      </c>
+        <v>136</v>
+      </c>
+      <c r="P10" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Q10" s="2"/>
       <c r="R10" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="S10" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="T10" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="U10" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="V10" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="W10" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="X10" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Y10" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Z10" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AA10" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AB10" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AC10" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AD10" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AE10" t="s" s="2">
-        <v>136</v>
+        <v>73</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>73</v>
+        <v>137</v>
       </c>
       <c r="AG10" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AH10" t="s" s="2">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="AI10" t="s" s="2">
-        <v>131</v>
+        <v>73</v>
       </c>
       <c r="AJ10" t="s" s="2">
-        <v>72</v>
+        <v>132</v>
       </c>
       <c r="AK10" t="s" s="2">
-        <v>123</v>
+        <v>73</v>
       </c>
       <c r="AL10" t="s" s="2">
-        <v>72</v>
+        <v>124</v>
       </c>
       <c r="AM10" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
+      </c>
+      <c r="AN10" t="s" s="2">
+        <v>73</v>
       </c>
     </row>
     <row r="11" hidden="true">
       <c r="A11" t="s" s="2">
-        <v>137</v>
-      </c>
-      <c r="B11" s="2"/>
-      <c r="C11" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="D11" s="2"/>
-      <c r="E11" t="s" s="2">
-        <v>73</v>
-      </c>
+        <v>138</v>
+      </c>
+      <c r="B11" t="s" s="2">
+        <v>138</v>
+      </c>
+      <c r="C11" s="2"/>
+      <c r="D11" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="E11" s="2"/>
       <c r="F11" t="s" s="2">
         <v>74</v>
       </c>
       <c r="G11" t="s" s="2">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="H11" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="I11" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="J11" t="s" s="2">
-        <v>138</v>
+        <v>73</v>
       </c>
       <c r="K11" t="s" s="2">
         <v>139</v>
@@ -2816,71 +2849,71 @@
       <c r="L11" t="s" s="2">
         <v>140</v>
       </c>
-      <c r="M11" s="2"/>
+      <c r="M11" t="s" s="2">
+        <v>141</v>
+      </c>
       <c r="N11" s="2"/>
-      <c r="O11" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="P11" s="2"/>
-      <c r="Q11" t="s" s="2">
-        <v>72</v>
-      </c>
+      <c r="O11" s="2"/>
+      <c r="P11" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Q11" s="2"/>
       <c r="R11" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="S11" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="T11" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="U11" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="V11" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="W11" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="X11" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Y11" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Z11" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AA11" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AB11" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AC11" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AD11" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AE11" t="s" s="2">
-        <v>137</v>
+        <v>73</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>73</v>
+        <v>138</v>
       </c>
       <c r="AG11" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AH11" t="s" s="2">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="AI11" t="s" s="2">
-        <v>92</v>
+        <v>73</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>141</v>
+        <v>93</v>
       </c>
       <c r="AK11" t="s" s="2">
         <v>142</v>
@@ -2889,35 +2922,38 @@
         <v>143</v>
       </c>
       <c r="AM11" t="s" s="2">
-        <v>72</v>
+        <v>144</v>
+      </c>
+      <c r="AN11" t="s" s="2">
+        <v>73</v>
       </c>
     </row>
     <row r="12" hidden="true">
       <c r="A12" t="s" s="2">
-        <v>144</v>
-      </c>
-      <c r="B12" s="2"/>
-      <c r="C12" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="D12" s="2"/>
-      <c r="E12" t="s" s="2">
-        <v>73</v>
-      </c>
+        <v>145</v>
+      </c>
+      <c r="B12" t="s" s="2">
+        <v>145</v>
+      </c>
+      <c r="C12" s="2"/>
+      <c r="D12" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="E12" s="2"/>
       <c r="F12" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="G12" t="s" s="2">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="H12" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="I12" t="s" s="2">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>145</v>
+        <v>82</v>
       </c>
       <c r="K12" t="s" s="2">
         <v>146</v>
@@ -2925,221 +2961,227 @@
       <c r="L12" t="s" s="2">
         <v>147</v>
       </c>
-      <c r="M12" s="2"/>
-      <c r="N12" t="s" s="2">
+      <c r="M12" t="s" s="2">
         <v>148</v>
       </c>
+      <c r="N12" s="2"/>
       <c r="O12" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="P12" s="2"/>
-      <c r="Q12" t="s" s="2">
-        <v>72</v>
-      </c>
+        <v>149</v>
+      </c>
+      <c r="P12" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Q12" s="2"/>
       <c r="R12" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="S12" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="T12" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="U12" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="V12" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="W12" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="X12" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Y12" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Z12" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AA12" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AB12" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AC12" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AD12" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AE12" t="s" s="2">
-        <v>144</v>
+        <v>73</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>73</v>
+        <v>145</v>
       </c>
       <c r="AG12" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="AH12" t="s" s="2">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="AI12" t="s" s="2">
-        <v>92</v>
+        <v>73</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>149</v>
+        <v>93</v>
       </c>
       <c r="AK12" t="s" s="2">
         <v>150</v>
       </c>
       <c r="AL12" t="s" s="2">
-        <v>72</v>
+        <v>151</v>
       </c>
       <c r="AM12" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
+      </c>
+      <c r="AN12" t="s" s="2">
+        <v>73</v>
       </c>
     </row>
     <row r="13" hidden="true">
       <c r="A13" t="s" s="2">
+        <v>152</v>
+      </c>
+      <c r="B13" t="s" s="2">
+        <v>152</v>
+      </c>
+      <c r="C13" s="2"/>
+      <c r="D13" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="E13" s="2"/>
+      <c r="F13" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="G13" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="H13" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="I13" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="J13" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="K13" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="L13" t="s" s="2">
+        <v>147</v>
+      </c>
+      <c r="M13" t="s" s="2">
+        <v>153</v>
+      </c>
+      <c r="N13" s="2"/>
+      <c r="O13" t="s" s="2">
+        <v>154</v>
+      </c>
+      <c r="P13" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Q13" s="2"/>
+      <c r="R13" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="S13" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="T13" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="U13" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="V13" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="W13" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="X13" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Y13" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Z13" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AA13" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AB13" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC13" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD13" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE13" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AF13" t="s" s="2">
+        <v>152</v>
+      </c>
+      <c r="AG13" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AH13" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AI13" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AJ13" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="AK13" t="s" s="2">
+        <v>155</v>
+      </c>
+      <c r="AL13" t="s" s="2">
         <v>151</v>
       </c>
-      <c r="B13" s="2"/>
-      <c r="C13" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="D13" s="2"/>
-      <c r="E13" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="F13" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="G13" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="H13" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="I13" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="J13" t="s" s="2">
-        <v>94</v>
-      </c>
-      <c r="K13" t="s" s="2">
-        <v>146</v>
-      </c>
-      <c r="L13" t="s" s="2">
-        <v>152</v>
-      </c>
-      <c r="M13" s="2"/>
-      <c r="N13" t="s" s="2">
-        <v>153</v>
-      </c>
-      <c r="O13" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="P13" s="2"/>
-      <c r="Q13" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="R13" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="S13" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="T13" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="U13" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="V13" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="W13" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="X13" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="Y13" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="Z13" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AA13" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AB13" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AC13" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AD13" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AE13" t="s" s="2">
-        <v>151</v>
-      </c>
-      <c r="AF13" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AG13" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH13" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AI13" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="AJ13" t="s" s="2">
-        <v>154</v>
-      </c>
-      <c r="AK13" t="s" s="2">
-        <v>150</v>
-      </c>
-      <c r="AL13" t="s" s="2">
-        <v>72</v>
-      </c>
       <c r="AM13" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
+      </c>
+      <c r="AN13" t="s" s="2">
+        <v>73</v>
       </c>
     </row>
     <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
-        <v>155</v>
-      </c>
-      <c r="B14" s="2"/>
-      <c r="C14" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="D14" s="2"/>
-      <c r="E14" t="s" s="2">
-        <v>73</v>
-      </c>
+        <v>156</v>
+      </c>
+      <c r="B14" t="s" s="2">
+        <v>156</v>
+      </c>
+      <c r="C14" s="2"/>
+      <c r="D14" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="E14" s="2"/>
       <c r="F14" t="s" s="2">
         <v>74</v>
       </c>
       <c r="G14" t="s" s="2">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="H14" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="I14" t="s" s="2">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>156</v>
+        <v>82</v>
       </c>
       <c r="K14" t="s" s="2">
         <v>157</v>
@@ -3147,219 +3189,225 @@
       <c r="L14" t="s" s="2">
         <v>158</v>
       </c>
-      <c r="M14" s="2"/>
+      <c r="M14" t="s" s="2">
+        <v>159</v>
+      </c>
       <c r="N14" s="2"/>
-      <c r="O14" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="P14" s="2"/>
-      <c r="Q14" t="s" s="2">
-        <v>72</v>
-      </c>
+      <c r="O14" s="2"/>
+      <c r="P14" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Q14" s="2"/>
       <c r="R14" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="S14" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="T14" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="U14" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="V14" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="W14" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="X14" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Y14" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Z14" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AA14" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AB14" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AC14" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AD14" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AE14" t="s" s="2">
-        <v>155</v>
+        <v>73</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>73</v>
+        <v>156</v>
       </c>
       <c r="AG14" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AH14" t="s" s="2">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="AI14" t="s" s="2">
-        <v>92</v>
+        <v>73</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>159</v>
+        <v>93</v>
       </c>
       <c r="AK14" t="s" s="2">
         <v>160</v>
       </c>
       <c r="AL14" t="s" s="2">
-        <v>72</v>
+        <v>161</v>
       </c>
       <c r="AM14" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
+      </c>
+      <c r="AN14" t="s" s="2">
+        <v>73</v>
       </c>
     </row>
     <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
-        <v>161</v>
-      </c>
-      <c r="B15" s="2"/>
-      <c r="C15" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="D15" s="2"/>
-      <c r="E15" t="s" s="2">
-        <v>73</v>
-      </c>
+        <v>162</v>
+      </c>
+      <c r="B15" t="s" s="2">
+        <v>162</v>
+      </c>
+      <c r="C15" s="2"/>
+      <c r="D15" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="E15" s="2"/>
       <c r="F15" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="G15" t="s" s="2">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="H15" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="I15" t="s" s="2">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>138</v>
+        <v>82</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>162</v>
+        <v>139</v>
       </c>
       <c r="L15" t="s" s="2">
         <v>163</v>
       </c>
-      <c r="M15" s="2"/>
-      <c r="N15" t="s" s="2">
+      <c r="M15" t="s" s="2">
         <v>164</v>
       </c>
+      <c r="N15" s="2"/>
       <c r="O15" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="P15" s="2"/>
-      <c r="Q15" t="s" s="2">
-        <v>72</v>
-      </c>
+        <v>165</v>
+      </c>
+      <c r="P15" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Q15" s="2"/>
       <c r="R15" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="S15" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="T15" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="U15" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="V15" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="W15" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="X15" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Y15" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Z15" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AA15" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AB15" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AC15" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AD15" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>161</v>
+        <v>73</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>73</v>
+        <v>162</v>
       </c>
       <c r="AG15" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="AH15" t="s" s="2">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="AI15" t="s" s="2">
-        <v>92</v>
+        <v>73</v>
       </c>
       <c r="AJ15" t="s" s="2">
-        <v>165</v>
+        <v>93</v>
       </c>
       <c r="AK15" t="s" s="2">
         <v>166</v>
       </c>
       <c r="AL15" t="s" s="2">
-        <v>72</v>
+        <v>167</v>
       </c>
       <c r="AM15" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
+      </c>
+      <c r="AN15" t="s" s="2">
+        <v>73</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
-        <v>167</v>
-      </c>
-      <c r="B16" s="2"/>
-      <c r="C16" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="D16" s="2"/>
-      <c r="E16" t="s" s="2">
-        <v>80</v>
-      </c>
+        <v>168</v>
+      </c>
+      <c r="B16" t="s" s="2">
+        <v>168</v>
+      </c>
+      <c r="C16" s="2"/>
+      <c r="D16" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="E16" s="2"/>
       <c r="F16" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G16" t="s" s="2">
         <v>81</v>
       </c>
       <c r="H16" t="s" s="2">
-        <v>72</v>
+        <v>82</v>
       </c>
       <c r="I16" t="s" s="2">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>168</v>
+        <v>82</v>
       </c>
       <c r="K16" t="s" s="2">
         <v>169</v>
@@ -3374,179 +3422,182 @@
         <v>172</v>
       </c>
       <c r="O16" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="P16" s="2"/>
-      <c r="Q16" t="s" s="2">
-        <v>72</v>
-      </c>
+        <v>173</v>
+      </c>
+      <c r="P16" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Q16" s="2"/>
       <c r="R16" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="S16" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="T16" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="U16" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="V16" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="W16" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="X16" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Y16" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Z16" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AA16" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AB16" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AC16" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AD16" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>167</v>
+        <v>73</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>73</v>
+        <v>168</v>
       </c>
       <c r="AG16" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AH16" t="s" s="2">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="AI16" t="s" s="2">
-        <v>92</v>
+        <v>73</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>173</v>
+        <v>93</v>
       </c>
       <c r="AK16" t="s" s="2">
         <v>174</v>
       </c>
       <c r="AL16" t="s" s="2">
-        <v>72</v>
+        <v>175</v>
       </c>
       <c r="AM16" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
+      </c>
+      <c r="AN16" t="s" s="2">
+        <v>73</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>175</v>
-      </c>
-      <c r="B17" s="2"/>
-      <c r="C17" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="D17" s="2"/>
-      <c r="E17" t="s" s="2">
-        <v>80</v>
-      </c>
+        <v>176</v>
+      </c>
+      <c r="B17" t="s" s="2">
+        <v>176</v>
+      </c>
+      <c r="C17" s="2"/>
+      <c r="D17" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="E17" s="2"/>
       <c r="F17" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G17" t="s" s="2">
         <v>81</v>
       </c>
       <c r="H17" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="I17" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>100</v>
+        <v>82</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>176</v>
+        <v>101</v>
       </c>
       <c r="L17" t="s" s="2">
         <v>177</v>
       </c>
-      <c r="M17" s="2"/>
-      <c r="N17" t="s" s="2">
+      <c r="M17" t="s" s="2">
         <v>178</v>
       </c>
+      <c r="N17" s="2"/>
       <c r="O17" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="P17" s="2"/>
-      <c r="Q17" t="s" s="2">
-        <v>72</v>
-      </c>
+        <v>179</v>
+      </c>
+      <c r="P17" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Q17" s="2"/>
       <c r="R17" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="S17" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="T17" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="U17" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="V17" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="W17" t="s" s="2">
-        <v>179</v>
+        <v>73</v>
       </c>
       <c r="X17" t="s" s="2">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="Y17" t="s" s="2">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="Z17" t="s" s="2">
-        <v>72</v>
+        <v>181</v>
       </c>
       <c r="AA17" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AB17" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AC17" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AD17" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>175</v>
+        <v>73</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>80</v>
+        <v>176</v>
       </c>
       <c r="AG17" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AH17" t="s" s="2">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="AI17" t="s" s="2">
-        <v>92</v>
+        <v>73</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>181</v>
+        <v>93</v>
       </c>
       <c r="AK17" t="s" s="2">
         <v>182</v>
@@ -3555,35 +3606,38 @@
         <v>183</v>
       </c>
       <c r="AM17" t="s" s="2">
-        <v>72</v>
+        <v>184</v>
+      </c>
+      <c r="AN17" t="s" s="2">
+        <v>73</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>184</v>
-      </c>
-      <c r="B18" s="2"/>
-      <c r="C18" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="D18" s="2"/>
-      <c r="E18" t="s" s="2">
-        <v>73</v>
-      </c>
+        <v>185</v>
+      </c>
+      <c r="B18" t="s" s="2">
+        <v>185</v>
+      </c>
+      <c r="C18" s="2"/>
+      <c r="D18" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="E18" s="2"/>
       <c r="F18" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="G18" t="s" s="2">
         <v>81</v>
       </c>
       <c r="H18" t="s" s="2">
-        <v>72</v>
+        <v>82</v>
       </c>
       <c r="I18" t="s" s="2">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>185</v>
+        <v>82</v>
       </c>
       <c r="K18" t="s" s="2">
         <v>186</v>
@@ -3594,219 +3648,225 @@
       <c r="M18" t="s" s="2">
         <v>188</v>
       </c>
-      <c r="N18" s="2"/>
-      <c r="O18" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="P18" s="2"/>
-      <c r="Q18" t="s" s="2">
-        <v>72</v>
-      </c>
+      <c r="N18" t="s" s="2">
+        <v>189</v>
+      </c>
+      <c r="O18" s="2"/>
+      <c r="P18" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Q18" s="2"/>
       <c r="R18" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="S18" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="T18" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="U18" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="V18" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="W18" t="s" s="2">
-        <v>179</v>
-      </c>
-      <c r="X18" s="2"/>
-      <c r="Y18" t="s" s="2">
-        <v>189</v>
-      </c>
+        <v>73</v>
+      </c>
+      <c r="X18" t="s" s="2">
+        <v>180</v>
+      </c>
+      <c r="Y18" s="2"/>
       <c r="Z18" t="s" s="2">
-        <v>72</v>
+        <v>190</v>
       </c>
       <c r="AA18" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AB18" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AC18" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AD18" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>184</v>
+        <v>73</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>73</v>
+        <v>185</v>
       </c>
       <c r="AG18" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="AH18" t="s" s="2">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="AI18" t="s" s="2">
-        <v>92</v>
+        <v>73</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>72</v>
+        <v>93</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>190</v>
+        <v>73</v>
       </c>
       <c r="AL18" t="s" s="2">
-        <v>72</v>
+        <v>191</v>
       </c>
       <c r="AM18" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
+      </c>
+      <c r="AN18" t="s" s="2">
+        <v>73</v>
       </c>
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>191</v>
-      </c>
-      <c r="B19" s="2"/>
-      <c r="C19" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="D19" s="2"/>
-      <c r="E19" t="s" s="2">
-        <v>73</v>
-      </c>
+        <v>192</v>
+      </c>
+      <c r="B19" t="s" s="2">
+        <v>192</v>
+      </c>
+      <c r="C19" s="2"/>
+      <c r="D19" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="E19" s="2"/>
       <c r="F19" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="G19" t="s" s="2">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="H19" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="I19" t="s" s="2">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>185</v>
+        <v>82</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="L19" t="s" s="2">
         <v>193</v>
       </c>
-      <c r="M19" s="2"/>
-      <c r="N19" t="s" s="2">
+      <c r="M19" t="s" s="2">
         <v>194</v>
       </c>
+      <c r="N19" s="2"/>
       <c r="O19" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="P19" s="2"/>
-      <c r="Q19" t="s" s="2">
-        <v>72</v>
-      </c>
+        <v>195</v>
+      </c>
+      <c r="P19" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Q19" s="2"/>
       <c r="R19" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="S19" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="T19" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="U19" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="V19" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="W19" t="s" s="2">
-        <v>195</v>
+        <v>73</v>
       </c>
       <c r="X19" t="s" s="2">
         <v>196</v>
       </c>
       <c r="Y19" t="s" s="2">
-        <v>72</v>
+        <v>197</v>
       </c>
       <c r="Z19" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AA19" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AB19" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AC19" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AD19" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>191</v>
+        <v>73</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>73</v>
+        <v>192</v>
       </c>
       <c r="AG19" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="AH19" t="s" s="2">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="AI19" t="s" s="2">
-        <v>92</v>
+        <v>73</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>72</v>
+        <v>93</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>197</v>
+        <v>73</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>72</v>
+        <v>198</v>
       </c>
       <c r="AM19" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
+      </c>
+      <c r="AN19" t="s" s="2">
+        <v>73</v>
       </c>
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>198</v>
-      </c>
-      <c r="B20" s="2"/>
-      <c r="C20" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="D20" s="2"/>
-      <c r="E20" t="s" s="2">
-        <v>80</v>
-      </c>
+        <v>199</v>
+      </c>
+      <c r="B20" t="s" s="2">
+        <v>199</v>
+      </c>
+      <c r="C20" s="2"/>
+      <c r="D20" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="E20" s="2"/>
       <c r="F20" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G20" t="s" s="2">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="H20" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="I20" t="s" s="2">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>100</v>
+        <v>82</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>199</v>
+        <v>101</v>
       </c>
       <c r="L20" t="s" s="2">
         <v>200</v>
@@ -3814,70 +3874,70 @@
       <c r="M20" t="s" s="2">
         <v>201</v>
       </c>
-      <c r="N20" s="2"/>
-      <c r="O20" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="P20" s="2"/>
-      <c r="Q20" t="s" s="2">
-        <v>72</v>
-      </c>
+      <c r="N20" t="s" s="2">
+        <v>202</v>
+      </c>
+      <c r="O20" s="2"/>
+      <c r="P20" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Q20" s="2"/>
       <c r="R20" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="S20" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="T20" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="U20" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="V20" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="W20" t="s" s="2">
-        <v>179</v>
+        <v>73</v>
       </c>
       <c r="X20" t="s" s="2">
-        <v>202</v>
+        <v>180</v>
       </c>
       <c r="Y20" t="s" s="2">
         <v>203</v>
       </c>
       <c r="Z20" t="s" s="2">
-        <v>72</v>
+        <v>204</v>
       </c>
       <c r="AA20" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AB20" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AC20" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AD20" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>198</v>
+        <v>73</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>80</v>
+        <v>199</v>
       </c>
       <c r="AG20" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AH20" t="s" s="2">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="AI20" t="s" s="2">
-        <v>92</v>
+        <v>73</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>204</v>
+        <v>93</v>
       </c>
       <c r="AK20" t="s" s="2">
         <v>205</v>
@@ -3886,111 +3946,114 @@
         <v>206</v>
       </c>
       <c r="AM20" t="s" s="2">
-        <v>72</v>
+        <v>207</v>
+      </c>
+      <c r="AN20" t="s" s="2">
+        <v>73</v>
       </c>
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>207</v>
-      </c>
-      <c r="B21" s="2"/>
-      <c r="C21" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="D21" s="2"/>
-      <c r="E21" t="s" s="2">
-        <v>73</v>
-      </c>
+        <v>208</v>
+      </c>
+      <c r="B21" t="s" s="2">
+        <v>208</v>
+      </c>
+      <c r="C21" s="2"/>
+      <c r="D21" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="E21" s="2"/>
       <c r="F21" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="G21" t="s" s="2">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="H21" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="I21" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>100</v>
+        <v>73</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>208</v>
+        <v>101</v>
       </c>
       <c r="L21" t="s" s="2">
         <v>209</v>
       </c>
-      <c r="M21" s="2"/>
-      <c r="N21" t="s" s="2">
+      <c r="M21" t="s" s="2">
         <v>210</v>
       </c>
+      <c r="N21" s="2"/>
       <c r="O21" t="s" s="2">
-        <v>72</v>
+        <v>211</v>
       </c>
       <c r="P21" t="s" s="2">
-        <v>211</v>
+        <v>73</v>
       </c>
       <c r="Q21" t="s" s="2">
-        <v>72</v>
+        <v>212</v>
       </c>
       <c r="R21" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="S21" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="T21" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="U21" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="V21" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="W21" t="s" s="2">
-        <v>179</v>
+        <v>73</v>
       </c>
       <c r="X21" t="s" s="2">
-        <v>212</v>
+        <v>180</v>
       </c>
       <c r="Y21" t="s" s="2">
         <v>213</v>
       </c>
       <c r="Z21" t="s" s="2">
-        <v>72</v>
+        <v>214</v>
       </c>
       <c r="AA21" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AB21" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AC21" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AD21" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>207</v>
+        <v>73</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>73</v>
+        <v>208</v>
       </c>
       <c r="AG21" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="AH21" t="s" s="2">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="AI21" t="s" s="2">
-        <v>92</v>
+        <v>73</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>214</v>
+        <v>93</v>
       </c>
       <c r="AK21" t="s" s="2">
         <v>215</v>
@@ -3999,38 +4062,41 @@
         <v>216</v>
       </c>
       <c r="AM21" t="s" s="2">
-        <v>72</v>
+        <v>217</v>
+      </c>
+      <c r="AN21" t="s" s="2">
+        <v>73</v>
       </c>
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>217</v>
-      </c>
-      <c r="B22" s="2"/>
-      <c r="C22" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="D22" s="2"/>
-      <c r="E22" t="s" s="2">
-        <v>73</v>
-      </c>
+        <v>218</v>
+      </c>
+      <c r="B22" t="s" s="2">
+        <v>218</v>
+      </c>
+      <c r="C22" s="2"/>
+      <c r="D22" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="E22" s="2"/>
       <c r="F22" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="G22" t="s" s="2">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="H22" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="I22" t="s" s="2">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>185</v>
+        <v>82</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>218</v>
+        <v>186</v>
       </c>
       <c r="L22" t="s" s="2">
         <v>219</v>
@@ -4038,70 +4104,70 @@
       <c r="M22" t="s" s="2">
         <v>220</v>
       </c>
-      <c r="N22" s="2"/>
-      <c r="O22" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="P22" s="2"/>
-      <c r="Q22" t="s" s="2">
-        <v>72</v>
-      </c>
+      <c r="N22" t="s" s="2">
+        <v>221</v>
+      </c>
+      <c r="O22" s="2"/>
+      <c r="P22" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Q22" s="2"/>
       <c r="R22" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="S22" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="T22" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="U22" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="V22" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="W22" t="s" s="2">
-        <v>195</v>
+        <v>73</v>
       </c>
       <c r="X22" t="s" s="2">
-        <v>221</v>
+        <v>196</v>
       </c>
       <c r="Y22" t="s" s="2">
         <v>222</v>
       </c>
       <c r="Z22" t="s" s="2">
-        <v>72</v>
+        <v>223</v>
       </c>
       <c r="AA22" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AB22" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AC22" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AD22" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>217</v>
+        <v>73</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>73</v>
+        <v>218</v>
       </c>
       <c r="AG22" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="AH22" t="s" s="2">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="AI22" t="s" s="2">
-        <v>92</v>
+        <v>73</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>223</v>
+        <v>93</v>
       </c>
       <c r="AK22" t="s" s="2">
         <v>224</v>
@@ -4110,35 +4176,38 @@
         <v>225</v>
       </c>
       <c r="AM22" t="s" s="2">
-        <v>72</v>
+        <v>226</v>
+      </c>
+      <c r="AN22" t="s" s="2">
+        <v>73</v>
       </c>
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>226</v>
-      </c>
-      <c r="B23" s="2"/>
-      <c r="C23" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="D23" s="2"/>
-      <c r="E23" t="s" s="2">
-        <v>73</v>
-      </c>
+        <v>227</v>
+      </c>
+      <c r="B23" t="s" s="2">
+        <v>227</v>
+      </c>
+      <c r="C23" s="2"/>
+      <c r="D23" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="E23" s="2"/>
       <c r="F23" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="G23" t="s" s="2">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="H23" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="I23" t="s" s="2">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>227</v>
+        <v>82</v>
       </c>
       <c r="K23" t="s" s="2">
         <v>228</v>
@@ -4146,111 +4215,114 @@
       <c r="L23" t="s" s="2">
         <v>229</v>
       </c>
-      <c r="M23" s="2"/>
+      <c r="M23" t="s" s="2">
+        <v>230</v>
+      </c>
       <c r="N23" s="2"/>
-      <c r="O23" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="P23" s="2"/>
-      <c r="Q23" t="s" s="2">
-        <v>72</v>
-      </c>
+      <c r="O23" s="2"/>
+      <c r="P23" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Q23" s="2"/>
       <c r="R23" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="S23" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="T23" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="U23" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="V23" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="W23" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="X23" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Y23" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Z23" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AA23" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AB23" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AC23" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AD23" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>226</v>
+        <v>73</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>73</v>
+        <v>227</v>
       </c>
       <c r="AG23" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="AH23" t="s" s="2">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="AI23" t="s" s="2">
-        <v>92</v>
+        <v>73</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>72</v>
+        <v>93</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>230</v>
+        <v>73</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>72</v>
+        <v>231</v>
       </c>
       <c r="AM23" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
+      </c>
+      <c r="AN23" t="s" s="2">
+        <v>73</v>
       </c>
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>231</v>
-      </c>
-      <c r="B24" s="2"/>
-      <c r="C24" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="D24" s="2"/>
-      <c r="E24" t="s" s="2">
-        <v>73</v>
-      </c>
+        <v>232</v>
+      </c>
+      <c r="B24" t="s" s="2">
+        <v>232</v>
+      </c>
+      <c r="C24" s="2"/>
+      <c r="D24" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="E24" s="2"/>
       <c r="F24" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="G24" t="s" s="2">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="H24" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="I24" t="s" s="2">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>156</v>
+        <v>82</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>232</v>
+        <v>157</v>
       </c>
       <c r="L24" t="s" s="2">
         <v>233</v>
@@ -4262,179 +4334,182 @@
         <v>235</v>
       </c>
       <c r="O24" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="P24" s="2"/>
-      <c r="Q24" t="s" s="2">
-        <v>72</v>
-      </c>
+        <v>236</v>
+      </c>
+      <c r="P24" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Q24" s="2"/>
       <c r="R24" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="S24" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="T24" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="U24" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="V24" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="W24" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="X24" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Y24" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Z24" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AA24" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AB24" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AC24" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AD24" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>231</v>
+        <v>73</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>73</v>
+        <v>232</v>
       </c>
       <c r="AG24" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="AH24" t="s" s="2">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="AI24" t="s" s="2">
-        <v>92</v>
+        <v>73</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>72</v>
+        <v>93</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>236</v>
+        <v>73</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>225</v>
+        <v>237</v>
       </c>
       <c r="AM24" t="s" s="2">
-        <v>72</v>
+        <v>226</v>
+      </c>
+      <c r="AN24" t="s" s="2">
+        <v>73</v>
       </c>
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>237</v>
-      </c>
-      <c r="B25" s="2"/>
-      <c r="C25" t="s" s="2">
         <v>238</v>
       </c>
-      <c r="D25" s="2"/>
-      <c r="E25" t="s" s="2">
-        <v>73</v>
-      </c>
+      <c r="B25" t="s" s="2">
+        <v>238</v>
+      </c>
+      <c r="C25" s="2"/>
+      <c r="D25" t="s" s="2">
+        <v>239</v>
+      </c>
+      <c r="E25" s="2"/>
       <c r="F25" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="G25" t="s" s="2">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="H25" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="I25" t="s" s="2">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>156</v>
+        <v>82</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>239</v>
+        <v>157</v>
       </c>
       <c r="L25" t="s" s="2">
         <v>240</v>
       </c>
-      <c r="M25" s="2"/>
-      <c r="N25" t="s" s="2">
+      <c r="M25" t="s" s="2">
         <v>241</v>
       </c>
+      <c r="N25" s="2"/>
       <c r="O25" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="P25" s="2"/>
-      <c r="Q25" t="s" s="2">
-        <v>72</v>
-      </c>
+        <v>242</v>
+      </c>
+      <c r="P25" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Q25" s="2"/>
       <c r="R25" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="S25" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="T25" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="U25" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="V25" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="W25" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="X25" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Y25" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Z25" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AA25" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AB25" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AC25" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AD25" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>237</v>
+        <v>73</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>73</v>
+        <v>238</v>
       </c>
       <c r="AG25" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="AH25" t="s" s="2">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="AI25" t="s" s="2">
-        <v>92</v>
+        <v>73</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>242</v>
+        <v>93</v>
       </c>
       <c r="AK25" t="s" s="2">
         <v>243</v>
@@ -4443,35 +4518,38 @@
         <v>244</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>72</v>
+        <v>245</v>
+      </c>
+      <c r="AN25" t="s" s="2">
+        <v>73</v>
       </c>
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>245</v>
-      </c>
-      <c r="B26" s="2"/>
-      <c r="C26" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="D26" s="2"/>
-      <c r="E26" t="s" s="2">
-        <v>73</v>
-      </c>
+        <v>246</v>
+      </c>
+      <c r="B26" t="s" s="2">
+        <v>246</v>
+      </c>
+      <c r="C26" s="2"/>
+      <c r="D26" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="E26" s="2"/>
       <c r="F26" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="G26" t="s" s="2">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="H26" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="I26" t="s" s="2">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>246</v>
+        <v>82</v>
       </c>
       <c r="K26" t="s" s="2">
         <v>247</v>
@@ -4479,73 +4557,73 @@
       <c r="L26" t="s" s="2">
         <v>248</v>
       </c>
-      <c r="M26" s="2"/>
-      <c r="N26" t="s" s="2">
+      <c r="M26" t="s" s="2">
         <v>249</v>
       </c>
+      <c r="N26" s="2"/>
       <c r="O26" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="P26" s="2"/>
-      <c r="Q26" t="s" s="2">
-        <v>72</v>
-      </c>
+        <v>250</v>
+      </c>
+      <c r="P26" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Q26" s="2"/>
       <c r="R26" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="S26" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="T26" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="U26" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="V26" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="W26" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="X26" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Y26" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Z26" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AA26" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AB26" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AC26" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AD26" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>245</v>
+        <v>73</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>73</v>
+        <v>246</v>
       </c>
       <c r="AG26" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="AH26" t="s" s="2">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="AI26" t="s" s="2">
-        <v>92</v>
+        <v>73</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>250</v>
+        <v>93</v>
       </c>
       <c r="AK26" t="s" s="2">
         <v>251</v>
@@ -4554,35 +4632,38 @@
         <v>252</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>72</v>
+        <v>253</v>
+      </c>
+      <c r="AN26" t="s" s="2">
+        <v>73</v>
       </c>
     </row>
-    <row r="27">
+    <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>253</v>
-      </c>
-      <c r="B27" s="2"/>
-      <c r="C27" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="D27" s="2"/>
-      <c r="E27" t="s" s="2">
-        <v>80</v>
-      </c>
+        <v>254</v>
+      </c>
+      <c r="B27" t="s" s="2">
+        <v>254</v>
+      </c>
+      <c r="C27" s="2"/>
+      <c r="D27" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="E27" s="2"/>
       <c r="F27" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G27" t="s" s="2">
         <v>81</v>
       </c>
       <c r="H27" t="s" s="2">
-        <v>72</v>
+        <v>82</v>
       </c>
       <c r="I27" t="s" s="2">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>254</v>
+        <v>82</v>
       </c>
       <c r="K27" t="s" s="2">
         <v>255</v>
@@ -4590,71 +4671,71 @@
       <c r="L27" t="s" s="2">
         <v>256</v>
       </c>
-      <c r="M27" s="2"/>
+      <c r="M27" t="s" s="2">
+        <v>257</v>
+      </c>
       <c r="N27" s="2"/>
-      <c r="O27" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="P27" s="2"/>
-      <c r="Q27" t="s" s="2">
-        <v>72</v>
-      </c>
+      <c r="O27" s="2"/>
+      <c r="P27" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Q27" s="2"/>
       <c r="R27" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="S27" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="T27" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="U27" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="V27" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="W27" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="X27" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Y27" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Z27" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AA27" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AB27" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AC27" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AD27" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>253</v>
+        <v>73</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>73</v>
+        <v>254</v>
       </c>
       <c r="AG27" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="AH27" t="s" s="2">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="AI27" t="s" s="2">
-        <v>92</v>
+        <v>73</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>257</v>
+        <v>93</v>
       </c>
       <c r="AK27" t="s" s="2">
         <v>258</v>
@@ -4663,35 +4744,38 @@
         <v>259</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>72</v>
+        <v>260</v>
+      </c>
+      <c r="AN27" t="s" s="2">
+        <v>73</v>
       </c>
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>260</v>
-      </c>
-      <c r="B28" s="2"/>
-      <c r="C28" t="s" s="2">
         <v>261</v>
       </c>
-      <c r="D28" s="2"/>
-      <c r="E28" t="s" s="2">
-        <v>73</v>
-      </c>
+      <c r="B28" t="s" s="2">
+        <v>261</v>
+      </c>
+      <c r="C28" s="2"/>
+      <c r="D28" t="s" s="2">
+        <v>262</v>
+      </c>
+      <c r="E28" s="2"/>
       <c r="F28" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="G28" t="s" s="2">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="H28" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="I28" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>262</v>
+        <v>73</v>
       </c>
       <c r="K28" t="s" s="2">
         <v>263</v>
@@ -4699,73 +4783,73 @@
       <c r="L28" t="s" s="2">
         <v>264</v>
       </c>
-      <c r="M28" s="2"/>
-      <c r="N28" t="s" s="2">
+      <c r="M28" t="s" s="2">
         <v>265</v>
       </c>
+      <c r="N28" s="2"/>
       <c r="O28" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="P28" s="2"/>
-      <c r="Q28" t="s" s="2">
-        <v>72</v>
-      </c>
+        <v>266</v>
+      </c>
+      <c r="P28" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Q28" s="2"/>
       <c r="R28" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="S28" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="T28" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="U28" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="V28" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="W28" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="X28" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Y28" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Z28" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AA28" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AB28" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AC28" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AD28" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>260</v>
+        <v>73</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>73</v>
+        <v>261</v>
       </c>
       <c r="AG28" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="AH28" t="s" s="2">
-        <v>266</v>
+        <v>81</v>
       </c>
       <c r="AI28" t="s" s="2">
-        <v>92</v>
+        <v>267</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>267</v>
+        <v>93</v>
       </c>
       <c r="AK28" t="s" s="2">
         <v>268</v>
@@ -4774,146 +4858,152 @@
         <v>269</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>72</v>
+        <v>270</v>
+      </c>
+      <c r="AN28" t="s" s="2">
+        <v>73</v>
       </c>
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>270</v>
-      </c>
-      <c r="B29" s="2"/>
-      <c r="C29" t="s" s="2">
         <v>271</v>
       </c>
-      <c r="D29" s="2"/>
-      <c r="E29" t="s" s="2">
-        <v>73</v>
-      </c>
+      <c r="B29" t="s" s="2">
+        <v>271</v>
+      </c>
+      <c r="C29" s="2"/>
+      <c r="D29" t="s" s="2">
+        <v>272</v>
+      </c>
+      <c r="E29" s="2"/>
       <c r="F29" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="G29" t="s" s="2">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="H29" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="I29" t="s" s="2">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>262</v>
+        <v>82</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>272</v>
+        <v>263</v>
       </c>
       <c r="L29" t="s" s="2">
         <v>273</v>
       </c>
-      <c r="M29" s="2"/>
-      <c r="N29" t="s" s="2">
+      <c r="M29" t="s" s="2">
         <v>274</v>
       </c>
+      <c r="N29" s="2"/>
       <c r="O29" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="P29" s="2"/>
-      <c r="Q29" t="s" s="2">
-        <v>72</v>
-      </c>
+        <v>275</v>
+      </c>
+      <c r="P29" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Q29" s="2"/>
       <c r="R29" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="S29" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="T29" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="U29" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="V29" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="W29" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="X29" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Y29" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Z29" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AA29" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AB29" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AC29" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AD29" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>270</v>
+        <v>73</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>73</v>
+        <v>271</v>
       </c>
       <c r="AG29" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="AH29" t="s" s="2">
-        <v>266</v>
+        <v>81</v>
       </c>
       <c r="AI29" t="s" s="2">
-        <v>92</v>
+        <v>267</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>72</v>
+        <v>93</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>275</v>
+        <v>73</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>72</v>
+        <v>276</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
+      </c>
+      <c r="AN29" t="s" s="2">
+        <v>73</v>
       </c>
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>276</v>
-      </c>
-      <c r="B30" s="2"/>
-      <c r="C30" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="D30" s="2"/>
-      <c r="E30" t="s" s="2">
-        <v>73</v>
-      </c>
+        <v>277</v>
+      </c>
+      <c r="B30" t="s" s="2">
+        <v>277</v>
+      </c>
+      <c r="C30" s="2"/>
+      <c r="D30" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="E30" s="2"/>
       <c r="F30" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="G30" t="s" s="2">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="H30" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="I30" t="s" s="2">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>277</v>
+        <v>82</v>
       </c>
       <c r="K30" t="s" s="2">
         <v>278</v>
@@ -4921,73 +5011,73 @@
       <c r="L30" t="s" s="2">
         <v>279</v>
       </c>
-      <c r="M30" s="2"/>
-      <c r="N30" t="s" s="2">
+      <c r="M30" t="s" s="2">
         <v>280</v>
       </c>
+      <c r="N30" s="2"/>
       <c r="O30" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="P30" s="2"/>
-      <c r="Q30" t="s" s="2">
-        <v>72</v>
-      </c>
+        <v>281</v>
+      </c>
+      <c r="P30" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Q30" s="2"/>
       <c r="R30" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="S30" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="T30" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="U30" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="V30" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="W30" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="X30" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Y30" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Z30" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AA30" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AB30" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AC30" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AD30" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>276</v>
+        <v>73</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>73</v>
+        <v>277</v>
       </c>
       <c r="AG30" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="AH30" t="s" s="2">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="AI30" t="s" s="2">
-        <v>92</v>
+        <v>73</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>281</v>
+        <v>93</v>
       </c>
       <c r="AK30" t="s" s="2">
         <v>282</v>
@@ -4996,109 +5086,112 @@
         <v>283</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>72</v>
+        <v>284</v>
+      </c>
+      <c r="AN30" t="s" s="2">
+        <v>73</v>
       </c>
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>284</v>
-      </c>
-      <c r="B31" s="2"/>
-      <c r="C31" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="D31" s="2"/>
-      <c r="E31" t="s" s="2">
-        <v>73</v>
-      </c>
+        <v>285</v>
+      </c>
+      <c r="B31" t="s" s="2">
+        <v>285</v>
+      </c>
+      <c r="C31" s="2"/>
+      <c r="D31" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="E31" s="2"/>
       <c r="F31" t="s" s="2">
         <v>74</v>
       </c>
       <c r="G31" t="s" s="2">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="H31" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="I31" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>185</v>
+        <v>73</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>285</v>
+        <v>186</v>
       </c>
       <c r="L31" t="s" s="2">
         <v>286</v>
       </c>
-      <c r="M31" s="2"/>
-      <c r="N31" t="s" s="2">
+      <c r="M31" t="s" s="2">
         <v>287</v>
       </c>
+      <c r="N31" s="2"/>
       <c r="O31" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="P31" s="2"/>
-      <c r="Q31" t="s" s="2">
-        <v>72</v>
-      </c>
+        <v>288</v>
+      </c>
+      <c r="P31" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Q31" s="2"/>
       <c r="R31" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="S31" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="T31" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="U31" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="V31" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="W31" t="s" s="2">
-        <v>104</v>
+        <v>73</v>
       </c>
       <c r="X31" t="s" s="2">
-        <v>288</v>
+        <v>105</v>
       </c>
       <c r="Y31" t="s" s="2">
         <v>289</v>
       </c>
       <c r="Z31" t="s" s="2">
-        <v>72</v>
+        <v>290</v>
       </c>
       <c r="AA31" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AB31" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AC31" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AD31" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>284</v>
+        <v>73</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>73</v>
+        <v>285</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AH31" t="s" s="2">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="AI31" t="s" s="2">
-        <v>92</v>
+        <v>73</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>290</v>
+        <v>93</v>
       </c>
       <c r="AK31" t="s" s="2">
         <v>291</v>
@@ -5107,35 +5200,38 @@
         <v>292</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>72</v>
+        <v>293</v>
+      </c>
+      <c r="AN31" t="s" s="2">
+        <v>73</v>
       </c>
     </row>
-    <row r="32">
+    <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>293</v>
-      </c>
-      <c r="B32" s="2"/>
-      <c r="C32" t="s" s="2">
         <v>294</v>
       </c>
-      <c r="D32" s="2"/>
-      <c r="E32" t="s" s="2">
-        <v>80</v>
-      </c>
+      <c r="B32" t="s" s="2">
+        <v>294</v>
+      </c>
+      <c r="C32" s="2"/>
+      <c r="D32" t="s" s="2">
+        <v>295</v>
+      </c>
+      <c r="E32" s="2"/>
       <c r="F32" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G32" t="s" s="2">
         <v>81</v>
       </c>
       <c r="H32" t="s" s="2">
-        <v>72</v>
+        <v>82</v>
       </c>
       <c r="I32" t="s" s="2">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>295</v>
+        <v>82</v>
       </c>
       <c r="K32" t="s" s="2">
         <v>296</v>
@@ -5150,105 +5246,108 @@
         <v>299</v>
       </c>
       <c r="O32" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="P32" s="2"/>
-      <c r="Q32" t="s" s="2">
-        <v>72</v>
-      </c>
+        <v>300</v>
+      </c>
+      <c r="P32" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Q32" s="2"/>
       <c r="R32" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="S32" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="T32" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="U32" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="V32" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="W32" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="X32" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Y32" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Z32" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AA32" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AB32" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AC32" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AD32" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>293</v>
+        <v>73</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>73</v>
+        <v>294</v>
       </c>
       <c r="AG32" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="AH32" t="s" s="2">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="AI32" t="s" s="2">
-        <v>92</v>
+        <v>73</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>300</v>
+        <v>93</v>
       </c>
       <c r="AK32" t="s" s="2">
         <v>301</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>292</v>
+        <v>302</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>72</v>
+        <v>293</v>
+      </c>
+      <c r="AN32" t="s" s="2">
+        <v>73</v>
       </c>
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>302</v>
-      </c>
-      <c r="B33" s="2"/>
-      <c r="C33" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="D33" s="2"/>
-      <c r="E33" t="s" s="2">
-        <v>73</v>
-      </c>
+        <v>303</v>
+      </c>
+      <c r="B33" t="s" s="2">
+        <v>303</v>
+      </c>
+      <c r="C33" s="2"/>
+      <c r="D33" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="E33" s="2"/>
       <c r="F33" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="G33" t="s" s="2">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="H33" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="I33" t="s" s="2">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>303</v>
+        <v>82</v>
       </c>
       <c r="K33" t="s" s="2">
         <v>304</v>
@@ -5256,73 +5355,73 @@
       <c r="L33" t="s" s="2">
         <v>305</v>
       </c>
-      <c r="M33" s="2"/>
-      <c r="N33" t="s" s="2">
+      <c r="M33" t="s" s="2">
         <v>306</v>
       </c>
+      <c r="N33" s="2"/>
       <c r="O33" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="P33" s="2"/>
-      <c r="Q33" t="s" s="2">
-        <v>72</v>
-      </c>
+        <v>307</v>
+      </c>
+      <c r="P33" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Q33" s="2"/>
       <c r="R33" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="S33" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="T33" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="U33" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="V33" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="W33" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="X33" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Y33" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Z33" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AA33" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AB33" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AC33" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AD33" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>302</v>
+        <v>73</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>73</v>
+        <v>303</v>
       </c>
       <c r="AG33" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="AH33" t="s" s="2">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="AI33" t="s" s="2">
-        <v>92</v>
+        <v>73</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>307</v>
+        <v>93</v>
       </c>
       <c r="AK33" t="s" s="2">
         <v>308</v>
@@ -5331,38 +5430,41 @@
         <v>309</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>72</v>
+        <v>310</v>
+      </c>
+      <c r="AN33" t="s" s="2">
+        <v>73</v>
       </c>
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>310</v>
-      </c>
-      <c r="B34" s="2"/>
-      <c r="C34" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="D34" s="2"/>
-      <c r="E34" t="s" s="2">
-        <v>73</v>
-      </c>
+        <v>311</v>
+      </c>
+      <c r="B34" t="s" s="2">
+        <v>311</v>
+      </c>
+      <c r="C34" s="2"/>
+      <c r="D34" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="E34" s="2"/>
       <c r="F34" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="G34" t="s" s="2">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="H34" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="I34" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>185</v>
+        <v>73</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>311</v>
+        <v>186</v>
       </c>
       <c r="L34" t="s" s="2">
         <v>312</v>
@@ -5370,70 +5472,70 @@
       <c r="M34" t="s" s="2">
         <v>313</v>
       </c>
-      <c r="N34" s="2"/>
-      <c r="O34" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="P34" s="2"/>
-      <c r="Q34" t="s" s="2">
-        <v>72</v>
-      </c>
+      <c r="N34" t="s" s="2">
+        <v>314</v>
+      </c>
+      <c r="O34" s="2"/>
+      <c r="P34" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Q34" s="2"/>
       <c r="R34" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="S34" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="T34" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="U34" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="V34" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="W34" t="s" s="2">
-        <v>195</v>
+        <v>73</v>
       </c>
       <c r="X34" t="s" s="2">
-        <v>314</v>
+        <v>196</v>
       </c>
       <c r="Y34" t="s" s="2">
-        <v>72</v>
+        <v>315</v>
       </c>
       <c r="Z34" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AA34" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AB34" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AC34" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AD34" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>310</v>
+        <v>73</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>73</v>
+        <v>311</v>
       </c>
       <c r="AG34" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="AH34" t="s" s="2">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="AI34" t="s" s="2">
-        <v>92</v>
+        <v>73</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>315</v>
+        <v>93</v>
       </c>
       <c r="AK34" t="s" s="2">
         <v>316</v>
@@ -5443,145 +5545,151 @@
       </c>
       <c r="AM34" t="s" s="2">
         <v>318</v>
+      </c>
+      <c r="AN34" t="s" s="2">
+        <v>319</v>
       </c>
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>319</v>
-      </c>
-      <c r="B35" s="2"/>
-      <c r="C35" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="D35" s="2"/>
-      <c r="E35" t="s" s="2">
-        <v>73</v>
-      </c>
+        <v>320</v>
+      </c>
+      <c r="B35" t="s" s="2">
+        <v>320</v>
+      </c>
+      <c r="C35" s="2"/>
+      <c r="D35" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="E35" s="2"/>
       <c r="F35" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="G35" t="s" s="2">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="H35" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="I35" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>156</v>
+        <v>73</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>311</v>
+        <v>157</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>320</v>
+        <v>312</v>
       </c>
       <c r="M35" t="s" s="2">
         <v>321</v>
       </c>
-      <c r="N35" s="2"/>
-      <c r="O35" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="P35" s="2"/>
-      <c r="Q35" t="s" s="2">
-        <v>72</v>
-      </c>
+      <c r="N35" t="s" s="2">
+        <v>322</v>
+      </c>
+      <c r="O35" s="2"/>
+      <c r="P35" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Q35" s="2"/>
       <c r="R35" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="S35" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="T35" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="U35" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="V35" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="W35" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="X35" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Y35" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Z35" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AA35" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AB35" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AC35" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AD35" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>319</v>
+        <v>73</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>73</v>
+        <v>320</v>
       </c>
       <c r="AG35" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="AH35" t="s" s="2">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="AI35" t="s" s="2">
-        <v>92</v>
+        <v>73</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>322</v>
+        <v>93</v>
       </c>
       <c r="AK35" t="s" s="2">
         <v>323</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>317</v>
+        <v>324</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>72</v>
+        <v>318</v>
+      </c>
+      <c r="AN35" t="s" s="2">
+        <v>73</v>
       </c>
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>324</v>
-      </c>
-      <c r="B36" s="2"/>
-      <c r="C36" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="D36" s="2"/>
-      <c r="E36" t="s" s="2">
-        <v>73</v>
-      </c>
+        <v>325</v>
+      </c>
+      <c r="B36" t="s" s="2">
+        <v>325</v>
+      </c>
+      <c r="C36" s="2"/>
+      <c r="D36" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="E36" s="2"/>
       <c r="F36" t="s" s="2">
         <v>74</v>
       </c>
       <c r="G36" t="s" s="2">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="H36" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="I36" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>325</v>
+        <v>73</v>
       </c>
       <c r="K36" t="s" s="2">
         <v>326</v>
@@ -5589,108 +5697,111 @@
       <c r="L36" t="s" s="2">
         <v>327</v>
       </c>
-      <c r="M36" s="2"/>
+      <c r="M36" t="s" s="2">
+        <v>328</v>
+      </c>
       <c r="N36" s="2"/>
-      <c r="O36" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="P36" s="2"/>
-      <c r="Q36" t="s" s="2">
-        <v>72</v>
-      </c>
+      <c r="O36" s="2"/>
+      <c r="P36" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Q36" s="2"/>
       <c r="R36" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="S36" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="T36" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="U36" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="V36" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="W36" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="X36" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Y36" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Z36" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AA36" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AB36" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AC36" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AD36" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>324</v>
+        <v>73</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>73</v>
+        <v>325</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AH36" t="s" s="2">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="AI36" t="s" s="2">
-        <v>92</v>
+        <v>73</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>328</v>
+        <v>93</v>
       </c>
       <c r="AK36" t="s" s="2">
         <v>329</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>72</v>
+        <v>330</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>330</v>
+        <v>73</v>
+      </c>
+      <c r="AN36" t="s" s="2">
+        <v>331</v>
       </c>
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>331</v>
-      </c>
-      <c r="B37" s="2"/>
-      <c r="C37" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="D37" s="2"/>
-      <c r="E37" t="s" s="2">
-        <v>73</v>
-      </c>
+        <v>332</v>
+      </c>
+      <c r="B37" t="s" s="2">
+        <v>332</v>
+      </c>
+      <c r="C37" s="2"/>
+      <c r="D37" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="E37" s="2"/>
       <c r="F37" t="s" s="2">
         <v>74</v>
       </c>
       <c r="G37" t="s" s="2">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="H37" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="I37" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>332</v>
+        <v>73</v>
       </c>
       <c r="K37" t="s" s="2">
         <v>333</v>
@@ -5698,108 +5809,111 @@
       <c r="L37" t="s" s="2">
         <v>334</v>
       </c>
-      <c r="M37" s="2"/>
+      <c r="M37" t="s" s="2">
+        <v>335</v>
+      </c>
       <c r="N37" s="2"/>
-      <c r="O37" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="P37" s="2"/>
-      <c r="Q37" t="s" s="2">
-        <v>72</v>
-      </c>
+      <c r="O37" s="2"/>
+      <c r="P37" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Q37" s="2"/>
       <c r="R37" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="S37" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="T37" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="U37" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="V37" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="W37" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="X37" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Y37" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Z37" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AA37" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AB37" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AC37" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AD37" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>331</v>
+        <v>73</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>73</v>
+        <v>332</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AH37" t="s" s="2">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="AI37" t="s" s="2">
-        <v>92</v>
+        <v>73</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>335</v>
+        <v>93</v>
       </c>
       <c r="AK37" t="s" s="2">
         <v>336</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>72</v>
+        <v>337</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
+      </c>
+      <c r="AN37" t="s" s="2">
+        <v>73</v>
       </c>
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>337</v>
-      </c>
-      <c r="B38" s="2"/>
-      <c r="C38" t="s" s="2">
         <v>338</v>
       </c>
-      <c r="D38" s="2"/>
-      <c r="E38" t="s" s="2">
-        <v>73</v>
-      </c>
+      <c r="B38" t="s" s="2">
+        <v>338</v>
+      </c>
+      <c r="C38" s="2"/>
+      <c r="D38" t="s" s="2">
+        <v>339</v>
+      </c>
+      <c r="E38" s="2"/>
       <c r="F38" t="s" s="2">
         <v>74</v>
       </c>
       <c r="G38" t="s" s="2">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="H38" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="I38" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>339</v>
+        <v>73</v>
       </c>
       <c r="K38" t="s" s="2">
         <v>340</v>
@@ -5810,107 +5924,110 @@
       <c r="M38" t="s" s="2">
         <v>342</v>
       </c>
-      <c r="N38" s="2"/>
-      <c r="O38" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="P38" s="2"/>
-      <c r="Q38" t="s" s="2">
-        <v>72</v>
-      </c>
+      <c r="N38" t="s" s="2">
+        <v>343</v>
+      </c>
+      <c r="O38" s="2"/>
+      <c r="P38" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Q38" s="2"/>
       <c r="R38" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="S38" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="T38" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="U38" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="V38" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="W38" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="X38" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Y38" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Z38" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AA38" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AB38" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AC38" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AD38" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>337</v>
+        <v>73</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>73</v>
+        <v>338</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AH38" t="s" s="2">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="AI38" t="s" s="2">
-        <v>92</v>
+        <v>73</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>343</v>
+        <v>93</v>
       </c>
       <c r="AK38" t="s" s="2">
         <v>344</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>72</v>
+        <v>345</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
+      </c>
+      <c r="AN38" t="s" s="2">
+        <v>73</v>
       </c>
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>345</v>
-      </c>
-      <c r="B39" s="2"/>
-      <c r="C39" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="D39" s="2"/>
-      <c r="E39" t="s" s="2">
-        <v>73</v>
-      </c>
+        <v>346</v>
+      </c>
+      <c r="B39" t="s" s="2">
+        <v>346</v>
+      </c>
+      <c r="C39" s="2"/>
+      <c r="D39" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="E39" s="2"/>
       <c r="F39" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="G39" t="s" s="2">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="H39" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="I39" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>346</v>
+        <v>73</v>
       </c>
       <c r="K39" t="s" s="2">
         <v>347</v>
@@ -5918,443 +6035,455 @@
       <c r="L39" t="s" s="2">
         <v>348</v>
       </c>
-      <c r="M39" s="2"/>
-      <c r="N39" t="s" s="2">
+      <c r="M39" t="s" s="2">
         <v>349</v>
       </c>
+      <c r="N39" s="2"/>
       <c r="O39" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="P39" s="2"/>
-      <c r="Q39" t="s" s="2">
-        <v>72</v>
-      </c>
+        <v>350</v>
+      </c>
+      <c r="P39" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Q39" s="2"/>
       <c r="R39" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="S39" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="T39" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="U39" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="V39" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="W39" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="X39" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Y39" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Z39" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AA39" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AB39" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AC39" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AD39" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>345</v>
+        <v>73</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>73</v>
+        <v>346</v>
       </c>
       <c r="AG39" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="AH39" t="s" s="2">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="AI39" t="s" s="2">
-        <v>92</v>
+        <v>73</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>72</v>
+        <v>93</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>350</v>
+        <v>73</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>72</v>
+        <v>351</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
+      </c>
+      <c r="AN39" t="s" s="2">
+        <v>73</v>
       </c>
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>351</v>
-      </c>
-      <c r="B40" s="2"/>
-      <c r="C40" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="D40" s="2"/>
-      <c r="E40" t="s" s="2">
-        <v>73</v>
-      </c>
+        <v>352</v>
+      </c>
+      <c r="B40" t="s" s="2">
+        <v>352</v>
+      </c>
+      <c r="C40" s="2"/>
+      <c r="D40" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="E40" s="2"/>
       <c r="F40" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="G40" t="s" s="2">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="H40" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="I40" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>227</v>
+        <v>73</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>352</v>
+        <v>228</v>
       </c>
       <c r="L40" t="s" s="2">
         <v>353</v>
       </c>
-      <c r="M40" s="2"/>
+      <c r="M40" t="s" s="2">
+        <v>354</v>
+      </c>
       <c r="N40" s="2"/>
-      <c r="O40" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="P40" s="2"/>
-      <c r="Q40" t="s" s="2">
-        <v>72</v>
-      </c>
+      <c r="O40" s="2"/>
+      <c r="P40" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Q40" s="2"/>
       <c r="R40" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="S40" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="T40" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="U40" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="V40" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="W40" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="X40" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Y40" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Z40" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AA40" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AB40" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AC40" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AD40" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>354</v>
+        <v>73</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>73</v>
+        <v>355</v>
       </c>
       <c r="AG40" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="AH40" t="s" s="2">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="AI40" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>355</v>
+        <v>73</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>72</v>
+        <v>356</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
+      </c>
+      <c r="AN40" t="s" s="2">
+        <v>73</v>
       </c>
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>356</v>
-      </c>
-      <c r="B41" s="2"/>
-      <c r="C41" t="s" s="2">
-        <v>125</v>
-      </c>
-      <c r="D41" s="2"/>
-      <c r="E41" t="s" s="2">
-        <v>73</v>
-      </c>
+        <v>357</v>
+      </c>
+      <c r="B41" t="s" s="2">
+        <v>357</v>
+      </c>
+      <c r="C41" s="2"/>
+      <c r="D41" t="s" s="2">
+        <v>126</v>
+      </c>
+      <c r="E41" s="2"/>
       <c r="F41" t="s" s="2">
         <v>74</v>
       </c>
       <c r="G41" t="s" s="2">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="H41" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="I41" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>126</v>
+        <v>73</v>
       </c>
       <c r="K41" t="s" s="2">
         <v>127</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>357</v>
+        <v>128</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>129</v>
-      </c>
-      <c r="N41" s="2"/>
-      <c r="O41" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="P41" s="2"/>
-      <c r="Q41" t="s" s="2">
-        <v>72</v>
-      </c>
+        <v>358</v>
+      </c>
+      <c r="N41" t="s" s="2">
+        <v>130</v>
+      </c>
+      <c r="O41" s="2"/>
+      <c r="P41" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Q41" s="2"/>
       <c r="R41" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="S41" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="T41" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="U41" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="V41" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="W41" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="X41" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Y41" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Z41" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AA41" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AB41" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AC41" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AD41" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>358</v>
+        <v>73</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>73</v>
+        <v>359</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AH41" t="s" s="2">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="AI41" t="s" s="2">
-        <v>131</v>
+        <v>73</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>72</v>
+        <v>132</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>355</v>
+        <v>73</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>72</v>
+        <v>356</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
+      </c>
+      <c r="AN41" t="s" s="2">
+        <v>73</v>
       </c>
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>359</v>
-      </c>
-      <c r="B42" s="2"/>
-      <c r="C42" t="s" s="2">
         <v>360</v>
       </c>
-      <c r="D42" s="2"/>
-      <c r="E42" t="s" s="2">
-        <v>73</v>
-      </c>
+      <c r="B42" t="s" s="2">
+        <v>360</v>
+      </c>
+      <c r="C42" s="2"/>
+      <c r="D42" t="s" s="2">
+        <v>361</v>
+      </c>
+      <c r="E42" s="2"/>
       <c r="F42" t="s" s="2">
         <v>74</v>
       </c>
       <c r="G42" t="s" s="2">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="H42" t="s" s="2">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="I42" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>126</v>
+        <v>82</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>361</v>
+        <v>127</v>
       </c>
       <c r="L42" t="s" s="2">
         <v>362</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>129</v>
+        <v>363</v>
       </c>
       <c r="N42" t="s" s="2">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="O42" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="P42" s="2"/>
-      <c r="Q42" t="s" s="2">
-        <v>72</v>
-      </c>
+        <v>136</v>
+      </c>
+      <c r="P42" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Q42" s="2"/>
       <c r="R42" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="S42" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="T42" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="U42" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="V42" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="W42" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="X42" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Y42" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Z42" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AA42" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AB42" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AC42" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AD42" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>363</v>
+        <v>73</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>73</v>
+        <v>364</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AH42" t="s" s="2">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="AI42" t="s" s="2">
-        <v>131</v>
+        <v>73</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>72</v>
+        <v>132</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>123</v>
+        <v>73</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>72</v>
+        <v>124</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
+      </c>
+      <c r="AN42" t="s" s="2">
+        <v>73</v>
       </c>
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>364</v>
-      </c>
-      <c r="B43" s="2"/>
-      <c r="C43" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="D43" s="2"/>
-      <c r="E43" t="s" s="2">
-        <v>73</v>
-      </c>
+        <v>365</v>
+      </c>
+      <c r="B43" t="s" s="2">
+        <v>365</v>
+      </c>
+      <c r="C43" s="2"/>
+      <c r="D43" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="E43" s="2"/>
       <c r="F43" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="G43" t="s" s="2">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="H43" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="I43" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>365</v>
+        <v>73</v>
       </c>
       <c r="K43" t="s" s="2">
         <v>366</v>
@@ -6362,113 +6491,116 @@
       <c r="L43" t="s" s="2">
         <v>367</v>
       </c>
-      <c r="M43" s="2"/>
-      <c r="N43" t="s" s="2">
+      <c r="M43" t="s" s="2">
         <v>368</v>
       </c>
+      <c r="N43" s="2"/>
       <c r="O43" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="P43" s="2"/>
-      <c r="Q43" t="s" s="2">
-        <v>72</v>
-      </c>
+        <v>369</v>
+      </c>
+      <c r="P43" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Q43" s="2"/>
       <c r="R43" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="S43" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="T43" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="U43" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="V43" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="W43" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="X43" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Y43" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Z43" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AA43" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AB43" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AC43" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AD43" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>364</v>
+        <v>73</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>73</v>
+        <v>365</v>
       </c>
       <c r="AG43" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="AH43" t="s" s="2">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="AI43" t="s" s="2">
-        <v>92</v>
+        <v>73</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>72</v>
+        <v>93</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>369</v>
+        <v>73</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>72</v>
+        <v>370</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
+      </c>
+      <c r="AN43" t="s" s="2">
+        <v>73</v>
       </c>
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>370</v>
-      </c>
-      <c r="B44" s="2"/>
-      <c r="C44" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="D44" s="2"/>
-      <c r="E44" t="s" s="2">
-        <v>73</v>
-      </c>
+        <v>371</v>
+      </c>
+      <c r="B44" t="s" s="2">
+        <v>371</v>
+      </c>
+      <c r="C44" s="2"/>
+      <c r="D44" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="E44" s="2"/>
       <c r="F44" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="G44" t="s" s="2">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="H44" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="I44" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>254</v>
+        <v>73</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>371</v>
+        <v>255</v>
       </c>
       <c r="L44" t="s" s="2">
         <v>372</v>
@@ -6480,105 +6612,108 @@
         <v>374</v>
       </c>
       <c r="O44" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="P44" s="2"/>
-      <c r="Q44" t="s" s="2">
-        <v>72</v>
-      </c>
+        <v>375</v>
+      </c>
+      <c r="P44" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Q44" s="2"/>
       <c r="R44" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="S44" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="T44" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="U44" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="V44" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="W44" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="X44" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Y44" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Z44" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AA44" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AB44" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AC44" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AD44" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>370</v>
+        <v>73</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>73</v>
+        <v>371</v>
       </c>
       <c r="AG44" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="AH44" t="s" s="2">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="AI44" t="s" s="2">
-        <v>92</v>
+        <v>73</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>72</v>
+        <v>93</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>375</v>
+        <v>73</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>72</v>
+        <v>376</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
+      </c>
+      <c r="AN44" t="s" s="2">
+        <v>73</v>
       </c>
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>376</v>
-      </c>
-      <c r="B45" s="2"/>
-      <c r="C45" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="D45" s="2"/>
-      <c r="E45" t="s" s="2">
-        <v>73</v>
-      </c>
+        <v>377</v>
+      </c>
+      <c r="B45" t="s" s="2">
+        <v>377</v>
+      </c>
+      <c r="C45" s="2"/>
+      <c r="D45" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="E45" s="2"/>
       <c r="F45" t="s" s="2">
         <v>74</v>
       </c>
       <c r="G45" t="s" s="2">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="H45" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="I45" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>377</v>
+        <v>73</v>
       </c>
       <c r="K45" t="s" s="2">
         <v>378</v>
@@ -6586,555 +6721,570 @@
       <c r="L45" t="s" s="2">
         <v>379</v>
       </c>
-      <c r="M45" s="2"/>
+      <c r="M45" t="s" s="2">
+        <v>380</v>
+      </c>
       <c r="N45" s="2"/>
-      <c r="O45" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="P45" s="2"/>
-      <c r="Q45" t="s" s="2">
-        <v>72</v>
-      </c>
+      <c r="O45" s="2"/>
+      <c r="P45" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Q45" s="2"/>
       <c r="R45" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="S45" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="T45" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="U45" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="V45" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="W45" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="X45" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Y45" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Z45" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AA45" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AB45" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AC45" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AD45" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>376</v>
+        <v>73</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>73</v>
+        <v>377</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AH45" t="s" s="2">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="AI45" t="s" s="2">
-        <v>92</v>
+        <v>73</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>72</v>
+        <v>93</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>380</v>
+        <v>73</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>72</v>
+        <v>381</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
+      </c>
+      <c r="AN45" t="s" s="2">
+        <v>73</v>
       </c>
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>381</v>
-      </c>
-      <c r="B46" s="2"/>
-      <c r="C46" t="s" s="2">
         <v>382</v>
       </c>
-      <c r="D46" s="2"/>
-      <c r="E46" t="s" s="2">
-        <v>73</v>
-      </c>
+      <c r="B46" t="s" s="2">
+        <v>382</v>
+      </c>
+      <c r="C46" s="2"/>
+      <c r="D46" t="s" s="2">
+        <v>383</v>
+      </c>
+      <c r="E46" s="2"/>
       <c r="F46" t="s" s="2">
         <v>74</v>
       </c>
       <c r="G46" t="s" s="2">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="H46" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="I46" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>346</v>
+        <v>73</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>383</v>
+        <v>347</v>
       </c>
       <c r="L46" t="s" s="2">
         <v>384</v>
       </c>
-      <c r="M46" s="2"/>
-      <c r="N46" t="s" s="2">
+      <c r="M46" t="s" s="2">
         <v>385</v>
       </c>
+      <c r="N46" s="2"/>
       <c r="O46" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="P46" s="2"/>
-      <c r="Q46" t="s" s="2">
-        <v>72</v>
-      </c>
+        <v>386</v>
+      </c>
+      <c r="P46" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Q46" s="2"/>
       <c r="R46" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="S46" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="T46" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="U46" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="V46" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="W46" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="X46" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Y46" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Z46" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AA46" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AB46" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AC46" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AD46" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>381</v>
+        <v>73</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>73</v>
+        <v>382</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AH46" t="s" s="2">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="AI46" t="s" s="2">
-        <v>92</v>
+        <v>73</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>72</v>
+        <v>93</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>386</v>
+        <v>73</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>72</v>
+        <v>387</v>
       </c>
       <c r="AM46" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
+      </c>
+      <c r="AN46" t="s" s="2">
+        <v>73</v>
       </c>
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>387</v>
-      </c>
-      <c r="B47" s="2"/>
-      <c r="C47" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="D47" s="2"/>
-      <c r="E47" t="s" s="2">
-        <v>73</v>
-      </c>
+        <v>388</v>
+      </c>
+      <c r="B47" t="s" s="2">
+        <v>388</v>
+      </c>
+      <c r="C47" s="2"/>
+      <c r="D47" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="E47" s="2"/>
       <c r="F47" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="G47" t="s" s="2">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="H47" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="I47" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>227</v>
+        <v>73</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>352</v>
+        <v>228</v>
       </c>
       <c r="L47" t="s" s="2">
         <v>353</v>
       </c>
-      <c r="M47" s="2"/>
+      <c r="M47" t="s" s="2">
+        <v>354</v>
+      </c>
       <c r="N47" s="2"/>
-      <c r="O47" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="P47" s="2"/>
-      <c r="Q47" t="s" s="2">
-        <v>72</v>
-      </c>
+      <c r="O47" s="2"/>
+      <c r="P47" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Q47" s="2"/>
       <c r="R47" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="S47" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="T47" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="U47" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="V47" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="W47" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="X47" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Y47" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Z47" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AA47" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AB47" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AC47" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AD47" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>354</v>
+        <v>73</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>73</v>
+        <v>355</v>
       </c>
       <c r="AG47" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="AH47" t="s" s="2">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="AI47" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>355</v>
+        <v>73</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>72</v>
+        <v>356</v>
       </c>
       <c r="AM47" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
+      </c>
+      <c r="AN47" t="s" s="2">
+        <v>73</v>
       </c>
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>388</v>
-      </c>
-      <c r="B48" s="2"/>
-      <c r="C48" t="s" s="2">
-        <v>125</v>
-      </c>
-      <c r="D48" s="2"/>
-      <c r="E48" t="s" s="2">
-        <v>73</v>
-      </c>
+        <v>389</v>
+      </c>
+      <c r="B48" t="s" s="2">
+        <v>389</v>
+      </c>
+      <c r="C48" s="2"/>
+      <c r="D48" t="s" s="2">
+        <v>126</v>
+      </c>
+      <c r="E48" s="2"/>
       <c r="F48" t="s" s="2">
         <v>74</v>
       </c>
       <c r="G48" t="s" s="2">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="H48" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="I48" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>126</v>
+        <v>73</v>
       </c>
       <c r="K48" t="s" s="2">
         <v>127</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>357</v>
+        <v>128</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>129</v>
-      </c>
-      <c r="N48" s="2"/>
-      <c r="O48" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="P48" s="2"/>
-      <c r="Q48" t="s" s="2">
-        <v>72</v>
-      </c>
+        <v>358</v>
+      </c>
+      <c r="N48" t="s" s="2">
+        <v>130</v>
+      </c>
+      <c r="O48" s="2"/>
+      <c r="P48" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Q48" s="2"/>
       <c r="R48" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="S48" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="T48" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="U48" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="V48" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="W48" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="X48" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Y48" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Z48" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AA48" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AB48" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AC48" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AD48" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>358</v>
+        <v>73</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>73</v>
+        <v>359</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AH48" t="s" s="2">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="AI48" t="s" s="2">
-        <v>131</v>
+        <v>73</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>72</v>
+        <v>132</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>355</v>
+        <v>73</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>72</v>
+        <v>356</v>
       </c>
       <c r="AM48" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
+      </c>
+      <c r="AN48" t="s" s="2">
+        <v>73</v>
       </c>
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>389</v>
-      </c>
-      <c r="B49" s="2"/>
-      <c r="C49" t="s" s="2">
-        <v>360</v>
-      </c>
-      <c r="D49" s="2"/>
-      <c r="E49" t="s" s="2">
-        <v>73</v>
-      </c>
+        <v>390</v>
+      </c>
+      <c r="B49" t="s" s="2">
+        <v>390</v>
+      </c>
+      <c r="C49" s="2"/>
+      <c r="D49" t="s" s="2">
+        <v>361</v>
+      </c>
+      <c r="E49" s="2"/>
       <c r="F49" t="s" s="2">
         <v>74</v>
       </c>
       <c r="G49" t="s" s="2">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="H49" t="s" s="2">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="I49" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>126</v>
+        <v>82</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>361</v>
+        <v>127</v>
       </c>
       <c r="L49" t="s" s="2">
         <v>362</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>129</v>
+        <v>363</v>
       </c>
       <c r="N49" t="s" s="2">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="O49" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="P49" s="2"/>
-      <c r="Q49" t="s" s="2">
-        <v>72</v>
-      </c>
+        <v>136</v>
+      </c>
+      <c r="P49" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Q49" s="2"/>
       <c r="R49" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="S49" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="T49" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="U49" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="V49" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="W49" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="X49" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Y49" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Z49" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AA49" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AB49" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AC49" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AD49" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>363</v>
+        <v>73</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>73</v>
+        <v>364</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AH49" t="s" s="2">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="AI49" t="s" s="2">
-        <v>131</v>
+        <v>73</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>72</v>
+        <v>132</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>123</v>
+        <v>73</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>72</v>
+        <v>124</v>
       </c>
       <c r="AM49" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
+      </c>
+      <c r="AN49" t="s" s="2">
+        <v>73</v>
       </c>
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>390</v>
-      </c>
-      <c r="B50" s="2"/>
-      <c r="C50" t="s" s="2">
         <v>391</v>
       </c>
-      <c r="D50" s="2"/>
-      <c r="E50" t="s" s="2">
-        <v>80</v>
-      </c>
+      <c r="B50" t="s" s="2">
+        <v>391</v>
+      </c>
+      <c r="C50" s="2"/>
+      <c r="D50" t="s" s="2">
+        <v>392</v>
+      </c>
+      <c r="E50" s="2"/>
       <c r="F50" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G50" t="s" s="2">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="H50" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="I50" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>185</v>
+        <v>73</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>392</v>
+        <v>186</v>
       </c>
       <c r="L50" t="s" s="2">
         <v>393</v>
@@ -7146,105 +7296,108 @@
         <v>395</v>
       </c>
       <c r="O50" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="P50" s="2"/>
-      <c r="Q50" t="s" s="2">
-        <v>72</v>
-      </c>
+        <v>396</v>
+      </c>
+      <c r="P50" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Q50" s="2"/>
       <c r="R50" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="S50" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="T50" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="U50" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="V50" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="W50" t="s" s="2">
-        <v>195</v>
+        <v>73</v>
       </c>
       <c r="X50" t="s" s="2">
-        <v>396</v>
+        <v>196</v>
       </c>
       <c r="Y50" t="s" s="2">
-        <v>72</v>
+        <v>397</v>
       </c>
       <c r="Z50" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AA50" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AB50" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AC50" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AD50" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>390</v>
+        <v>73</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>80</v>
+        <v>391</v>
       </c>
       <c r="AG50" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AH50" t="s" s="2">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="AI50" t="s" s="2">
-        <v>92</v>
+        <v>73</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>72</v>
+        <v>93</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>386</v>
+        <v>73</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>72</v>
+        <v>387</v>
       </c>
       <c r="AM50" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
+      </c>
+      <c r="AN50" t="s" s="2">
+        <v>73</v>
       </c>
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>397</v>
-      </c>
-      <c r="B51" s="2"/>
-      <c r="C51" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="D51" s="2"/>
-      <c r="E51" t="s" s="2">
-        <v>80</v>
-      </c>
+        <v>398</v>
+      </c>
+      <c r="B51" t="s" s="2">
+        <v>398</v>
+      </c>
+      <c r="C51" s="2"/>
+      <c r="D51" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="E51" s="2"/>
       <c r="F51" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G51" t="s" s="2">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="H51" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="I51" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>398</v>
+        <v>73</v>
       </c>
       <c r="K51" t="s" s="2">
         <v>399</v>
@@ -7252,750 +7405,771 @@
       <c r="L51" t="s" s="2">
         <v>400</v>
       </c>
-      <c r="M51" s="2"/>
+      <c r="M51" t="s" s="2">
+        <v>401</v>
+      </c>
       <c r="N51" s="2"/>
-      <c r="O51" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="P51" s="2"/>
-      <c r="Q51" t="s" s="2">
-        <v>72</v>
-      </c>
+      <c r="O51" s="2"/>
+      <c r="P51" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Q51" s="2"/>
       <c r="R51" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="S51" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="T51" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="U51" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="V51" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="W51" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="X51" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Y51" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Z51" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AA51" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AB51" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AC51" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AD51" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>397</v>
+        <v>73</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>80</v>
+        <v>398</v>
       </c>
       <c r="AG51" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AH51" t="s" s="2">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="AI51" t="s" s="2">
-        <v>92</v>
+        <v>73</v>
       </c>
       <c r="AJ51" t="s" s="2">
-        <v>72</v>
+        <v>93</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>386</v>
+        <v>73</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>72</v>
+        <v>387</v>
       </c>
       <c r="AM51" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
+      </c>
+      <c r="AN51" t="s" s="2">
+        <v>73</v>
       </c>
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>401</v>
-      </c>
-      <c r="B52" s="2"/>
-      <c r="C52" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="D52" s="2"/>
-      <c r="E52" t="s" s="2">
-        <v>73</v>
-      </c>
+        <v>402</v>
+      </c>
+      <c r="B52" t="s" s="2">
+        <v>402</v>
+      </c>
+      <c r="C52" s="2"/>
+      <c r="D52" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="E52" s="2"/>
       <c r="F52" t="s" s="2">
         <v>74</v>
       </c>
       <c r="G52" t="s" s="2">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="H52" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="I52" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>346</v>
+        <v>73</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>402</v>
+        <v>347</v>
       </c>
       <c r="L52" t="s" s="2">
         <v>403</v>
       </c>
-      <c r="M52" s="2"/>
-      <c r="N52" t="s" s="2">
+      <c r="M52" t="s" s="2">
         <v>404</v>
       </c>
+      <c r="N52" s="2"/>
       <c r="O52" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="P52" s="2"/>
-      <c r="Q52" t="s" s="2">
-        <v>72</v>
-      </c>
+        <v>405</v>
+      </c>
+      <c r="P52" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Q52" s="2"/>
       <c r="R52" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="S52" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="T52" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="U52" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="V52" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="W52" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="X52" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Y52" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Z52" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AA52" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AB52" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AC52" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AD52" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>401</v>
+        <v>73</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>73</v>
+        <v>402</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AH52" t="s" s="2">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="AI52" t="s" s="2">
-        <v>92</v>
+        <v>73</v>
       </c>
       <c r="AJ52" t="s" s="2">
-        <v>72</v>
+        <v>93</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>386</v>
+        <v>73</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>72</v>
+        <v>387</v>
       </c>
       <c r="AM52" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
+      </c>
+      <c r="AN52" t="s" s="2">
+        <v>73</v>
       </c>
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>405</v>
-      </c>
-      <c r="B53" s="2"/>
-      <c r="C53" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="D53" s="2"/>
-      <c r="E53" t="s" s="2">
-        <v>73</v>
-      </c>
+        <v>406</v>
+      </c>
+      <c r="B53" t="s" s="2">
+        <v>406</v>
+      </c>
+      <c r="C53" s="2"/>
+      <c r="D53" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="E53" s="2"/>
       <c r="F53" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="G53" t="s" s="2">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="H53" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="I53" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>227</v>
+        <v>73</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>352</v>
+        <v>228</v>
       </c>
       <c r="L53" t="s" s="2">
         <v>353</v>
       </c>
-      <c r="M53" s="2"/>
+      <c r="M53" t="s" s="2">
+        <v>354</v>
+      </c>
       <c r="N53" s="2"/>
-      <c r="O53" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="P53" s="2"/>
-      <c r="Q53" t="s" s="2">
-        <v>72</v>
-      </c>
+      <c r="O53" s="2"/>
+      <c r="P53" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Q53" s="2"/>
       <c r="R53" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="S53" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="T53" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="U53" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="V53" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="W53" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="X53" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Y53" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Z53" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AA53" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AB53" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AC53" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AD53" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>354</v>
+        <v>73</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>73</v>
+        <v>355</v>
       </c>
       <c r="AG53" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="AH53" t="s" s="2">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="AI53" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AJ53" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AK53" t="s" s="2">
-        <v>355</v>
+        <v>73</v>
       </c>
       <c r="AL53" t="s" s="2">
-        <v>72</v>
+        <v>356</v>
       </c>
       <c r="AM53" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
+      </c>
+      <c r="AN53" t="s" s="2">
+        <v>73</v>
       </c>
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>406</v>
-      </c>
-      <c r="B54" s="2"/>
-      <c r="C54" t="s" s="2">
-        <v>125</v>
-      </c>
-      <c r="D54" s="2"/>
-      <c r="E54" t="s" s="2">
-        <v>73</v>
-      </c>
+        <v>407</v>
+      </c>
+      <c r="B54" t="s" s="2">
+        <v>407</v>
+      </c>
+      <c r="C54" s="2"/>
+      <c r="D54" t="s" s="2">
+        <v>126</v>
+      </c>
+      <c r="E54" s="2"/>
       <c r="F54" t="s" s="2">
         <v>74</v>
       </c>
       <c r="G54" t="s" s="2">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="H54" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="I54" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>126</v>
+        <v>73</v>
       </c>
       <c r="K54" t="s" s="2">
         <v>127</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>357</v>
+        <v>128</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>129</v>
-      </c>
-      <c r="N54" s="2"/>
-      <c r="O54" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="P54" s="2"/>
-      <c r="Q54" t="s" s="2">
-        <v>72</v>
-      </c>
+        <v>358</v>
+      </c>
+      <c r="N54" t="s" s="2">
+        <v>130</v>
+      </c>
+      <c r="O54" s="2"/>
+      <c r="P54" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Q54" s="2"/>
       <c r="R54" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="S54" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="T54" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="U54" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="V54" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="W54" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="X54" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Y54" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Z54" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AA54" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AB54" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AC54" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AD54" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>358</v>
+        <v>73</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>73</v>
+        <v>359</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AH54" t="s" s="2">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="AI54" t="s" s="2">
-        <v>131</v>
+        <v>73</v>
       </c>
       <c r="AJ54" t="s" s="2">
-        <v>72</v>
+        <v>132</v>
       </c>
       <c r="AK54" t="s" s="2">
-        <v>355</v>
+        <v>73</v>
       </c>
       <c r="AL54" t="s" s="2">
-        <v>72</v>
+        <v>356</v>
       </c>
       <c r="AM54" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
+      </c>
+      <c r="AN54" t="s" s="2">
+        <v>73</v>
       </c>
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>407</v>
-      </c>
-      <c r="B55" s="2"/>
-      <c r="C55" t="s" s="2">
-        <v>360</v>
-      </c>
-      <c r="D55" s="2"/>
-      <c r="E55" t="s" s="2">
-        <v>73</v>
-      </c>
+        <v>408</v>
+      </c>
+      <c r="B55" t="s" s="2">
+        <v>408</v>
+      </c>
+      <c r="C55" s="2"/>
+      <c r="D55" t="s" s="2">
+        <v>361</v>
+      </c>
+      <c r="E55" s="2"/>
       <c r="F55" t="s" s="2">
         <v>74</v>
       </c>
       <c r="G55" t="s" s="2">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="H55" t="s" s="2">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="I55" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>126</v>
+        <v>82</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>361</v>
+        <v>127</v>
       </c>
       <c r="L55" t="s" s="2">
         <v>362</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>129</v>
+        <v>363</v>
       </c>
       <c r="N55" t="s" s="2">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="O55" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="P55" s="2"/>
-      <c r="Q55" t="s" s="2">
-        <v>72</v>
-      </c>
+        <v>136</v>
+      </c>
+      <c r="P55" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Q55" s="2"/>
       <c r="R55" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="S55" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="T55" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="U55" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="V55" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="W55" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="X55" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Y55" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Z55" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AA55" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AB55" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AC55" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AD55" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>363</v>
+        <v>73</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>73</v>
+        <v>364</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AH55" t="s" s="2">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="AI55" t="s" s="2">
-        <v>131</v>
+        <v>73</v>
       </c>
       <c r="AJ55" t="s" s="2">
-        <v>72</v>
+        <v>132</v>
       </c>
       <c r="AK55" t="s" s="2">
-        <v>123</v>
+        <v>73</v>
       </c>
       <c r="AL55" t="s" s="2">
-        <v>72</v>
+        <v>124</v>
       </c>
       <c r="AM55" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
+      </c>
+      <c r="AN55" t="s" s="2">
+        <v>73</v>
       </c>
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>408</v>
-      </c>
-      <c r="B56" s="2"/>
-      <c r="C56" t="s" s="2">
-        <v>391</v>
-      </c>
-      <c r="D56" s="2"/>
-      <c r="E56" t="s" s="2">
-        <v>80</v>
-      </c>
+        <v>409</v>
+      </c>
+      <c r="B56" t="s" s="2">
+        <v>409</v>
+      </c>
+      <c r="C56" s="2"/>
+      <c r="D56" t="s" s="2">
+        <v>392</v>
+      </c>
+      <c r="E56" s="2"/>
       <c r="F56" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G56" t="s" s="2">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="H56" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="I56" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>185</v>
+        <v>73</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>409</v>
+        <v>186</v>
       </c>
       <c r="L56" t="s" s="2">
         <v>410</v>
       </c>
-      <c r="M56" s="2"/>
-      <c r="N56" t="s" s="2">
+      <c r="M56" t="s" s="2">
         <v>411</v>
       </c>
+      <c r="N56" s="2"/>
       <c r="O56" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="P56" s="2"/>
-      <c r="Q56" t="s" s="2">
-        <v>72</v>
-      </c>
+        <v>412</v>
+      </c>
+      <c r="P56" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Q56" s="2"/>
       <c r="R56" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="S56" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="T56" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="U56" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="V56" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="W56" t="s" s="2">
-        <v>195</v>
+        <v>73</v>
       </c>
       <c r="X56" t="s" s="2">
-        <v>412</v>
+        <v>196</v>
       </c>
       <c r="Y56" t="s" s="2">
-        <v>72</v>
+        <v>413</v>
       </c>
       <c r="Z56" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AA56" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AB56" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AC56" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AD56" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>408</v>
+        <v>73</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>80</v>
+        <v>409</v>
       </c>
       <c r="AG56" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AH56" t="s" s="2">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="AI56" t="s" s="2">
-        <v>92</v>
+        <v>73</v>
       </c>
       <c r="AJ56" t="s" s="2">
-        <v>72</v>
+        <v>93</v>
       </c>
       <c r="AK56" t="s" s="2">
-        <v>386</v>
+        <v>73</v>
       </c>
       <c r="AL56" t="s" s="2">
-        <v>72</v>
+        <v>387</v>
       </c>
       <c r="AM56" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
+      </c>
+      <c r="AN56" t="s" s="2">
+        <v>73</v>
       </c>
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>413</v>
-      </c>
-      <c r="B57" s="2"/>
-      <c r="C57" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="D57" s="2"/>
-      <c r="E57" t="s" s="2">
-        <v>80</v>
-      </c>
+        <v>414</v>
+      </c>
+      <c r="B57" t="s" s="2">
+        <v>414</v>
+      </c>
+      <c r="C57" s="2"/>
+      <c r="D57" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="E57" s="2"/>
       <c r="F57" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G57" t="s" s="2">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="H57" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="I57" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="J57" t="s" s="2">
-        <v>398</v>
+        <v>73</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>414</v>
+        <v>399</v>
       </c>
       <c r="L57" t="s" s="2">
         <v>415</v>
       </c>
-      <c r="M57" s="2"/>
-      <c r="N57" t="s" s="2">
+      <c r="M57" t="s" s="2">
         <v>416</v>
       </c>
+      <c r="N57" s="2"/>
       <c r="O57" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="P57" s="2"/>
-      <c r="Q57" t="s" s="2">
-        <v>72</v>
-      </c>
+        <v>417</v>
+      </c>
+      <c r="P57" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Q57" s="2"/>
       <c r="R57" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="S57" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="T57" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="U57" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="V57" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="W57" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="X57" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Y57" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Z57" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AA57" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AB57" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AC57" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AD57" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>413</v>
+        <v>73</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>80</v>
+        <v>414</v>
       </c>
       <c r="AG57" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AH57" t="s" s="2">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="AI57" t="s" s="2">
-        <v>92</v>
+        <v>73</v>
       </c>
       <c r="AJ57" t="s" s="2">
-        <v>72</v>
+        <v>93</v>
       </c>
       <c r="AK57" t="s" s="2">
-        <v>386</v>
+        <v>73</v>
       </c>
       <c r="AL57" t="s" s="2">
-        <v>72</v>
+        <v>387</v>
       </c>
       <c r="AM57" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
+      </c>
+      <c r="AN57" t="s" s="2">
+        <v>73</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AM57">
+  <autoFilter ref="A1:AN57">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>

--- a/StructureDefinition-be-performer-task.xlsx
+++ b/StructureDefinition-be-performer-task.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2085" uniqueCount="418">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2085" uniqueCount="419">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-01-05T08:20:17+00:00</t>
+    <t>2023-01-24T07:53:27+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -244,6 +244,10 @@
   </si>
   <si>
     <t>*</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+</t>
   </si>
   <si>
     <t>A task to be performed</t>
@@ -1820,13 +1824,13 @@
         <v>73</v>
       </c>
       <c r="K2" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="L2" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="M2" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="N2" s="2"/>
       <c r="O2" s="2"/>
@@ -1892,10 +1896,10 @@
         <v>73</v>
       </c>
       <c r="AK2" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AL2" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AM2" t="s" s="2">
         <v>73</v>
@@ -1906,10 +1910,10 @@
     </row>
     <row r="3" hidden="true">
       <c r="A3" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" t="s" s="2">
@@ -1920,7 +1924,7 @@
         <v>74</v>
       </c>
       <c r="G3" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H3" t="s" s="2">
         <v>73</v>
@@ -1929,19 +1933,19 @@
         <v>73</v>
       </c>
       <c r="J3" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="K3" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="L3" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="M3" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="N3" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="O3" s="2"/>
       <c r="P3" t="s" s="2">
@@ -1991,13 +1995,13 @@
         <v>73</v>
       </c>
       <c r="AF3" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AG3" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AH3" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AI3" t="s" s="2">
         <v>73</v>
@@ -2020,10 +2024,10 @@
     </row>
     <row r="4" hidden="true">
       <c r="A4" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" t="s" s="2">
@@ -2034,7 +2038,7 @@
         <v>74</v>
       </c>
       <c r="G4" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H4" t="s" s="2">
         <v>73</v>
@@ -2043,16 +2047,16 @@
         <v>73</v>
       </c>
       <c r="J4" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="K4" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="L4" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="M4" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="N4" s="2"/>
       <c r="O4" s="2"/>
@@ -2103,19 +2107,19 @@
         <v>73</v>
       </c>
       <c r="AF4" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AG4" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AH4" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AI4" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AJ4" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AK4" t="s" s="2">
         <v>73</v>
@@ -2132,10 +2136,10 @@
     </row>
     <row r="5" hidden="true">
       <c r="A5" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" t="s" s="2">
@@ -2146,28 +2150,28 @@
         <v>74</v>
       </c>
       <c r="G5" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H5" t="s" s="2">
         <v>73</v>
       </c>
       <c r="I5" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="J5" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="K5" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="L5" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="M5" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="N5" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="O5" s="2"/>
       <c r="P5" t="s" s="2">
@@ -2217,19 +2221,19 @@
         <v>73</v>
       </c>
       <c r="AF5" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AG5" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AH5" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AI5" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AJ5" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AK5" t="s" s="2">
         <v>73</v>
@@ -2246,10 +2250,10 @@
     </row>
     <row r="6" hidden="true">
       <c r="A6" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" t="s" s="2">
@@ -2260,7 +2264,7 @@
         <v>74</v>
       </c>
       <c r="G6" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H6" t="s" s="2">
         <v>73</v>
@@ -2272,16 +2276,16 @@
         <v>73</v>
       </c>
       <c r="K6" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="L6" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="M6" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="N6" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="O6" s="2"/>
       <c r="P6" t="s" s="2">
@@ -2307,13 +2311,13 @@
         <v>73</v>
       </c>
       <c r="X6" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="Y6" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="Z6" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="AA6" t="s" s="2">
         <v>73</v>
@@ -2331,19 +2335,19 @@
         <v>73</v>
       </c>
       <c r="AF6" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="AG6" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AH6" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AI6" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AJ6" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AK6" t="s" s="2">
         <v>73</v>
@@ -2360,21 +2364,21 @@
     </row>
     <row r="7" hidden="true">
       <c r="A7" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="E7" s="2"/>
       <c r="F7" t="s" s="2">
         <v>74</v>
       </c>
       <c r="G7" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H7" t="s" s="2">
         <v>73</v>
@@ -2386,16 +2390,16 @@
         <v>73</v>
       </c>
       <c r="K7" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="L7" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="M7" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="N7" t="s" s="2">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="O7" s="2"/>
       <c r="P7" t="s" s="2">
@@ -2445,25 +2449,25 @@
         <v>73</v>
       </c>
       <c r="AF7" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="AG7" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AH7" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AI7" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AJ7" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AK7" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AL7" t="s" s="2">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="AM7" t="s" s="2">
         <v>73</v>
@@ -2474,14 +2478,14 @@
     </row>
     <row r="8" hidden="true">
       <c r="A8" t="s" s="2">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="E8" s="2"/>
       <c r="F8" t="s" s="2">
@@ -2500,16 +2504,16 @@
         <v>73</v>
       </c>
       <c r="K8" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="L8" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="M8" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="N8" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="O8" s="2"/>
       <c r="P8" t="s" s="2">
@@ -2559,7 +2563,7 @@
         <v>73</v>
       </c>
       <c r="AF8" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="AG8" t="s" s="2">
         <v>74</v>
@@ -2577,7 +2581,7 @@
         <v>73</v>
       </c>
       <c r="AL8" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AM8" t="s" s="2">
         <v>73</v>
@@ -2588,14 +2592,14 @@
     </row>
     <row r="9" hidden="true">
       <c r="A9" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="E9" s="2"/>
       <c r="F9" t="s" s="2">
@@ -2614,16 +2618,16 @@
         <v>73</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="L9" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="M9" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="N9" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="O9" s="2"/>
       <c r="P9" t="s" s="2">
@@ -2673,7 +2677,7 @@
         <v>73</v>
       </c>
       <c r="AF9" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="AG9" t="s" s="2">
         <v>74</v>
@@ -2685,13 +2689,13 @@
         <v>73</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="AK9" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AL9" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AM9" t="s" s="2">
         <v>73</v>
@@ -2702,14 +2706,14 @@
     </row>
     <row r="10" hidden="true">
       <c r="A10" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="E10" s="2"/>
       <c r="F10" t="s" s="2">
@@ -2722,25 +2726,25 @@
         <v>73</v>
       </c>
       <c r="I10" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="J10" t="s" s="2">
         <v>73</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="N10" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="O10" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="P10" t="s" s="2">
         <v>73</v>
@@ -2789,7 +2793,7 @@
         <v>73</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="AG10" t="s" s="2">
         <v>74</v>
@@ -2801,13 +2805,13 @@
         <v>73</v>
       </c>
       <c r="AJ10" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="AK10" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AL10" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AM10" t="s" s="2">
         <v>73</v>
@@ -2818,10 +2822,10 @@
     </row>
     <row r="11" hidden="true">
       <c r="A11" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" t="s" s="2">
@@ -2844,13 +2848,13 @@
         <v>73</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="M11" t="s" s="2">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="N11" s="2"/>
       <c r="O11" s="2"/>
@@ -2901,7 +2905,7 @@
         <v>73</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="AG11" t="s" s="2">
         <v>74</v>
@@ -2913,16 +2917,16 @@
         <v>73</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AK11" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="AL11" t="s" s="2">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="AM11" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="AN11" t="s" s="2">
         <v>73</v>
@@ -2930,10 +2934,10 @@
     </row>
     <row r="12" hidden="true">
       <c r="A12" t="s" s="2">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" t="s" s="2">
@@ -2944,7 +2948,7 @@
         <v>74</v>
       </c>
       <c r="G12" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H12" t="s" s="2">
         <v>73</v>
@@ -2953,20 +2957,20 @@
         <v>73</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="M12" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="N12" s="2"/>
       <c r="O12" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="P12" t="s" s="2">
         <v>73</v>
@@ -3015,25 +3019,25 @@
         <v>73</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="AG12" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AH12" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AI12" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AK12" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="AL12" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="AM12" t="s" s="2">
         <v>73</v>
@@ -3044,10 +3048,10 @@
     </row>
     <row r="13" hidden="true">
       <c r="A13" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" t="s" s="2">
@@ -3058,7 +3062,7 @@
         <v>74</v>
       </c>
       <c r="G13" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H13" t="s" s="2">
         <v>73</v>
@@ -3067,20 +3071,20 @@
         <v>73</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="N13" s="2"/>
       <c r="O13" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="P13" t="s" s="2">
         <v>73</v>
@@ -3129,25 +3133,25 @@
         <v>73</v>
       </c>
       <c r="AF13" t="s" s="2">
+        <v>153</v>
+      </c>
+      <c r="AG13" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AH13" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AI13" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AJ13" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="AK13" t="s" s="2">
+        <v>156</v>
+      </c>
+      <c r="AL13" t="s" s="2">
         <v>152</v>
-      </c>
-      <c r="AG13" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AH13" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AI13" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AJ13" t="s" s="2">
-        <v>93</v>
-      </c>
-      <c r="AK13" t="s" s="2">
-        <v>155</v>
-      </c>
-      <c r="AL13" t="s" s="2">
-        <v>151</v>
       </c>
       <c r="AM13" t="s" s="2">
         <v>73</v>
@@ -3158,10 +3162,10 @@
     </row>
     <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
@@ -3181,16 +3185,16 @@
         <v>73</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="N14" s="2"/>
       <c r="O14" s="2"/>
@@ -3241,7 +3245,7 @@
         <v>73</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="AG14" t="s" s="2">
         <v>74</v>
@@ -3253,13 +3257,13 @@
         <v>73</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AK14" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="AL14" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="AM14" t="s" s="2">
         <v>73</v>
@@ -3270,10 +3274,10 @@
     </row>
     <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
@@ -3284,7 +3288,7 @@
         <v>74</v>
       </c>
       <c r="G15" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H15" t="s" s="2">
         <v>73</v>
@@ -3293,20 +3297,20 @@
         <v>73</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="N15" s="2"/>
       <c r="O15" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="P15" t="s" s="2">
         <v>73</v>
@@ -3355,25 +3359,25 @@
         <v>73</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="AG15" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AH15" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AI15" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AJ15" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AK15" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="AL15" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="AM15" t="s" s="2">
         <v>73</v>
@@ -3384,10 +3388,10 @@
     </row>
     <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
@@ -3395,34 +3399,34 @@
       </c>
       <c r="E16" s="2"/>
       <c r="F16" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="G16" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H16" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="I16" t="s" s="2">
         <v>73</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="N16" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="O16" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="P16" t="s" s="2">
         <v>73</v>
@@ -3471,7 +3475,7 @@
         <v>73</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="AG16" t="s" s="2">
         <v>74</v>
@@ -3483,13 +3487,13 @@
         <v>73</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AK16" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="AL16" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="AM16" t="s" s="2">
         <v>73</v>
@@ -3500,10 +3504,10 @@
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
@@ -3511,32 +3515,32 @@
       </c>
       <c r="E17" s="2"/>
       <c r="F17" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="G17" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H17" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="I17" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="N17" s="2"/>
       <c r="O17" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="P17" t="s" s="2">
         <v>73</v>
@@ -3561,13 +3565,13 @@
         <v>73</v>
       </c>
       <c r="X17" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="Y17" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="Z17" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="AA17" t="s" s="2">
         <v>73</v>
@@ -3585,28 +3589,28 @@
         <v>73</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="AG17" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AH17" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AI17" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AK17" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="AL17" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="AM17" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="AN17" t="s" s="2">
         <v>73</v>
@@ -3614,10 +3618,10 @@
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
@@ -3628,28 +3632,28 @@
         <v>74</v>
       </c>
       <c r="G18" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H18" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="I18" t="s" s="2">
         <v>73</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="N18" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="O18" s="2"/>
       <c r="P18" t="s" s="2">
@@ -3675,11 +3679,11 @@
         <v>73</v>
       </c>
       <c r="X18" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="Y18" s="2"/>
       <c r="Z18" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="AA18" t="s" s="2">
         <v>73</v>
@@ -3697,25 +3701,25 @@
         <v>73</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AH18" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AI18" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AK18" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AL18" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="AM18" t="s" s="2">
         <v>73</v>
@@ -3726,10 +3730,10 @@
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
@@ -3740,7 +3744,7 @@
         <v>74</v>
       </c>
       <c r="G19" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H19" t="s" s="2">
         <v>73</v>
@@ -3749,20 +3753,20 @@
         <v>73</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="N19" s="2"/>
       <c r="O19" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="P19" t="s" s="2">
         <v>73</v>
@@ -3787,10 +3791,10 @@
         <v>73</v>
       </c>
       <c r="X19" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="Y19" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="Z19" t="s" s="2">
         <v>73</v>
@@ -3811,25 +3815,25 @@
         <v>73</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AH19" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AI19" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AK19" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="AM19" t="s" s="2">
         <v>73</v>
@@ -3840,10 +3844,10 @@
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
@@ -3851,10 +3855,10 @@
       </c>
       <c r="E20" s="2"/>
       <c r="F20" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="G20" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H20" t="s" s="2">
         <v>73</v>
@@ -3863,19 +3867,19 @@
         <v>73</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="N20" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="O20" s="2"/>
       <c r="P20" t="s" s="2">
@@ -3901,13 +3905,13 @@
         <v>73</v>
       </c>
       <c r="X20" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="Y20" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="Z20" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="AA20" t="s" s="2">
         <v>73</v>
@@ -3925,28 +3929,28 @@
         <v>73</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="AG20" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AH20" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AI20" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="AM20" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="AN20" t="s" s="2">
         <v>73</v>
@@ -3954,10 +3958,10 @@
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
@@ -3968,7 +3972,7 @@
         <v>74</v>
       </c>
       <c r="G21" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H21" t="s" s="2">
         <v>73</v>
@@ -3980,23 +3984,23 @@
         <v>73</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="N21" s="2"/>
       <c r="O21" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="P21" t="s" s="2">
         <v>73</v>
       </c>
       <c r="Q21" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="R21" t="s" s="2">
         <v>73</v>
@@ -4017,13 +4021,13 @@
         <v>73</v>
       </c>
       <c r="X21" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="Y21" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="Z21" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="AA21" t="s" s="2">
         <v>73</v>
@@ -4041,28 +4045,28 @@
         <v>73</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AH21" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AI21" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="AM21" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="AN21" t="s" s="2">
         <v>73</v>
@@ -4070,10 +4074,10 @@
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
@@ -4084,7 +4088,7 @@
         <v>74</v>
       </c>
       <c r="G22" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H22" t="s" s="2">
         <v>73</v>
@@ -4093,19 +4097,19 @@
         <v>73</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="N22" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="O22" s="2"/>
       <c r="P22" t="s" s="2">
@@ -4131,13 +4135,13 @@
         <v>73</v>
       </c>
       <c r="X22" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="Y22" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="Z22" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="AA22" t="s" s="2">
         <v>73</v>
@@ -4155,28 +4159,28 @@
         <v>73</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AH22" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AI22" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="AM22" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="AN22" t="s" s="2">
         <v>73</v>
@@ -4184,10 +4188,10 @@
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
@@ -4198,7 +4202,7 @@
         <v>74</v>
       </c>
       <c r="G23" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H23" t="s" s="2">
         <v>73</v>
@@ -4207,16 +4211,16 @@
         <v>73</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="N23" s="2"/>
       <c r="O23" s="2"/>
@@ -4267,25 +4271,25 @@
         <v>73</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AH23" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AI23" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AK23" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="AM23" t="s" s="2">
         <v>73</v>
@@ -4296,10 +4300,10 @@
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
@@ -4310,7 +4314,7 @@
         <v>74</v>
       </c>
       <c r="G24" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H24" t="s" s="2">
         <v>73</v>
@@ -4319,22 +4323,22 @@
         <v>73</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="N24" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="O24" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="P24" t="s" s="2">
         <v>73</v>
@@ -4383,28 +4387,28 @@
         <v>73</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AH24" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AI24" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AK24" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="AM24" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="AN24" t="s" s="2">
         <v>73</v>
@@ -4412,21 +4416,21 @@
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="E25" s="2"/>
       <c r="F25" t="s" s="2">
         <v>74</v>
       </c>
       <c r="G25" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H25" t="s" s="2">
         <v>73</v>
@@ -4435,20 +4439,20 @@
         <v>73</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="N25" s="2"/>
       <c r="O25" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="P25" t="s" s="2">
         <v>73</v>
@@ -4497,28 +4501,28 @@
         <v>73</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AH25" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AI25" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="AN25" t="s" s="2">
         <v>73</v>
@@ -4526,10 +4530,10 @@
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -4540,7 +4544,7 @@
         <v>74</v>
       </c>
       <c r="G26" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H26" t="s" s="2">
         <v>73</v>
@@ -4549,20 +4553,20 @@
         <v>73</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="N26" s="2"/>
       <c r="O26" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="P26" t="s" s="2">
         <v>73</v>
@@ -4611,28 +4615,28 @@
         <v>73</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AH26" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AI26" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="AN26" t="s" s="2">
         <v>73</v>
@@ -4640,10 +4644,10 @@
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
@@ -4651,28 +4655,28 @@
       </c>
       <c r="E27" s="2"/>
       <c r="F27" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="G27" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H27" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="I27" t="s" s="2">
         <v>73</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="N27" s="2"/>
       <c r="O27" s="2"/>
@@ -4723,28 +4727,28 @@
         <v>73</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AH27" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AI27" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="AN27" t="s" s="2">
         <v>73</v>
@@ -4752,21 +4756,21 @@
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="E28" s="2"/>
       <c r="F28" t="s" s="2">
         <v>74</v>
       </c>
       <c r="G28" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H28" t="s" s="2">
         <v>73</v>
@@ -4778,17 +4782,17 @@
         <v>73</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="N28" s="2"/>
       <c r="O28" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="P28" t="s" s="2">
         <v>73</v>
@@ -4837,28 +4841,28 @@
         <v>73</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AH28" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AI28" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="AN28" t="s" s="2">
         <v>73</v>
@@ -4866,21 +4870,21 @@
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="E29" s="2"/>
       <c r="F29" t="s" s="2">
         <v>74</v>
       </c>
       <c r="G29" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H29" t="s" s="2">
         <v>73</v>
@@ -4889,20 +4893,20 @@
         <v>73</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="N29" s="2"/>
       <c r="O29" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="P29" t="s" s="2">
         <v>73</v>
@@ -4951,25 +4955,25 @@
         <v>73</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AH29" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AI29" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AK29" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="AM29" t="s" s="2">
         <v>73</v>
@@ -4980,10 +4984,10 @@
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -4994,7 +4998,7 @@
         <v>74</v>
       </c>
       <c r="G30" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H30" t="s" s="2">
         <v>73</v>
@@ -5003,20 +5007,20 @@
         <v>73</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="N30" s="2"/>
       <c r="O30" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="P30" t="s" s="2">
         <v>73</v>
@@ -5065,28 +5069,28 @@
         <v>73</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AH30" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AI30" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="AN30" t="s" s="2">
         <v>73</v>
@@ -5094,10 +5098,10 @@
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -5120,17 +5124,17 @@
         <v>73</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="N31" s="2"/>
       <c r="O31" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="P31" t="s" s="2">
         <v>73</v>
@@ -5155,13 +5159,13 @@
         <v>73</v>
       </c>
       <c r="X31" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="Y31" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="Z31" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="AA31" t="s" s="2">
         <v>73</v>
@@ -5179,7 +5183,7 @@
         <v>73</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>74</v>
@@ -5191,16 +5195,16 @@
         <v>73</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="AN31" t="s" s="2">
         <v>73</v>
@@ -5208,45 +5212,45 @@
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="E32" s="2"/>
       <c r="F32" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="G32" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H32" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="I32" t="s" s="2">
         <v>73</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="N32" t="s" s="2">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="O32" t="s" s="2">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="P32" t="s" s="2">
         <v>73</v>
@@ -5295,28 +5299,28 @@
         <v>73</v>
       </c>
       <c r="AF32" t="s" s="2">
+        <v>295</v>
+      </c>
+      <c r="AG32" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AH32" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AI32" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AJ32" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="AK32" t="s" s="2">
+        <v>302</v>
+      </c>
+      <c r="AL32" t="s" s="2">
+        <v>303</v>
+      </c>
+      <c r="AM32" t="s" s="2">
         <v>294</v>
-      </c>
-      <c r="AG32" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AH32" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AI32" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AJ32" t="s" s="2">
-        <v>93</v>
-      </c>
-      <c r="AK32" t="s" s="2">
-        <v>301</v>
-      </c>
-      <c r="AL32" t="s" s="2">
-        <v>302</v>
-      </c>
-      <c r="AM32" t="s" s="2">
-        <v>293</v>
       </c>
       <c r="AN32" t="s" s="2">
         <v>73</v>
@@ -5324,10 +5328,10 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
@@ -5338,7 +5342,7 @@
         <v>74</v>
       </c>
       <c r="G33" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H33" t="s" s="2">
         <v>73</v>
@@ -5347,20 +5351,20 @@
         <v>73</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="N33" s="2"/>
       <c r="O33" t="s" s="2">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="P33" t="s" s="2">
         <v>73</v>
@@ -5409,28 +5413,28 @@
         <v>73</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AH33" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AI33" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="AN33" t="s" s="2">
         <v>73</v>
@@ -5438,10 +5442,10 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -5452,7 +5456,7 @@
         <v>74</v>
       </c>
       <c r="G34" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H34" t="s" s="2">
         <v>73</v>
@@ -5464,16 +5468,16 @@
         <v>73</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="N34" t="s" s="2">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="O34" s="2"/>
       <c r="P34" t="s" s="2">
@@ -5499,10 +5503,10 @@
         <v>73</v>
       </c>
       <c r="X34" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="Y34" t="s" s="2">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="Z34" t="s" s="2">
         <v>73</v>
@@ -5523,39 +5527,39 @@
         <v>73</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AH34" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AI34" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="AN34" t="s" s="2">
-        <v>319</v>
+        <v>320</v>
       </c>
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -5566,7 +5570,7 @@
         <v>74</v>
       </c>
       <c r="G35" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H35" t="s" s="2">
         <v>73</v>
@@ -5578,16 +5582,16 @@
         <v>73</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="N35" t="s" s="2">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="O35" s="2"/>
       <c r="P35" t="s" s="2">
@@ -5637,28 +5641,28 @@
         <v>73</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AH35" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AI35" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="AN35" t="s" s="2">
         <v>73</v>
@@ -5666,10 +5670,10 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -5692,13 +5696,13 @@
         <v>73</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="N36" s="2"/>
       <c r="O36" s="2"/>
@@ -5749,7 +5753,7 @@
         <v>73</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>74</v>
@@ -5761,27 +5765,27 @@
         <v>73</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="AM36" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AN36" t="s" s="2">
-        <v>331</v>
+        <v>332</v>
       </c>
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -5804,13 +5808,13 @@
         <v>73</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="N37" s="2"/>
       <c r="O37" s="2"/>
@@ -5861,7 +5865,7 @@
         <v>73</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>74</v>
@@ -5873,13 +5877,13 @@
         <v>73</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="AM37" t="s" s="2">
         <v>73</v>
@@ -5890,14 +5894,14 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="E38" s="2"/>
       <c r="F38" t="s" s="2">
@@ -5916,16 +5920,16 @@
         <v>73</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="N38" t="s" s="2">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="O38" s="2"/>
       <c r="P38" t="s" s="2">
@@ -5975,7 +5979,7 @@
         <v>73</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>74</v>
@@ -5987,13 +5991,13 @@
         <v>73</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="AM38" t="s" s="2">
         <v>73</v>
@@ -6004,10 +6008,10 @@
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -6018,7 +6022,7 @@
         <v>74</v>
       </c>
       <c r="G39" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H39" t="s" s="2">
         <v>73</v>
@@ -6030,17 +6034,17 @@
         <v>73</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="N39" s="2"/>
       <c r="O39" t="s" s="2">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="P39" t="s" s="2">
         <v>73</v>
@@ -6089,25 +6093,25 @@
         <v>73</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AH39" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AI39" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AK39" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="AM39" t="s" s="2">
         <v>73</v>
@@ -6118,10 +6122,10 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -6132,7 +6136,7 @@
         <v>74</v>
       </c>
       <c r="G40" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H40" t="s" s="2">
         <v>73</v>
@@ -6144,13 +6148,13 @@
         <v>73</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="N40" s="2"/>
       <c r="O40" s="2"/>
@@ -6201,13 +6205,13 @@
         <v>73</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AH40" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AI40" t="s" s="2">
         <v>73</v>
@@ -6219,7 +6223,7 @@
         <v>73</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="AM40" t="s" s="2">
         <v>73</v>
@@ -6230,14 +6234,14 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="E41" s="2"/>
       <c r="F41" t="s" s="2">
@@ -6256,16 +6260,16 @@
         <v>73</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="N41" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="O41" s="2"/>
       <c r="P41" t="s" s="2">
@@ -6315,7 +6319,7 @@
         <v>73</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>74</v>
@@ -6327,13 +6331,13 @@
         <v>73</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="AK41" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="AM41" t="s" s="2">
         <v>73</v>
@@ -6344,14 +6348,14 @@
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="E42" s="2"/>
       <c r="F42" t="s" s="2">
@@ -6364,25 +6368,25 @@
         <v>73</v>
       </c>
       <c r="I42" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="N42" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="O42" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="P42" t="s" s="2">
         <v>73</v>
@@ -6431,7 +6435,7 @@
         <v>73</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>74</v>
@@ -6443,13 +6447,13 @@
         <v>73</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="AK42" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AM42" t="s" s="2">
         <v>73</v>
@@ -6460,10 +6464,10 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -6474,7 +6478,7 @@
         <v>74</v>
       </c>
       <c r="G43" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H43" t="s" s="2">
         <v>73</v>
@@ -6486,17 +6490,17 @@
         <v>73</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="N43" s="2"/>
       <c r="O43" t="s" s="2">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="P43" t="s" s="2">
         <v>73</v>
@@ -6545,25 +6549,25 @@
         <v>73</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AH43" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AI43" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AK43" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="AM43" t="s" s="2">
         <v>73</v>
@@ -6574,10 +6578,10 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -6588,7 +6592,7 @@
         <v>74</v>
       </c>
       <c r="G44" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H44" t="s" s="2">
         <v>73</v>
@@ -6600,19 +6604,19 @@
         <v>73</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="N44" t="s" s="2">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="O44" t="s" s="2">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="P44" t="s" s="2">
         <v>73</v>
@@ -6661,25 +6665,25 @@
         <v>73</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AH44" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AI44" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AK44" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="AM44" t="s" s="2">
         <v>73</v>
@@ -6690,10 +6694,10 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -6716,13 +6720,13 @@
         <v>73</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="N45" s="2"/>
       <c r="O45" s="2"/>
@@ -6773,7 +6777,7 @@
         <v>73</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>74</v>
@@ -6785,13 +6789,13 @@
         <v>73</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AK45" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="AM45" t="s" s="2">
         <v>73</v>
@@ -6802,14 +6806,14 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="E46" s="2"/>
       <c r="F46" t="s" s="2">
@@ -6828,17 +6832,17 @@
         <v>73</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="N46" s="2"/>
       <c r="O46" t="s" s="2">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="P46" t="s" s="2">
         <v>73</v>
@@ -6887,7 +6891,7 @@
         <v>73</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>74</v>
@@ -6899,13 +6903,13 @@
         <v>73</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AK46" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="AM46" t="s" s="2">
         <v>73</v>
@@ -6916,10 +6920,10 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -6930,7 +6934,7 @@
         <v>74</v>
       </c>
       <c r="G47" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H47" t="s" s="2">
         <v>73</v>
@@ -6942,13 +6946,13 @@
         <v>73</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="N47" s="2"/>
       <c r="O47" s="2"/>
@@ -6999,13 +7003,13 @@
         <v>73</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AH47" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AI47" t="s" s="2">
         <v>73</v>
@@ -7017,7 +7021,7 @@
         <v>73</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="AM47" t="s" s="2">
         <v>73</v>
@@ -7028,14 +7032,14 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="E48" s="2"/>
       <c r="F48" t="s" s="2">
@@ -7054,16 +7058,16 @@
         <v>73</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="N48" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="O48" s="2"/>
       <c r="P48" t="s" s="2">
@@ -7113,7 +7117,7 @@
         <v>73</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>74</v>
@@ -7125,13 +7129,13 @@
         <v>73</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="AK48" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="AM48" t="s" s="2">
         <v>73</v>
@@ -7142,14 +7146,14 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="E49" s="2"/>
       <c r="F49" t="s" s="2">
@@ -7162,25 +7166,25 @@
         <v>73</v>
       </c>
       <c r="I49" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="N49" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="O49" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="P49" t="s" s="2">
         <v>73</v>
@@ -7229,7 +7233,7 @@
         <v>73</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>74</v>
@@ -7241,13 +7245,13 @@
         <v>73</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="AK49" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AM49" t="s" s="2">
         <v>73</v>
@@ -7258,21 +7262,21 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="E50" s="2"/>
       <c r="F50" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="G50" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H50" t="s" s="2">
         <v>73</v>
@@ -7284,19 +7288,19 @@
         <v>73</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="N50" t="s" s="2">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="O50" t="s" s="2">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="P50" t="s" s="2">
         <v>73</v>
@@ -7321,10 +7325,10 @@
         <v>73</v>
       </c>
       <c r="X50" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="Y50" t="s" s="2">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="Z50" t="s" s="2">
         <v>73</v>
@@ -7345,25 +7349,25 @@
         <v>73</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="AG50" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AH50" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AI50" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AK50" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="AM50" t="s" s="2">
         <v>73</v>
@@ -7374,10 +7378,10 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -7385,10 +7389,10 @@
       </c>
       <c r="E51" s="2"/>
       <c r="F51" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="G51" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H51" t="s" s="2">
         <v>73</v>
@@ -7400,13 +7404,13 @@
         <v>73</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="N51" s="2"/>
       <c r="O51" s="2"/>
@@ -7457,25 +7461,25 @@
         <v>73</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="AG51" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AH51" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AI51" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AJ51" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AK51" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="AM51" t="s" s="2">
         <v>73</v>
@@ -7486,10 +7490,10 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -7512,17 +7516,17 @@
         <v>73</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="N52" s="2"/>
       <c r="O52" t="s" s="2">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="P52" t="s" s="2">
         <v>73</v>
@@ -7571,7 +7575,7 @@
         <v>73</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>74</v>
@@ -7583,13 +7587,13 @@
         <v>73</v>
       </c>
       <c r="AJ52" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AK52" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="AM52" t="s" s="2">
         <v>73</v>
@@ -7600,10 +7604,10 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
@@ -7614,7 +7618,7 @@
         <v>74</v>
       </c>
       <c r="G53" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H53" t="s" s="2">
         <v>73</v>
@@ -7626,13 +7630,13 @@
         <v>73</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="N53" s="2"/>
       <c r="O53" s="2"/>
@@ -7683,13 +7687,13 @@
         <v>73</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AH53" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AI53" t="s" s="2">
         <v>73</v>
@@ -7701,7 +7705,7 @@
         <v>73</v>
       </c>
       <c r="AL53" t="s" s="2">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="AM53" t="s" s="2">
         <v>73</v>
@@ -7712,14 +7716,14 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="E54" s="2"/>
       <c r="F54" t="s" s="2">
@@ -7738,16 +7742,16 @@
         <v>73</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="N54" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="O54" s="2"/>
       <c r="P54" t="s" s="2">
@@ -7797,7 +7801,7 @@
         <v>73</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>74</v>
@@ -7809,13 +7813,13 @@
         <v>73</v>
       </c>
       <c r="AJ54" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="AK54" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AL54" t="s" s="2">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="AM54" t="s" s="2">
         <v>73</v>
@@ -7826,14 +7830,14 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="E55" s="2"/>
       <c r="F55" t="s" s="2">
@@ -7846,25 +7850,25 @@
         <v>73</v>
       </c>
       <c r="I55" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="N55" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="O55" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="P55" t="s" s="2">
         <v>73</v>
@@ -7913,7 +7917,7 @@
         <v>73</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>74</v>
@@ -7925,13 +7929,13 @@
         <v>73</v>
       </c>
       <c r="AJ55" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="AK55" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AL55" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AM55" t="s" s="2">
         <v>73</v>
@@ -7942,21 +7946,21 @@
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="E56" s="2"/>
       <c r="F56" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="G56" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H56" t="s" s="2">
         <v>73</v>
@@ -7968,17 +7972,17 @@
         <v>73</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="N56" s="2"/>
       <c r="O56" t="s" s="2">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="P56" t="s" s="2">
         <v>73</v>
@@ -8003,10 +8007,10 @@
         <v>73</v>
       </c>
       <c r="X56" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="Y56" t="s" s="2">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="Z56" t="s" s="2">
         <v>73</v>
@@ -8027,25 +8031,25 @@
         <v>73</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="AG56" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AH56" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AI56" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AJ56" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AK56" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AL56" t="s" s="2">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="AM56" t="s" s="2">
         <v>73</v>
@@ -8056,10 +8060,10 @@
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
@@ -8067,10 +8071,10 @@
       </c>
       <c r="E57" s="2"/>
       <c r="F57" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="G57" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H57" t="s" s="2">
         <v>73</v>
@@ -8082,17 +8086,17 @@
         <v>73</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="N57" s="2"/>
       <c r="O57" t="s" s="2">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="P57" t="s" s="2">
         <v>73</v>
@@ -8141,25 +8145,25 @@
         <v>73</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="AG57" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AH57" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AI57" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AJ57" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AK57" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AL57" t="s" s="2">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="AM57" t="s" s="2">
         <v>73</v>

--- a/StructureDefinition-be-performer-task.xlsx
+++ b/StructureDefinition-be-performer-task.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-01-24T07:53:27+00:00</t>
+    <t>2023-01-24T08:49:19+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-be-performer-task.xlsx
+++ b/StructureDefinition-be-performer-task.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-01-24T08:49:19+00:00</t>
+    <t>2023-02-02T07:53:11+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-be-performer-task.xlsx
+++ b/StructureDefinition-be-performer-task.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-10T09:12:07+00:00</t>
+    <t>2023-02-10T09:22:00+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-be-performer-task.xlsx
+++ b/StructureDefinition-be-performer-task.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-10T09:22:00+00:00</t>
+    <t>2023-02-10T15:47:03+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-be-performer-task.xlsx
+++ b/StructureDefinition-be-performer-task.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-10T15:47:03+00:00</t>
+    <t>2023-02-21T10:12:27+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-be-performer-task.xlsx
+++ b/StructureDefinition-be-performer-task.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-21T10:12:27+00:00</t>
+    <t>2023-02-21T10:12:31+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-be-performer-task.xlsx
+++ b/StructureDefinition-be-performer-task.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-21T10:12:31+00:00</t>
+    <t>2023-02-21T11:12:28+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-be-performer-task.xlsx
+++ b/StructureDefinition-be-performer-task.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-21T11:12:28+00:00</t>
+    <t>2023-02-21T11:12:51+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-be-performer-task.xlsx
+++ b/StructureDefinition-be-performer-task.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-21T11:12:51+00:00</t>
+    <t>2023-02-22T15:46:17+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-be-performer-task.xlsx
+++ b/StructureDefinition-be-performer-task.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-22T15:46:17+00:00</t>
+    <t>2023-03-10T07:39:36+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-be-performer-task.xlsx
+++ b/StructureDefinition-be-performer-task.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-10T07:39:36+00:00</t>
+    <t>2023-03-17T13:10:55+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-be-performer-task.xlsx
+++ b/StructureDefinition-be-performer-task.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-17T13:10:55+00:00</t>
+    <t>2023-03-17T13:11:04+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-be-performer-task.xlsx
+++ b/StructureDefinition-be-performer-task.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-17T13:11:04+00:00</t>
+    <t>2023-04-19T13:59:03+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-be-performer-task.xlsx
+++ b/StructureDefinition-be-performer-task.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-04-19T13:59:03+00:00</t>
+    <t>2023-04-20T18:37:34+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-be-performer-task.xlsx
+++ b/StructureDefinition-be-performer-task.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-04-20T18:37:34+00:00</t>
+    <t>2023-04-20T18:38:40+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-be-performer-task.xlsx
+++ b/StructureDefinition-be-performer-task.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-04-20T18:38:40+00:00</t>
+    <t>2023-04-20T18:40:27+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-be-performer-task.xlsx
+++ b/StructureDefinition-be-performer-task.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-04-20T18:40:27+00:00</t>
+    <t>2023-04-20T19:18:44+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-be-performer-task.xlsx
+++ b/StructureDefinition-be-performer-task.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-04-20T19:18:44+00:00</t>
+    <t>2023-04-20T19:23:54+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-be-performer-task.xlsx
+++ b/StructureDefinition-be-performer-task.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-04-20T19:23:54+00:00</t>
+    <t>2023-04-20T19:43:11+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-be-performer-task.xlsx
+++ b/StructureDefinition-be-performer-task.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-04-20T19:43:11+00:00</t>
+    <t>2023-04-21T10:15:27+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-be-performer-task.xlsx
+++ b/StructureDefinition-be-performer-task.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-04-21T10:15:27+00:00</t>
+    <t>2023-04-21T14:28:50+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-be-performer-task.xlsx
+++ b/StructureDefinition-be-performer-task.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-04-21T14:28:50+00:00</t>
+    <t>2023-04-21T14:29:36+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-be-performer-task.xlsx
+++ b/StructureDefinition-be-performer-task.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-04-21T14:29:36+00:00</t>
+    <t>2023-04-21T14:42:15+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-be-performer-task.xlsx
+++ b/StructureDefinition-be-performer-task.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-04-21T14:42:15+00:00</t>
+    <t>2023-04-21T14:42:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-be-performer-task.xlsx
+++ b/StructureDefinition-be-performer-task.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-04-21T14:42:33+00:00</t>
+    <t>2023-04-21T14:55:14+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-be-performer-task.xlsx
+++ b/StructureDefinition-be-performer-task.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-04-21T14:55:14+00:00</t>
+    <t>2023-04-21T14:56:41+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-be-performer-task.xlsx
+++ b/StructureDefinition-be-performer-task.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-04-21T14:56:41+00:00</t>
+    <t>2023-04-25T13:57:38+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-be-performer-task.xlsx
+++ b/StructureDefinition-be-performer-task.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-04-25T13:57:38+00:00</t>
+    <t>2023-04-28T07:14:58+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-be-performer-task.xlsx
+++ b/StructureDefinition-be-performer-task.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-04-28T07:14:58+00:00</t>
+    <t>2023-04-28T10:20:31+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-be-performer-task.xlsx
+++ b/StructureDefinition-be-performer-task.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-04-28T10:20:31+00:00</t>
+    <t>2023-04-28T10:21:40+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-be-performer-task.xlsx
+++ b/StructureDefinition-be-performer-task.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-04-28T10:21:40+00:00</t>
+    <t>2023-05-15T08:38:34+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -4655,7 +4655,7 @@
       </c>
       <c r="E27" s="2"/>
       <c r="F27" t="s" s="2">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="G27" t="s" s="2">
         <v>82</v>

--- a/StructureDefinition-be-performer-task.xlsx
+++ b/StructureDefinition-be-performer-task.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-05-15T08:38:34+00:00</t>
+    <t>2023-05-15T10:07:26+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-be-performer-task.xlsx
+++ b/StructureDefinition-be-performer-task.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-05-15T10:07:26+00:00</t>
+    <t>2023-05-15T10:09:56+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-be-performer-task.xlsx
+++ b/StructureDefinition-be-performer-task.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-05-15T10:09:56+00:00</t>
+    <t>2023-05-16T06:48:43+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-be-performer-task.xlsx
+++ b/StructureDefinition-be-performer-task.xlsx
@@ -48,7 +48,7 @@
     <t>Status</t>
   </si>
   <si>
-    <t>active</t>
+    <t>draft</t>
   </si>
   <si>
     <t>Experimental</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-05-16T06:48:43+00:00</t>
+    <t>2023-06-06T07:33:19+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-be-performer-task.xlsx
+++ b/StructureDefinition-be-performer-task.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-06-06T07:33:19+00:00</t>
+    <t>2023-06-06T07:37:43+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-be-performer-task.xlsx
+++ b/StructureDefinition-be-performer-task.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-06-06T07:37:43+00:00</t>
+    <t>2023-06-06T07:38:08+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-be-performer-task.xlsx
+++ b/StructureDefinition-be-performer-task.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-06-06T07:38:08+00:00</t>
+    <t>2023-06-06T07:41:53+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -545,7 +545,7 @@
     <t>Task.partOf</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Task)
+    <t xml:space="preserve">Reference(https://www.ehealth.fgov.be/standards/fhir/referral/StructureDefinition/be-referral-task)
 </t>
   </si>
   <si>

--- a/StructureDefinition-be-performer-task.xlsx
+++ b/StructureDefinition-be-performer-task.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-06-06T07:41:53+00:00</t>
+    <t>2023-06-06T07:45:21+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -3179,7 +3179,7 @@
         <v>75</v>
       </c>
       <c r="H14" t="s" s="2">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="I14" t="s" s="2">
         <v>73</v>

--- a/StructureDefinition-be-performer-task.xlsx
+++ b/StructureDefinition-be-performer-task.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-06-06T07:45:21+00:00</t>
+    <t>2023-06-08T08:30:17+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-be-performer-task.xlsx
+++ b/StructureDefinition-be-performer-task.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-06-08T08:30:17+00:00</t>
+    <t>2023-06-08T08:31:26+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-be-performer-task.xlsx
+++ b/StructureDefinition-be-performer-task.xlsx
@@ -10,13 +10,13 @@
     <sheet name="Elements" r:id="rId4" sheetId="2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AN$57</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AN$56</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2085" uniqueCount="419">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2045" uniqueCount="379">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-06-08T08:31:26+00:00</t>
+    <t>2023-06-14T06:47:29+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -115,126 +115,6 @@
   </si>
   <si>
     <t>constraint</t>
-  </si>
-  <si>
-    <t>ID</t>
-  </si>
-  <si>
-    <t>Path</t>
-  </si>
-  <si>
-    <t>Slice Name</t>
-  </si>
-  <si>
-    <t>Alias(s)</t>
-  </si>
-  <si>
-    <t>Label</t>
-  </si>
-  <si>
-    <t>Min</t>
-  </si>
-  <si>
-    <t>Max</t>
-  </si>
-  <si>
-    <t>Must Support?</t>
-  </si>
-  <si>
-    <t>Is Modifier?</t>
-  </si>
-  <si>
-    <t>Is Summary?</t>
-  </si>
-  <si>
-    <t>Type(s)</t>
-  </si>
-  <si>
-    <t>Short</t>
-  </si>
-  <si>
-    <t>Definition</t>
-  </si>
-  <si>
-    <t>Comments</t>
-  </si>
-  <si>
-    <t>Requirements</t>
-  </si>
-  <si>
-    <t>Default Value</t>
-  </si>
-  <si>
-    <t>Meaning When Missing</t>
-  </si>
-  <si>
-    <t>Fixed Value</t>
-  </si>
-  <si>
-    <t>Pattern</t>
-  </si>
-  <si>
-    <t>Example</t>
-  </si>
-  <si>
-    <t>Minimum Value</t>
-  </si>
-  <si>
-    <t>Maximum Value</t>
-  </si>
-  <si>
-    <t>Maximum Length</t>
-  </si>
-  <si>
-    <t>Binding Strength</t>
-  </si>
-  <si>
-    <t>Binding Description</t>
-  </si>
-  <si>
-    <t>Binding Value Set</t>
-  </si>
-  <si>
-    <t>Code</t>
-  </si>
-  <si>
-    <t>Slicing Discriminator</t>
-  </si>
-  <si>
-    <t>Slicing Description</t>
-  </si>
-  <si>
-    <t>Slicing Ordered</t>
-  </si>
-  <si>
-    <t>Slicing Rules</t>
-  </si>
-  <si>
-    <t>Base Path</t>
-  </si>
-  <si>
-    <t>Base Min</t>
-  </si>
-  <si>
-    <t>Base Max</t>
-  </si>
-  <si>
-    <t>Condition(s)</t>
-  </si>
-  <si>
-    <t>Constraint(s)</t>
-  </si>
-  <si>
-    <t>Mapping: Workflow Pattern</t>
-  </si>
-  <si>
-    <t>Mapping: RIM Mapping</t>
-  </si>
-  <si>
-    <t>Mapping: FiveWs Pattern Mapping</t>
-  </si>
-  <si>
-    <t>Mapping: HL7 v2 Mapping</t>
   </si>
   <si>
     <t/>
@@ -1438,10 +1318,10 @@
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true" applyFont="true">
       <alignment vertical="top" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true" applyAlignment="true">
       <alignment vertical="top" wrapText="true"/>
     </xf>
   </cellXfs>
@@ -1624,7 +1504,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AN57"/>
+  <dimension ref="A1:AN56"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1635,13 +1515,11 @@
   <cols>
     <col min="1" max="1" width="32.42578125" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="32.42578125" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="12.66015625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="39.9140625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="6.77734375" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="4.9453125" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="5.4296875" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="16.27734375" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="13.26171875" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="2.2109375" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="2.2109375" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="2.1640625" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="2.1640625" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="11" max="11" width="255.0" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
@@ -1652,6528 +1530,6407 @@
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="9.953125" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="17.171875" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="17.65625" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="19.03515625" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="18.859375" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="1.04296875" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="1.04296875" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="1.04296875" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="1.04296875" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="9.6640625" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="169.1328125" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="89.97265625" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="6.34765625" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="22.71875" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="20.59375" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="17.21484375" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="14.4140625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="27" max="27" width="1.04296875" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="1.04296875" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="1.04296875" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="1.04296875" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="1.04296875" customWidth="true" bestFit="true" hidden="true"/>
     <col min="32" max="32" width="34.859375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="10.5546875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="11.0390625" customWidth="true" bestFit="true"/>
+    <col min="33" max="33" width="2.2109375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="2.2109375" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" hidden="true" width="8.0" customWidth="false"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
     <col min="37" max="37" width="55.72265625" customWidth="true" bestFit="true"/>
     <col min="38" max="38" width="109.98828125" customWidth="true" bestFit="true"/>
-    <col min="39" max="39" width="36.91796875" customWidth="true" bestFit="true"/>
-    <col min="40" max="40" width="28.1484375" customWidth="true" bestFit="true"/>
+    <col min="39" max="39" width="16.3984375" customWidth="true" bestFit="true"/>
+    <col min="40" max="40" width="7.8203125" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" t="s" s="1">
-        <v>33</v>
-      </c>
-      <c r="B1" t="s" s="1">
-        <v>34</v>
-      </c>
-      <c r="C1" t="s" s="1">
+      <c r="A1" t="s" s="2">
+        <v>26</v>
+      </c>
+      <c r="B1" t="s" s="2">
+        <v>26</v>
+      </c>
+      <c r="C1" s="2"/>
+      <c r="D1" t="s" s="2">
+        <v>33</v>
+      </c>
+      <c r="E1" s="2"/>
+      <c r="F1" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="G1" t="s" s="2">
         <v>35</v>
       </c>
-      <c r="D1" t="s" s="1">
+      <c r="H1" t="s" s="2">
+        <v>33</v>
+      </c>
+      <c r="I1" t="s" s="2">
+        <v>33</v>
+      </c>
+      <c r="J1" t="s" s="2">
+        <v>33</v>
+      </c>
+      <c r="K1" t="s" s="2">
         <v>36</v>
       </c>
-      <c r="E1" t="s" s="1">
+      <c r="L1" t="s" s="2">
         <v>37</v>
       </c>
-      <c r="F1" t="s" s="1">
+      <c r="M1" t="s" s="2">
         <v>38</v>
       </c>
-      <c r="G1" t="s" s="1">
+      <c r="N1" s="2"/>
+      <c r="O1" s="2"/>
+      <c r="P1" t="s" s="2">
+        <v>33</v>
+      </c>
+      <c r="Q1" s="2"/>
+      <c r="R1" t="s" s="2">
+        <v>33</v>
+      </c>
+      <c r="S1" t="s" s="2">
+        <v>33</v>
+      </c>
+      <c r="T1" t="s" s="2">
+        <v>33</v>
+      </c>
+      <c r="U1" t="s" s="2">
+        <v>33</v>
+      </c>
+      <c r="V1" t="s" s="2">
+        <v>33</v>
+      </c>
+      <c r="W1" t="s" s="2">
+        <v>33</v>
+      </c>
+      <c r="X1" t="s" s="2">
+        <v>33</v>
+      </c>
+      <c r="Y1" t="s" s="2">
+        <v>33</v>
+      </c>
+      <c r="Z1" t="s" s="2">
+        <v>33</v>
+      </c>
+      <c r="AA1" t="s" s="2">
+        <v>33</v>
+      </c>
+      <c r="AB1" t="s" s="2">
+        <v>33</v>
+      </c>
+      <c r="AC1" t="s" s="2">
+        <v>33</v>
+      </c>
+      <c r="AD1" t="s" s="2">
+        <v>33</v>
+      </c>
+      <c r="AE1" t="s" s="2">
+        <v>33</v>
+      </c>
+      <c r="AF1" t="s" s="2">
+        <v>26</v>
+      </c>
+      <c r="AG1" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="AH1" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AI1" t="s" s="2">
+        <v>33</v>
+      </c>
+      <c r="AJ1" t="s" s="2">
+        <v>33</v>
+      </c>
+      <c r="AK1" t="s" s="2">
         <v>39</v>
       </c>
-      <c r="H1" t="s" s="1">
+      <c r="AL1" t="s" s="2">
         <v>40</v>
       </c>
-      <c r="I1" t="s" s="1">
-        <v>41</v>
-      </c>
-      <c r="J1" t="s" s="1">
-        <v>42</v>
-      </c>
-      <c r="K1" t="s" s="1">
-        <v>43</v>
-      </c>
-      <c r="L1" t="s" s="1">
-        <v>44</v>
-      </c>
-      <c r="M1" t="s" s="1">
-        <v>45</v>
-      </c>
-      <c r="N1" t="s" s="1">
-        <v>46</v>
-      </c>
-      <c r="O1" t="s" s="1">
-        <v>47</v>
-      </c>
-      <c r="P1" t="s" s="1">
-        <v>48</v>
-      </c>
-      <c r="Q1" t="s" s="1">
-        <v>49</v>
-      </c>
-      <c r="R1" t="s" s="1">
-        <v>50</v>
-      </c>
-      <c r="S1" t="s" s="1">
-        <v>51</v>
-      </c>
-      <c r="T1" t="s" s="1">
-        <v>52</v>
-      </c>
-      <c r="U1" t="s" s="1">
-        <v>53</v>
-      </c>
-      <c r="V1" t="s" s="1">
-        <v>54</v>
-      </c>
-      <c r="W1" t="s" s="1">
-        <v>55</v>
-      </c>
-      <c r="X1" t="s" s="1">
-        <v>56</v>
-      </c>
-      <c r="Y1" t="s" s="1">
-        <v>57</v>
-      </c>
-      <c r="Z1" t="s" s="1">
-        <v>58</v>
-      </c>
-      <c r="AA1" t="s" s="1">
-        <v>59</v>
-      </c>
-      <c r="AB1" t="s" s="1">
-        <v>60</v>
-      </c>
-      <c r="AC1" t="s" s="1">
-        <v>61</v>
-      </c>
-      <c r="AD1" t="s" s="1">
-        <v>62</v>
-      </c>
-      <c r="AE1" t="s" s="1">
-        <v>63</v>
-      </c>
-      <c r="AF1" t="s" s="1">
-        <v>64</v>
-      </c>
-      <c r="AG1" t="s" s="1">
-        <v>65</v>
-      </c>
-      <c r="AH1" t="s" s="1">
-        <v>66</v>
-      </c>
-      <c r="AI1" t="s" s="1">
-        <v>67</v>
-      </c>
-      <c r="AJ1" t="s" s="1">
-        <v>68</v>
-      </c>
-      <c r="AK1" t="s" s="1">
-        <v>69</v>
-      </c>
-      <c r="AL1" t="s" s="1">
-        <v>70</v>
-      </c>
-      <c r="AM1" t="s" s="1">
-        <v>71</v>
-      </c>
-      <c r="AN1" t="s" s="1">
-        <v>72</v>
+      <c r="AM1" t="s" s="2">
+        <v>33</v>
+      </c>
+      <c r="AN1" t="s" s="2">
+        <v>33</v>
       </c>
     </row>
     <row r="2" hidden="true">
       <c r="A2" t="s" s="2">
-        <v>26</v>
+        <v>41</v>
       </c>
       <c r="B2" t="s" s="2">
-        <v>26</v>
+        <v>41</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="E2" s="2"/>
       <c r="F2" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="G2" t="s" s="2">
-        <v>75</v>
+        <v>42</v>
       </c>
       <c r="H2" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="I2" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="J2" t="s" s="2">
-        <v>73</v>
+        <v>43</v>
       </c>
       <c r="K2" t="s" s="2">
-        <v>76</v>
+        <v>44</v>
       </c>
       <c r="L2" t="s" s="2">
-        <v>77</v>
+        <v>45</v>
       </c>
       <c r="M2" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="N2" s="2"/>
+        <v>46</v>
+      </c>
+      <c r="N2" t="s" s="2">
+        <v>47</v>
+      </c>
       <c r="O2" s="2"/>
       <c r="P2" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="Q2" s="2"/>
       <c r="R2" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="S2" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="T2" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="U2" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="V2" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="W2" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="X2" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="Y2" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="Z2" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="AA2" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="AB2" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="AC2" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="AD2" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="AE2" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="AF2" t="s" s="2">
-        <v>26</v>
+        <v>48</v>
       </c>
       <c r="AG2" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="AH2" t="s" s="2">
-        <v>75</v>
+        <v>42</v>
       </c>
       <c r="AI2" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="AJ2" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="AK2" t="s" s="2">
-        <v>79</v>
+        <v>33</v>
       </c>
       <c r="AL2" t="s" s="2">
-        <v>80</v>
+        <v>33</v>
       </c>
       <c r="AM2" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="AN2" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
     </row>
     <row r="3" hidden="true">
       <c r="A3" t="s" s="2">
-        <v>81</v>
+        <v>49</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>81</v>
+        <v>49</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="E3" s="2"/>
       <c r="F3" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="G3" t="s" s="2">
-        <v>82</v>
+        <v>42</v>
       </c>
       <c r="H3" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="I3" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="J3" t="s" s="2">
-        <v>83</v>
+        <v>43</v>
       </c>
       <c r="K3" t="s" s="2">
-        <v>84</v>
+        <v>50</v>
       </c>
       <c r="L3" t="s" s="2">
-        <v>85</v>
+        <v>51</v>
       </c>
       <c r="M3" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="N3" t="s" s="2">
-        <v>87</v>
-      </c>
+        <v>52</v>
+      </c>
+      <c r="N3" s="2"/>
       <c r="O3" s="2"/>
       <c r="P3" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="Q3" s="2"/>
       <c r="R3" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="S3" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="T3" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="U3" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="V3" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="W3" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="X3" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="Y3" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="Z3" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="AA3" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="AB3" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="AC3" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="AD3" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="AE3" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="AF3" t="s" s="2">
-        <v>88</v>
+        <v>53</v>
       </c>
       <c r="AG3" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="AH3" t="s" s="2">
-        <v>82</v>
+        <v>42</v>
       </c>
       <c r="AI3" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="AJ3" t="s" s="2">
-        <v>73</v>
+        <v>54</v>
       </c>
       <c r="AK3" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="AL3" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="AM3" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="AN3" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
     </row>
     <row r="4" hidden="true">
       <c r="A4" t="s" s="2">
-        <v>89</v>
+        <v>55</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>89</v>
+        <v>55</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="E4" s="2"/>
       <c r="F4" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="G4" t="s" s="2">
-        <v>82</v>
+        <v>42</v>
       </c>
       <c r="H4" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="I4" t="s" s="2">
-        <v>73</v>
+        <v>43</v>
       </c>
       <c r="J4" t="s" s="2">
-        <v>83</v>
+        <v>43</v>
       </c>
       <c r="K4" t="s" s="2">
-        <v>90</v>
+        <v>56</v>
       </c>
       <c r="L4" t="s" s="2">
-        <v>91</v>
+        <v>57</v>
       </c>
       <c r="M4" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="N4" s="2"/>
+        <v>58</v>
+      </c>
+      <c r="N4" t="s" s="2">
+        <v>59</v>
+      </c>
       <c r="O4" s="2"/>
       <c r="P4" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="Q4" s="2"/>
       <c r="R4" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="S4" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="T4" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="U4" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="V4" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="W4" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="X4" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="Y4" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="Z4" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="AA4" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="AB4" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="AC4" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="AD4" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="AE4" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="AF4" t="s" s="2">
-        <v>93</v>
+        <v>60</v>
       </c>
       <c r="AG4" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="AH4" t="s" s="2">
-        <v>82</v>
+        <v>42</v>
       </c>
       <c r="AI4" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="AJ4" t="s" s="2">
-        <v>94</v>
+        <v>54</v>
       </c>
       <c r="AK4" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="AL4" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="AM4" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="AN4" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
     </row>
     <row r="5" hidden="true">
       <c r="A5" t="s" s="2">
-        <v>95</v>
+        <v>61</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>95</v>
+        <v>61</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="E5" s="2"/>
       <c r="F5" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="G5" t="s" s="2">
-        <v>82</v>
+        <v>42</v>
       </c>
       <c r="H5" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="I5" t="s" s="2">
-        <v>83</v>
+        <v>33</v>
       </c>
       <c r="J5" t="s" s="2">
-        <v>83</v>
+        <v>33</v>
       </c>
       <c r="K5" t="s" s="2">
-        <v>96</v>
+        <v>62</v>
       </c>
       <c r="L5" t="s" s="2">
-        <v>97</v>
+        <v>63</v>
       </c>
       <c r="M5" t="s" s="2">
-        <v>98</v>
+        <v>64</v>
       </c>
       <c r="N5" t="s" s="2">
-        <v>99</v>
+        <v>65</v>
       </c>
       <c r="O5" s="2"/>
       <c r="P5" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="Q5" s="2"/>
       <c r="R5" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="S5" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="T5" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="U5" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="V5" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="W5" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="X5" t="s" s="2">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="Y5" t="s" s="2">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="Z5" t="s" s="2">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="AA5" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="AB5" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="AC5" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="AD5" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="AE5" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="AF5" t="s" s="2">
-        <v>100</v>
+        <v>69</v>
       </c>
       <c r="AG5" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="AH5" t="s" s="2">
-        <v>82</v>
+        <v>42</v>
       </c>
       <c r="AI5" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="AJ5" t="s" s="2">
-        <v>94</v>
+        <v>54</v>
       </c>
       <c r="AK5" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="AL5" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="AM5" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="AN5" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
     </row>
     <row r="6" hidden="true">
       <c r="A6" t="s" s="2">
-        <v>101</v>
+        <v>70</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>101</v>
+        <v>70</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" t="s" s="2">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="E6" s="2"/>
       <c r="F6" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="G6" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="H6" t="s" s="2">
+        <v>33</v>
+      </c>
+      <c r="I6" t="s" s="2">
+        <v>33</v>
+      </c>
+      <c r="J6" t="s" s="2">
+        <v>33</v>
+      </c>
+      <c r="K6" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="L6" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="M6" t="s" s="2">
         <v>74</v>
       </c>
-      <c r="G6" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="H6" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="I6" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="J6" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="K6" t="s" s="2">
-        <v>102</v>
-      </c>
-      <c r="L6" t="s" s="2">
-        <v>103</v>
-      </c>
-      <c r="M6" t="s" s="2">
-        <v>104</v>
-      </c>
       <c r="N6" t="s" s="2">
-        <v>105</v>
+        <v>75</v>
       </c>
       <c r="O6" s="2"/>
       <c r="P6" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="Q6" s="2"/>
       <c r="R6" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="S6" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="T6" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="U6" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="V6" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="W6" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="X6" t="s" s="2">
-        <v>106</v>
+        <v>33</v>
       </c>
       <c r="Y6" t="s" s="2">
-        <v>107</v>
+        <v>33</v>
       </c>
       <c r="Z6" t="s" s="2">
-        <v>108</v>
+        <v>33</v>
       </c>
       <c r="AA6" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="AB6" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="AC6" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="AD6" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="AE6" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="AF6" t="s" s="2">
-        <v>109</v>
+        <v>76</v>
       </c>
       <c r="AG6" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="AH6" t="s" s="2">
-        <v>82</v>
+        <v>42</v>
       </c>
       <c r="AI6" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="AJ6" t="s" s="2">
-        <v>94</v>
+        <v>54</v>
       </c>
       <c r="AK6" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="AL6" t="s" s="2">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="AM6" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="AN6" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
     </row>
     <row r="7" hidden="true">
       <c r="A7" t="s" s="2">
-        <v>110</v>
+        <v>78</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>110</v>
+        <v>78</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" t="s" s="2">
-        <v>111</v>
+        <v>79</v>
       </c>
       <c r="E7" s="2"/>
       <c r="F7" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="G7" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="H7" t="s" s="2">
+        <v>33</v>
+      </c>
+      <c r="I7" t="s" s="2">
+        <v>33</v>
+      </c>
+      <c r="J7" t="s" s="2">
+        <v>33</v>
+      </c>
+      <c r="K7" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="L7" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="M7" t="s" s="2">
         <v>82</v>
       </c>
-      <c r="H7" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="I7" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="J7" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="K7" t="s" s="2">
-        <v>112</v>
-      </c>
-      <c r="L7" t="s" s="2">
-        <v>113</v>
-      </c>
-      <c r="M7" t="s" s="2">
-        <v>114</v>
-      </c>
       <c r="N7" t="s" s="2">
-        <v>115</v>
+        <v>83</v>
       </c>
       <c r="O7" s="2"/>
       <c r="P7" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="Q7" s="2"/>
       <c r="R7" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="S7" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="T7" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="U7" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="V7" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="W7" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="X7" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="Y7" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="Z7" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="AA7" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="AB7" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="AC7" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="AD7" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="AE7" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="AF7" t="s" s="2">
-        <v>116</v>
+        <v>84</v>
       </c>
       <c r="AG7" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="AH7" t="s" s="2">
-        <v>82</v>
+        <v>35</v>
       </c>
       <c r="AI7" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="AJ7" t="s" s="2">
-        <v>94</v>
+        <v>33</v>
       </c>
       <c r="AK7" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="AL7" t="s" s="2">
-        <v>117</v>
+        <v>85</v>
       </c>
       <c r="AM7" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="AN7" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
     </row>
     <row r="8" hidden="true">
       <c r="A8" t="s" s="2">
-        <v>118</v>
+        <v>86</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>118</v>
+        <v>86</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" t="s" s="2">
-        <v>119</v>
+        <v>87</v>
       </c>
       <c r="E8" s="2"/>
       <c r="F8" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="G8" t="s" s="2">
-        <v>75</v>
+        <v>35</v>
       </c>
       <c r="H8" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="I8" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="J8" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="K8" t="s" s="2">
-        <v>120</v>
+        <v>88</v>
       </c>
       <c r="L8" t="s" s="2">
-        <v>121</v>
+        <v>89</v>
       </c>
       <c r="M8" t="s" s="2">
-        <v>122</v>
+        <v>90</v>
       </c>
       <c r="N8" t="s" s="2">
-        <v>123</v>
+        <v>91</v>
       </c>
       <c r="O8" s="2"/>
       <c r="P8" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="Q8" s="2"/>
       <c r="R8" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="S8" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="T8" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="U8" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="V8" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="W8" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="X8" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="Y8" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="Z8" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="AA8" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="AB8" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="AC8" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="AD8" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="AE8" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="AF8" t="s" s="2">
-        <v>124</v>
+        <v>92</v>
       </c>
       <c r="AG8" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="AH8" t="s" s="2">
-        <v>75</v>
+        <v>35</v>
       </c>
       <c r="AI8" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="AJ8" t="s" s="2">
-        <v>73</v>
+        <v>93</v>
       </c>
       <c r="AK8" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="AL8" t="s" s="2">
-        <v>125</v>
+        <v>85</v>
       </c>
       <c r="AM8" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="AN8" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
     </row>
     <row r="9" hidden="true">
       <c r="A9" t="s" s="2">
-        <v>126</v>
+        <v>94</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>126</v>
+        <v>94</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" t="s" s="2">
-        <v>127</v>
+        <v>87</v>
       </c>
       <c r="E9" s="2"/>
       <c r="F9" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="G9" t="s" s="2">
-        <v>75</v>
+        <v>35</v>
       </c>
       <c r="H9" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="I9" t="s" s="2">
-        <v>73</v>
+        <v>43</v>
       </c>
       <c r="J9" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>128</v>
+        <v>88</v>
       </c>
       <c r="L9" t="s" s="2">
-        <v>129</v>
+        <v>95</v>
       </c>
       <c r="M9" t="s" s="2">
-        <v>130</v>
+        <v>96</v>
       </c>
       <c r="N9" t="s" s="2">
-        <v>131</v>
-      </c>
-      <c r="O9" s="2"/>
+        <v>91</v>
+      </c>
+      <c r="O9" t="s" s="2">
+        <v>97</v>
+      </c>
       <c r="P9" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="Q9" s="2"/>
       <c r="R9" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="S9" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="T9" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="U9" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="V9" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="W9" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="X9" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="Y9" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="Z9" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="AA9" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="AB9" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="AC9" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="AD9" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="AE9" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="AF9" t="s" s="2">
-        <v>132</v>
+        <v>98</v>
       </c>
       <c r="AG9" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="AH9" t="s" s="2">
-        <v>75</v>
+        <v>35</v>
       </c>
       <c r="AI9" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>133</v>
+        <v>93</v>
       </c>
       <c r="AK9" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="AL9" t="s" s="2">
-        <v>125</v>
+        <v>85</v>
       </c>
       <c r="AM9" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="AN9" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
     </row>
     <row r="10" hidden="true">
       <c r="A10" t="s" s="2">
-        <v>134</v>
+        <v>99</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>134</v>
+        <v>99</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" t="s" s="2">
-        <v>127</v>
+        <v>33</v>
       </c>
       <c r="E10" s="2"/>
       <c r="F10" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="G10" t="s" s="2">
-        <v>75</v>
+        <v>35</v>
       </c>
       <c r="H10" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="I10" t="s" s="2">
-        <v>83</v>
+        <v>33</v>
       </c>
       <c r="J10" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>128</v>
+        <v>100</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>135</v>
+        <v>101</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>136</v>
-      </c>
-      <c r="N10" t="s" s="2">
-        <v>131</v>
-      </c>
-      <c r="O10" t="s" s="2">
-        <v>137</v>
-      </c>
+        <v>102</v>
+      </c>
+      <c r="N10" s="2"/>
+      <c r="O10" s="2"/>
       <c r="P10" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="Q10" s="2"/>
       <c r="R10" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="S10" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="T10" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="U10" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="V10" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="W10" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="X10" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="Y10" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="Z10" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="AA10" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="AB10" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="AC10" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="AD10" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="AE10" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>138</v>
+        <v>99</v>
       </c>
       <c r="AG10" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="AH10" t="s" s="2">
-        <v>75</v>
+        <v>35</v>
       </c>
       <c r="AI10" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="AJ10" t="s" s="2">
-        <v>133</v>
+        <v>54</v>
       </c>
       <c r="AK10" t="s" s="2">
-        <v>73</v>
+        <v>103</v>
       </c>
       <c r="AL10" t="s" s="2">
-        <v>125</v>
+        <v>104</v>
       </c>
       <c r="AM10" t="s" s="2">
-        <v>73</v>
+        <v>105</v>
       </c>
       <c r="AN10" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
     </row>
     <row r="11" hidden="true">
       <c r="A11" t="s" s="2">
-        <v>139</v>
+        <v>106</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>139</v>
+        <v>106</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="E11" s="2"/>
       <c r="F11" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="G11" t="s" s="2">
-        <v>75</v>
+        <v>42</v>
       </c>
       <c r="H11" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="I11" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="J11" t="s" s="2">
-        <v>73</v>
+        <v>43</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>140</v>
+        <v>107</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>141</v>
+        <v>108</v>
       </c>
       <c r="M11" t="s" s="2">
-        <v>142</v>
+        <v>109</v>
       </c>
       <c r="N11" s="2"/>
-      <c r="O11" s="2"/>
+      <c r="O11" t="s" s="2">
+        <v>110</v>
+      </c>
       <c r="P11" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="Q11" s="2"/>
       <c r="R11" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="S11" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="T11" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="U11" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="V11" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="W11" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="X11" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="Y11" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="Z11" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="AA11" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="AB11" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="AC11" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="AD11" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="AE11" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>139</v>
+        <v>106</v>
       </c>
       <c r="AG11" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="AH11" t="s" s="2">
-        <v>75</v>
+        <v>42</v>
       </c>
       <c r="AI11" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>94</v>
+        <v>54</v>
       </c>
       <c r="AK11" t="s" s="2">
-        <v>143</v>
+        <v>111</v>
       </c>
       <c r="AL11" t="s" s="2">
-        <v>144</v>
+        <v>112</v>
       </c>
       <c r="AM11" t="s" s="2">
-        <v>145</v>
+        <v>33</v>
       </c>
       <c r="AN11" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
     </row>
     <row r="12" hidden="true">
       <c r="A12" t="s" s="2">
-        <v>146</v>
+        <v>113</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>146</v>
+        <v>113</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="E12" s="2"/>
       <c r="F12" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="G12" t="s" s="2">
-        <v>82</v>
+        <v>42</v>
       </c>
       <c r="H12" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="I12" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>83</v>
+        <v>43</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>147</v>
+        <v>56</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>148</v>
+        <v>108</v>
       </c>
       <c r="M12" t="s" s="2">
-        <v>149</v>
+        <v>114</v>
       </c>
       <c r="N12" s="2"/>
       <c r="O12" t="s" s="2">
-        <v>150</v>
+        <v>115</v>
       </c>
       <c r="P12" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="Q12" s="2"/>
       <c r="R12" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="S12" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="T12" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="U12" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="V12" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="W12" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="X12" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="Y12" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="Z12" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="AA12" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="AB12" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="AC12" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="AD12" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="AE12" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>146</v>
+        <v>113</v>
       </c>
       <c r="AG12" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="AH12" t="s" s="2">
-        <v>82</v>
+        <v>42</v>
       </c>
       <c r="AI12" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>94</v>
+        <v>54</v>
       </c>
       <c r="AK12" t="s" s="2">
-        <v>151</v>
+        <v>116</v>
       </c>
       <c r="AL12" t="s" s="2">
-        <v>152</v>
+        <v>112</v>
       </c>
       <c r="AM12" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="AN12" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
     </row>
     <row r="13" hidden="true">
       <c r="A13" t="s" s="2">
-        <v>153</v>
+        <v>117</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>153</v>
+        <v>117</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="E13" s="2"/>
       <c r="F13" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="G13" t="s" s="2">
-        <v>82</v>
+        <v>35</v>
       </c>
       <c r="H13" t="s" s="2">
-        <v>73</v>
+        <v>43</v>
       </c>
       <c r="I13" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>83</v>
+        <v>43</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>96</v>
+        <v>118</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>148</v>
+        <v>119</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>154</v>
+        <v>120</v>
       </c>
       <c r="N13" s="2"/>
-      <c r="O13" t="s" s="2">
-        <v>155</v>
-      </c>
+      <c r="O13" s="2"/>
       <c r="P13" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="Q13" s="2"/>
       <c r="R13" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="S13" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="T13" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="U13" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="V13" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="W13" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="X13" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="Y13" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="Z13" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="AA13" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="AB13" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="AC13" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="AD13" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="AE13" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>153</v>
+        <v>117</v>
       </c>
       <c r="AG13" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="AH13" t="s" s="2">
-        <v>82</v>
+        <v>35</v>
       </c>
       <c r="AI13" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>94</v>
+        <v>54</v>
       </c>
       <c r="AK13" t="s" s="2">
-        <v>156</v>
+        <v>121</v>
       </c>
       <c r="AL13" t="s" s="2">
-        <v>152</v>
+        <v>122</v>
       </c>
       <c r="AM13" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="AN13" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
     </row>
     <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
-        <v>157</v>
+        <v>123</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>157</v>
+        <v>123</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="E14" s="2"/>
       <c r="F14" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="G14" t="s" s="2">
-        <v>75</v>
+        <v>42</v>
       </c>
       <c r="H14" t="s" s="2">
-        <v>83</v>
+        <v>33</v>
       </c>
       <c r="I14" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>83</v>
+        <v>43</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>158</v>
+        <v>100</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>159</v>
+        <v>124</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>160</v>
+        <v>125</v>
       </c>
       <c r="N14" s="2"/>
-      <c r="O14" s="2"/>
+      <c r="O14" t="s" s="2">
+        <v>126</v>
+      </c>
       <c r="P14" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="Q14" s="2"/>
       <c r="R14" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="S14" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="T14" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="U14" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="V14" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="W14" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="X14" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="Y14" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="Z14" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="AA14" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="AB14" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="AC14" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="AD14" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="AE14" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>157</v>
+        <v>123</v>
       </c>
       <c r="AG14" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="AH14" t="s" s="2">
-        <v>75</v>
+        <v>42</v>
       </c>
       <c r="AI14" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>94</v>
+        <v>54</v>
       </c>
       <c r="AK14" t="s" s="2">
-        <v>161</v>
+        <v>127</v>
       </c>
       <c r="AL14" t="s" s="2">
-        <v>162</v>
+        <v>128</v>
       </c>
       <c r="AM14" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="AN14" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
     </row>
     <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
-        <v>163</v>
+        <v>129</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>163</v>
+        <v>129</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="E15" s="2"/>
       <c r="F15" t="s" s="2">
-        <v>74</v>
+        <v>42</v>
       </c>
       <c r="G15" t="s" s="2">
-        <v>82</v>
+        <v>42</v>
       </c>
       <c r="H15" t="s" s="2">
-        <v>73</v>
+        <v>43</v>
       </c>
       <c r="I15" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>83</v>
+        <v>43</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>164</v>
+        <v>131</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>165</v>
-      </c>
-      <c r="N15" s="2"/>
+        <v>132</v>
+      </c>
+      <c r="N15" t="s" s="2">
+        <v>133</v>
+      </c>
       <c r="O15" t="s" s="2">
-        <v>166</v>
+        <v>134</v>
       </c>
       <c r="P15" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="Q15" s="2"/>
       <c r="R15" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="S15" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="T15" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="U15" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="V15" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="W15" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="X15" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="Y15" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="Z15" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="AA15" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="AB15" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="AC15" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="AD15" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>163</v>
+        <v>129</v>
       </c>
       <c r="AG15" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="AH15" t="s" s="2">
-        <v>82</v>
+        <v>35</v>
       </c>
       <c r="AI15" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="AJ15" t="s" s="2">
-        <v>94</v>
+        <v>54</v>
       </c>
       <c r="AK15" t="s" s="2">
-        <v>167</v>
+        <v>135</v>
       </c>
       <c r="AL15" t="s" s="2">
-        <v>168</v>
+        <v>136</v>
       </c>
       <c r="AM15" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="AN15" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
     </row>
     <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
-        <v>169</v>
+        <v>137</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>169</v>
+        <v>137</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="E16" s="2"/>
       <c r="F16" t="s" s="2">
-        <v>82</v>
+        <v>42</v>
       </c>
       <c r="G16" t="s" s="2">
-        <v>82</v>
+        <v>42</v>
       </c>
       <c r="H16" t="s" s="2">
-        <v>83</v>
+        <v>43</v>
       </c>
       <c r="I16" t="s" s="2">
-        <v>73</v>
+        <v>43</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>83</v>
+        <v>43</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>170</v>
+        <v>62</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>171</v>
+        <v>138</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>172</v>
-      </c>
-      <c r="N16" t="s" s="2">
-        <v>173</v>
-      </c>
+        <v>139</v>
+      </c>
+      <c r="N16" s="2"/>
       <c r="O16" t="s" s="2">
-        <v>174</v>
+        <v>140</v>
       </c>
       <c r="P16" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="Q16" s="2"/>
       <c r="R16" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="S16" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="T16" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="U16" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="V16" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="W16" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="X16" t="s" s="2">
-        <v>73</v>
+        <v>141</v>
       </c>
       <c r="Y16" t="s" s="2">
-        <v>73</v>
+        <v>139</v>
       </c>
       <c r="Z16" t="s" s="2">
-        <v>73</v>
+        <v>142</v>
       </c>
       <c r="AA16" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="AB16" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="AC16" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="AD16" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>169</v>
+        <v>137</v>
       </c>
       <c r="AG16" t="s" s="2">
-        <v>74</v>
+        <v>42</v>
       </c>
       <c r="AH16" t="s" s="2">
-        <v>75</v>
+        <v>42</v>
       </c>
       <c r="AI16" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>94</v>
+        <v>54</v>
       </c>
       <c r="AK16" t="s" s="2">
-        <v>175</v>
+        <v>143</v>
       </c>
       <c r="AL16" t="s" s="2">
-        <v>176</v>
+        <v>144</v>
       </c>
       <c r="AM16" t="s" s="2">
-        <v>73</v>
+        <v>145</v>
       </c>
       <c r="AN16" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>177</v>
+        <v>146</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>177</v>
+        <v>146</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="E17" s="2"/>
       <c r="F17" t="s" s="2">
-        <v>82</v>
+        <v>34</v>
       </c>
       <c r="G17" t="s" s="2">
-        <v>82</v>
+        <v>42</v>
       </c>
       <c r="H17" t="s" s="2">
-        <v>83</v>
+        <v>43</v>
       </c>
       <c r="I17" t="s" s="2">
-        <v>83</v>
+        <v>33</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>83</v>
+        <v>43</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>102</v>
+        <v>147</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>178</v>
+        <v>148</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>179</v>
-      </c>
-      <c r="N17" s="2"/>
-      <c r="O17" t="s" s="2">
-        <v>180</v>
-      </c>
+        <v>149</v>
+      </c>
+      <c r="N17" t="s" s="2">
+        <v>150</v>
+      </c>
+      <c r="O17" s="2"/>
       <c r="P17" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="Q17" s="2"/>
       <c r="R17" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="S17" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="T17" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="U17" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="V17" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="W17" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="X17" t="s" s="2">
-        <v>181</v>
-      </c>
-      <c r="Y17" t="s" s="2">
-        <v>179</v>
-      </c>
+        <v>141</v>
+      </c>
+      <c r="Y17" s="2"/>
       <c r="Z17" t="s" s="2">
-        <v>182</v>
+        <v>151</v>
       </c>
       <c r="AA17" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="AB17" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="AC17" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="AD17" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>177</v>
+        <v>146</v>
       </c>
       <c r="AG17" t="s" s="2">
-        <v>82</v>
+        <v>34</v>
       </c>
       <c r="AH17" t="s" s="2">
-        <v>82</v>
+        <v>42</v>
       </c>
       <c r="AI17" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>94</v>
+        <v>54</v>
       </c>
       <c r="AK17" t="s" s="2">
-        <v>183</v>
+        <v>33</v>
       </c>
       <c r="AL17" t="s" s="2">
-        <v>184</v>
+        <v>152</v>
       </c>
       <c r="AM17" t="s" s="2">
-        <v>185</v>
+        <v>33</v>
       </c>
       <c r="AN17" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>186</v>
+        <v>153</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>186</v>
+        <v>153</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="E18" s="2"/>
       <c r="F18" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="G18" t="s" s="2">
-        <v>82</v>
+        <v>42</v>
       </c>
       <c r="H18" t="s" s="2">
-        <v>83</v>
+        <v>33</v>
       </c>
       <c r="I18" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>83</v>
+        <v>43</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>187</v>
+        <v>147</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>188</v>
+        <v>154</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>189</v>
-      </c>
-      <c r="N18" t="s" s="2">
-        <v>190</v>
-      </c>
-      <c r="O18" s="2"/>
+        <v>155</v>
+      </c>
+      <c r="N18" s="2"/>
+      <c r="O18" t="s" s="2">
+        <v>156</v>
+      </c>
       <c r="P18" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="Q18" s="2"/>
       <c r="R18" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="S18" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="T18" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="U18" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="V18" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="W18" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="X18" t="s" s="2">
-        <v>181</v>
-      </c>
-      <c r="Y18" s="2"/>
+        <v>157</v>
+      </c>
+      <c r="Y18" t="s" s="2">
+        <v>158</v>
+      </c>
       <c r="Z18" t="s" s="2">
-        <v>191</v>
+        <v>33</v>
       </c>
       <c r="AA18" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="AB18" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="AC18" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="AD18" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>186</v>
+        <v>153</v>
       </c>
       <c r="AG18" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="AH18" t="s" s="2">
-        <v>82</v>
+        <v>42</v>
       </c>
       <c r="AI18" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>94</v>
+        <v>54</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="AL18" t="s" s="2">
-        <v>192</v>
+        <v>159</v>
       </c>
       <c r="AM18" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="AN18" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>193</v>
+        <v>160</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>193</v>
+        <v>160</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="E19" s="2"/>
       <c r="F19" t="s" s="2">
-        <v>74</v>
+        <v>42</v>
       </c>
       <c r="G19" t="s" s="2">
-        <v>82</v>
+        <v>42</v>
       </c>
       <c r="H19" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="I19" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>83</v>
+        <v>43</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>187</v>
+        <v>62</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>194</v>
+        <v>161</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>195</v>
-      </c>
-      <c r="N19" s="2"/>
-      <c r="O19" t="s" s="2">
-        <v>196</v>
-      </c>
+        <v>162</v>
+      </c>
+      <c r="N19" t="s" s="2">
+        <v>163</v>
+      </c>
+      <c r="O19" s="2"/>
       <c r="P19" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="Q19" s="2"/>
       <c r="R19" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="S19" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="T19" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="U19" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="V19" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="W19" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="X19" t="s" s="2">
-        <v>197</v>
+        <v>141</v>
       </c>
       <c r="Y19" t="s" s="2">
-        <v>198</v>
+        <v>164</v>
       </c>
       <c r="Z19" t="s" s="2">
-        <v>73</v>
+        <v>165</v>
       </c>
       <c r="AA19" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="AB19" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="AC19" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="AD19" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>193</v>
+        <v>160</v>
       </c>
       <c r="AG19" t="s" s="2">
-        <v>74</v>
+        <v>42</v>
       </c>
       <c r="AH19" t="s" s="2">
-        <v>82</v>
+        <v>42</v>
       </c>
       <c r="AI19" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>94</v>
+        <v>54</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>73</v>
+        <v>166</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>199</v>
+        <v>167</v>
       </c>
       <c r="AM19" t="s" s="2">
-        <v>73</v>
+        <v>168</v>
       </c>
       <c r="AN19" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>200</v>
+        <v>169</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>200</v>
+        <v>169</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="E20" s="2"/>
       <c r="F20" t="s" s="2">
-        <v>82</v>
+        <v>34</v>
       </c>
       <c r="G20" t="s" s="2">
-        <v>82</v>
+        <v>42</v>
       </c>
       <c r="H20" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="I20" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>83</v>
+        <v>33</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>102</v>
+        <v>62</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>201</v>
+        <v>170</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>202</v>
-      </c>
-      <c r="N20" t="s" s="2">
-        <v>203</v>
-      </c>
-      <c r="O20" s="2"/>
+        <v>171</v>
+      </c>
+      <c r="N20" s="2"/>
+      <c r="O20" t="s" s="2">
+        <v>172</v>
+      </c>
       <c r="P20" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="Q20" s="2"/>
+        <v>33</v>
+      </c>
+      <c r="Q20" t="s" s="2">
+        <v>173</v>
+      </c>
       <c r="R20" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="S20" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="T20" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="U20" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="V20" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="W20" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="X20" t="s" s="2">
-        <v>181</v>
+        <v>141</v>
       </c>
       <c r="Y20" t="s" s="2">
-        <v>204</v>
+        <v>174</v>
       </c>
       <c r="Z20" t="s" s="2">
-        <v>205</v>
+        <v>175</v>
       </c>
       <c r="AA20" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="AB20" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="AC20" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="AD20" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>200</v>
+        <v>169</v>
       </c>
       <c r="AG20" t="s" s="2">
-        <v>82</v>
+        <v>34</v>
       </c>
       <c r="AH20" t="s" s="2">
-        <v>82</v>
+        <v>42</v>
       </c>
       <c r="AI20" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>94</v>
+        <v>54</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>206</v>
+        <v>176</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>207</v>
+        <v>177</v>
       </c>
       <c r="AM20" t="s" s="2">
-        <v>208</v>
+        <v>178</v>
       </c>
       <c r="AN20" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>209</v>
+        <v>179</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>209</v>
+        <v>179</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="E21" s="2"/>
       <c r="F21" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="G21" t="s" s="2">
-        <v>82</v>
+        <v>42</v>
       </c>
       <c r="H21" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="I21" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>73</v>
+        <v>43</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>102</v>
+        <v>147</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>210</v>
+        <v>180</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>211</v>
-      </c>
-      <c r="N21" s="2"/>
-      <c r="O21" t="s" s="2">
-        <v>212</v>
-      </c>
+        <v>181</v>
+      </c>
+      <c r="N21" t="s" s="2">
+        <v>182</v>
+      </c>
+      <c r="O21" s="2"/>
       <c r="P21" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="Q21" t="s" s="2">
-        <v>213</v>
-      </c>
+        <v>33</v>
+      </c>
+      <c r="Q21" s="2"/>
       <c r="R21" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="S21" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="T21" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="U21" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="V21" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="W21" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="X21" t="s" s="2">
-        <v>181</v>
+        <v>157</v>
       </c>
       <c r="Y21" t="s" s="2">
-        <v>214</v>
+        <v>183</v>
       </c>
       <c r="Z21" t="s" s="2">
-        <v>215</v>
+        <v>184</v>
       </c>
       <c r="AA21" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="AB21" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="AC21" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="AD21" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>209</v>
+        <v>179</v>
       </c>
       <c r="AG21" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="AH21" t="s" s="2">
-        <v>82</v>
+        <v>42</v>
       </c>
       <c r="AI21" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>94</v>
+        <v>54</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>216</v>
+        <v>185</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>217</v>
+        <v>186</v>
       </c>
       <c r="AM21" t="s" s="2">
-        <v>218</v>
+        <v>187</v>
       </c>
       <c r="AN21" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>219</v>
+        <v>188</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>219</v>
+        <v>188</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="E22" s="2"/>
       <c r="F22" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="G22" t="s" s="2">
-        <v>82</v>
+        <v>42</v>
       </c>
       <c r="H22" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="I22" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>83</v>
+        <v>43</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>220</v>
+        <v>190</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>221</v>
-      </c>
-      <c r="N22" t="s" s="2">
-        <v>222</v>
-      </c>
+        <v>191</v>
+      </c>
+      <c r="N22" s="2"/>
       <c r="O22" s="2"/>
       <c r="P22" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="Q22" s="2"/>
       <c r="R22" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="S22" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="T22" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="U22" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="V22" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="W22" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="X22" t="s" s="2">
-        <v>197</v>
+        <v>33</v>
       </c>
       <c r="Y22" t="s" s="2">
-        <v>223</v>
+        <v>33</v>
       </c>
       <c r="Z22" t="s" s="2">
-        <v>224</v>
+        <v>33</v>
       </c>
       <c r="AA22" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="AB22" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="AC22" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="AD22" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>219</v>
+        <v>188</v>
       </c>
       <c r="AG22" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="AH22" t="s" s="2">
-        <v>82</v>
+        <v>42</v>
       </c>
       <c r="AI22" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>94</v>
+        <v>54</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>225</v>
+        <v>33</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>226</v>
+        <v>192</v>
       </c>
       <c r="AM22" t="s" s="2">
-        <v>227</v>
+        <v>33</v>
       </c>
       <c r="AN22" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>228</v>
+        <v>193</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>228</v>
+        <v>193</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="E23" s="2"/>
       <c r="F23" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="G23" t="s" s="2">
-        <v>82</v>
+        <v>42</v>
       </c>
       <c r="H23" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="I23" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>83</v>
+        <v>43</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>229</v>
+        <v>118</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>230</v>
+        <v>194</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>231</v>
-      </c>
-      <c r="N23" s="2"/>
-      <c r="O23" s="2"/>
+        <v>195</v>
+      </c>
+      <c r="N23" t="s" s="2">
+        <v>196</v>
+      </c>
+      <c r="O23" t="s" s="2">
+        <v>197</v>
+      </c>
       <c r="P23" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="Q23" s="2"/>
       <c r="R23" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="S23" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="T23" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="U23" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="V23" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="W23" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="X23" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="Y23" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="Z23" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="AA23" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="AB23" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="AC23" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="AD23" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>228</v>
+        <v>193</v>
       </c>
       <c r="AG23" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="AH23" t="s" s="2">
-        <v>82</v>
+        <v>42</v>
       </c>
       <c r="AI23" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>94</v>
+        <v>54</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>232</v>
+        <v>198</v>
       </c>
       <c r="AM23" t="s" s="2">
-        <v>73</v>
+        <v>187</v>
       </c>
       <c r="AN23" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>233</v>
+        <v>199</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>233</v>
+        <v>199</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
-        <v>73</v>
+        <v>200</v>
       </c>
       <c r="E24" s="2"/>
       <c r="F24" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="G24" t="s" s="2">
-        <v>82</v>
+        <v>42</v>
       </c>
       <c r="H24" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="I24" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>83</v>
+        <v>43</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>158</v>
+        <v>118</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>234</v>
+        <v>201</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>235</v>
-      </c>
-      <c r="N24" t="s" s="2">
-        <v>236</v>
-      </c>
+        <v>202</v>
+      </c>
+      <c r="N24" s="2"/>
       <c r="O24" t="s" s="2">
-        <v>237</v>
+        <v>203</v>
       </c>
       <c r="P24" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="Q24" s="2"/>
       <c r="R24" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="S24" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="T24" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="U24" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="V24" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="W24" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="X24" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="Y24" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="Z24" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="AA24" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="AB24" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="AC24" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="AD24" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>233</v>
+        <v>199</v>
       </c>
       <c r="AG24" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="AH24" t="s" s="2">
-        <v>82</v>
+        <v>42</v>
       </c>
       <c r="AI24" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>94</v>
+        <v>54</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>73</v>
+        <v>204</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>238</v>
+        <v>205</v>
       </c>
       <c r="AM24" t="s" s="2">
-        <v>227</v>
+        <v>206</v>
       </c>
       <c r="AN24" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>239</v>
+        <v>207</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>239</v>
+        <v>207</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
-        <v>240</v>
+        <v>33</v>
       </c>
       <c r="E25" s="2"/>
       <c r="F25" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="G25" t="s" s="2">
-        <v>82</v>
+        <v>42</v>
       </c>
       <c r="H25" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="I25" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>83</v>
+        <v>43</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>158</v>
+        <v>208</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>241</v>
+        <v>209</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>242</v>
+        <v>210</v>
       </c>
       <c r="N25" s="2"/>
       <c r="O25" t="s" s="2">
-        <v>243</v>
+        <v>211</v>
       </c>
       <c r="P25" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="Q25" s="2"/>
       <c r="R25" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="S25" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="T25" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="U25" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="V25" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="W25" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="X25" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="Y25" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="Z25" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="AA25" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="AB25" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="AC25" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="AD25" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>239</v>
+        <v>207</v>
       </c>
       <c r="AG25" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="AH25" t="s" s="2">
-        <v>82</v>
+        <v>42</v>
       </c>
       <c r="AI25" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>94</v>
+        <v>54</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>244</v>
+        <v>212</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>245</v>
+        <v>213</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>246</v>
+        <v>214</v>
       </c>
       <c r="AN25" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>247</v>
+        <v>215</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>247</v>
+        <v>215</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="E26" s="2"/>
       <c r="F26" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="G26" t="s" s="2">
-        <v>82</v>
+        <v>42</v>
       </c>
       <c r="H26" t="s" s="2">
-        <v>73</v>
+        <v>43</v>
       </c>
       <c r="I26" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>83</v>
+        <v>43</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>248</v>
+        <v>216</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>249</v>
+        <v>217</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>250</v>
+        <v>218</v>
       </c>
       <c r="N26" s="2"/>
-      <c r="O26" t="s" s="2">
-        <v>251</v>
-      </c>
+      <c r="O26" s="2"/>
       <c r="P26" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="Q26" s="2"/>
       <c r="R26" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="S26" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="T26" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="U26" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="V26" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="W26" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="X26" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="Y26" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="Z26" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="AA26" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="AB26" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="AC26" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="AD26" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>247</v>
+        <v>215</v>
       </c>
       <c r="AG26" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="AH26" t="s" s="2">
-        <v>82</v>
+        <v>42</v>
       </c>
       <c r="AI26" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>94</v>
+        <v>54</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>252</v>
+        <v>219</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>253</v>
+        <v>220</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>254</v>
+        <v>221</v>
       </c>
       <c r="AN26" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>255</v>
+        <v>222</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>255</v>
+        <v>222</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
-        <v>73</v>
+        <v>223</v>
       </c>
       <c r="E27" s="2"/>
       <c r="F27" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="G27" t="s" s="2">
-        <v>82</v>
+        <v>42</v>
       </c>
       <c r="H27" t="s" s="2">
-        <v>83</v>
+        <v>33</v>
       </c>
       <c r="I27" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>83</v>
+        <v>33</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>256</v>
+        <v>224</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>257</v>
+        <v>225</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>258</v>
+        <v>226</v>
       </c>
       <c r="N27" s="2"/>
-      <c r="O27" s="2"/>
+      <c r="O27" t="s" s="2">
+        <v>227</v>
+      </c>
       <c r="P27" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="Q27" s="2"/>
       <c r="R27" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="S27" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="T27" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="U27" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="V27" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="W27" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="X27" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="Y27" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="Z27" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="AA27" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="AB27" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="AC27" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="AD27" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>255</v>
+        <v>222</v>
       </c>
       <c r="AG27" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="AH27" t="s" s="2">
-        <v>82</v>
+        <v>42</v>
       </c>
       <c r="AI27" t="s" s="2">
-        <v>73</v>
+        <v>228</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>94</v>
+        <v>54</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>259</v>
+        <v>229</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>260</v>
+        <v>230</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>261</v>
+        <v>231</v>
       </c>
       <c r="AN27" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>262</v>
+        <v>232</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>262</v>
+        <v>232</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
-        <v>263</v>
+        <v>233</v>
       </c>
       <c r="E28" s="2"/>
       <c r="F28" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="G28" t="s" s="2">
-        <v>82</v>
+        <v>42</v>
       </c>
       <c r="H28" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="I28" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>73</v>
+        <v>43</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>264</v>
+        <v>224</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>265</v>
+        <v>234</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>266</v>
+        <v>235</v>
       </c>
       <c r="N28" s="2"/>
       <c r="O28" t="s" s="2">
-        <v>267</v>
+        <v>236</v>
       </c>
       <c r="P28" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="Q28" s="2"/>
       <c r="R28" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="S28" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="T28" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="U28" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="V28" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="W28" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="X28" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="Y28" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="Z28" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="AA28" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="AB28" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="AC28" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="AD28" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>262</v>
+        <v>232</v>
       </c>
       <c r="AG28" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="AH28" t="s" s="2">
-        <v>82</v>
+        <v>42</v>
       </c>
       <c r="AI28" t="s" s="2">
-        <v>268</v>
+        <v>228</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>94</v>
+        <v>54</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>269</v>
+        <v>33</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>270</v>
+        <v>237</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>271</v>
+        <v>33</v>
       </c>
       <c r="AN28" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>272</v>
+        <v>238</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>272</v>
+        <v>238</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
-        <v>273</v>
+        <v>33</v>
       </c>
       <c r="E29" s="2"/>
       <c r="F29" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="G29" t="s" s="2">
-        <v>82</v>
+        <v>42</v>
       </c>
       <c r="H29" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="I29" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>83</v>
+        <v>43</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>264</v>
+        <v>239</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>274</v>
+        <v>240</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>275</v>
+        <v>241</v>
       </c>
       <c r="N29" s="2"/>
       <c r="O29" t="s" s="2">
-        <v>276</v>
+        <v>242</v>
       </c>
       <c r="P29" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="Q29" s="2"/>
       <c r="R29" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="S29" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="T29" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="U29" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="V29" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="W29" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="X29" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="Y29" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="Z29" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="AA29" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="AB29" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="AC29" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="AD29" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>272</v>
+        <v>238</v>
       </c>
       <c r="AG29" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="AH29" t="s" s="2">
-        <v>82</v>
+        <v>42</v>
       </c>
       <c r="AI29" t="s" s="2">
-        <v>268</v>
+        <v>33</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>94</v>
+        <v>54</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>73</v>
+        <v>243</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>277</v>
+        <v>244</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>73</v>
+        <v>245</v>
       </c>
       <c r="AN29" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>278</v>
+        <v>246</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>278</v>
+        <v>246</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="E30" s="2"/>
       <c r="F30" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="G30" t="s" s="2">
-        <v>82</v>
+        <v>35</v>
       </c>
       <c r="H30" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="I30" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>83</v>
+        <v>33</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>279</v>
+        <v>147</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>280</v>
+        <v>247</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>281</v>
+        <v>248</v>
       </c>
       <c r="N30" s="2"/>
       <c r="O30" t="s" s="2">
-        <v>282</v>
+        <v>249</v>
       </c>
       <c r="P30" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="Q30" s="2"/>
       <c r="R30" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="S30" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="T30" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="U30" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="V30" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="W30" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="X30" t="s" s="2">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="Y30" t="s" s="2">
-        <v>73</v>
+        <v>250</v>
       </c>
       <c r="Z30" t="s" s="2">
-        <v>73</v>
+        <v>251</v>
       </c>
       <c r="AA30" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="AB30" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="AC30" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="AD30" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>278</v>
+        <v>246</v>
       </c>
       <c r="AG30" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="AH30" t="s" s="2">
-        <v>82</v>
+        <v>35</v>
       </c>
       <c r="AI30" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>94</v>
+        <v>54</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>283</v>
+        <v>252</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>284</v>
+        <v>253</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>285</v>
+        <v>254</v>
       </c>
       <c r="AN30" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>286</v>
+        <v>255</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>286</v>
+        <v>255</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
-        <v>73</v>
+        <v>256</v>
       </c>
       <c r="E31" s="2"/>
       <c r="F31" t="s" s="2">
-        <v>74</v>
+        <v>42</v>
       </c>
       <c r="G31" t="s" s="2">
-        <v>75</v>
+        <v>42</v>
       </c>
       <c r="H31" t="s" s="2">
-        <v>73</v>
+        <v>43</v>
       </c>
       <c r="I31" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>73</v>
+        <v>43</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>187</v>
+        <v>257</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>287</v>
+        <v>258</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>288</v>
-      </c>
-      <c r="N31" s="2"/>
+        <v>259</v>
+      </c>
+      <c r="N31" t="s" s="2">
+        <v>260</v>
+      </c>
       <c r="O31" t="s" s="2">
-        <v>289</v>
+        <v>261</v>
       </c>
       <c r="P31" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="Q31" s="2"/>
       <c r="R31" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="S31" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="T31" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="U31" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="V31" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="W31" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="X31" t="s" s="2">
-        <v>106</v>
+        <v>33</v>
       </c>
       <c r="Y31" t="s" s="2">
-        <v>290</v>
+        <v>33</v>
       </c>
       <c r="Z31" t="s" s="2">
-        <v>291</v>
+        <v>33</v>
       </c>
       <c r="AA31" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="AB31" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="AC31" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="AD31" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>286</v>
+        <v>255</v>
       </c>
       <c r="AG31" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="AH31" t="s" s="2">
-        <v>75</v>
+        <v>42</v>
       </c>
       <c r="AI31" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>94</v>
+        <v>54</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>292</v>
+        <v>262</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>293</v>
+        <v>263</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>294</v>
+        <v>254</v>
       </c>
       <c r="AN31" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>295</v>
+        <v>264</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>295</v>
+        <v>264</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
-        <v>296</v>
+        <v>33</v>
       </c>
       <c r="E32" s="2"/>
       <c r="F32" t="s" s="2">
-        <v>82</v>
+        <v>34</v>
       </c>
       <c r="G32" t="s" s="2">
-        <v>82</v>
+        <v>42</v>
       </c>
       <c r="H32" t="s" s="2">
-        <v>83</v>
+        <v>33</v>
       </c>
       <c r="I32" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>83</v>
+        <v>43</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>297</v>
+        <v>265</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>298</v>
+        <v>266</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>299</v>
-      </c>
-      <c r="N32" t="s" s="2">
-        <v>300</v>
-      </c>
+        <v>267</v>
+      </c>
+      <c r="N32" s="2"/>
       <c r="O32" t="s" s="2">
-        <v>301</v>
+        <v>268</v>
       </c>
       <c r="P32" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="Q32" s="2"/>
       <c r="R32" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="S32" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="T32" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="U32" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="V32" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="W32" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="X32" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="Y32" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="Z32" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="AA32" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="AB32" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="AC32" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="AD32" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>295</v>
+        <v>264</v>
       </c>
       <c r="AG32" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="AH32" t="s" s="2">
-        <v>82</v>
+        <v>42</v>
       </c>
       <c r="AI32" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>94</v>
+        <v>54</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>302</v>
+        <v>269</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>303</v>
+        <v>270</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>294</v>
+        <v>271</v>
       </c>
       <c r="AN32" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>304</v>
+        <v>272</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>304</v>
+        <v>272</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="E33" s="2"/>
       <c r="F33" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="G33" t="s" s="2">
-        <v>82</v>
+        <v>42</v>
       </c>
       <c r="H33" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="I33" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>83</v>
+        <v>33</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>305</v>
+        <v>147</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>306</v>
+        <v>273</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>307</v>
-      </c>
-      <c r="N33" s="2"/>
-      <c r="O33" t="s" s="2">
-        <v>308</v>
-      </c>
+        <v>274</v>
+      </c>
+      <c r="N33" t="s" s="2">
+        <v>275</v>
+      </c>
+      <c r="O33" s="2"/>
       <c r="P33" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="Q33" s="2"/>
       <c r="R33" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="S33" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="T33" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="U33" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="V33" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="W33" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="X33" t="s" s="2">
-        <v>73</v>
+        <v>157</v>
       </c>
       <c r="Y33" t="s" s="2">
-        <v>73</v>
+        <v>276</v>
       </c>
       <c r="Z33" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="AA33" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="AB33" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="AC33" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="AD33" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>304</v>
+        <v>272</v>
       </c>
       <c r="AG33" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="AH33" t="s" s="2">
-        <v>82</v>
+        <v>42</v>
       </c>
       <c r="AI33" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>94</v>
+        <v>54</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>309</v>
+        <v>277</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>310</v>
+        <v>278</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>311</v>
+        <v>279</v>
       </c>
       <c r="AN33" t="s" s="2">
-        <v>73</v>
+        <v>280</v>
       </c>
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>312</v>
+        <v>281</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>312</v>
+        <v>281</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="E34" s="2"/>
       <c r="F34" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="G34" t="s" s="2">
-        <v>82</v>
+        <v>42</v>
       </c>
       <c r="H34" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="I34" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>187</v>
+        <v>118</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>313</v>
+        <v>273</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>314</v>
+        <v>282</v>
       </c>
       <c r="N34" t="s" s="2">
-        <v>315</v>
+        <v>283</v>
       </c>
       <c r="O34" s="2"/>
       <c r="P34" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="Q34" s="2"/>
       <c r="R34" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="S34" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="T34" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="U34" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="V34" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="W34" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="X34" t="s" s="2">
-        <v>197</v>
+        <v>33</v>
       </c>
       <c r="Y34" t="s" s="2">
-        <v>316</v>
+        <v>33</v>
       </c>
       <c r="Z34" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="AA34" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="AB34" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="AC34" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="AD34" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>312</v>
+        <v>281</v>
       </c>
       <c r="AG34" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="AH34" t="s" s="2">
-        <v>82</v>
+        <v>42</v>
       </c>
       <c r="AI34" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>94</v>
+        <v>54</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>317</v>
+        <v>284</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>318</v>
+        <v>285</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>319</v>
+        <v>279</v>
       </c>
       <c r="AN34" t="s" s="2">
-        <v>320</v>
+        <v>33</v>
       </c>
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>321</v>
+        <v>286</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>321</v>
+        <v>286</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="E35" s="2"/>
       <c r="F35" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="G35" t="s" s="2">
-        <v>82</v>
+        <v>35</v>
       </c>
       <c r="H35" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="I35" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>158</v>
+        <v>287</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>313</v>
+        <v>288</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>322</v>
-      </c>
-      <c r="N35" t="s" s="2">
-        <v>323</v>
-      </c>
+        <v>289</v>
+      </c>
+      <c r="N35" s="2"/>
       <c r="O35" s="2"/>
       <c r="P35" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="Q35" s="2"/>
       <c r="R35" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="S35" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="T35" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="U35" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="V35" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="W35" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="X35" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="Y35" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="Z35" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="AA35" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="AB35" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="AC35" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="AD35" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>321</v>
+        <v>286</v>
       </c>
       <c r="AG35" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="AH35" t="s" s="2">
-        <v>82</v>
+        <v>35</v>
       </c>
       <c r="AI35" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>94</v>
+        <v>54</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>324</v>
+        <v>290</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>325</v>
+        <v>291</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>319</v>
+        <v>33</v>
       </c>
       <c r="AN35" t="s" s="2">
-        <v>73</v>
+        <v>292</v>
       </c>
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>326</v>
+        <v>293</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>326</v>
+        <v>293</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="E36" s="2"/>
       <c r="F36" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="G36" t="s" s="2">
-        <v>75</v>
+        <v>35</v>
       </c>
       <c r="H36" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="I36" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>327</v>
+        <v>294</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>328</v>
+        <v>295</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>329</v>
+        <v>296</v>
       </c>
       <c r="N36" s="2"/>
       <c r="O36" s="2"/>
       <c r="P36" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="Q36" s="2"/>
       <c r="R36" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="S36" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="T36" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="U36" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="V36" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="W36" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="X36" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="Y36" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="Z36" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="AA36" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="AB36" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="AC36" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="AD36" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>326</v>
+        <v>293</v>
       </c>
       <c r="AG36" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="AH36" t="s" s="2">
-        <v>75</v>
+        <v>35</v>
       </c>
       <c r="AI36" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>94</v>
+        <v>54</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>330</v>
+        <v>297</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>331</v>
+        <v>298</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="AN36" t="s" s="2">
-        <v>332</v>
+        <v>33</v>
       </c>
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>333</v>
+        <v>299</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>333</v>
+        <v>299</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
-        <v>73</v>
+        <v>300</v>
       </c>
       <c r="E37" s="2"/>
       <c r="F37" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="G37" t="s" s="2">
-        <v>75</v>
+        <v>35</v>
       </c>
       <c r="H37" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="I37" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>334</v>
+        <v>301</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>335</v>
+        <v>302</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>336</v>
-      </c>
-      <c r="N37" s="2"/>
+        <v>303</v>
+      </c>
+      <c r="N37" t="s" s="2">
+        <v>304</v>
+      </c>
       <c r="O37" s="2"/>
       <c r="P37" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="Q37" s="2"/>
       <c r="R37" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="S37" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="T37" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="U37" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="V37" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="W37" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="X37" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="Y37" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="Z37" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="AA37" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="AB37" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="AC37" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="AD37" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>333</v>
+        <v>299</v>
       </c>
       <c r="AG37" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="AH37" t="s" s="2">
-        <v>75</v>
+        <v>35</v>
       </c>
       <c r="AI37" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>94</v>
+        <v>54</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>337</v>
+        <v>305</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>338</v>
+        <v>306</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="AN37" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>339</v>
+        <v>307</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>339</v>
+        <v>307</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
-        <v>340</v>
+        <v>33</v>
       </c>
       <c r="E38" s="2"/>
       <c r="F38" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="G38" t="s" s="2">
-        <v>75</v>
+        <v>42</v>
       </c>
       <c r="H38" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="I38" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>341</v>
+        <v>308</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>342</v>
+        <v>309</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>343</v>
-      </c>
-      <c r="N38" t="s" s="2">
-        <v>344</v>
-      </c>
-      <c r="O38" s="2"/>
+        <v>310</v>
+      </c>
+      <c r="N38" s="2"/>
+      <c r="O38" t="s" s="2">
+        <v>311</v>
+      </c>
       <c r="P38" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="Q38" s="2"/>
       <c r="R38" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="S38" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="T38" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="U38" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="V38" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="W38" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="X38" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="Y38" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="Z38" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="AA38" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="AB38" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="AC38" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="AD38" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>339</v>
+        <v>307</v>
       </c>
       <c r="AG38" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="AH38" t="s" s="2">
-        <v>75</v>
+        <v>42</v>
       </c>
       <c r="AI38" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>94</v>
+        <v>54</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>345</v>
+        <v>33</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>346</v>
+        <v>312</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="AN38" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>347</v>
+        <v>313</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>347</v>
+        <v>313</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="E39" s="2"/>
       <c r="F39" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="G39" t="s" s="2">
-        <v>82</v>
+        <v>42</v>
       </c>
       <c r="H39" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="I39" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>348</v>
+        <v>189</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>349</v>
+        <v>314</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>350</v>
+        <v>315</v>
       </c>
       <c r="N39" s="2"/>
-      <c r="O39" t="s" s="2">
-        <v>351</v>
-      </c>
+      <c r="O39" s="2"/>
       <c r="P39" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="Q39" s="2"/>
       <c r="R39" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="S39" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="T39" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="U39" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="V39" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="W39" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="X39" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="Y39" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="Z39" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="AA39" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="AB39" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="AC39" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="AD39" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>347</v>
+        <v>316</v>
       </c>
       <c r="AG39" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="AH39" t="s" s="2">
-        <v>82</v>
+        <v>42</v>
       </c>
       <c r="AI39" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>94</v>
+        <v>33</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>352</v>
+        <v>317</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="AN39" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>353</v>
+        <v>318</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>353</v>
+        <v>318</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
-        <v>73</v>
+        <v>87</v>
       </c>
       <c r="E40" s="2"/>
       <c r="F40" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="G40" t="s" s="2">
-        <v>82</v>
+        <v>35</v>
       </c>
       <c r="H40" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="I40" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>229</v>
+        <v>88</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>354</v>
+        <v>89</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>355</v>
-      </c>
-      <c r="N40" s="2"/>
+        <v>319</v>
+      </c>
+      <c r="N40" t="s" s="2">
+        <v>91</v>
+      </c>
       <c r="O40" s="2"/>
       <c r="P40" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="Q40" s="2"/>
       <c r="R40" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="S40" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="T40" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="U40" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="V40" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="W40" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="X40" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="Y40" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="Z40" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="AA40" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="AB40" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="AC40" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="AD40" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>356</v>
+        <v>320</v>
       </c>
       <c r="AG40" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="AH40" t="s" s="2">
-        <v>82</v>
+        <v>35</v>
       </c>
       <c r="AI40" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>73</v>
+        <v>93</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>357</v>
+        <v>317</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="AN40" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>358</v>
+        <v>321</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>358</v>
+        <v>321</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
-        <v>127</v>
+        <v>322</v>
       </c>
       <c r="E41" s="2"/>
       <c r="F41" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="G41" t="s" s="2">
-        <v>75</v>
+        <v>35</v>
       </c>
       <c r="H41" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="I41" t="s" s="2">
-        <v>73</v>
+        <v>43</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>73</v>
+        <v>43</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>128</v>
+        <v>88</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>129</v>
+        <v>323</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>359</v>
+        <v>324</v>
       </c>
       <c r="N41" t="s" s="2">
-        <v>131</v>
-      </c>
-      <c r="O41" s="2"/>
+        <v>91</v>
+      </c>
+      <c r="O41" t="s" s="2">
+        <v>97</v>
+      </c>
       <c r="P41" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="Q41" s="2"/>
       <c r="R41" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="S41" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="T41" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="U41" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="V41" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="W41" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="X41" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="Y41" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="Z41" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="AA41" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="AB41" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="AC41" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="AD41" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>360</v>
+        <v>325</v>
       </c>
       <c r="AG41" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="AH41" t="s" s="2">
-        <v>75</v>
+        <v>35</v>
       </c>
       <c r="AI41" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>133</v>
+        <v>93</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>357</v>
+        <v>85</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="AN41" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>361</v>
+        <v>326</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>361</v>
+        <v>326</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
-        <v>362</v>
+        <v>33</v>
       </c>
       <c r="E42" s="2"/>
       <c r="F42" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="G42" t="s" s="2">
-        <v>75</v>
+        <v>42</v>
       </c>
       <c r="H42" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="I42" t="s" s="2">
-        <v>83</v>
+        <v>33</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>83</v>
+        <v>33</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>128</v>
+        <v>327</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>363</v>
+        <v>328</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>364</v>
-      </c>
-      <c r="N42" t="s" s="2">
-        <v>131</v>
-      </c>
+        <v>329</v>
+      </c>
+      <c r="N42" s="2"/>
       <c r="O42" t="s" s="2">
-        <v>137</v>
+        <v>330</v>
       </c>
       <c r="P42" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="Q42" s="2"/>
       <c r="R42" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="S42" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="T42" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="U42" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="V42" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="W42" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="X42" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="Y42" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="Z42" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="AA42" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="AB42" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="AC42" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="AD42" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>365</v>
+        <v>326</v>
       </c>
       <c r="AG42" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="AH42" t="s" s="2">
-        <v>75</v>
+        <v>42</v>
       </c>
       <c r="AI42" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>133</v>
+        <v>54</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>125</v>
+        <v>331</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="AN42" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>366</v>
+        <v>332</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>366</v>
+        <v>332</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="E43" s="2"/>
       <c r="F43" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="G43" t="s" s="2">
-        <v>82</v>
+        <v>42</v>
       </c>
       <c r="H43" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="I43" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>367</v>
+        <v>216</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>368</v>
+        <v>333</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>369</v>
-      </c>
-      <c r="N43" s="2"/>
+        <v>334</v>
+      </c>
+      <c r="N43" t="s" s="2">
+        <v>335</v>
+      </c>
       <c r="O43" t="s" s="2">
-        <v>370</v>
+        <v>336</v>
       </c>
       <c r="P43" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="Q43" s="2"/>
       <c r="R43" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="S43" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="T43" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="U43" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="V43" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="W43" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="X43" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="Y43" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="Z43" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="AA43" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="AB43" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="AC43" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="AD43" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>366</v>
+        <v>332</v>
       </c>
       <c r="AG43" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="AH43" t="s" s="2">
-        <v>82</v>
+        <v>42</v>
       </c>
       <c r="AI43" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>94</v>
+        <v>54</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>371</v>
+        <v>337</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="AN43" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>372</v>
+        <v>338</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>372</v>
+        <v>338</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="E44" s="2"/>
       <c r="F44" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="G44" t="s" s="2">
-        <v>82</v>
+        <v>35</v>
       </c>
       <c r="H44" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="I44" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>256</v>
+        <v>339</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>373</v>
+        <v>340</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>374</v>
-      </c>
-      <c r="N44" t="s" s="2">
-        <v>375</v>
-      </c>
-      <c r="O44" t="s" s="2">
-        <v>376</v>
-      </c>
+        <v>341</v>
+      </c>
+      <c r="N44" s="2"/>
+      <c r="O44" s="2"/>
       <c r="P44" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="Q44" s="2"/>
       <c r="R44" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="S44" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="T44" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="U44" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="V44" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="W44" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="X44" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="Y44" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="Z44" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="AA44" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="AB44" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="AC44" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="AD44" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>372</v>
+        <v>338</v>
       </c>
       <c r="AG44" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="AH44" t="s" s="2">
-        <v>82</v>
+        <v>35</v>
       </c>
       <c r="AI44" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>94</v>
+        <v>54</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>377</v>
+        <v>342</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="AN44" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>378</v>
+        <v>343</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>378</v>
+        <v>343</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
-        <v>73</v>
+        <v>344</v>
       </c>
       <c r="E45" s="2"/>
       <c r="F45" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="G45" t="s" s="2">
-        <v>75</v>
+        <v>35</v>
       </c>
       <c r="H45" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="I45" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>379</v>
+        <v>308</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>380</v>
+        <v>345</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>381</v>
+        <v>346</v>
       </c>
       <c r="N45" s="2"/>
-      <c r="O45" s="2"/>
+      <c r="O45" t="s" s="2">
+        <v>347</v>
+      </c>
       <c r="P45" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="Q45" s="2"/>
       <c r="R45" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="S45" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="T45" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="U45" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="V45" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="W45" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="X45" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="Y45" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="Z45" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="AA45" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="AB45" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="AC45" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="AD45" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>378</v>
+        <v>343</v>
       </c>
       <c r="AG45" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="AH45" t="s" s="2">
-        <v>75</v>
+        <v>35</v>
       </c>
       <c r="AI45" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>94</v>
+        <v>54</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>382</v>
+        <v>348</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="AN45" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>383</v>
+        <v>349</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>383</v>
+        <v>349</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
-        <v>384</v>
+        <v>33</v>
       </c>
       <c r="E46" s="2"/>
       <c r="F46" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="G46" t="s" s="2">
-        <v>75</v>
+        <v>42</v>
       </c>
       <c r="H46" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="I46" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>348</v>
+        <v>189</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>385</v>
+        <v>314</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>386</v>
+        <v>315</v>
       </c>
       <c r="N46" s="2"/>
-      <c r="O46" t="s" s="2">
-        <v>387</v>
-      </c>
+      <c r="O46" s="2"/>
       <c r="P46" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="Q46" s="2"/>
       <c r="R46" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="S46" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="T46" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="U46" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="V46" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="W46" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="X46" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="Y46" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="Z46" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="AA46" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="AB46" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="AC46" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="AD46" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>383</v>
+        <v>316</v>
       </c>
       <c r="AG46" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="AH46" t="s" s="2">
-        <v>75</v>
+        <v>42</v>
       </c>
       <c r="AI46" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>94</v>
+        <v>33</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>388</v>
+        <v>317</v>
       </c>
       <c r="AM46" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="AN46" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>389</v>
+        <v>350</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>389</v>
+        <v>350</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
-        <v>73</v>
+        <v>87</v>
       </c>
       <c r="E47" s="2"/>
       <c r="F47" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="G47" t="s" s="2">
-        <v>82</v>
+        <v>35</v>
       </c>
       <c r="H47" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="I47" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>229</v>
+        <v>88</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>354</v>
+        <v>89</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>355</v>
-      </c>
-      <c r="N47" s="2"/>
+        <v>319</v>
+      </c>
+      <c r="N47" t="s" s="2">
+        <v>91</v>
+      </c>
       <c r="O47" s="2"/>
       <c r="P47" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="Q47" s="2"/>
       <c r="R47" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="S47" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="T47" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="U47" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="V47" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="W47" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="X47" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="Y47" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="Z47" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="AA47" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="AB47" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="AC47" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="AD47" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>356</v>
+        <v>320</v>
       </c>
       <c r="AG47" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="AH47" t="s" s="2">
-        <v>82</v>
+        <v>35</v>
       </c>
       <c r="AI47" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>73</v>
+        <v>93</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>357</v>
+        <v>317</v>
       </c>
       <c r="AM47" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="AN47" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>390</v>
+        <v>351</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>390</v>
+        <v>351</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
-        <v>127</v>
+        <v>322</v>
       </c>
       <c r="E48" s="2"/>
       <c r="F48" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="G48" t="s" s="2">
-        <v>75</v>
+        <v>35</v>
       </c>
       <c r="H48" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="I48" t="s" s="2">
-        <v>73</v>
+        <v>43</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>73</v>
+        <v>43</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>128</v>
+        <v>88</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>129</v>
+        <v>323</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>359</v>
+        <v>324</v>
       </c>
       <c r="N48" t="s" s="2">
-        <v>131</v>
-      </c>
-      <c r="O48" s="2"/>
+        <v>91</v>
+      </c>
+      <c r="O48" t="s" s="2">
+        <v>97</v>
+      </c>
       <c r="P48" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="Q48" s="2"/>
       <c r="R48" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="S48" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="T48" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="U48" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="V48" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="W48" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="X48" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="Y48" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="Z48" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="AA48" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="AB48" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="AC48" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="AD48" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>360</v>
+        <v>325</v>
       </c>
       <c r="AG48" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="AH48" t="s" s="2">
-        <v>75</v>
+        <v>35</v>
       </c>
       <c r="AI48" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>133</v>
+        <v>93</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>357</v>
+        <v>85</v>
       </c>
       <c r="AM48" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="AN48" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>391</v>
+        <v>352</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>391</v>
+        <v>352</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
-        <v>362</v>
+        <v>353</v>
       </c>
       <c r="E49" s="2"/>
       <c r="F49" t="s" s="2">
-        <v>74</v>
+        <v>42</v>
       </c>
       <c r="G49" t="s" s="2">
-        <v>75</v>
+        <v>42</v>
       </c>
       <c r="H49" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="I49" t="s" s="2">
-        <v>83</v>
+        <v>33</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>83</v>
+        <v>33</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>128</v>
+        <v>147</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>363</v>
+        <v>354</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>364</v>
+        <v>355</v>
       </c>
       <c r="N49" t="s" s="2">
-        <v>131</v>
+        <v>356</v>
       </c>
       <c r="O49" t="s" s="2">
-        <v>137</v>
+        <v>357</v>
       </c>
       <c r="P49" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="Q49" s="2"/>
       <c r="R49" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="S49" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="T49" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="U49" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="V49" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="W49" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="X49" t="s" s="2">
-        <v>73</v>
+        <v>157</v>
       </c>
       <c r="Y49" t="s" s="2">
-        <v>73</v>
+        <v>358</v>
       </c>
       <c r="Z49" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="AA49" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="AB49" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="AC49" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="AD49" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>365</v>
+        <v>352</v>
       </c>
       <c r="AG49" t="s" s="2">
-        <v>74</v>
+        <v>42</v>
       </c>
       <c r="AH49" t="s" s="2">
-        <v>75</v>
+        <v>42</v>
       </c>
       <c r="AI49" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>133</v>
+        <v>54</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>125</v>
+        <v>348</v>
       </c>
       <c r="AM49" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="AN49" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>392</v>
+        <v>359</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>392</v>
+        <v>359</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
-        <v>393</v>
+        <v>33</v>
       </c>
       <c r="E50" s="2"/>
       <c r="F50" t="s" s="2">
-        <v>82</v>
+        <v>42</v>
       </c>
       <c r="G50" t="s" s="2">
-        <v>82</v>
+        <v>42</v>
       </c>
       <c r="H50" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="I50" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>187</v>
+        <v>360</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>394</v>
+        <v>361</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>395</v>
-      </c>
-      <c r="N50" t="s" s="2">
-        <v>396</v>
-      </c>
-      <c r="O50" t="s" s="2">
-        <v>397</v>
-      </c>
+        <v>362</v>
+      </c>
+      <c r="N50" s="2"/>
+      <c r="O50" s="2"/>
       <c r="P50" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="Q50" s="2"/>
       <c r="R50" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="S50" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="T50" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="U50" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="V50" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="W50" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="X50" t="s" s="2">
-        <v>197</v>
+        <v>33</v>
       </c>
       <c r="Y50" t="s" s="2">
-        <v>398</v>
+        <v>33</v>
       </c>
       <c r="Z50" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="AA50" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="AB50" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="AC50" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="AD50" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>392</v>
+        <v>359</v>
       </c>
       <c r="AG50" t="s" s="2">
-        <v>82</v>
+        <v>42</v>
       </c>
       <c r="AH50" t="s" s="2">
-        <v>82</v>
+        <v>42</v>
       </c>
       <c r="AI50" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>94</v>
+        <v>54</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>388</v>
+        <v>348</v>
       </c>
       <c r="AM50" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="AN50" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>399</v>
+        <v>363</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>399</v>
+        <v>363</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="E51" s="2"/>
       <c r="F51" t="s" s="2">
-        <v>82</v>
+        <v>34</v>
       </c>
       <c r="G51" t="s" s="2">
-        <v>82</v>
+        <v>35</v>
       </c>
       <c r="H51" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="I51" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>400</v>
+        <v>308</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>401</v>
+        <v>364</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>402</v>
+        <v>365</v>
       </c>
       <c r="N51" s="2"/>
-      <c r="O51" s="2"/>
+      <c r="O51" t="s" s="2">
+        <v>366</v>
+      </c>
       <c r="P51" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="Q51" s="2"/>
       <c r="R51" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="S51" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="T51" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="U51" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="V51" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="W51" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="X51" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="Y51" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="Z51" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="AA51" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="AB51" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="AC51" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="AD51" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>399</v>
+        <v>363</v>
       </c>
       <c r="AG51" t="s" s="2">
-        <v>82</v>
+        <v>34</v>
       </c>
       <c r="AH51" t="s" s="2">
-        <v>82</v>
+        <v>35</v>
       </c>
       <c r="AI51" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="AJ51" t="s" s="2">
-        <v>94</v>
+        <v>54</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>388</v>
+        <v>348</v>
       </c>
       <c r="AM51" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="AN51" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>403</v>
+        <v>367</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>403</v>
+        <v>367</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="E52" s="2"/>
       <c r="F52" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="G52" t="s" s="2">
-        <v>75</v>
+        <v>42</v>
       </c>
       <c r="H52" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="I52" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>348</v>
+        <v>189</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>404</v>
+        <v>314</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>405</v>
+        <v>315</v>
       </c>
       <c r="N52" s="2"/>
-      <c r="O52" t="s" s="2">
-        <v>406</v>
-      </c>
+      <c r="O52" s="2"/>
       <c r="P52" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="Q52" s="2"/>
       <c r="R52" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="S52" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="T52" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="U52" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="V52" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="W52" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="X52" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="Y52" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="Z52" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="AA52" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="AB52" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="AC52" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="AD52" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>403</v>
+        <v>316</v>
       </c>
       <c r="AG52" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="AH52" t="s" s="2">
-        <v>75</v>
+        <v>42</v>
       </c>
       <c r="AI52" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="AJ52" t="s" s="2">
-        <v>94</v>
+        <v>33</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>388</v>
+        <v>317</v>
       </c>
       <c r="AM52" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="AN52" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>407</v>
+        <v>368</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>407</v>
+        <v>368</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
-        <v>73</v>
+        <v>87</v>
       </c>
       <c r="E53" s="2"/>
       <c r="F53" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="G53" t="s" s="2">
-        <v>82</v>
+        <v>35</v>
       </c>
       <c r="H53" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="I53" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>229</v>
+        <v>88</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>354</v>
+        <v>89</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>355</v>
-      </c>
-      <c r="N53" s="2"/>
+        <v>319</v>
+      </c>
+      <c r="N53" t="s" s="2">
+        <v>91</v>
+      </c>
       <c r="O53" s="2"/>
       <c r="P53" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="Q53" s="2"/>
       <c r="R53" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="S53" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="T53" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="U53" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="V53" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="W53" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="X53" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="Y53" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="Z53" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="AA53" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="AB53" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="AC53" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="AD53" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>356</v>
+        <v>320</v>
       </c>
       <c r="AG53" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="AH53" t="s" s="2">
-        <v>82</v>
+        <v>35</v>
       </c>
       <c r="AI53" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="AJ53" t="s" s="2">
-        <v>73</v>
+        <v>93</v>
       </c>
       <c r="AK53" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="AL53" t="s" s="2">
-        <v>357</v>
+        <v>317</v>
       </c>
       <c r="AM53" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="AN53" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>408</v>
+        <v>369</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>408</v>
+        <v>369</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
-        <v>127</v>
+        <v>322</v>
       </c>
       <c r="E54" s="2"/>
       <c r="F54" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="G54" t="s" s="2">
-        <v>75</v>
+        <v>35</v>
       </c>
       <c r="H54" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="I54" t="s" s="2">
-        <v>73</v>
+        <v>43</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>73</v>
+        <v>43</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>128</v>
+        <v>88</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>129</v>
+        <v>323</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>359</v>
+        <v>324</v>
       </c>
       <c r="N54" t="s" s="2">
-        <v>131</v>
-      </c>
-      <c r="O54" s="2"/>
+        <v>91</v>
+      </c>
+      <c r="O54" t="s" s="2">
+        <v>97</v>
+      </c>
       <c r="P54" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="Q54" s="2"/>
       <c r="R54" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="S54" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="T54" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="U54" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="V54" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="W54" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="X54" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="Y54" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="Z54" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="AA54" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="AB54" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="AC54" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="AD54" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>360</v>
+        <v>325</v>
       </c>
       <c r="AG54" t="s" s="2">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="AH54" t="s" s="2">
-        <v>75</v>
+        <v>35</v>
       </c>
       <c r="AI54" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="AJ54" t="s" s="2">
-        <v>133</v>
+        <v>93</v>
       </c>
       <c r="AK54" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="AL54" t="s" s="2">
-        <v>357</v>
+        <v>85</v>
       </c>
       <c r="AM54" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="AN54" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>409</v>
+        <v>370</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>409</v>
+        <v>370</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
-        <v>362</v>
+        <v>353</v>
       </c>
       <c r="E55" s="2"/>
       <c r="F55" t="s" s="2">
-        <v>74</v>
+        <v>42</v>
       </c>
       <c r="G55" t="s" s="2">
-        <v>75</v>
+        <v>42</v>
       </c>
       <c r="H55" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="I55" t="s" s="2">
-        <v>83</v>
+        <v>33</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>83</v>
+        <v>33</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>128</v>
+        <v>147</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>363</v>
+        <v>371</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>364</v>
-      </c>
-      <c r="N55" t="s" s="2">
-        <v>131</v>
-      </c>
+        <v>372</v>
+      </c>
+      <c r="N55" s="2"/>
       <c r="O55" t="s" s="2">
-        <v>137</v>
+        <v>373</v>
       </c>
       <c r="P55" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="Q55" s="2"/>
       <c r="R55" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="S55" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="T55" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="U55" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="V55" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="W55" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="X55" t="s" s="2">
-        <v>73</v>
+        <v>157</v>
       </c>
       <c r="Y55" t="s" s="2">
-        <v>73</v>
+        <v>374</v>
       </c>
       <c r="Z55" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="AA55" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="AB55" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="AC55" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="AD55" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>365</v>
+        <v>370</v>
       </c>
       <c r="AG55" t="s" s="2">
-        <v>74</v>
+        <v>42</v>
       </c>
       <c r="AH55" t="s" s="2">
-        <v>75</v>
+        <v>42</v>
       </c>
       <c r="AI55" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="AJ55" t="s" s="2">
-        <v>133</v>
+        <v>54</v>
       </c>
       <c r="AK55" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="AL55" t="s" s="2">
-        <v>125</v>
+        <v>348</v>
       </c>
       <c r="AM55" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="AN55" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>410</v>
+        <v>375</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>410</v>
+        <v>375</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
-        <v>393</v>
+        <v>33</v>
       </c>
       <c r="E56" s="2"/>
       <c r="F56" t="s" s="2">
-        <v>82</v>
+        <v>42</v>
       </c>
       <c r="G56" t="s" s="2">
-        <v>82</v>
+        <v>42</v>
       </c>
       <c r="H56" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="I56" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>187</v>
+        <v>360</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>411</v>
+        <v>376</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>412</v>
+        <v>377</v>
       </c>
       <c r="N56" s="2"/>
       <c r="O56" t="s" s="2">
-        <v>413</v>
+        <v>378</v>
       </c>
       <c r="P56" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="Q56" s="2"/>
       <c r="R56" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="S56" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="T56" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="U56" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="V56" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="W56" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="X56" t="s" s="2">
-        <v>197</v>
+        <v>33</v>
       </c>
       <c r="Y56" t="s" s="2">
-        <v>414</v>
+        <v>33</v>
       </c>
       <c r="Z56" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="AA56" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="AB56" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="AC56" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="AD56" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>410</v>
+        <v>375</v>
       </c>
       <c r="AG56" t="s" s="2">
-        <v>82</v>
+        <v>42</v>
       </c>
       <c r="AH56" t="s" s="2">
-        <v>82</v>
+        <v>42</v>
       </c>
       <c r="AI56" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="AJ56" t="s" s="2">
-        <v>94</v>
+        <v>54</v>
       </c>
       <c r="AK56" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="AL56" t="s" s="2">
-        <v>388</v>
+        <v>348</v>
       </c>
       <c r="AM56" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="AN56" t="s" s="2">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="57" hidden="true">
-      <c r="A57" t="s" s="2">
-        <v>415</v>
-      </c>
-      <c r="B57" t="s" s="2">
-        <v>415</v>
-      </c>
-      <c r="C57" s="2"/>
-      <c r="D57" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="E57" s="2"/>
-      <c r="F57" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="G57" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="H57" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="I57" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="J57" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="K57" t="s" s="2">
-        <v>400</v>
-      </c>
-      <c r="L57" t="s" s="2">
-        <v>416</v>
-      </c>
-      <c r="M57" t="s" s="2">
-        <v>417</v>
-      </c>
-      <c r="N57" s="2"/>
-      <c r="O57" t="s" s="2">
-        <v>418</v>
-      </c>
-      <c r="P57" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="Q57" s="2"/>
-      <c r="R57" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="S57" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="T57" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="U57" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="V57" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="W57" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="X57" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="Y57" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="Z57" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AA57" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AB57" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AC57" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AD57" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AE57" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AF57" t="s" s="2">
-        <v>415</v>
-      </c>
-      <c r="AG57" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AH57" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AI57" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AJ57" t="s" s="2">
-        <v>94</v>
-      </c>
-      <c r="AK57" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AL57" t="s" s="2">
-        <v>388</v>
-      </c>
-      <c r="AM57" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AN57" t="s" s="2">
-        <v>73</v>
+        <v>33</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AN57">
+  <autoFilter ref="A1:AN56">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -8183,7 +7940,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI56">
+  <conditionalFormatting sqref="A2:AI55">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/StructureDefinition-be-performer-task.xlsx
+++ b/StructureDefinition-be-performer-task.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2045" uniqueCount="379">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2045" uniqueCount="380">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-06-14T06:47:29+00:00</t>
+    <t>2023-08-28T15:26:36+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -134,6 +134,10 @@
   </si>
   <si>
     <t>A task to be performed.</t>
+  </si>
+  <si>
+    <t>dom-2:If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}
+dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}inv-1:Last modified date must be greater than or equal to authored-on date. {lastModified.exists().not() or authoredOn.exists().not() or lastModified &gt;= authoredOn}</t>
   </si>
   <si>
     <t>Request, Event</t>
@@ -1650,13 +1654,13 @@
         <v>33</v>
       </c>
       <c r="AJ1" t="s" s="2">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="AK1" t="s" s="2">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="AL1" t="s" s="2">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="AM1" t="s" s="2">
         <v>33</v>
@@ -1667,10 +1671,10 @@
     </row>
     <row r="2" hidden="true">
       <c r="A2" t="s" s="2">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B2" t="s" s="2">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" t="s" s="2">
@@ -1681,7 +1685,7 @@
         <v>34</v>
       </c>
       <c r="G2" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H2" t="s" s="2">
         <v>33</v>
@@ -1690,19 +1694,19 @@
         <v>33</v>
       </c>
       <c r="J2" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K2" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="L2" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="M2" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="N2" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="O2" s="2"/>
       <c r="P2" t="s" s="2">
@@ -1752,13 +1756,13 @@
         <v>33</v>
       </c>
       <c r="AF2" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AG2" t="s" s="2">
         <v>34</v>
       </c>
       <c r="AH2" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="AI2" t="s" s="2">
         <v>33</v>
@@ -1781,10 +1785,10 @@
     </row>
     <row r="3" hidden="true">
       <c r="A3" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" t="s" s="2">
@@ -1795,7 +1799,7 @@
         <v>34</v>
       </c>
       <c r="G3" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H3" t="s" s="2">
         <v>33</v>
@@ -1804,16 +1808,16 @@
         <v>33</v>
       </c>
       <c r="J3" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K3" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="L3" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="M3" t="s" s="2">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="N3" s="2"/>
       <c r="O3" s="2"/>
@@ -1864,19 +1868,19 @@
         <v>33</v>
       </c>
       <c r="AF3" t="s" s="2">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="AG3" t="s" s="2">
         <v>34</v>
       </c>
       <c r="AH3" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="AI3" t="s" s="2">
         <v>33</v>
       </c>
       <c r="AJ3" t="s" s="2">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AK3" t="s" s="2">
         <v>33</v>
@@ -1893,10 +1897,10 @@
     </row>
     <row r="4" hidden="true">
       <c r="A4" t="s" s="2">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" t="s" s="2">
@@ -1907,28 +1911,28 @@
         <v>34</v>
       </c>
       <c r="G4" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H4" t="s" s="2">
         <v>33</v>
       </c>
       <c r="I4" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="J4" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K4" t="s" s="2">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="L4" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="M4" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="N4" t="s" s="2">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="O4" s="2"/>
       <c r="P4" t="s" s="2">
@@ -1978,19 +1982,19 @@
         <v>33</v>
       </c>
       <c r="AF4" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AG4" t="s" s="2">
         <v>34</v>
       </c>
       <c r="AH4" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="AI4" t="s" s="2">
         <v>33</v>
       </c>
       <c r="AJ4" t="s" s="2">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AK4" t="s" s="2">
         <v>33</v>
@@ -2007,10 +2011,10 @@
     </row>
     <row r="5" hidden="true">
       <c r="A5" t="s" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" t="s" s="2">
@@ -2021,7 +2025,7 @@
         <v>34</v>
       </c>
       <c r="G5" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H5" t="s" s="2">
         <v>33</v>
@@ -2033,16 +2037,16 @@
         <v>33</v>
       </c>
       <c r="K5" t="s" s="2">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="L5" t="s" s="2">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="M5" t="s" s="2">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="N5" t="s" s="2">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="O5" s="2"/>
       <c r="P5" t="s" s="2">
@@ -2068,13 +2072,13 @@
         <v>33</v>
       </c>
       <c r="X5" t="s" s="2">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="Y5" t="s" s="2">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="Z5" t="s" s="2">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="AA5" t="s" s="2">
         <v>33</v>
@@ -2092,19 +2096,19 @@
         <v>33</v>
       </c>
       <c r="AF5" t="s" s="2">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="AG5" t="s" s="2">
         <v>34</v>
       </c>
       <c r="AH5" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="AI5" t="s" s="2">
         <v>33</v>
       </c>
       <c r="AJ5" t="s" s="2">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AK5" t="s" s="2">
         <v>33</v>
@@ -2121,21 +2125,21 @@
     </row>
     <row r="6" hidden="true">
       <c r="A6" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E6" s="2"/>
       <c r="F6" t="s" s="2">
         <v>34</v>
       </c>
       <c r="G6" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H6" t="s" s="2">
         <v>33</v>
@@ -2147,16 +2151,16 @@
         <v>33</v>
       </c>
       <c r="K6" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="L6" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="M6" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="N6" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="O6" s="2"/>
       <c r="P6" t="s" s="2">
@@ -2206,25 +2210,25 @@
         <v>33</v>
       </c>
       <c r="AF6" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AG6" t="s" s="2">
         <v>34</v>
       </c>
       <c r="AH6" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="AI6" t="s" s="2">
         <v>33</v>
       </c>
       <c r="AJ6" t="s" s="2">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AK6" t="s" s="2">
         <v>33</v>
       </c>
       <c r="AL6" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AM6" t="s" s="2">
         <v>33</v>
@@ -2235,14 +2239,14 @@
     </row>
     <row r="7" hidden="true">
       <c r="A7" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E7" s="2"/>
       <c r="F7" t="s" s="2">
@@ -2261,16 +2265,16 @@
         <v>33</v>
       </c>
       <c r="K7" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="L7" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="M7" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="N7" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="O7" s="2"/>
       <c r="P7" t="s" s="2">
@@ -2320,7 +2324,7 @@
         <v>33</v>
       </c>
       <c r="AF7" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AG7" t="s" s="2">
         <v>34</v>
@@ -2338,7 +2342,7 @@
         <v>33</v>
       </c>
       <c r="AL7" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AM7" t="s" s="2">
         <v>33</v>
@@ -2349,14 +2353,14 @@
     </row>
     <row r="8" hidden="true">
       <c r="A8" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E8" s="2"/>
       <c r="F8" t="s" s="2">
@@ -2375,16 +2379,16 @@
         <v>33</v>
       </c>
       <c r="K8" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="L8" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="M8" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="N8" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="O8" s="2"/>
       <c r="P8" t="s" s="2">
@@ -2434,7 +2438,7 @@
         <v>33</v>
       </c>
       <c r="AF8" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AG8" t="s" s="2">
         <v>34</v>
@@ -2446,13 +2450,13 @@
         <v>33</v>
       </c>
       <c r="AJ8" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AK8" t="s" s="2">
         <v>33</v>
       </c>
       <c r="AL8" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AM8" t="s" s="2">
         <v>33</v>
@@ -2463,14 +2467,14 @@
     </row>
     <row r="9" hidden="true">
       <c r="A9" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E9" s="2"/>
       <c r="F9" t="s" s="2">
@@ -2483,25 +2487,25 @@
         <v>33</v>
       </c>
       <c r="I9" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="J9" t="s" s="2">
         <v>33</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="L9" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="M9" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="N9" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="O9" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="P9" t="s" s="2">
         <v>33</v>
@@ -2550,7 +2554,7 @@
         <v>33</v>
       </c>
       <c r="AF9" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AG9" t="s" s="2">
         <v>34</v>
@@ -2562,13 +2566,13 @@
         <v>33</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AK9" t="s" s="2">
         <v>33</v>
       </c>
       <c r="AL9" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AM9" t="s" s="2">
         <v>33</v>
@@ -2579,10 +2583,10 @@
     </row>
     <row r="10" hidden="true">
       <c r="A10" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" t="s" s="2">
@@ -2605,13 +2609,13 @@
         <v>33</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="N10" s="2"/>
       <c r="O10" s="2"/>
@@ -2662,7 +2666,7 @@
         <v>33</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AG10" t="s" s="2">
         <v>34</v>
@@ -2674,16 +2678,16 @@
         <v>33</v>
       </c>
       <c r="AJ10" t="s" s="2">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AK10" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AL10" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="AM10" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="AN10" t="s" s="2">
         <v>33</v>
@@ -2691,10 +2695,10 @@
     </row>
     <row r="11" hidden="true">
       <c r="A11" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" t="s" s="2">
@@ -2705,7 +2709,7 @@
         <v>34</v>
       </c>
       <c r="G11" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H11" t="s" s="2">
         <v>33</v>
@@ -2714,20 +2718,20 @@
         <v>33</v>
       </c>
       <c r="J11" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="M11" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="N11" s="2"/>
       <c r="O11" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="P11" t="s" s="2">
         <v>33</v>
@@ -2776,25 +2780,25 @@
         <v>33</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="AG11" t="s" s="2">
         <v>34</v>
       </c>
       <c r="AH11" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="AI11" t="s" s="2">
         <v>33</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AK11" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="AL11" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="AM11" t="s" s="2">
         <v>33</v>
@@ -2805,10 +2809,10 @@
     </row>
     <row r="12" hidden="true">
       <c r="A12" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" t="s" s="2">
@@ -2819,7 +2823,7 @@
         <v>34</v>
       </c>
       <c r="G12" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H12" t="s" s="2">
         <v>33</v>
@@ -2828,20 +2832,20 @@
         <v>33</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="M12" t="s" s="2">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="N12" s="2"/>
       <c r="O12" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="P12" t="s" s="2">
         <v>33</v>
@@ -2890,25 +2894,25 @@
         <v>33</v>
       </c>
       <c r="AF12" t="s" s="2">
+        <v>114</v>
+      </c>
+      <c r="AG12" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="AH12" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AI12" t="s" s="2">
+        <v>33</v>
+      </c>
+      <c r="AJ12" t="s" s="2">
+        <v>55</v>
+      </c>
+      <c r="AK12" t="s" s="2">
+        <v>117</v>
+      </c>
+      <c r="AL12" t="s" s="2">
         <v>113</v>
-      </c>
-      <c r="AG12" t="s" s="2">
-        <v>34</v>
-      </c>
-      <c r="AH12" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AI12" t="s" s="2">
-        <v>33</v>
-      </c>
-      <c r="AJ12" t="s" s="2">
-        <v>54</v>
-      </c>
-      <c r="AK12" t="s" s="2">
-        <v>116</v>
-      </c>
-      <c r="AL12" t="s" s="2">
-        <v>112</v>
       </c>
       <c r="AM12" t="s" s="2">
         <v>33</v>
@@ -2919,10 +2923,10 @@
     </row>
     <row r="13" hidden="true">
       <c r="A13" t="s" s="2">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" t="s" s="2">
@@ -2936,22 +2940,22 @@
         <v>35</v>
       </c>
       <c r="H13" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="I13" t="s" s="2">
         <v>33</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="N13" s="2"/>
       <c r="O13" s="2"/>
@@ -3002,7 +3006,7 @@
         <v>33</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="AG13" t="s" s="2">
         <v>34</v>
@@ -3014,13 +3018,13 @@
         <v>33</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AK13" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="AL13" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="AM13" t="s" s="2">
         <v>33</v>
@@ -3031,10 +3035,10 @@
     </row>
     <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
@@ -3045,7 +3049,7 @@
         <v>34</v>
       </c>
       <c r="G14" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H14" t="s" s="2">
         <v>33</v>
@@ -3054,20 +3058,20 @@
         <v>33</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="N14" s="2"/>
       <c r="O14" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="P14" t="s" s="2">
         <v>33</v>
@@ -3116,25 +3120,25 @@
         <v>33</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="AG14" t="s" s="2">
         <v>34</v>
       </c>
       <c r="AH14" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="AI14" t="s" s="2">
         <v>33</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AK14" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="AL14" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="AM14" t="s" s="2">
         <v>33</v>
@@ -3145,10 +3149,10 @@
     </row>
     <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
@@ -3156,34 +3160,34 @@
       </c>
       <c r="E15" s="2"/>
       <c r="F15" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G15" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H15" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="I15" t="s" s="2">
         <v>33</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="N15" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="O15" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="P15" t="s" s="2">
         <v>33</v>
@@ -3232,7 +3236,7 @@
         <v>33</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="AG15" t="s" s="2">
         <v>34</v>
@@ -3244,13 +3248,13 @@
         <v>33</v>
       </c>
       <c r="AJ15" t="s" s="2">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AK15" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="AL15" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="AM15" t="s" s="2">
         <v>33</v>
@@ -3261,10 +3265,10 @@
     </row>
     <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
@@ -3272,32 +3276,32 @@
       </c>
       <c r="E16" s="2"/>
       <c r="F16" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G16" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H16" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="I16" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="N16" s="2"/>
       <c r="O16" t="s" s="2">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="P16" t="s" s="2">
         <v>33</v>
@@ -3322,13 +3326,13 @@
         <v>33</v>
       </c>
       <c r="X16" t="s" s="2">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="Y16" t="s" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="Z16" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="AA16" t="s" s="2">
         <v>33</v>
@@ -3346,28 +3350,28 @@
         <v>33</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="AG16" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="AH16" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="AI16" t="s" s="2">
         <v>33</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AK16" t="s" s="2">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="AL16" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="AM16" t="s" s="2">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="AN16" t="s" s="2">
         <v>33</v>
@@ -3375,10 +3379,10 @@
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
@@ -3389,28 +3393,28 @@
         <v>34</v>
       </c>
       <c r="G17" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H17" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="I17" t="s" s="2">
         <v>33</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="N17" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="O17" s="2"/>
       <c r="P17" t="s" s="2">
@@ -3436,11 +3440,11 @@
         <v>33</v>
       </c>
       <c r="X17" t="s" s="2">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="Y17" s="2"/>
       <c r="Z17" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="AA17" t="s" s="2">
         <v>33</v>
@@ -3458,25 +3462,25 @@
         <v>33</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>34</v>
       </c>
       <c r="AH17" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="AI17" t="s" s="2">
         <v>33</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AK17" t="s" s="2">
         <v>33</v>
       </c>
       <c r="AL17" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="AM17" t="s" s="2">
         <v>33</v>
@@ -3487,10 +3491,10 @@
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
@@ -3501,7 +3505,7 @@
         <v>34</v>
       </c>
       <c r="G18" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H18" t="s" s="2">
         <v>33</v>
@@ -3510,20 +3514,20 @@
         <v>33</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="N18" s="2"/>
       <c r="O18" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="P18" t="s" s="2">
         <v>33</v>
@@ -3548,10 +3552,10 @@
         <v>33</v>
       </c>
       <c r="X18" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="Y18" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="Z18" t="s" s="2">
         <v>33</v>
@@ -3572,25 +3576,25 @@
         <v>33</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>34</v>
       </c>
       <c r="AH18" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="AI18" t="s" s="2">
         <v>33</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AK18" t="s" s="2">
         <v>33</v>
       </c>
       <c r="AL18" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="AM18" t="s" s="2">
         <v>33</v>
@@ -3601,10 +3605,10 @@
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
@@ -3612,10 +3616,10 @@
       </c>
       <c r="E19" s="2"/>
       <c r="F19" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G19" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H19" t="s" s="2">
         <v>33</v>
@@ -3624,19 +3628,19 @@
         <v>33</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="N19" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="O19" s="2"/>
       <c r="P19" t="s" s="2">
@@ -3662,13 +3666,13 @@
         <v>33</v>
       </c>
       <c r="X19" t="s" s="2">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="Y19" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="Z19" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="AA19" t="s" s="2">
         <v>33</v>
@@ -3686,28 +3690,28 @@
         <v>33</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="AG19" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="AH19" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="AI19" t="s" s="2">
         <v>33</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="AM19" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="AN19" t="s" s="2">
         <v>33</v>
@@ -3715,10 +3719,10 @@
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
@@ -3729,7 +3733,7 @@
         <v>34</v>
       </c>
       <c r="G20" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H20" t="s" s="2">
         <v>33</v>
@@ -3741,23 +3745,23 @@
         <v>33</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="N20" s="2"/>
       <c r="O20" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="P20" t="s" s="2">
         <v>33</v>
       </c>
       <c r="Q20" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="R20" t="s" s="2">
         <v>33</v>
@@ -3778,13 +3782,13 @@
         <v>33</v>
       </c>
       <c r="X20" t="s" s="2">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="Y20" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="Z20" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="AA20" t="s" s="2">
         <v>33</v>
@@ -3802,28 +3806,28 @@
         <v>33</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>34</v>
       </c>
       <c r="AH20" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="AI20" t="s" s="2">
         <v>33</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="AM20" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="AN20" t="s" s="2">
         <v>33</v>
@@ -3831,10 +3835,10 @@
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
@@ -3845,7 +3849,7 @@
         <v>34</v>
       </c>
       <c r="G21" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H21" t="s" s="2">
         <v>33</v>
@@ -3854,19 +3858,19 @@
         <v>33</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="N21" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="O21" s="2"/>
       <c r="P21" t="s" s="2">
@@ -3892,13 +3896,13 @@
         <v>33</v>
       </c>
       <c r="X21" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="Y21" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="Z21" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="AA21" t="s" s="2">
         <v>33</v>
@@ -3916,28 +3920,28 @@
         <v>33</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>34</v>
       </c>
       <c r="AH21" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="AI21" t="s" s="2">
         <v>33</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="AM21" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="AN21" t="s" s="2">
         <v>33</v>
@@ -3945,10 +3949,10 @@
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
@@ -3959,7 +3963,7 @@
         <v>34</v>
       </c>
       <c r="G22" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H22" t="s" s="2">
         <v>33</v>
@@ -3968,16 +3972,16 @@
         <v>33</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="N22" s="2"/>
       <c r="O22" s="2"/>
@@ -4028,25 +4032,25 @@
         <v>33</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>34</v>
       </c>
       <c r="AH22" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="AI22" t="s" s="2">
         <v>33</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AK22" t="s" s="2">
         <v>33</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="AM22" t="s" s="2">
         <v>33</v>
@@ -4057,10 +4061,10 @@
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
@@ -4071,7 +4075,7 @@
         <v>34</v>
       </c>
       <c r="G23" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H23" t="s" s="2">
         <v>33</v>
@@ -4080,22 +4084,22 @@
         <v>33</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="N23" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="O23" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="P23" t="s" s="2">
         <v>33</v>
@@ -4144,28 +4148,28 @@
         <v>33</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>34</v>
       </c>
       <c r="AH23" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="AI23" t="s" s="2">
         <v>33</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AK23" t="s" s="2">
         <v>33</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="AM23" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="AN23" t="s" s="2">
         <v>33</v>
@@ -4173,21 +4177,21 @@
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="E24" s="2"/>
       <c r="F24" t="s" s="2">
         <v>34</v>
       </c>
       <c r="G24" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H24" t="s" s="2">
         <v>33</v>
@@ -4196,20 +4200,20 @@
         <v>33</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="N24" s="2"/>
       <c r="O24" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="P24" t="s" s="2">
         <v>33</v>
@@ -4258,28 +4262,28 @@
         <v>33</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>34</v>
       </c>
       <c r="AH24" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="AI24" t="s" s="2">
         <v>33</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="AM24" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="AN24" t="s" s="2">
         <v>33</v>
@@ -4287,10 +4291,10 @@
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
@@ -4301,7 +4305,7 @@
         <v>34</v>
       </c>
       <c r="G25" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H25" t="s" s="2">
         <v>33</v>
@@ -4310,20 +4314,20 @@
         <v>33</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="N25" s="2"/>
       <c r="O25" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="P25" t="s" s="2">
         <v>33</v>
@@ -4372,28 +4376,28 @@
         <v>33</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>34</v>
       </c>
       <c r="AH25" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="AI25" t="s" s="2">
         <v>33</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="AN25" t="s" s="2">
         <v>33</v>
@@ -4401,10 +4405,10 @@
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -4415,25 +4419,25 @@
         <v>34</v>
       </c>
       <c r="G26" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H26" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="I26" t="s" s="2">
         <v>33</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="N26" s="2"/>
       <c r="O26" s="2"/>
@@ -4484,28 +4488,28 @@
         <v>33</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>34</v>
       </c>
       <c r="AH26" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="AI26" t="s" s="2">
         <v>33</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="AN26" t="s" s="2">
         <v>33</v>
@@ -4513,21 +4517,21 @@
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="E27" s="2"/>
       <c r="F27" t="s" s="2">
         <v>34</v>
       </c>
       <c r="G27" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H27" t="s" s="2">
         <v>33</v>
@@ -4539,17 +4543,17 @@
         <v>33</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="N27" s="2"/>
       <c r="O27" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="P27" t="s" s="2">
         <v>33</v>
@@ -4598,28 +4602,28 @@
         <v>33</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>34</v>
       </c>
       <c r="AH27" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="AI27" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="AN27" t="s" s="2">
         <v>33</v>
@@ -4627,21 +4631,21 @@
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="E28" s="2"/>
       <c r="F28" t="s" s="2">
         <v>34</v>
       </c>
       <c r="G28" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H28" t="s" s="2">
         <v>33</v>
@@ -4650,20 +4654,20 @@
         <v>33</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="N28" s="2"/>
       <c r="O28" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="P28" t="s" s="2">
         <v>33</v>
@@ -4712,25 +4716,25 @@
         <v>33</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>34</v>
       </c>
       <c r="AH28" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="AI28" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AK28" t="s" s="2">
         <v>33</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="AM28" t="s" s="2">
         <v>33</v>
@@ -4741,10 +4745,10 @@
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -4755,7 +4759,7 @@
         <v>34</v>
       </c>
       <c r="G29" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H29" t="s" s="2">
         <v>33</v>
@@ -4764,20 +4768,20 @@
         <v>33</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="N29" s="2"/>
       <c r="O29" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="P29" t="s" s="2">
         <v>33</v>
@@ -4826,28 +4830,28 @@
         <v>33</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>34</v>
       </c>
       <c r="AH29" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="AI29" t="s" s="2">
         <v>33</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="AN29" t="s" s="2">
         <v>33</v>
@@ -4855,10 +4859,10 @@
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -4881,17 +4885,17 @@
         <v>33</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="N30" s="2"/>
       <c r="O30" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="P30" t="s" s="2">
         <v>33</v>
@@ -4916,13 +4920,13 @@
         <v>33</v>
       </c>
       <c r="X30" t="s" s="2">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="Y30" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="Z30" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="AA30" t="s" s="2">
         <v>33</v>
@@ -4940,7 +4944,7 @@
         <v>33</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>34</v>
@@ -4952,16 +4956,16 @@
         <v>33</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="AN30" t="s" s="2">
         <v>33</v>
@@ -4969,45 +4973,45 @@
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="E31" s="2"/>
       <c r="F31" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G31" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H31" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="I31" t="s" s="2">
         <v>33</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="N31" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="O31" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="P31" t="s" s="2">
         <v>33</v>
@@ -5056,28 +5060,28 @@
         <v>33</v>
       </c>
       <c r="AF31" t="s" s="2">
+        <v>256</v>
+      </c>
+      <c r="AG31" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="AH31" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AI31" t="s" s="2">
+        <v>33</v>
+      </c>
+      <c r="AJ31" t="s" s="2">
+        <v>55</v>
+      </c>
+      <c r="AK31" t="s" s="2">
+        <v>263</v>
+      </c>
+      <c r="AL31" t="s" s="2">
+        <v>264</v>
+      </c>
+      <c r="AM31" t="s" s="2">
         <v>255</v>
-      </c>
-      <c r="AG31" t="s" s="2">
-        <v>34</v>
-      </c>
-      <c r="AH31" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AI31" t="s" s="2">
-        <v>33</v>
-      </c>
-      <c r="AJ31" t="s" s="2">
-        <v>54</v>
-      </c>
-      <c r="AK31" t="s" s="2">
-        <v>262</v>
-      </c>
-      <c r="AL31" t="s" s="2">
-        <v>263</v>
-      </c>
-      <c r="AM31" t="s" s="2">
-        <v>254</v>
       </c>
       <c r="AN31" t="s" s="2">
         <v>33</v>
@@ -5085,10 +5089,10 @@
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -5099,7 +5103,7 @@
         <v>34</v>
       </c>
       <c r="G32" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H32" t="s" s="2">
         <v>33</v>
@@ -5108,20 +5112,20 @@
         <v>33</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="N32" s="2"/>
       <c r="O32" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="P32" t="s" s="2">
         <v>33</v>
@@ -5170,28 +5174,28 @@
         <v>33</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>34</v>
       </c>
       <c r="AH32" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="AI32" t="s" s="2">
         <v>33</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="AN32" t="s" s="2">
         <v>33</v>
@@ -5199,10 +5203,10 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
@@ -5213,7 +5217,7 @@
         <v>34</v>
       </c>
       <c r="G33" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H33" t="s" s="2">
         <v>33</v>
@@ -5225,16 +5229,16 @@
         <v>33</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="N33" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="O33" s="2"/>
       <c r="P33" t="s" s="2">
@@ -5260,10 +5264,10 @@
         <v>33</v>
       </c>
       <c r="X33" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="Y33" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="Z33" t="s" s="2">
         <v>33</v>
@@ -5284,39 +5288,39 @@
         <v>33</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>34</v>
       </c>
       <c r="AH33" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="AI33" t="s" s="2">
         <v>33</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="AN33" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -5327,7 +5331,7 @@
         <v>34</v>
       </c>
       <c r="G34" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H34" t="s" s="2">
         <v>33</v>
@@ -5339,16 +5343,16 @@
         <v>33</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="N34" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="O34" s="2"/>
       <c r="P34" t="s" s="2">
@@ -5398,28 +5402,28 @@
         <v>33</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>34</v>
       </c>
       <c r="AH34" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="AI34" t="s" s="2">
         <v>33</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="AN34" t="s" s="2">
         <v>33</v>
@@ -5427,10 +5431,10 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -5453,13 +5457,13 @@
         <v>33</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="N35" s="2"/>
       <c r="O35" s="2"/>
@@ -5510,7 +5514,7 @@
         <v>33</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>34</v>
@@ -5522,27 +5526,27 @@
         <v>33</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="AM35" t="s" s="2">
         <v>33</v>
       </c>
       <c r="AN35" t="s" s="2">
-        <v>292</v>
+        <v>293</v>
       </c>
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -5565,13 +5569,13 @@
         <v>33</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="N36" s="2"/>
       <c r="O36" s="2"/>
@@ -5622,7 +5626,7 @@
         <v>33</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>34</v>
@@ -5634,13 +5638,13 @@
         <v>33</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="AM36" t="s" s="2">
         <v>33</v>
@@ -5651,14 +5655,14 @@
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="E37" s="2"/>
       <c r="F37" t="s" s="2">
@@ -5677,16 +5681,16 @@
         <v>33</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="N37" t="s" s="2">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="O37" s="2"/>
       <c r="P37" t="s" s="2">
@@ -5736,7 +5740,7 @@
         <v>33</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>34</v>
@@ -5748,13 +5752,13 @@
         <v>33</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="AM37" t="s" s="2">
         <v>33</v>
@@ -5765,10 +5769,10 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -5779,7 +5783,7 @@
         <v>34</v>
       </c>
       <c r="G38" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H38" t="s" s="2">
         <v>33</v>
@@ -5791,17 +5795,17 @@
         <v>33</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="N38" s="2"/>
       <c r="O38" t="s" s="2">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="P38" t="s" s="2">
         <v>33</v>
@@ -5850,25 +5854,25 @@
         <v>33</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>34</v>
       </c>
       <c r="AH38" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="AI38" t="s" s="2">
         <v>33</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AK38" t="s" s="2">
         <v>33</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="AM38" t="s" s="2">
         <v>33</v>
@@ -5879,10 +5883,10 @@
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -5893,7 +5897,7 @@
         <v>34</v>
       </c>
       <c r="G39" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H39" t="s" s="2">
         <v>33</v>
@@ -5905,13 +5909,13 @@
         <v>33</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="N39" s="2"/>
       <c r="O39" s="2"/>
@@ -5962,13 +5966,13 @@
         <v>33</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>34</v>
       </c>
       <c r="AH39" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="AI39" t="s" s="2">
         <v>33</v>
@@ -5980,7 +5984,7 @@
         <v>33</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="AM39" t="s" s="2">
         <v>33</v>
@@ -5991,14 +5995,14 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E40" s="2"/>
       <c r="F40" t="s" s="2">
@@ -6017,16 +6021,16 @@
         <v>33</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="N40" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="O40" s="2"/>
       <c r="P40" t="s" s="2">
@@ -6076,7 +6080,7 @@
         <v>33</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>34</v>
@@ -6088,13 +6092,13 @@
         <v>33</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AK40" t="s" s="2">
         <v>33</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="AM40" t="s" s="2">
         <v>33</v>
@@ -6105,14 +6109,14 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="E41" s="2"/>
       <c r="F41" t="s" s="2">
@@ -6125,25 +6129,25 @@
         <v>33</v>
       </c>
       <c r="I41" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="N41" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="O41" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="P41" t="s" s="2">
         <v>33</v>
@@ -6192,7 +6196,7 @@
         <v>33</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>34</v>
@@ -6204,13 +6208,13 @@
         <v>33</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AK41" t="s" s="2">
         <v>33</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AM41" t="s" s="2">
         <v>33</v>
@@ -6221,10 +6225,10 @@
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -6235,7 +6239,7 @@
         <v>34</v>
       </c>
       <c r="G42" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H42" t="s" s="2">
         <v>33</v>
@@ -6247,17 +6251,17 @@
         <v>33</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="N42" s="2"/>
       <c r="O42" t="s" s="2">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="P42" t="s" s="2">
         <v>33</v>
@@ -6306,25 +6310,25 @@
         <v>33</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>34</v>
       </c>
       <c r="AH42" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="AI42" t="s" s="2">
         <v>33</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AK42" t="s" s="2">
         <v>33</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="AM42" t="s" s="2">
         <v>33</v>
@@ -6335,10 +6339,10 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -6349,7 +6353,7 @@
         <v>34</v>
       </c>
       <c r="G43" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H43" t="s" s="2">
         <v>33</v>
@@ -6361,19 +6365,19 @@
         <v>33</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="N43" t="s" s="2">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="O43" t="s" s="2">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="P43" t="s" s="2">
         <v>33</v>
@@ -6422,25 +6426,25 @@
         <v>33</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>34</v>
       </c>
       <c r="AH43" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="AI43" t="s" s="2">
         <v>33</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AK43" t="s" s="2">
         <v>33</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="AM43" t="s" s="2">
         <v>33</v>
@@ -6451,10 +6455,10 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -6477,13 +6481,13 @@
         <v>33</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="N44" s="2"/>
       <c r="O44" s="2"/>
@@ -6534,7 +6538,7 @@
         <v>33</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>34</v>
@@ -6546,13 +6550,13 @@
         <v>33</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AK44" t="s" s="2">
         <v>33</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="AM44" t="s" s="2">
         <v>33</v>
@@ -6563,14 +6567,14 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="E45" s="2"/>
       <c r="F45" t="s" s="2">
@@ -6589,17 +6593,17 @@
         <v>33</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="N45" s="2"/>
       <c r="O45" t="s" s="2">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="P45" t="s" s="2">
         <v>33</v>
@@ -6648,7 +6652,7 @@
         <v>33</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>34</v>
@@ -6660,13 +6664,13 @@
         <v>33</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AK45" t="s" s="2">
         <v>33</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="AM45" t="s" s="2">
         <v>33</v>
@@ -6677,10 +6681,10 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -6691,7 +6695,7 @@
         <v>34</v>
       </c>
       <c r="G46" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H46" t="s" s="2">
         <v>33</v>
@@ -6703,13 +6707,13 @@
         <v>33</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="N46" s="2"/>
       <c r="O46" s="2"/>
@@ -6760,13 +6764,13 @@
         <v>33</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>34</v>
       </c>
       <c r="AH46" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="AI46" t="s" s="2">
         <v>33</v>
@@ -6778,7 +6782,7 @@
         <v>33</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="AM46" t="s" s="2">
         <v>33</v>
@@ -6789,14 +6793,14 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E47" s="2"/>
       <c r="F47" t="s" s="2">
@@ -6815,16 +6819,16 @@
         <v>33</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="N47" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="O47" s="2"/>
       <c r="P47" t="s" s="2">
@@ -6874,7 +6878,7 @@
         <v>33</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>34</v>
@@ -6886,13 +6890,13 @@
         <v>33</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AK47" t="s" s="2">
         <v>33</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="AM47" t="s" s="2">
         <v>33</v>
@@ -6903,14 +6907,14 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="E48" s="2"/>
       <c r="F48" t="s" s="2">
@@ -6923,25 +6927,25 @@
         <v>33</v>
       </c>
       <c r="I48" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="N48" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="O48" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="P48" t="s" s="2">
         <v>33</v>
@@ -6990,7 +6994,7 @@
         <v>33</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>34</v>
@@ -7002,13 +7006,13 @@
         <v>33</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AK48" t="s" s="2">
         <v>33</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AM48" t="s" s="2">
         <v>33</v>
@@ -7019,21 +7023,21 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="E49" s="2"/>
       <c r="F49" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G49" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H49" t="s" s="2">
         <v>33</v>
@@ -7045,19 +7049,19 @@
         <v>33</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="N49" t="s" s="2">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="O49" t="s" s="2">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="P49" t="s" s="2">
         <v>33</v>
@@ -7082,10 +7086,10 @@
         <v>33</v>
       </c>
       <c r="X49" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="Y49" t="s" s="2">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="Z49" t="s" s="2">
         <v>33</v>
@@ -7106,25 +7110,25 @@
         <v>33</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="AG49" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="AH49" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="AI49" t="s" s="2">
         <v>33</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AK49" t="s" s="2">
         <v>33</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="AM49" t="s" s="2">
         <v>33</v>
@@ -7135,10 +7139,10 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -7146,10 +7150,10 @@
       </c>
       <c r="E50" s="2"/>
       <c r="F50" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G50" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H50" t="s" s="2">
         <v>33</v>
@@ -7161,13 +7165,13 @@
         <v>33</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="N50" s="2"/>
       <c r="O50" s="2"/>
@@ -7218,25 +7222,25 @@
         <v>33</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="AG50" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="AH50" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="AI50" t="s" s="2">
         <v>33</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AK50" t="s" s="2">
         <v>33</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="AM50" t="s" s="2">
         <v>33</v>
@@ -7247,10 +7251,10 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -7273,17 +7277,17 @@
         <v>33</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="N51" s="2"/>
       <c r="O51" t="s" s="2">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="P51" t="s" s="2">
         <v>33</v>
@@ -7332,7 +7336,7 @@
         <v>33</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>34</v>
@@ -7344,13 +7348,13 @@
         <v>33</v>
       </c>
       <c r="AJ51" t="s" s="2">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AK51" t="s" s="2">
         <v>33</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="AM51" t="s" s="2">
         <v>33</v>
@@ -7361,10 +7365,10 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -7375,7 +7379,7 @@
         <v>34</v>
       </c>
       <c r="G52" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H52" t="s" s="2">
         <v>33</v>
@@ -7387,13 +7391,13 @@
         <v>33</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="N52" s="2"/>
       <c r="O52" s="2"/>
@@ -7444,13 +7448,13 @@
         <v>33</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>34</v>
       </c>
       <c r="AH52" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="AI52" t="s" s="2">
         <v>33</v>
@@ -7462,7 +7466,7 @@
         <v>33</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="AM52" t="s" s="2">
         <v>33</v>
@@ -7473,14 +7477,14 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E53" s="2"/>
       <c r="F53" t="s" s="2">
@@ -7499,16 +7503,16 @@
         <v>33</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="N53" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="O53" s="2"/>
       <c r="P53" t="s" s="2">
@@ -7558,7 +7562,7 @@
         <v>33</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>34</v>
@@ -7570,13 +7574,13 @@
         <v>33</v>
       </c>
       <c r="AJ53" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AK53" t="s" s="2">
         <v>33</v>
       </c>
       <c r="AL53" t="s" s="2">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="AM53" t="s" s="2">
         <v>33</v>
@@ -7587,14 +7591,14 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="E54" s="2"/>
       <c r="F54" t="s" s="2">
@@ -7607,25 +7611,25 @@
         <v>33</v>
       </c>
       <c r="I54" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="N54" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="O54" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="P54" t="s" s="2">
         <v>33</v>
@@ -7674,7 +7678,7 @@
         <v>33</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>34</v>
@@ -7686,13 +7690,13 @@
         <v>33</v>
       </c>
       <c r="AJ54" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AK54" t="s" s="2">
         <v>33</v>
       </c>
       <c r="AL54" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AM54" t="s" s="2">
         <v>33</v>
@@ -7703,21 +7707,21 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="E55" s="2"/>
       <c r="F55" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G55" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H55" t="s" s="2">
         <v>33</v>
@@ -7729,17 +7733,17 @@
         <v>33</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="N55" s="2"/>
       <c r="O55" t="s" s="2">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="P55" t="s" s="2">
         <v>33</v>
@@ -7764,10 +7768,10 @@
         <v>33</v>
       </c>
       <c r="X55" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="Y55" t="s" s="2">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="Z55" t="s" s="2">
         <v>33</v>
@@ -7788,25 +7792,25 @@
         <v>33</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="AG55" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="AH55" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="AI55" t="s" s="2">
         <v>33</v>
       </c>
       <c r="AJ55" t="s" s="2">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AK55" t="s" s="2">
         <v>33</v>
       </c>
       <c r="AL55" t="s" s="2">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="AM55" t="s" s="2">
         <v>33</v>
@@ -7817,10 +7821,10 @@
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
@@ -7828,10 +7832,10 @@
       </c>
       <c r="E56" s="2"/>
       <c r="F56" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G56" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H56" t="s" s="2">
         <v>33</v>
@@ -7843,17 +7847,17 @@
         <v>33</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="N56" s="2"/>
       <c r="O56" t="s" s="2">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="P56" t="s" s="2">
         <v>33</v>
@@ -7902,25 +7906,25 @@
         <v>33</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="AG56" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="AH56" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="AI56" t="s" s="2">
         <v>33</v>
       </c>
       <c r="AJ56" t="s" s="2">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AK56" t="s" s="2">
         <v>33</v>
       </c>
       <c r="AL56" t="s" s="2">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="AM56" t="s" s="2">
         <v>33</v>

--- a/StructureDefinition-be-performer-task.xlsx
+++ b/StructureDefinition-be-performer-task.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-08-28T15:26:36+00:00</t>
+    <t>2023-08-28T15:28:15+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-be-performer-task.xlsx
+++ b/StructureDefinition-be-performer-task.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-08-28T15:28:15+00:00</t>
+    <t>2023-09-01T06:47:50+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-be-performer-task.xlsx
+++ b/StructureDefinition-be-performer-task.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-09-01T06:47:50+00:00</t>
+    <t>2023-09-05T14:28:58+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-be-performer-task.xlsx
+++ b/StructureDefinition-be-performer-task.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-09-05T14:28:58+00:00</t>
+    <t>2023-09-29T14:04:57+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-be-performer-task.xlsx
+++ b/StructureDefinition-be-performer-task.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-09-29T14:04:57+00:00</t>
+    <t>2023-09-29T14:06:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-be-performer-task.xlsx
+++ b/StructureDefinition-be-performer-task.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-09-29T14:06:01+00:00</t>
+    <t>2023-09-29T14:14:49+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-be-performer-task.xlsx
+++ b/StructureDefinition-be-performer-task.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-09-29T14:14:49+00:00</t>
+    <t>2023-09-29T14:15:09+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-be-performer-task.xlsx
+++ b/StructureDefinition-be-performer-task.xlsx
@@ -10,13 +10,13 @@
     <sheet name="Elements" r:id="rId4" sheetId="2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AN$56</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AN$57</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2045" uniqueCount="380">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2085" uniqueCount="420">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-09-29T14:15:09+00:00</t>
+    <t>2024-03-15T09:11:04+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -115,6 +115,126 @@
   </si>
   <si>
     <t>constraint</t>
+  </si>
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>Path</t>
+  </si>
+  <si>
+    <t>Slice Name</t>
+  </si>
+  <si>
+    <t>Alias(s)</t>
+  </si>
+  <si>
+    <t>Label</t>
+  </si>
+  <si>
+    <t>Min</t>
+  </si>
+  <si>
+    <t>Max</t>
+  </si>
+  <si>
+    <t>Must Support?</t>
+  </si>
+  <si>
+    <t>Is Modifier?</t>
+  </si>
+  <si>
+    <t>Is Summary?</t>
+  </si>
+  <si>
+    <t>Type(s)</t>
+  </si>
+  <si>
+    <t>Short</t>
+  </si>
+  <si>
+    <t>Definition</t>
+  </si>
+  <si>
+    <t>Comments</t>
+  </si>
+  <si>
+    <t>Requirements</t>
+  </si>
+  <si>
+    <t>Default Value</t>
+  </si>
+  <si>
+    <t>Meaning When Missing</t>
+  </si>
+  <si>
+    <t>Fixed Value</t>
+  </si>
+  <si>
+    <t>Pattern</t>
+  </si>
+  <si>
+    <t>Example</t>
+  </si>
+  <si>
+    <t>Minimum Value</t>
+  </si>
+  <si>
+    <t>Maximum Value</t>
+  </si>
+  <si>
+    <t>Maximum Length</t>
+  </si>
+  <si>
+    <t>Binding Strength</t>
+  </si>
+  <si>
+    <t>Binding Description</t>
+  </si>
+  <si>
+    <t>Binding Value Set</t>
+  </si>
+  <si>
+    <t>Code</t>
+  </si>
+  <si>
+    <t>Slicing Discriminator</t>
+  </si>
+  <si>
+    <t>Slicing Description</t>
+  </si>
+  <si>
+    <t>Slicing Ordered</t>
+  </si>
+  <si>
+    <t>Slicing Rules</t>
+  </si>
+  <si>
+    <t>Base Path</t>
+  </si>
+  <si>
+    <t>Base Min</t>
+  </si>
+  <si>
+    <t>Base Max</t>
+  </si>
+  <si>
+    <t>Condition(s)</t>
+  </si>
+  <si>
+    <t>Constraint(s)</t>
+  </si>
+  <si>
+    <t>Mapping: Workflow Pattern</t>
+  </si>
+  <si>
+    <t>Mapping: RIM Mapping</t>
+  </si>
+  <si>
+    <t>Mapping: FiveWs Pattern Mapping</t>
+  </si>
+  <si>
+    <t>Mapping: HL7 v2 Mapping</t>
   </si>
   <si>
     <t/>
@@ -1508,7 +1628,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AN56"/>
+  <dimension ref="A1:AN57"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1519,11 +1639,13 @@
   <cols>
     <col min="1" max="1" width="32.42578125" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="32.42578125" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="12.66015625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="39.9140625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="6" max="6" width="2.2109375" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="2.2109375" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="2.1640625" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="2.1640625" customWidth="true" bestFit="true"/>
+    <col min="5" max="5" width="6.77734375" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="4.9453125" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="5.4296875" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="16.27734375" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="13.26171875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="11" max="11" width="255.0" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
@@ -1534,6407 +1656,6528 @@
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="1.04296875" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="1.04296875" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="1.04296875" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="1.04296875" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="9.6640625" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="9.953125" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="17.171875" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="17.65625" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="19.03515625" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="18.859375" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="169.1328125" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="89.97265625" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="1.04296875" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="1.04296875" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="1.04296875" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="1.04296875" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="1.04296875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="27" max="27" width="6.34765625" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="22.71875" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="20.59375" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="17.21484375" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="14.4140625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="32" max="32" width="34.859375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="2.2109375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="2.2109375" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" hidden="true" width="8.0" customWidth="false"/>
+    <col min="33" max="33" width="10.5546875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="11.0390625" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
     <col min="37" max="37" width="55.72265625" customWidth="true" bestFit="true"/>
     <col min="38" max="38" width="109.98828125" customWidth="true" bestFit="true"/>
-    <col min="39" max="39" width="16.3984375" customWidth="true" bestFit="true"/>
-    <col min="40" max="40" width="7.8203125" customWidth="true" bestFit="true"/>
+    <col min="39" max="39" width="36.91796875" customWidth="true" bestFit="true"/>
+    <col min="40" max="40" width="28.1484375" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" t="s" s="2">
-        <v>26</v>
-      </c>
-      <c r="B1" t="s" s="2">
-        <v>26</v>
-      </c>
-      <c r="C1" s="2"/>
-      <c r="D1" t="s" s="2">
+      <c r="A1" t="s" s="1">
         <v>33</v>
       </c>
-      <c r="E1" s="2"/>
-      <c r="F1" t="s" s="2">
+      <c r="B1" t="s" s="1">
         <v>34</v>
       </c>
-      <c r="G1" t="s" s="2">
+      <c r="C1" t="s" s="1">
         <v>35</v>
       </c>
-      <c r="H1" t="s" s="2">
-        <v>33</v>
-      </c>
-      <c r="I1" t="s" s="2">
-        <v>33</v>
-      </c>
-      <c r="J1" t="s" s="2">
-        <v>33</v>
-      </c>
-      <c r="K1" t="s" s="2">
+      <c r="D1" t="s" s="1">
         <v>36</v>
       </c>
-      <c r="L1" t="s" s="2">
+      <c r="E1" t="s" s="1">
         <v>37</v>
       </c>
-      <c r="M1" t="s" s="2">
+      <c r="F1" t="s" s="1">
         <v>38</v>
       </c>
-      <c r="N1" s="2"/>
-      <c r="O1" s="2"/>
-      <c r="P1" t="s" s="2">
-        <v>33</v>
-      </c>
-      <c r="Q1" s="2"/>
-      <c r="R1" t="s" s="2">
-        <v>33</v>
-      </c>
-      <c r="S1" t="s" s="2">
-        <v>33</v>
-      </c>
-      <c r="T1" t="s" s="2">
-        <v>33</v>
-      </c>
-      <c r="U1" t="s" s="2">
-        <v>33</v>
-      </c>
-      <c r="V1" t="s" s="2">
-        <v>33</v>
-      </c>
-      <c r="W1" t="s" s="2">
-        <v>33</v>
-      </c>
-      <c r="X1" t="s" s="2">
-        <v>33</v>
-      </c>
-      <c r="Y1" t="s" s="2">
-        <v>33</v>
-      </c>
-      <c r="Z1" t="s" s="2">
-        <v>33</v>
-      </c>
-      <c r="AA1" t="s" s="2">
-        <v>33</v>
-      </c>
-      <c r="AB1" t="s" s="2">
-        <v>33</v>
-      </c>
-      <c r="AC1" t="s" s="2">
-        <v>33</v>
-      </c>
-      <c r="AD1" t="s" s="2">
-        <v>33</v>
-      </c>
-      <c r="AE1" t="s" s="2">
-        <v>33</v>
-      </c>
-      <c r="AF1" t="s" s="2">
-        <v>26</v>
-      </c>
-      <c r="AG1" t="s" s="2">
-        <v>34</v>
-      </c>
-      <c r="AH1" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AI1" t="s" s="2">
-        <v>33</v>
-      </c>
-      <c r="AJ1" t="s" s="2">
+      <c r="G1" t="s" s="1">
         <v>39</v>
       </c>
-      <c r="AK1" t="s" s="2">
+      <c r="H1" t="s" s="1">
         <v>40</v>
       </c>
-      <c r="AL1" t="s" s="2">
+      <c r="I1" t="s" s="1">
         <v>41</v>
       </c>
-      <c r="AM1" t="s" s="2">
-        <v>33</v>
-      </c>
-      <c r="AN1" t="s" s="2">
-        <v>33</v>
+      <c r="J1" t="s" s="1">
+        <v>42</v>
+      </c>
+      <c r="K1" t="s" s="1">
+        <v>43</v>
+      </c>
+      <c r="L1" t="s" s="1">
+        <v>44</v>
+      </c>
+      <c r="M1" t="s" s="1">
+        <v>45</v>
+      </c>
+      <c r="N1" t="s" s="1">
+        <v>46</v>
+      </c>
+      <c r="O1" t="s" s="1">
+        <v>47</v>
+      </c>
+      <c r="P1" t="s" s="1">
+        <v>48</v>
+      </c>
+      <c r="Q1" t="s" s="1">
+        <v>49</v>
+      </c>
+      <c r="R1" t="s" s="1">
+        <v>50</v>
+      </c>
+      <c r="S1" t="s" s="1">
+        <v>51</v>
+      </c>
+      <c r="T1" t="s" s="1">
+        <v>52</v>
+      </c>
+      <c r="U1" t="s" s="1">
+        <v>53</v>
+      </c>
+      <c r="V1" t="s" s="1">
+        <v>54</v>
+      </c>
+      <c r="W1" t="s" s="1">
+        <v>55</v>
+      </c>
+      <c r="X1" t="s" s="1">
+        <v>56</v>
+      </c>
+      <c r="Y1" t="s" s="1">
+        <v>57</v>
+      </c>
+      <c r="Z1" t="s" s="1">
+        <v>58</v>
+      </c>
+      <c r="AA1" t="s" s="1">
+        <v>59</v>
+      </c>
+      <c r="AB1" t="s" s="1">
+        <v>60</v>
+      </c>
+      <c r="AC1" t="s" s="1">
+        <v>61</v>
+      </c>
+      <c r="AD1" t="s" s="1">
+        <v>62</v>
+      </c>
+      <c r="AE1" t="s" s="1">
+        <v>63</v>
+      </c>
+      <c r="AF1" t="s" s="1">
+        <v>64</v>
+      </c>
+      <c r="AG1" t="s" s="1">
+        <v>65</v>
+      </c>
+      <c r="AH1" t="s" s="1">
+        <v>66</v>
+      </c>
+      <c r="AI1" t="s" s="1">
+        <v>67</v>
+      </c>
+      <c r="AJ1" t="s" s="1">
+        <v>68</v>
+      </c>
+      <c r="AK1" t="s" s="1">
+        <v>69</v>
+      </c>
+      <c r="AL1" t="s" s="1">
+        <v>70</v>
+      </c>
+      <c r="AM1" t="s" s="1">
+        <v>71</v>
+      </c>
+      <c r="AN1" t="s" s="1">
+        <v>72</v>
       </c>
     </row>
     <row r="2" hidden="true">
       <c r="A2" t="s" s="2">
-        <v>42</v>
+        <v>26</v>
       </c>
       <c r="B2" t="s" s="2">
-        <v>42</v>
+        <v>26</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="E2" s="2"/>
       <c r="F2" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="G2" t="s" s="2">
-        <v>43</v>
+        <v>75</v>
       </c>
       <c r="H2" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="I2" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="J2" t="s" s="2">
-        <v>44</v>
+        <v>73</v>
       </c>
       <c r="K2" t="s" s="2">
-        <v>45</v>
+        <v>76</v>
       </c>
       <c r="L2" t="s" s="2">
-        <v>46</v>
+        <v>77</v>
       </c>
       <c r="M2" t="s" s="2">
-        <v>47</v>
-      </c>
-      <c r="N2" t="s" s="2">
-        <v>48</v>
-      </c>
+        <v>78</v>
+      </c>
+      <c r="N2" s="2"/>
       <c r="O2" s="2"/>
       <c r="P2" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="Q2" s="2"/>
       <c r="R2" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="S2" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="T2" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="U2" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="V2" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="W2" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="X2" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="Y2" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="Z2" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="AA2" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="AB2" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="AC2" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="AD2" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="AE2" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="AF2" t="s" s="2">
-        <v>49</v>
+        <v>26</v>
       </c>
       <c r="AG2" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="AH2" t="s" s="2">
-        <v>43</v>
+        <v>75</v>
       </c>
       <c r="AI2" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="AJ2" t="s" s="2">
-        <v>33</v>
+        <v>79</v>
       </c>
       <c r="AK2" t="s" s="2">
-        <v>33</v>
+        <v>80</v>
       </c>
       <c r="AL2" t="s" s="2">
-        <v>33</v>
+        <v>81</v>
       </c>
       <c r="AM2" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="AN2" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
     </row>
     <row r="3" hidden="true">
       <c r="A3" t="s" s="2">
-        <v>50</v>
+        <v>82</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>50</v>
+        <v>82</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="E3" s="2"/>
       <c r="F3" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="G3" t="s" s="2">
-        <v>43</v>
+        <v>83</v>
       </c>
       <c r="H3" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="I3" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="J3" t="s" s="2">
-        <v>44</v>
+        <v>84</v>
       </c>
       <c r="K3" t="s" s="2">
-        <v>51</v>
+        <v>85</v>
       </c>
       <c r="L3" t="s" s="2">
-        <v>52</v>
+        <v>86</v>
       </c>
       <c r="M3" t="s" s="2">
-        <v>53</v>
-      </c>
-      <c r="N3" s="2"/>
+        <v>87</v>
+      </c>
+      <c r="N3" t="s" s="2">
+        <v>88</v>
+      </c>
       <c r="O3" s="2"/>
       <c r="P3" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="Q3" s="2"/>
       <c r="R3" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="S3" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="T3" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="U3" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="V3" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="W3" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="X3" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="Y3" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="Z3" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="AA3" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="AB3" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="AC3" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="AD3" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="AE3" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="AF3" t="s" s="2">
-        <v>54</v>
+        <v>89</v>
       </c>
       <c r="AG3" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="AH3" t="s" s="2">
-        <v>43</v>
+        <v>83</v>
       </c>
       <c r="AI3" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="AJ3" t="s" s="2">
-        <v>55</v>
+        <v>73</v>
       </c>
       <c r="AK3" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="AL3" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="AM3" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="AN3" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
     </row>
     <row r="4" hidden="true">
       <c r="A4" t="s" s="2">
-        <v>56</v>
+        <v>90</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>56</v>
+        <v>90</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="E4" s="2"/>
       <c r="F4" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="G4" t="s" s="2">
-        <v>43</v>
+        <v>83</v>
       </c>
       <c r="H4" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="I4" t="s" s="2">
-        <v>44</v>
+        <v>73</v>
       </c>
       <c r="J4" t="s" s="2">
-        <v>44</v>
+        <v>84</v>
       </c>
       <c r="K4" t="s" s="2">
-        <v>57</v>
+        <v>91</v>
       </c>
       <c r="L4" t="s" s="2">
-        <v>58</v>
+        <v>92</v>
       </c>
       <c r="M4" t="s" s="2">
-        <v>59</v>
-      </c>
-      <c r="N4" t="s" s="2">
-        <v>60</v>
-      </c>
+        <v>93</v>
+      </c>
+      <c r="N4" s="2"/>
       <c r="O4" s="2"/>
       <c r="P4" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="Q4" s="2"/>
       <c r="R4" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="S4" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="T4" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="U4" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="V4" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="W4" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="X4" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="Y4" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="Z4" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="AA4" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="AB4" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="AC4" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="AD4" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="AE4" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="AF4" t="s" s="2">
-        <v>61</v>
+        <v>94</v>
       </c>
       <c r="AG4" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="AH4" t="s" s="2">
-        <v>43</v>
+        <v>83</v>
       </c>
       <c r="AI4" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="AJ4" t="s" s="2">
-        <v>55</v>
+        <v>95</v>
       </c>
       <c r="AK4" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="AL4" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="AM4" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="AN4" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
     </row>
     <row r="5" hidden="true">
       <c r="A5" t="s" s="2">
-        <v>62</v>
+        <v>96</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>62</v>
+        <v>96</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="E5" s="2"/>
       <c r="F5" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="G5" t="s" s="2">
-        <v>43</v>
+        <v>83</v>
       </c>
       <c r="H5" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="I5" t="s" s="2">
-        <v>33</v>
+        <v>84</v>
       </c>
       <c r="J5" t="s" s="2">
-        <v>33</v>
+        <v>84</v>
       </c>
       <c r="K5" t="s" s="2">
-        <v>63</v>
+        <v>97</v>
       </c>
       <c r="L5" t="s" s="2">
-        <v>64</v>
+        <v>98</v>
       </c>
       <c r="M5" t="s" s="2">
-        <v>65</v>
+        <v>99</v>
       </c>
       <c r="N5" t="s" s="2">
-        <v>66</v>
+        <v>100</v>
       </c>
       <c r="O5" s="2"/>
       <c r="P5" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="Q5" s="2"/>
       <c r="R5" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="S5" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="T5" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="U5" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="V5" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="W5" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="X5" t="s" s="2">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="Y5" t="s" s="2">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="Z5" t="s" s="2">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="AA5" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="AB5" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="AC5" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="AD5" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="AE5" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="AF5" t="s" s="2">
-        <v>70</v>
+        <v>101</v>
       </c>
       <c r="AG5" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="AH5" t="s" s="2">
-        <v>43</v>
+        <v>83</v>
       </c>
       <c r="AI5" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="AJ5" t="s" s="2">
-        <v>55</v>
+        <v>95</v>
       </c>
       <c r="AK5" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="AL5" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="AM5" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="AN5" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
     </row>
     <row r="6" hidden="true">
       <c r="A6" t="s" s="2">
-        <v>71</v>
+        <v>102</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>71</v>
+        <v>102</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E6" s="2"/>
       <c r="F6" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="G6" t="s" s="2">
-        <v>43</v>
+        <v>83</v>
       </c>
       <c r="H6" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="I6" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="J6" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="K6" t="s" s="2">
-        <v>73</v>
+        <v>103</v>
       </c>
       <c r="L6" t="s" s="2">
-        <v>74</v>
+        <v>104</v>
       </c>
       <c r="M6" t="s" s="2">
-        <v>75</v>
+        <v>105</v>
       </c>
       <c r="N6" t="s" s="2">
-        <v>76</v>
+        <v>106</v>
       </c>
       <c r="O6" s="2"/>
       <c r="P6" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="Q6" s="2"/>
       <c r="R6" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="S6" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="T6" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="U6" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="V6" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="W6" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="X6" t="s" s="2">
-        <v>33</v>
+        <v>107</v>
       </c>
       <c r="Y6" t="s" s="2">
-        <v>33</v>
+        <v>108</v>
       </c>
       <c r="Z6" t="s" s="2">
-        <v>33</v>
+        <v>109</v>
       </c>
       <c r="AA6" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="AB6" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="AC6" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="AD6" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="AE6" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="AF6" t="s" s="2">
-        <v>77</v>
+        <v>110</v>
       </c>
       <c r="AG6" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="AH6" t="s" s="2">
-        <v>43</v>
+        <v>83</v>
       </c>
       <c r="AI6" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="AJ6" t="s" s="2">
-        <v>55</v>
+        <v>95</v>
       </c>
       <c r="AK6" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="AL6" t="s" s="2">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="AM6" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="AN6" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
     </row>
     <row r="7" hidden="true">
       <c r="A7" t="s" s="2">
-        <v>79</v>
+        <v>111</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>79</v>
+        <v>111</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" t="s" s="2">
-        <v>80</v>
+        <v>112</v>
       </c>
       <c r="E7" s="2"/>
       <c r="F7" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="G7" t="s" s="2">
-        <v>35</v>
+        <v>83</v>
       </c>
       <c r="H7" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="I7" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="J7" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="K7" t="s" s="2">
-        <v>81</v>
+        <v>113</v>
       </c>
       <c r="L7" t="s" s="2">
-        <v>82</v>
+        <v>114</v>
       </c>
       <c r="M7" t="s" s="2">
-        <v>83</v>
+        <v>115</v>
       </c>
       <c r="N7" t="s" s="2">
-        <v>84</v>
+        <v>116</v>
       </c>
       <c r="O7" s="2"/>
       <c r="P7" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="Q7" s="2"/>
       <c r="R7" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="S7" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="T7" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="U7" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="V7" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="W7" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="X7" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="Y7" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="Z7" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="AA7" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="AB7" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="AC7" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="AD7" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="AE7" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="AF7" t="s" s="2">
-        <v>85</v>
+        <v>117</v>
       </c>
       <c r="AG7" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="AH7" t="s" s="2">
-        <v>35</v>
+        <v>83</v>
       </c>
       <c r="AI7" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="AJ7" t="s" s="2">
-        <v>33</v>
+        <v>95</v>
       </c>
       <c r="AK7" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="AL7" t="s" s="2">
-        <v>86</v>
+        <v>118</v>
       </c>
       <c r="AM7" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="AN7" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
     </row>
     <row r="8" hidden="true">
       <c r="A8" t="s" s="2">
-        <v>87</v>
+        <v>119</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>87</v>
+        <v>119</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" t="s" s="2">
-        <v>88</v>
+        <v>120</v>
       </c>
       <c r="E8" s="2"/>
       <c r="F8" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="G8" t="s" s="2">
-        <v>35</v>
+        <v>75</v>
       </c>
       <c r="H8" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="I8" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="J8" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="K8" t="s" s="2">
-        <v>89</v>
+        <v>121</v>
       </c>
       <c r="L8" t="s" s="2">
-        <v>90</v>
+        <v>122</v>
       </c>
       <c r="M8" t="s" s="2">
-        <v>91</v>
+        <v>123</v>
       </c>
       <c r="N8" t="s" s="2">
-        <v>92</v>
+        <v>124</v>
       </c>
       <c r="O8" s="2"/>
       <c r="P8" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="Q8" s="2"/>
       <c r="R8" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="S8" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="T8" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="U8" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="V8" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="W8" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="X8" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="Y8" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="Z8" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="AA8" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="AB8" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="AC8" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="AD8" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="AE8" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="AF8" t="s" s="2">
-        <v>93</v>
+        <v>125</v>
       </c>
       <c r="AG8" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="AH8" t="s" s="2">
-        <v>35</v>
+        <v>75</v>
       </c>
       <c r="AI8" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="AJ8" t="s" s="2">
-        <v>94</v>
+        <v>73</v>
       </c>
       <c r="AK8" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="AL8" t="s" s="2">
-        <v>86</v>
+        <v>126</v>
       </c>
       <c r="AM8" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="AN8" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
     </row>
     <row r="9" hidden="true">
       <c r="A9" t="s" s="2">
-        <v>95</v>
+        <v>127</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>95</v>
+        <v>127</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" t="s" s="2">
-        <v>88</v>
+        <v>128</v>
       </c>
       <c r="E9" s="2"/>
       <c r="F9" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="G9" t="s" s="2">
-        <v>35</v>
+        <v>75</v>
       </c>
       <c r="H9" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="I9" t="s" s="2">
-        <v>44</v>
+        <v>73</v>
       </c>
       <c r="J9" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>89</v>
+        <v>129</v>
       </c>
       <c r="L9" t="s" s="2">
-        <v>96</v>
+        <v>130</v>
       </c>
       <c r="M9" t="s" s="2">
-        <v>97</v>
+        <v>131</v>
       </c>
       <c r="N9" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="O9" t="s" s="2">
-        <v>98</v>
-      </c>
+        <v>132</v>
+      </c>
+      <c r="O9" s="2"/>
       <c r="P9" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="Q9" s="2"/>
       <c r="R9" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="S9" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="T9" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="U9" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="V9" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="W9" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="X9" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="Y9" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="Z9" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="AA9" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="AB9" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="AC9" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="AD9" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="AE9" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="AF9" t="s" s="2">
-        <v>99</v>
+        <v>133</v>
       </c>
       <c r="AG9" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="AH9" t="s" s="2">
-        <v>35</v>
+        <v>75</v>
       </c>
       <c r="AI9" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>94</v>
+        <v>134</v>
       </c>
       <c r="AK9" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="AL9" t="s" s="2">
-        <v>86</v>
+        <v>126</v>
       </c>
       <c r="AM9" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="AN9" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
     </row>
     <row r="10" hidden="true">
       <c r="A10" t="s" s="2">
-        <v>100</v>
+        <v>135</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>100</v>
+        <v>135</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" t="s" s="2">
-        <v>33</v>
+        <v>128</v>
       </c>
       <c r="E10" s="2"/>
       <c r="F10" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="G10" t="s" s="2">
-        <v>35</v>
+        <v>75</v>
       </c>
       <c r="H10" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="I10" t="s" s="2">
-        <v>33</v>
+        <v>84</v>
       </c>
       <c r="J10" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>101</v>
+        <v>129</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>102</v>
+        <v>136</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>103</v>
-      </c>
-      <c r="N10" s="2"/>
-      <c r="O10" s="2"/>
+        <v>137</v>
+      </c>
+      <c r="N10" t="s" s="2">
+        <v>132</v>
+      </c>
+      <c r="O10" t="s" s="2">
+        <v>138</v>
+      </c>
       <c r="P10" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="Q10" s="2"/>
       <c r="R10" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="S10" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="T10" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="U10" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="V10" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="W10" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="X10" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="Y10" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="Z10" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="AA10" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="AB10" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="AC10" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="AD10" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="AE10" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>100</v>
+        <v>139</v>
       </c>
       <c r="AG10" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="AH10" t="s" s="2">
-        <v>35</v>
+        <v>75</v>
       </c>
       <c r="AI10" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="AJ10" t="s" s="2">
-        <v>55</v>
+        <v>134</v>
       </c>
       <c r="AK10" t="s" s="2">
-        <v>104</v>
+        <v>73</v>
       </c>
       <c r="AL10" t="s" s="2">
-        <v>105</v>
+        <v>126</v>
       </c>
       <c r="AM10" t="s" s="2">
-        <v>106</v>
+        <v>73</v>
       </c>
       <c r="AN10" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
     </row>
     <row r="11" hidden="true">
       <c r="A11" t="s" s="2">
-        <v>107</v>
+        <v>140</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>107</v>
+        <v>140</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="E11" s="2"/>
       <c r="F11" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="G11" t="s" s="2">
-        <v>43</v>
+        <v>75</v>
       </c>
       <c r="H11" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="I11" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="J11" t="s" s="2">
-        <v>44</v>
+        <v>73</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>108</v>
+        <v>141</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>109</v>
+        <v>142</v>
       </c>
       <c r="M11" t="s" s="2">
-        <v>110</v>
+        <v>143</v>
       </c>
       <c r="N11" s="2"/>
-      <c r="O11" t="s" s="2">
-        <v>111</v>
-      </c>
+      <c r="O11" s="2"/>
       <c r="P11" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="Q11" s="2"/>
       <c r="R11" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="S11" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="T11" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="U11" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="V11" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="W11" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="X11" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="Y11" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="Z11" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="AA11" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="AB11" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="AC11" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="AD11" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="AE11" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>107</v>
+        <v>140</v>
       </c>
       <c r="AG11" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="AH11" t="s" s="2">
-        <v>43</v>
+        <v>75</v>
       </c>
       <c r="AI11" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>55</v>
+        <v>95</v>
       </c>
       <c r="AK11" t="s" s="2">
-        <v>112</v>
+        <v>144</v>
       </c>
       <c r="AL11" t="s" s="2">
-        <v>113</v>
+        <v>145</v>
       </c>
       <c r="AM11" t="s" s="2">
-        <v>33</v>
+        <v>146</v>
       </c>
       <c r="AN11" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
     </row>
     <row r="12" hidden="true">
       <c r="A12" t="s" s="2">
-        <v>114</v>
+        <v>147</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>114</v>
+        <v>147</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="E12" s="2"/>
       <c r="F12" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="G12" t="s" s="2">
-        <v>43</v>
+        <v>83</v>
       </c>
       <c r="H12" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="I12" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>44</v>
+        <v>84</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>57</v>
+        <v>148</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>109</v>
+        <v>149</v>
       </c>
       <c r="M12" t="s" s="2">
-        <v>115</v>
+        <v>150</v>
       </c>
       <c r="N12" s="2"/>
       <c r="O12" t="s" s="2">
-        <v>116</v>
+        <v>151</v>
       </c>
       <c r="P12" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="Q12" s="2"/>
       <c r="R12" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="S12" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="T12" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="U12" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="V12" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="W12" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="X12" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="Y12" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="Z12" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="AA12" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="AB12" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="AC12" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="AD12" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="AE12" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>114</v>
+        <v>147</v>
       </c>
       <c r="AG12" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="AH12" t="s" s="2">
-        <v>43</v>
+        <v>83</v>
       </c>
       <c r="AI12" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>55</v>
+        <v>95</v>
       </c>
       <c r="AK12" t="s" s="2">
-        <v>117</v>
+        <v>152</v>
       </c>
       <c r="AL12" t="s" s="2">
-        <v>113</v>
+        <v>153</v>
       </c>
       <c r="AM12" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="AN12" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
     </row>
     <row r="13" hidden="true">
       <c r="A13" t="s" s="2">
-        <v>118</v>
+        <v>154</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>118</v>
+        <v>154</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="E13" s="2"/>
       <c r="F13" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="G13" t="s" s="2">
-        <v>35</v>
+        <v>83</v>
       </c>
       <c r="H13" t="s" s="2">
-        <v>44</v>
+        <v>73</v>
       </c>
       <c r="I13" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>44</v>
+        <v>84</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>119</v>
+        <v>97</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>120</v>
+        <v>149</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>121</v>
+        <v>155</v>
       </c>
       <c r="N13" s="2"/>
-      <c r="O13" s="2"/>
+      <c r="O13" t="s" s="2">
+        <v>156</v>
+      </c>
       <c r="P13" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="Q13" s="2"/>
       <c r="R13" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="S13" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="T13" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="U13" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="V13" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="W13" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="X13" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="Y13" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="Z13" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="AA13" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="AB13" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="AC13" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="AD13" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="AE13" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>118</v>
+        <v>154</v>
       </c>
       <c r="AG13" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="AH13" t="s" s="2">
-        <v>35</v>
+        <v>83</v>
       </c>
       <c r="AI13" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>55</v>
+        <v>95</v>
       </c>
       <c r="AK13" t="s" s="2">
-        <v>122</v>
+        <v>157</v>
       </c>
       <c r="AL13" t="s" s="2">
-        <v>123</v>
+        <v>153</v>
       </c>
       <c r="AM13" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="AN13" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
     </row>
     <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
-        <v>124</v>
+        <v>158</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>124</v>
+        <v>158</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="E14" s="2"/>
       <c r="F14" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="G14" t="s" s="2">
-        <v>43</v>
+        <v>75</v>
       </c>
       <c r="H14" t="s" s="2">
-        <v>33</v>
+        <v>84</v>
       </c>
       <c r="I14" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>44</v>
+        <v>84</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>101</v>
+        <v>159</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>125</v>
+        <v>160</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>126</v>
+        <v>161</v>
       </c>
       <c r="N14" s="2"/>
-      <c r="O14" t="s" s="2">
-        <v>127</v>
-      </c>
+      <c r="O14" s="2"/>
       <c r="P14" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="Q14" s="2"/>
       <c r="R14" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="S14" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="T14" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="U14" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="V14" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="W14" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="X14" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="Y14" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="Z14" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="AA14" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="AB14" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="AC14" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="AD14" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="AE14" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>124</v>
+        <v>158</v>
       </c>
       <c r="AG14" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="AH14" t="s" s="2">
-        <v>43</v>
+        <v>75</v>
       </c>
       <c r="AI14" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>55</v>
+        <v>95</v>
       </c>
       <c r="AK14" t="s" s="2">
-        <v>128</v>
+        <v>162</v>
       </c>
       <c r="AL14" t="s" s="2">
-        <v>129</v>
+        <v>163</v>
       </c>
       <c r="AM14" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="AN14" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
     </row>
     <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
-        <v>130</v>
+        <v>164</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>130</v>
+        <v>164</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="E15" s="2"/>
       <c r="F15" t="s" s="2">
-        <v>43</v>
+        <v>74</v>
       </c>
       <c r="G15" t="s" s="2">
-        <v>43</v>
+        <v>83</v>
       </c>
       <c r="H15" t="s" s="2">
-        <v>44</v>
+        <v>73</v>
       </c>
       <c r="I15" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>44</v>
+        <v>84</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>131</v>
+        <v>141</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>132</v>
+        <v>165</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>133</v>
-      </c>
-      <c r="N15" t="s" s="2">
-        <v>134</v>
-      </c>
+        <v>166</v>
+      </c>
+      <c r="N15" s="2"/>
       <c r="O15" t="s" s="2">
-        <v>135</v>
+        <v>167</v>
       </c>
       <c r="P15" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="Q15" s="2"/>
       <c r="R15" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="S15" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="T15" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="U15" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="V15" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="W15" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="X15" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="Y15" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="Z15" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="AA15" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="AB15" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="AC15" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="AD15" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>130</v>
+        <v>164</v>
       </c>
       <c r="AG15" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="AH15" t="s" s="2">
-        <v>35</v>
+        <v>83</v>
       </c>
       <c r="AI15" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="AJ15" t="s" s="2">
-        <v>55</v>
+        <v>95</v>
       </c>
       <c r="AK15" t="s" s="2">
-        <v>136</v>
+        <v>168</v>
       </c>
       <c r="AL15" t="s" s="2">
-        <v>137</v>
+        <v>169</v>
       </c>
       <c r="AM15" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="AN15" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
     </row>
     <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
-        <v>138</v>
+        <v>170</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>138</v>
+        <v>170</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="E16" s="2"/>
       <c r="F16" t="s" s="2">
-        <v>43</v>
+        <v>83</v>
       </c>
       <c r="G16" t="s" s="2">
-        <v>43</v>
+        <v>83</v>
       </c>
       <c r="H16" t="s" s="2">
-        <v>44</v>
+        <v>84</v>
       </c>
       <c r="I16" t="s" s="2">
-        <v>44</v>
+        <v>73</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>44</v>
+        <v>84</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>63</v>
+        <v>171</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>139</v>
+        <v>172</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>140</v>
-      </c>
-      <c r="N16" s="2"/>
+        <v>173</v>
+      </c>
+      <c r="N16" t="s" s="2">
+        <v>174</v>
+      </c>
       <c r="O16" t="s" s="2">
-        <v>141</v>
+        <v>175</v>
       </c>
       <c r="P16" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="Q16" s="2"/>
       <c r="R16" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="S16" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="T16" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="U16" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="V16" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="W16" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="X16" t="s" s="2">
-        <v>142</v>
+        <v>73</v>
       </c>
       <c r="Y16" t="s" s="2">
-        <v>140</v>
+        <v>73</v>
       </c>
       <c r="Z16" t="s" s="2">
-        <v>143</v>
+        <v>73</v>
       </c>
       <c r="AA16" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="AB16" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="AC16" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="AD16" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>138</v>
+        <v>170</v>
       </c>
       <c r="AG16" t="s" s="2">
-        <v>43</v>
+        <v>74</v>
       </c>
       <c r="AH16" t="s" s="2">
-        <v>43</v>
+        <v>75</v>
       </c>
       <c r="AI16" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>55</v>
+        <v>95</v>
       </c>
       <c r="AK16" t="s" s="2">
-        <v>144</v>
+        <v>176</v>
       </c>
       <c r="AL16" t="s" s="2">
-        <v>145</v>
+        <v>177</v>
       </c>
       <c r="AM16" t="s" s="2">
-        <v>146</v>
+        <v>73</v>
       </c>
       <c r="AN16" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>147</v>
+        <v>178</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>147</v>
+        <v>178</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="E17" s="2"/>
       <c r="F17" t="s" s="2">
-        <v>34</v>
+        <v>83</v>
       </c>
       <c r="G17" t="s" s="2">
-        <v>43</v>
+        <v>83</v>
       </c>
       <c r="H17" t="s" s="2">
-        <v>44</v>
+        <v>84</v>
       </c>
       <c r="I17" t="s" s="2">
-        <v>33</v>
+        <v>84</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>44</v>
+        <v>84</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>148</v>
+        <v>103</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>149</v>
+        <v>179</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>150</v>
-      </c>
-      <c r="N17" t="s" s="2">
-        <v>151</v>
-      </c>
-      <c r="O17" s="2"/>
+        <v>180</v>
+      </c>
+      <c r="N17" s="2"/>
+      <c r="O17" t="s" s="2">
+        <v>181</v>
+      </c>
       <c r="P17" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="Q17" s="2"/>
       <c r="R17" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="S17" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="T17" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="U17" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="V17" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="W17" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="X17" t="s" s="2">
-        <v>142</v>
-      </c>
-      <c r="Y17" s="2"/>
+        <v>182</v>
+      </c>
+      <c r="Y17" t="s" s="2">
+        <v>180</v>
+      </c>
       <c r="Z17" t="s" s="2">
-        <v>152</v>
+        <v>183</v>
       </c>
       <c r="AA17" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="AB17" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="AC17" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="AD17" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>147</v>
+        <v>178</v>
       </c>
       <c r="AG17" t="s" s="2">
-        <v>34</v>
+        <v>83</v>
       </c>
       <c r="AH17" t="s" s="2">
-        <v>43</v>
+        <v>83</v>
       </c>
       <c r="AI17" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>55</v>
+        <v>95</v>
       </c>
       <c r="AK17" t="s" s="2">
-        <v>33</v>
+        <v>184</v>
       </c>
       <c r="AL17" t="s" s="2">
-        <v>153</v>
+        <v>185</v>
       </c>
       <c r="AM17" t="s" s="2">
-        <v>33</v>
+        <v>186</v>
       </c>
       <c r="AN17" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>154</v>
+        <v>187</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>154</v>
+        <v>187</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="E18" s="2"/>
       <c r="F18" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="G18" t="s" s="2">
-        <v>43</v>
+        <v>83</v>
       </c>
       <c r="H18" t="s" s="2">
-        <v>33</v>
+        <v>84</v>
       </c>
       <c r="I18" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>44</v>
+        <v>84</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>148</v>
+        <v>188</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>155</v>
+        <v>189</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>156</v>
-      </c>
-      <c r="N18" s="2"/>
-      <c r="O18" t="s" s="2">
-        <v>157</v>
-      </c>
+        <v>190</v>
+      </c>
+      <c r="N18" t="s" s="2">
+        <v>191</v>
+      </c>
+      <c r="O18" s="2"/>
       <c r="P18" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="Q18" s="2"/>
       <c r="R18" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="S18" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="T18" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="U18" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="V18" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="W18" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="X18" t="s" s="2">
-        <v>158</v>
-      </c>
-      <c r="Y18" t="s" s="2">
-        <v>159</v>
-      </c>
+        <v>182</v>
+      </c>
+      <c r="Y18" s="2"/>
       <c r="Z18" t="s" s="2">
-        <v>33</v>
+        <v>192</v>
       </c>
       <c r="AA18" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="AB18" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="AC18" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="AD18" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>154</v>
+        <v>187</v>
       </c>
       <c r="AG18" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="AH18" t="s" s="2">
-        <v>43</v>
+        <v>83</v>
       </c>
       <c r="AI18" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>55</v>
+        <v>95</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="AL18" t="s" s="2">
-        <v>160</v>
+        <v>193</v>
       </c>
       <c r="AM18" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="AN18" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>161</v>
+        <v>194</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>161</v>
+        <v>194</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="E19" s="2"/>
       <c r="F19" t="s" s="2">
-        <v>43</v>
+        <v>74</v>
       </c>
       <c r="G19" t="s" s="2">
-        <v>43</v>
+        <v>83</v>
       </c>
       <c r="H19" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="I19" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>44</v>
+        <v>84</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>63</v>
+        <v>188</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>162</v>
+        <v>195</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>163</v>
-      </c>
-      <c r="N19" t="s" s="2">
-        <v>164</v>
-      </c>
-      <c r="O19" s="2"/>
+        <v>196</v>
+      </c>
+      <c r="N19" s="2"/>
+      <c r="O19" t="s" s="2">
+        <v>197</v>
+      </c>
       <c r="P19" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="Q19" s="2"/>
       <c r="R19" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="S19" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="T19" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="U19" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="V19" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="W19" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="X19" t="s" s="2">
-        <v>142</v>
+        <v>198</v>
       </c>
       <c r="Y19" t="s" s="2">
-        <v>165</v>
+        <v>199</v>
       </c>
       <c r="Z19" t="s" s="2">
-        <v>166</v>
+        <v>73</v>
       </c>
       <c r="AA19" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="AB19" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="AC19" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="AD19" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>161</v>
+        <v>194</v>
       </c>
       <c r="AG19" t="s" s="2">
-        <v>43</v>
+        <v>74</v>
       </c>
       <c r="AH19" t="s" s="2">
-        <v>43</v>
+        <v>83</v>
       </c>
       <c r="AI19" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>55</v>
+        <v>95</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>167</v>
+        <v>73</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>168</v>
+        <v>200</v>
       </c>
       <c r="AM19" t="s" s="2">
-        <v>169</v>
+        <v>73</v>
       </c>
       <c r="AN19" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>170</v>
+        <v>201</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>170</v>
+        <v>201</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="E20" s="2"/>
       <c r="F20" t="s" s="2">
-        <v>34</v>
+        <v>83</v>
       </c>
       <c r="G20" t="s" s="2">
-        <v>43</v>
+        <v>83</v>
       </c>
       <c r="H20" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="I20" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>33</v>
+        <v>84</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>63</v>
+        <v>103</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>171</v>
+        <v>202</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>172</v>
-      </c>
-      <c r="N20" s="2"/>
-      <c r="O20" t="s" s="2">
-        <v>173</v>
-      </c>
+        <v>203</v>
+      </c>
+      <c r="N20" t="s" s="2">
+        <v>204</v>
+      </c>
+      <c r="O20" s="2"/>
       <c r="P20" t="s" s="2">
-        <v>33</v>
-      </c>
-      <c r="Q20" t="s" s="2">
-        <v>174</v>
-      </c>
+        <v>73</v>
+      </c>
+      <c r="Q20" s="2"/>
       <c r="R20" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="S20" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="T20" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="U20" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="V20" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="W20" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="X20" t="s" s="2">
-        <v>142</v>
+        <v>182</v>
       </c>
       <c r="Y20" t="s" s="2">
-        <v>175</v>
+        <v>205</v>
       </c>
       <c r="Z20" t="s" s="2">
-        <v>176</v>
+        <v>206</v>
       </c>
       <c r="AA20" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="AB20" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="AC20" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="AD20" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>170</v>
+        <v>201</v>
       </c>
       <c r="AG20" t="s" s="2">
-        <v>34</v>
+        <v>83</v>
       </c>
       <c r="AH20" t="s" s="2">
-        <v>43</v>
+        <v>83</v>
       </c>
       <c r="AI20" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>55</v>
+        <v>95</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>177</v>
+        <v>207</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>178</v>
+        <v>208</v>
       </c>
       <c r="AM20" t="s" s="2">
-        <v>179</v>
+        <v>209</v>
       </c>
       <c r="AN20" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>180</v>
+        <v>210</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>180</v>
+        <v>210</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="E21" s="2"/>
       <c r="F21" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="G21" t="s" s="2">
-        <v>43</v>
+        <v>83</v>
       </c>
       <c r="H21" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="I21" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>44</v>
+        <v>73</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>148</v>
+        <v>103</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>181</v>
+        <v>211</v>
       </c>
       <c r="M21" t="s" s="2">
+        <v>212</v>
+      </c>
+      <c r="N21" s="2"/>
+      <c r="O21" t="s" s="2">
+        <v>213</v>
+      </c>
+      <c r="P21" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Q21" t="s" s="2">
+        <v>214</v>
+      </c>
+      <c r="R21" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="S21" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="T21" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="U21" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="V21" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="W21" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="X21" t="s" s="2">
         <v>182</v>
       </c>
-      <c r="N21" t="s" s="2">
-        <v>183</v>
-      </c>
-      <c r="O21" s="2"/>
-      <c r="P21" t="s" s="2">
-        <v>33</v>
-      </c>
-      <c r="Q21" s="2"/>
-      <c r="R21" t="s" s="2">
-        <v>33</v>
-      </c>
-      <c r="S21" t="s" s="2">
-        <v>33</v>
-      </c>
-      <c r="T21" t="s" s="2">
-        <v>33</v>
-      </c>
-      <c r="U21" t="s" s="2">
-        <v>33</v>
-      </c>
-      <c r="V21" t="s" s="2">
-        <v>33</v>
-      </c>
-      <c r="W21" t="s" s="2">
-        <v>33</v>
-      </c>
-      <c r="X21" t="s" s="2">
-        <v>158</v>
-      </c>
       <c r="Y21" t="s" s="2">
-        <v>184</v>
+        <v>215</v>
       </c>
       <c r="Z21" t="s" s="2">
-        <v>185</v>
+        <v>216</v>
       </c>
       <c r="AA21" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="AB21" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="AC21" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="AD21" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>180</v>
+        <v>210</v>
       </c>
       <c r="AG21" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="AH21" t="s" s="2">
-        <v>43</v>
+        <v>83</v>
       </c>
       <c r="AI21" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>55</v>
+        <v>95</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>186</v>
+        <v>217</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>187</v>
+        <v>218</v>
       </c>
       <c r="AM21" t="s" s="2">
-        <v>188</v>
+        <v>219</v>
       </c>
       <c r="AN21" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>189</v>
+        <v>220</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>189</v>
+        <v>220</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="E22" s="2"/>
       <c r="F22" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="G22" t="s" s="2">
-        <v>43</v>
+        <v>83</v>
       </c>
       <c r="H22" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="I22" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>44</v>
+        <v>84</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>191</v>
+        <v>221</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>192</v>
-      </c>
-      <c r="N22" s="2"/>
+        <v>222</v>
+      </c>
+      <c r="N22" t="s" s="2">
+        <v>223</v>
+      </c>
       <c r="O22" s="2"/>
       <c r="P22" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="Q22" s="2"/>
       <c r="R22" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="S22" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="T22" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="U22" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="V22" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="W22" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="X22" t="s" s="2">
-        <v>33</v>
+        <v>198</v>
       </c>
       <c r="Y22" t="s" s="2">
-        <v>33</v>
+        <v>224</v>
       </c>
       <c r="Z22" t="s" s="2">
-        <v>33</v>
+        <v>225</v>
       </c>
       <c r="AA22" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="AB22" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="AC22" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="AD22" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>189</v>
+        <v>220</v>
       </c>
       <c r="AG22" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="AH22" t="s" s="2">
-        <v>43</v>
+        <v>83</v>
       </c>
       <c r="AI22" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>55</v>
+        <v>95</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>33</v>
+        <v>226</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>193</v>
+        <v>227</v>
       </c>
       <c r="AM22" t="s" s="2">
-        <v>33</v>
+        <v>228</v>
       </c>
       <c r="AN22" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>194</v>
+        <v>229</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>194</v>
+        <v>229</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="E23" s="2"/>
       <c r="F23" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="G23" t="s" s="2">
-        <v>43</v>
+        <v>83</v>
       </c>
       <c r="H23" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="I23" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>44</v>
+        <v>84</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>119</v>
+        <v>230</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>195</v>
+        <v>231</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>196</v>
-      </c>
-      <c r="N23" t="s" s="2">
-        <v>197</v>
-      </c>
-      <c r="O23" t="s" s="2">
-        <v>198</v>
-      </c>
+        <v>232</v>
+      </c>
+      <c r="N23" s="2"/>
+      <c r="O23" s="2"/>
       <c r="P23" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="Q23" s="2"/>
       <c r="R23" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="S23" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="T23" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="U23" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="V23" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="W23" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="X23" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="Y23" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="Z23" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="AA23" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="AB23" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="AC23" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="AD23" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>194</v>
+        <v>229</v>
       </c>
       <c r="AG23" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="AH23" t="s" s="2">
-        <v>43</v>
+        <v>83</v>
       </c>
       <c r="AI23" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>55</v>
+        <v>95</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>199</v>
+        <v>233</v>
       </c>
       <c r="AM23" t="s" s="2">
-        <v>188</v>
+        <v>73</v>
       </c>
       <c r="AN23" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>200</v>
+        <v>234</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>200</v>
+        <v>234</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
-        <v>201</v>
+        <v>73</v>
       </c>
       <c r="E24" s="2"/>
       <c r="F24" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="G24" t="s" s="2">
-        <v>43</v>
+        <v>83</v>
       </c>
       <c r="H24" t="s" s="2">
-        <v>33</v>
+        <v>84</v>
       </c>
       <c r="I24" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>44</v>
+        <v>84</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>119</v>
+        <v>159</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>202</v>
+        <v>235</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>203</v>
-      </c>
-      <c r="N24" s="2"/>
+        <v>236</v>
+      </c>
+      <c r="N24" t="s" s="2">
+        <v>237</v>
+      </c>
       <c r="O24" t="s" s="2">
-        <v>204</v>
+        <v>238</v>
       </c>
       <c r="P24" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="Q24" s="2"/>
       <c r="R24" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="S24" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="T24" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="U24" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="V24" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="W24" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="X24" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="Y24" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="Z24" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="AA24" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="AB24" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="AC24" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="AD24" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>200</v>
+        <v>234</v>
       </c>
       <c r="AG24" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="AH24" t="s" s="2">
-        <v>43</v>
+        <v>83</v>
       </c>
       <c r="AI24" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>55</v>
+        <v>95</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>205</v>
+        <v>73</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>206</v>
+        <v>239</v>
       </c>
       <c r="AM24" t="s" s="2">
-        <v>207</v>
+        <v>228</v>
       </c>
       <c r="AN24" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>208</v>
+        <v>240</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>208</v>
+        <v>240</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
-        <v>33</v>
+        <v>241</v>
       </c>
       <c r="E25" s="2"/>
       <c r="F25" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="G25" t="s" s="2">
-        <v>43</v>
+        <v>83</v>
       </c>
       <c r="H25" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="I25" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>44</v>
+        <v>84</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>209</v>
+        <v>159</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>210</v>
+        <v>242</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>211</v>
+        <v>243</v>
       </c>
       <c r="N25" s="2"/>
       <c r="O25" t="s" s="2">
-        <v>212</v>
+        <v>244</v>
       </c>
       <c r="P25" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="Q25" s="2"/>
       <c r="R25" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="S25" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="T25" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="U25" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="V25" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="W25" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="X25" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="Y25" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="Z25" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="AA25" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="AB25" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="AC25" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="AD25" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>208</v>
+        <v>240</v>
       </c>
       <c r="AG25" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="AH25" t="s" s="2">
-        <v>43</v>
+        <v>83</v>
       </c>
       <c r="AI25" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>55</v>
+        <v>95</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>213</v>
+        <v>245</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>214</v>
+        <v>246</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>215</v>
+        <v>247</v>
       </c>
       <c r="AN25" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>216</v>
+        <v>248</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>216</v>
+        <v>248</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="E26" s="2"/>
       <c r="F26" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="G26" t="s" s="2">
-        <v>43</v>
+        <v>83</v>
       </c>
       <c r="H26" t="s" s="2">
-        <v>44</v>
+        <v>73</v>
       </c>
       <c r="I26" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>44</v>
+        <v>84</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>217</v>
+        <v>249</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>218</v>
+        <v>250</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>219</v>
+        <v>251</v>
       </c>
       <c r="N26" s="2"/>
-      <c r="O26" s="2"/>
+      <c r="O26" t="s" s="2">
+        <v>252</v>
+      </c>
       <c r="P26" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="Q26" s="2"/>
       <c r="R26" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="S26" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="T26" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="U26" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="V26" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="W26" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="X26" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="Y26" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="Z26" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="AA26" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="AB26" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="AC26" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="AD26" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>216</v>
+        <v>248</v>
       </c>
       <c r="AG26" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="AH26" t="s" s="2">
-        <v>43</v>
+        <v>83</v>
       </c>
       <c r="AI26" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>55</v>
+        <v>95</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>220</v>
+        <v>253</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>221</v>
+        <v>254</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>222</v>
+        <v>255</v>
       </c>
       <c r="AN26" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>223</v>
+        <v>256</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>223</v>
+        <v>256</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
-        <v>224</v>
+        <v>73</v>
       </c>
       <c r="E27" s="2"/>
       <c r="F27" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="G27" t="s" s="2">
-        <v>43</v>
+        <v>83</v>
       </c>
       <c r="H27" t="s" s="2">
-        <v>33</v>
+        <v>84</v>
       </c>
       <c r="I27" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>33</v>
+        <v>84</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>225</v>
+        <v>257</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>226</v>
+        <v>258</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>227</v>
+        <v>259</v>
       </c>
       <c r="N27" s="2"/>
-      <c r="O27" t="s" s="2">
-        <v>228</v>
-      </c>
+      <c r="O27" s="2"/>
       <c r="P27" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="Q27" s="2"/>
       <c r="R27" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="S27" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="T27" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="U27" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="V27" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="W27" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="X27" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="Y27" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="Z27" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="AA27" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="AB27" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="AC27" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="AD27" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>223</v>
+        <v>256</v>
       </c>
       <c r="AG27" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="AH27" t="s" s="2">
-        <v>43</v>
+        <v>83</v>
       </c>
       <c r="AI27" t="s" s="2">
-        <v>229</v>
+        <v>73</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>55</v>
+        <v>95</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>230</v>
+        <v>260</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>231</v>
+        <v>261</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>232</v>
+        <v>262</v>
       </c>
       <c r="AN27" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>233</v>
+        <v>263</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>233</v>
+        <v>263</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
-        <v>234</v>
+        <v>264</v>
       </c>
       <c r="E28" s="2"/>
       <c r="F28" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="G28" t="s" s="2">
-        <v>43</v>
+        <v>83</v>
       </c>
       <c r="H28" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="I28" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>44</v>
+        <v>73</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>225</v>
+        <v>265</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>235</v>
+        <v>266</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>236</v>
+        <v>267</v>
       </c>
       <c r="N28" s="2"/>
       <c r="O28" t="s" s="2">
-        <v>237</v>
+        <v>268</v>
       </c>
       <c r="P28" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="Q28" s="2"/>
       <c r="R28" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="S28" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="T28" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="U28" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="V28" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="W28" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="X28" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="Y28" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="Z28" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="AA28" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="AB28" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="AC28" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="AD28" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>233</v>
+        <v>263</v>
       </c>
       <c r="AG28" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="AH28" t="s" s="2">
-        <v>43</v>
+        <v>83</v>
       </c>
       <c r="AI28" t="s" s="2">
-        <v>229</v>
+        <v>269</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>55</v>
+        <v>95</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>33</v>
+        <v>270</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>238</v>
+        <v>271</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>33</v>
+        <v>272</v>
       </c>
       <c r="AN28" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>239</v>
+        <v>273</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>239</v>
+        <v>273</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
-        <v>33</v>
+        <v>274</v>
       </c>
       <c r="E29" s="2"/>
       <c r="F29" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="G29" t="s" s="2">
-        <v>43</v>
+        <v>83</v>
       </c>
       <c r="H29" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="I29" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>44</v>
+        <v>84</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>240</v>
+        <v>265</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>241</v>
+        <v>275</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>242</v>
+        <v>276</v>
       </c>
       <c r="N29" s="2"/>
       <c r="O29" t="s" s="2">
-        <v>243</v>
+        <v>277</v>
       </c>
       <c r="P29" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="Q29" s="2"/>
       <c r="R29" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="S29" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="T29" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="U29" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="V29" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="W29" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="X29" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="Y29" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="Z29" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="AA29" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="AB29" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="AC29" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="AD29" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>239</v>
+        <v>273</v>
       </c>
       <c r="AG29" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="AH29" t="s" s="2">
-        <v>43</v>
+        <v>83</v>
       </c>
       <c r="AI29" t="s" s="2">
-        <v>33</v>
+        <v>269</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>55</v>
+        <v>95</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>244</v>
+        <v>73</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>245</v>
+        <v>278</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>246</v>
+        <v>73</v>
       </c>
       <c r="AN29" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>247</v>
+        <v>279</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>247</v>
+        <v>279</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="E30" s="2"/>
       <c r="F30" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="G30" t="s" s="2">
-        <v>35</v>
+        <v>83</v>
       </c>
       <c r="H30" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="I30" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>33</v>
+        <v>84</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>148</v>
+        <v>280</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>248</v>
+        <v>281</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>249</v>
+        <v>282</v>
       </c>
       <c r="N30" s="2"/>
       <c r="O30" t="s" s="2">
-        <v>250</v>
+        <v>283</v>
       </c>
       <c r="P30" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="Q30" s="2"/>
       <c r="R30" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="S30" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="T30" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="U30" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="V30" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="W30" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="X30" t="s" s="2">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="Y30" t="s" s="2">
-        <v>251</v>
+        <v>73</v>
       </c>
       <c r="Z30" t="s" s="2">
-        <v>252</v>
+        <v>73</v>
       </c>
       <c r="AA30" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="AB30" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="AC30" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="AD30" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>247</v>
+        <v>279</v>
       </c>
       <c r="AG30" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="AH30" t="s" s="2">
-        <v>35</v>
+        <v>83</v>
       </c>
       <c r="AI30" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>55</v>
+        <v>95</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>253</v>
+        <v>284</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>254</v>
+        <v>285</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>255</v>
+        <v>286</v>
       </c>
       <c r="AN30" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>256</v>
+        <v>287</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>256</v>
+        <v>287</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
-        <v>257</v>
+        <v>73</v>
       </c>
       <c r="E31" s="2"/>
       <c r="F31" t="s" s="2">
-        <v>43</v>
+        <v>74</v>
       </c>
       <c r="G31" t="s" s="2">
-        <v>43</v>
+        <v>75</v>
       </c>
       <c r="H31" t="s" s="2">
-        <v>44</v>
+        <v>73</v>
       </c>
       <c r="I31" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>44</v>
+        <v>73</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>258</v>
+        <v>188</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>259</v>
+        <v>288</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>260</v>
-      </c>
-      <c r="N31" t="s" s="2">
-        <v>261</v>
-      </c>
+        <v>289</v>
+      </c>
+      <c r="N31" s="2"/>
       <c r="O31" t="s" s="2">
-        <v>262</v>
+        <v>290</v>
       </c>
       <c r="P31" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="Q31" s="2"/>
       <c r="R31" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="S31" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="T31" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="U31" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="V31" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="W31" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="X31" t="s" s="2">
-        <v>33</v>
+        <v>107</v>
       </c>
       <c r="Y31" t="s" s="2">
-        <v>33</v>
+        <v>291</v>
       </c>
       <c r="Z31" t="s" s="2">
-        <v>33</v>
+        <v>292</v>
       </c>
       <c r="AA31" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="AB31" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="AC31" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="AD31" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>256</v>
+        <v>287</v>
       </c>
       <c r="AG31" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="AH31" t="s" s="2">
-        <v>43</v>
+        <v>75</v>
       </c>
       <c r="AI31" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>55</v>
+        <v>95</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>263</v>
+        <v>293</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>264</v>
+        <v>294</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>255</v>
+        <v>295</v>
       </c>
       <c r="AN31" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>265</v>
+        <v>296</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>265</v>
+        <v>296</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
-        <v>33</v>
+        <v>297</v>
       </c>
       <c r="E32" s="2"/>
       <c r="F32" t="s" s="2">
-        <v>34</v>
+        <v>83</v>
       </c>
       <c r="G32" t="s" s="2">
-        <v>43</v>
+        <v>83</v>
       </c>
       <c r="H32" t="s" s="2">
-        <v>33</v>
+        <v>84</v>
       </c>
       <c r="I32" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>44</v>
+        <v>84</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>266</v>
+        <v>298</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>267</v>
+        <v>299</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>268</v>
-      </c>
-      <c r="N32" s="2"/>
+        <v>300</v>
+      </c>
+      <c r="N32" t="s" s="2">
+        <v>301</v>
+      </c>
       <c r="O32" t="s" s="2">
-        <v>269</v>
+        <v>302</v>
       </c>
       <c r="P32" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="Q32" s="2"/>
       <c r="R32" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="S32" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="T32" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="U32" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="V32" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="W32" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="X32" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="Y32" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="Z32" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="AA32" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="AB32" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="AC32" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="AD32" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>265</v>
+        <v>296</v>
       </c>
       <c r="AG32" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="AH32" t="s" s="2">
-        <v>43</v>
+        <v>83</v>
       </c>
       <c r="AI32" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>55</v>
+        <v>95</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>270</v>
+        <v>303</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>271</v>
+        <v>304</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>272</v>
+        <v>295</v>
       </c>
       <c r="AN32" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>273</v>
+        <v>305</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>273</v>
+        <v>305</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="E33" s="2"/>
       <c r="F33" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="G33" t="s" s="2">
-        <v>43</v>
+        <v>83</v>
       </c>
       <c r="H33" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="I33" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>33</v>
+        <v>84</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>148</v>
+        <v>306</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>274</v>
+        <v>307</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>275</v>
-      </c>
-      <c r="N33" t="s" s="2">
-        <v>276</v>
-      </c>
-      <c r="O33" s="2"/>
+        <v>308</v>
+      </c>
+      <c r="N33" s="2"/>
+      <c r="O33" t="s" s="2">
+        <v>309</v>
+      </c>
       <c r="P33" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="Q33" s="2"/>
       <c r="R33" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="S33" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="T33" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="U33" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="V33" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="W33" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="X33" t="s" s="2">
-        <v>158</v>
+        <v>73</v>
       </c>
       <c r="Y33" t="s" s="2">
-        <v>277</v>
+        <v>73</v>
       </c>
       <c r="Z33" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="AA33" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="AB33" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="AC33" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="AD33" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>273</v>
+        <v>305</v>
       </c>
       <c r="AG33" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="AH33" t="s" s="2">
-        <v>43</v>
+        <v>83</v>
       </c>
       <c r="AI33" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>55</v>
+        <v>95</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>278</v>
+        <v>310</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>279</v>
+        <v>311</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>280</v>
+        <v>312</v>
       </c>
       <c r="AN33" t="s" s="2">
-        <v>281</v>
+        <v>73</v>
       </c>
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>282</v>
+        <v>313</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>282</v>
+        <v>313</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="E34" s="2"/>
       <c r="F34" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="G34" t="s" s="2">
-        <v>43</v>
+        <v>83</v>
       </c>
       <c r="H34" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="I34" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>119</v>
+        <v>188</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>274</v>
+        <v>314</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>283</v>
+        <v>315</v>
       </c>
       <c r="N34" t="s" s="2">
-        <v>284</v>
+        <v>316</v>
       </c>
       <c r="O34" s="2"/>
       <c r="P34" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="Q34" s="2"/>
       <c r="R34" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="S34" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="T34" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="U34" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="V34" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="W34" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="X34" t="s" s="2">
-        <v>33</v>
+        <v>198</v>
       </c>
       <c r="Y34" t="s" s="2">
-        <v>33</v>
+        <v>317</v>
       </c>
       <c r="Z34" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="AA34" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="AB34" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="AC34" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="AD34" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>282</v>
+        <v>313</v>
       </c>
       <c r="AG34" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="AH34" t="s" s="2">
-        <v>43</v>
+        <v>83</v>
       </c>
       <c r="AI34" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>55</v>
+        <v>95</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>285</v>
+        <v>318</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>286</v>
+        <v>319</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>280</v>
+        <v>320</v>
       </c>
       <c r="AN34" t="s" s="2">
-        <v>33</v>
+        <v>321</v>
       </c>
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>287</v>
+        <v>322</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>287</v>
+        <v>322</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="E35" s="2"/>
       <c r="F35" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="G35" t="s" s="2">
-        <v>35</v>
+        <v>83</v>
       </c>
       <c r="H35" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="I35" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>288</v>
+        <v>159</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>289</v>
+        <v>314</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>290</v>
-      </c>
-      <c r="N35" s="2"/>
+        <v>323</v>
+      </c>
+      <c r="N35" t="s" s="2">
+        <v>324</v>
+      </c>
       <c r="O35" s="2"/>
       <c r="P35" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="Q35" s="2"/>
       <c r="R35" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="S35" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="T35" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="U35" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="V35" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="W35" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="X35" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="Y35" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="Z35" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="AA35" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="AB35" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="AC35" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="AD35" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>287</v>
+        <v>322</v>
       </c>
       <c r="AG35" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="AH35" t="s" s="2">
-        <v>35</v>
+        <v>83</v>
       </c>
       <c r="AI35" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>55</v>
+        <v>95</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>291</v>
+        <v>325</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>292</v>
+        <v>326</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>33</v>
+        <v>320</v>
       </c>
       <c r="AN35" t="s" s="2">
-        <v>293</v>
+        <v>73</v>
       </c>
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>294</v>
+        <v>327</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>294</v>
+        <v>327</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="E36" s="2"/>
       <c r="F36" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="G36" t="s" s="2">
-        <v>35</v>
+        <v>75</v>
       </c>
       <c r="H36" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="I36" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>295</v>
+        <v>328</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>296</v>
+        <v>329</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>297</v>
+        <v>330</v>
       </c>
       <c r="N36" s="2"/>
       <c r="O36" s="2"/>
       <c r="P36" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="Q36" s="2"/>
       <c r="R36" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="S36" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="T36" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="U36" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="V36" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="W36" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="X36" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="Y36" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="Z36" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="AA36" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="AB36" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="AC36" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="AD36" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>294</v>
+        <v>327</v>
       </c>
       <c r="AG36" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="AH36" t="s" s="2">
-        <v>35</v>
+        <v>75</v>
       </c>
       <c r="AI36" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>55</v>
+        <v>95</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>298</v>
+        <v>331</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>299</v>
+        <v>332</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="AN36" t="s" s="2">
-        <v>33</v>
+        <v>333</v>
       </c>
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>300</v>
+        <v>334</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>300</v>
+        <v>334</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
-        <v>301</v>
+        <v>73</v>
       </c>
       <c r="E37" s="2"/>
       <c r="F37" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="G37" t="s" s="2">
-        <v>35</v>
+        <v>75</v>
       </c>
       <c r="H37" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="I37" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>302</v>
+        <v>335</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>303</v>
+        <v>336</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>304</v>
-      </c>
-      <c r="N37" t="s" s="2">
-        <v>305</v>
-      </c>
+        <v>337</v>
+      </c>
+      <c r="N37" s="2"/>
       <c r="O37" s="2"/>
       <c r="P37" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="Q37" s="2"/>
       <c r="R37" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="S37" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="T37" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="U37" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="V37" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="W37" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="X37" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="Y37" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="Z37" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="AA37" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="AB37" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="AC37" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="AD37" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>300</v>
+        <v>334</v>
       </c>
       <c r="AG37" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="AH37" t="s" s="2">
-        <v>35</v>
+        <v>75</v>
       </c>
       <c r="AI37" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>55</v>
+        <v>95</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>306</v>
+        <v>338</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>307</v>
+        <v>339</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="AN37" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>308</v>
+        <v>340</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>308</v>
+        <v>340</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
-        <v>33</v>
+        <v>341</v>
       </c>
       <c r="E38" s="2"/>
       <c r="F38" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="G38" t="s" s="2">
-        <v>43</v>
+        <v>75</v>
       </c>
       <c r="H38" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="I38" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>309</v>
+        <v>342</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>310</v>
+        <v>343</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>311</v>
-      </c>
-      <c r="N38" s="2"/>
-      <c r="O38" t="s" s="2">
-        <v>312</v>
-      </c>
+        <v>344</v>
+      </c>
+      <c r="N38" t="s" s="2">
+        <v>345</v>
+      </c>
+      <c r="O38" s="2"/>
       <c r="P38" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="Q38" s="2"/>
       <c r="R38" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="S38" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="T38" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="U38" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="V38" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="W38" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="X38" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="Y38" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="Z38" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="AA38" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="AB38" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="AC38" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="AD38" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>308</v>
+        <v>340</v>
       </c>
       <c r="AG38" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="AH38" t="s" s="2">
-        <v>43</v>
+        <v>75</v>
       </c>
       <c r="AI38" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>55</v>
+        <v>95</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>33</v>
+        <v>346</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>313</v>
+        <v>347</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="AN38" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>314</v>
+        <v>348</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>314</v>
+        <v>348</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="E39" s="2"/>
       <c r="F39" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="G39" t="s" s="2">
-        <v>43</v>
+        <v>83</v>
       </c>
       <c r="H39" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="I39" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>190</v>
+        <v>349</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>315</v>
+        <v>350</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>316</v>
+        <v>351</v>
       </c>
       <c r="N39" s="2"/>
-      <c r="O39" s="2"/>
+      <c r="O39" t="s" s="2">
+        <v>352</v>
+      </c>
       <c r="P39" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="Q39" s="2"/>
       <c r="R39" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="S39" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="T39" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="U39" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="V39" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="W39" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="X39" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="Y39" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="Z39" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="AA39" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="AB39" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="AC39" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="AD39" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>317</v>
+        <v>348</v>
       </c>
       <c r="AG39" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="AH39" t="s" s="2">
-        <v>43</v>
+        <v>83</v>
       </c>
       <c r="AI39" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>33</v>
+        <v>95</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>318</v>
+        <v>353</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="AN39" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>319</v>
+        <v>354</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>319</v>
+        <v>354</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
-        <v>88</v>
+        <v>73</v>
       </c>
       <c r="E40" s="2"/>
       <c r="F40" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="G40" t="s" s="2">
-        <v>35</v>
+        <v>83</v>
       </c>
       <c r="H40" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="I40" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>89</v>
+        <v>230</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>90</v>
+        <v>355</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>320</v>
-      </c>
-      <c r="N40" t="s" s="2">
-        <v>92</v>
-      </c>
+        <v>356</v>
+      </c>
+      <c r="N40" s="2"/>
       <c r="O40" s="2"/>
       <c r="P40" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="Q40" s="2"/>
       <c r="R40" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="S40" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="T40" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="U40" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="V40" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="W40" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="X40" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="Y40" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="Z40" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="AA40" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="AB40" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="AC40" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="AD40" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>321</v>
+        <v>357</v>
       </c>
       <c r="AG40" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="AH40" t="s" s="2">
-        <v>35</v>
+        <v>83</v>
       </c>
       <c r="AI40" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>94</v>
+        <v>73</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>318</v>
+        <v>358</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="AN40" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>322</v>
+        <v>359</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>322</v>
+        <v>359</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
-        <v>323</v>
+        <v>128</v>
       </c>
       <c r="E41" s="2"/>
       <c r="F41" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="G41" t="s" s="2">
-        <v>35</v>
+        <v>75</v>
       </c>
       <c r="H41" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="I41" t="s" s="2">
-        <v>44</v>
+        <v>73</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>44</v>
+        <v>73</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>89</v>
+        <v>129</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>324</v>
+        <v>130</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>325</v>
+        <v>360</v>
       </c>
       <c r="N41" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="O41" t="s" s="2">
-        <v>98</v>
-      </c>
+        <v>132</v>
+      </c>
+      <c r="O41" s="2"/>
       <c r="P41" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="Q41" s="2"/>
       <c r="R41" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="S41" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="T41" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="U41" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="V41" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="W41" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="X41" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="Y41" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="Z41" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="AA41" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="AB41" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="AC41" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="AD41" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>326</v>
+        <v>361</v>
       </c>
       <c r="AG41" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="AH41" t="s" s="2">
-        <v>35</v>
+        <v>75</v>
       </c>
       <c r="AI41" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>94</v>
+        <v>134</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>86</v>
+        <v>358</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="AN41" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>327</v>
+        <v>362</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>327</v>
+        <v>362</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
-        <v>33</v>
+        <v>363</v>
       </c>
       <c r="E42" s="2"/>
       <c r="F42" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="G42" t="s" s="2">
-        <v>43</v>
+        <v>75</v>
       </c>
       <c r="H42" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="I42" t="s" s="2">
-        <v>33</v>
+        <v>84</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>33</v>
+        <v>84</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>328</v>
+        <v>129</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>329</v>
+        <v>364</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>330</v>
-      </c>
-      <c r="N42" s="2"/>
+        <v>365</v>
+      </c>
+      <c r="N42" t="s" s="2">
+        <v>132</v>
+      </c>
       <c r="O42" t="s" s="2">
-        <v>331</v>
+        <v>138</v>
       </c>
       <c r="P42" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="Q42" s="2"/>
       <c r="R42" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="S42" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="T42" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="U42" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="V42" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="W42" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="X42" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="Y42" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="Z42" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="AA42" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="AB42" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="AC42" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="AD42" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>327</v>
+        <v>366</v>
       </c>
       <c r="AG42" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="AH42" t="s" s="2">
-        <v>43</v>
+        <v>75</v>
       </c>
       <c r="AI42" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>55</v>
+        <v>134</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>332</v>
+        <v>126</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="AN42" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>333</v>
+        <v>367</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>333</v>
+        <v>367</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="E43" s="2"/>
       <c r="F43" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="G43" t="s" s="2">
-        <v>43</v>
+        <v>83</v>
       </c>
       <c r="H43" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="I43" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>217</v>
+        <v>368</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>334</v>
+        <v>369</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>335</v>
-      </c>
-      <c r="N43" t="s" s="2">
-        <v>336</v>
-      </c>
+        <v>370</v>
+      </c>
+      <c r="N43" s="2"/>
       <c r="O43" t="s" s="2">
-        <v>337</v>
+        <v>371</v>
       </c>
       <c r="P43" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="Q43" s="2"/>
       <c r="R43" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="S43" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="T43" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="U43" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="V43" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="W43" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="X43" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="Y43" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="Z43" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="AA43" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="AB43" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="AC43" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="AD43" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>333</v>
+        <v>367</v>
       </c>
       <c r="AG43" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="AH43" t="s" s="2">
-        <v>43</v>
+        <v>83</v>
       </c>
       <c r="AI43" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>55</v>
+        <v>95</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>338</v>
+        <v>372</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="AN43" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>339</v>
+        <v>373</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>339</v>
+        <v>373</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="E44" s="2"/>
       <c r="F44" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="G44" t="s" s="2">
-        <v>35</v>
+        <v>83</v>
       </c>
       <c r="H44" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="I44" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>340</v>
+        <v>257</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>341</v>
+        <v>374</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>342</v>
-      </c>
-      <c r="N44" s="2"/>
-      <c r="O44" s="2"/>
+        <v>375</v>
+      </c>
+      <c r="N44" t="s" s="2">
+        <v>376</v>
+      </c>
+      <c r="O44" t="s" s="2">
+        <v>377</v>
+      </c>
       <c r="P44" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="Q44" s="2"/>
       <c r="R44" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="S44" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="T44" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="U44" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="V44" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="W44" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="X44" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="Y44" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="Z44" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="AA44" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="AB44" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="AC44" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="AD44" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>339</v>
+        <v>373</v>
       </c>
       <c r="AG44" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="AH44" t="s" s="2">
-        <v>35</v>
+        <v>83</v>
       </c>
       <c r="AI44" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>55</v>
+        <v>95</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>343</v>
+        <v>378</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="AN44" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>344</v>
+        <v>379</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>344</v>
+        <v>379</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
-        <v>345</v>
+        <v>73</v>
       </c>
       <c r="E45" s="2"/>
       <c r="F45" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="G45" t="s" s="2">
-        <v>35</v>
+        <v>75</v>
       </c>
       <c r="H45" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="I45" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>309</v>
+        <v>380</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>346</v>
+        <v>381</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>347</v>
+        <v>382</v>
       </c>
       <c r="N45" s="2"/>
-      <c r="O45" t="s" s="2">
-        <v>348</v>
-      </c>
+      <c r="O45" s="2"/>
       <c r="P45" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="Q45" s="2"/>
       <c r="R45" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="S45" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="T45" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="U45" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="V45" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="W45" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="X45" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="Y45" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="Z45" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="AA45" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="AB45" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="AC45" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="AD45" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>344</v>
+        <v>379</v>
       </c>
       <c r="AG45" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="AH45" t="s" s="2">
-        <v>35</v>
+        <v>75</v>
       </c>
       <c r="AI45" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>55</v>
+        <v>95</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>349</v>
+        <v>383</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="AN45" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>350</v>
+        <v>384</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>350</v>
+        <v>384</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
-        <v>33</v>
+        <v>385</v>
       </c>
       <c r="E46" s="2"/>
       <c r="F46" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="G46" t="s" s="2">
-        <v>43</v>
+        <v>75</v>
       </c>
       <c r="H46" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="I46" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>190</v>
+        <v>349</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>315</v>
+        <v>386</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>316</v>
+        <v>387</v>
       </c>
       <c r="N46" s="2"/>
-      <c r="O46" s="2"/>
+      <c r="O46" t="s" s="2">
+        <v>388</v>
+      </c>
       <c r="P46" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="Q46" s="2"/>
       <c r="R46" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="S46" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="T46" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="U46" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="V46" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="W46" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="X46" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="Y46" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="Z46" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="AA46" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="AB46" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="AC46" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="AD46" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>317</v>
+        <v>384</v>
       </c>
       <c r="AG46" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="AH46" t="s" s="2">
-        <v>43</v>
+        <v>75</v>
       </c>
       <c r="AI46" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>33</v>
+        <v>95</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>318</v>
+        <v>389</v>
       </c>
       <c r="AM46" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="AN46" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>351</v>
+        <v>390</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>351</v>
+        <v>390</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
-        <v>88</v>
+        <v>73</v>
       </c>
       <c r="E47" s="2"/>
       <c r="F47" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="G47" t="s" s="2">
-        <v>35</v>
+        <v>83</v>
       </c>
       <c r="H47" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="I47" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>89</v>
+        <v>230</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>90</v>
+        <v>355</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>320</v>
-      </c>
-      <c r="N47" t="s" s="2">
-        <v>92</v>
-      </c>
+        <v>356</v>
+      </c>
+      <c r="N47" s="2"/>
       <c r="O47" s="2"/>
       <c r="P47" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="Q47" s="2"/>
       <c r="R47" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="S47" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="T47" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="U47" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="V47" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="W47" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="X47" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="Y47" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="Z47" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="AA47" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="AB47" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="AC47" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="AD47" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>321</v>
+        <v>357</v>
       </c>
       <c r="AG47" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="AH47" t="s" s="2">
-        <v>35</v>
+        <v>83</v>
       </c>
       <c r="AI47" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>94</v>
+        <v>73</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>318</v>
+        <v>358</v>
       </c>
       <c r="AM47" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="AN47" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>352</v>
+        <v>391</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>352</v>
+        <v>391</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
-        <v>323</v>
+        <v>128</v>
       </c>
       <c r="E48" s="2"/>
       <c r="F48" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="G48" t="s" s="2">
-        <v>35</v>
+        <v>75</v>
       </c>
       <c r="H48" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="I48" t="s" s="2">
-        <v>44</v>
+        <v>73</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>44</v>
+        <v>73</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>89</v>
+        <v>129</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>324</v>
+        <v>130</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>325</v>
+        <v>360</v>
       </c>
       <c r="N48" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="O48" t="s" s="2">
-        <v>98</v>
-      </c>
+        <v>132</v>
+      </c>
+      <c r="O48" s="2"/>
       <c r="P48" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="Q48" s="2"/>
       <c r="R48" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="S48" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="T48" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="U48" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="V48" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="W48" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="X48" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="Y48" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="Z48" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="AA48" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="AB48" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="AC48" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="AD48" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>326</v>
+        <v>361</v>
       </c>
       <c r="AG48" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="AH48" t="s" s="2">
-        <v>35</v>
+        <v>75</v>
       </c>
       <c r="AI48" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>94</v>
+        <v>134</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>86</v>
+        <v>358</v>
       </c>
       <c r="AM48" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="AN48" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>353</v>
+        <v>392</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>353</v>
+        <v>392</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
-        <v>354</v>
+        <v>363</v>
       </c>
       <c r="E49" s="2"/>
       <c r="F49" t="s" s="2">
-        <v>43</v>
+        <v>74</v>
       </c>
       <c r="G49" t="s" s="2">
-        <v>43</v>
+        <v>75</v>
       </c>
       <c r="H49" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="I49" t="s" s="2">
-        <v>33</v>
+        <v>84</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>33</v>
+        <v>84</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>148</v>
+        <v>129</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>355</v>
+        <v>364</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>356</v>
+        <v>365</v>
       </c>
       <c r="N49" t="s" s="2">
-        <v>357</v>
+        <v>132</v>
       </c>
       <c r="O49" t="s" s="2">
-        <v>358</v>
+        <v>138</v>
       </c>
       <c r="P49" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="Q49" s="2"/>
       <c r="R49" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="S49" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="T49" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="U49" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="V49" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="W49" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="X49" t="s" s="2">
-        <v>158</v>
+        <v>73</v>
       </c>
       <c r="Y49" t="s" s="2">
-        <v>359</v>
+        <v>73</v>
       </c>
       <c r="Z49" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="AA49" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="AB49" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="AC49" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="AD49" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>353</v>
+        <v>366</v>
       </c>
       <c r="AG49" t="s" s="2">
-        <v>43</v>
+        <v>74</v>
       </c>
       <c r="AH49" t="s" s="2">
-        <v>43</v>
+        <v>75</v>
       </c>
       <c r="AI49" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>55</v>
+        <v>134</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>349</v>
+        <v>126</v>
       </c>
       <c r="AM49" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="AN49" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>360</v>
+        <v>393</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>360</v>
+        <v>393</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
-        <v>33</v>
+        <v>394</v>
       </c>
       <c r="E50" s="2"/>
       <c r="F50" t="s" s="2">
-        <v>43</v>
+        <v>83</v>
       </c>
       <c r="G50" t="s" s="2">
-        <v>43</v>
+        <v>83</v>
       </c>
       <c r="H50" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="I50" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>361</v>
+        <v>188</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>362</v>
+        <v>395</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>363</v>
-      </c>
-      <c r="N50" s="2"/>
-      <c r="O50" s="2"/>
+        <v>396</v>
+      </c>
+      <c r="N50" t="s" s="2">
+        <v>397</v>
+      </c>
+      <c r="O50" t="s" s="2">
+        <v>398</v>
+      </c>
       <c r="P50" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="Q50" s="2"/>
       <c r="R50" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="S50" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="T50" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="U50" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="V50" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="W50" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="X50" t="s" s="2">
-        <v>33</v>
+        <v>198</v>
       </c>
       <c r="Y50" t="s" s="2">
-        <v>33</v>
+        <v>399</v>
       </c>
       <c r="Z50" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="AA50" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="AB50" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="AC50" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="AD50" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>360</v>
+        <v>393</v>
       </c>
       <c r="AG50" t="s" s="2">
-        <v>43</v>
+        <v>83</v>
       </c>
       <c r="AH50" t="s" s="2">
-        <v>43</v>
+        <v>83</v>
       </c>
       <c r="AI50" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>55</v>
+        <v>95</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>349</v>
+        <v>389</v>
       </c>
       <c r="AM50" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="AN50" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>364</v>
+        <v>400</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>364</v>
+        <v>400</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="E51" s="2"/>
       <c r="F51" t="s" s="2">
-        <v>34</v>
+        <v>83</v>
       </c>
       <c r="G51" t="s" s="2">
-        <v>35</v>
+        <v>83</v>
       </c>
       <c r="H51" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="I51" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>309</v>
+        <v>401</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>365</v>
+        <v>402</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>366</v>
+        <v>403</v>
       </c>
       <c r="N51" s="2"/>
-      <c r="O51" t="s" s="2">
-        <v>367</v>
-      </c>
+      <c r="O51" s="2"/>
       <c r="P51" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="Q51" s="2"/>
       <c r="R51" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="S51" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="T51" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="U51" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="V51" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="W51" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="X51" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="Y51" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="Z51" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="AA51" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="AB51" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="AC51" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="AD51" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>364</v>
+        <v>400</v>
       </c>
       <c r="AG51" t="s" s="2">
-        <v>34</v>
+        <v>83</v>
       </c>
       <c r="AH51" t="s" s="2">
-        <v>35</v>
+        <v>83</v>
       </c>
       <c r="AI51" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="AJ51" t="s" s="2">
-        <v>55</v>
+        <v>95</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>349</v>
+        <v>389</v>
       </c>
       <c r="AM51" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="AN51" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>368</v>
+        <v>404</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>368</v>
+        <v>404</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="E52" s="2"/>
       <c r="F52" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="G52" t="s" s="2">
-        <v>43</v>
+        <v>75</v>
       </c>
       <c r="H52" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="I52" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>190</v>
+        <v>349</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>315</v>
+        <v>405</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>316</v>
+        <v>406</v>
       </c>
       <c r="N52" s="2"/>
-      <c r="O52" s="2"/>
+      <c r="O52" t="s" s="2">
+        <v>407</v>
+      </c>
       <c r="P52" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="Q52" s="2"/>
       <c r="R52" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="S52" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="T52" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="U52" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="V52" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="W52" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="X52" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="Y52" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="Z52" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="AA52" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="AB52" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="AC52" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="AD52" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>317</v>
+        <v>404</v>
       </c>
       <c r="AG52" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="AH52" t="s" s="2">
-        <v>43</v>
+        <v>75</v>
       </c>
       <c r="AI52" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="AJ52" t="s" s="2">
-        <v>33</v>
+        <v>95</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>318</v>
+        <v>389</v>
       </c>
       <c r="AM52" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="AN52" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>369</v>
+        <v>408</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>369</v>
+        <v>408</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
-        <v>88</v>
+        <v>73</v>
       </c>
       <c r="E53" s="2"/>
       <c r="F53" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="G53" t="s" s="2">
-        <v>35</v>
+        <v>83</v>
       </c>
       <c r="H53" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="I53" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>89</v>
+        <v>230</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>90</v>
+        <v>355</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>320</v>
-      </c>
-      <c r="N53" t="s" s="2">
-        <v>92</v>
-      </c>
+        <v>356</v>
+      </c>
+      <c r="N53" s="2"/>
       <c r="O53" s="2"/>
       <c r="P53" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="Q53" s="2"/>
       <c r="R53" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="S53" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="T53" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="U53" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="V53" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="W53" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="X53" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="Y53" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="Z53" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="AA53" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="AB53" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="AC53" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="AD53" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>321</v>
+        <v>357</v>
       </c>
       <c r="AG53" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="AH53" t="s" s="2">
-        <v>35</v>
+        <v>83</v>
       </c>
       <c r="AI53" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="AJ53" t="s" s="2">
-        <v>94</v>
+        <v>73</v>
       </c>
       <c r="AK53" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="AL53" t="s" s="2">
-        <v>318</v>
+        <v>358</v>
       </c>
       <c r="AM53" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="AN53" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>370</v>
+        <v>409</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>370</v>
+        <v>409</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
-        <v>323</v>
+        <v>128</v>
       </c>
       <c r="E54" s="2"/>
       <c r="F54" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="G54" t="s" s="2">
-        <v>35</v>
+        <v>75</v>
       </c>
       <c r="H54" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="I54" t="s" s="2">
-        <v>44</v>
+        <v>73</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>44</v>
+        <v>73</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>89</v>
+        <v>129</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>324</v>
+        <v>130</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>325</v>
+        <v>360</v>
       </c>
       <c r="N54" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="O54" t="s" s="2">
-        <v>98</v>
-      </c>
+        <v>132</v>
+      </c>
+      <c r="O54" s="2"/>
       <c r="P54" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="Q54" s="2"/>
       <c r="R54" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="S54" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="T54" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="U54" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="V54" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="W54" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="X54" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="Y54" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="Z54" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="AA54" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="AB54" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="AC54" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="AD54" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>326</v>
+        <v>361</v>
       </c>
       <c r="AG54" t="s" s="2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="AH54" t="s" s="2">
-        <v>35</v>
+        <v>75</v>
       </c>
       <c r="AI54" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="AJ54" t="s" s="2">
-        <v>94</v>
+        <v>134</v>
       </c>
       <c r="AK54" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="AL54" t="s" s="2">
-        <v>86</v>
+        <v>358</v>
       </c>
       <c r="AM54" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="AN54" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>371</v>
+        <v>410</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>371</v>
+        <v>410</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
-        <v>354</v>
+        <v>363</v>
       </c>
       <c r="E55" s="2"/>
       <c r="F55" t="s" s="2">
-        <v>43</v>
+        <v>74</v>
       </c>
       <c r="G55" t="s" s="2">
-        <v>43</v>
+        <v>75</v>
       </c>
       <c r="H55" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="I55" t="s" s="2">
-        <v>33</v>
+        <v>84</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>33</v>
+        <v>84</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>148</v>
+        <v>129</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>372</v>
+        <v>364</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>373</v>
-      </c>
-      <c r="N55" s="2"/>
+        <v>365</v>
+      </c>
+      <c r="N55" t="s" s="2">
+        <v>132</v>
+      </c>
       <c r="O55" t="s" s="2">
-        <v>374</v>
+        <v>138</v>
       </c>
       <c r="P55" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="Q55" s="2"/>
       <c r="R55" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="S55" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="T55" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="U55" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="V55" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="W55" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="X55" t="s" s="2">
-        <v>158</v>
+        <v>73</v>
       </c>
       <c r="Y55" t="s" s="2">
-        <v>375</v>
+        <v>73</v>
       </c>
       <c r="Z55" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="AA55" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="AB55" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="AC55" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="AD55" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>371</v>
+        <v>366</v>
       </c>
       <c r="AG55" t="s" s="2">
-        <v>43</v>
+        <v>74</v>
       </c>
       <c r="AH55" t="s" s="2">
-        <v>43</v>
+        <v>75</v>
       </c>
       <c r="AI55" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="AJ55" t="s" s="2">
-        <v>55</v>
+        <v>134</v>
       </c>
       <c r="AK55" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="AL55" t="s" s="2">
-        <v>349</v>
+        <v>126</v>
       </c>
       <c r="AM55" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="AN55" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>376</v>
+        <v>411</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>376</v>
+        <v>411</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
-        <v>33</v>
+        <v>394</v>
       </c>
       <c r="E56" s="2"/>
       <c r="F56" t="s" s="2">
-        <v>43</v>
+        <v>83</v>
       </c>
       <c r="G56" t="s" s="2">
-        <v>43</v>
+        <v>83</v>
       </c>
       <c r="H56" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="I56" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>361</v>
+        <v>188</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>377</v>
+        <v>412</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>378</v>
+        <v>413</v>
       </c>
       <c r="N56" s="2"/>
       <c r="O56" t="s" s="2">
-        <v>379</v>
+        <v>414</v>
       </c>
       <c r="P56" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="Q56" s="2"/>
       <c r="R56" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="S56" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="T56" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="U56" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="V56" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="W56" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="X56" t="s" s="2">
-        <v>33</v>
+        <v>198</v>
       </c>
       <c r="Y56" t="s" s="2">
-        <v>33</v>
+        <v>415</v>
       </c>
       <c r="Z56" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="AA56" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="AB56" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="AC56" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="AD56" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>376</v>
+        <v>411</v>
       </c>
       <c r="AG56" t="s" s="2">
-        <v>43</v>
+        <v>83</v>
       </c>
       <c r="AH56" t="s" s="2">
-        <v>43</v>
+        <v>83</v>
       </c>
       <c r="AI56" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="AJ56" t="s" s="2">
-        <v>55</v>
+        <v>95</v>
       </c>
       <c r="AK56" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="AL56" t="s" s="2">
-        <v>349</v>
+        <v>389</v>
       </c>
       <c r="AM56" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="AN56" t="s" s="2">
-        <v>33</v>
+        <v>73</v>
+      </c>
+    </row>
+    <row r="57" hidden="true">
+      <c r="A57" t="s" s="2">
+        <v>416</v>
+      </c>
+      <c r="B57" t="s" s="2">
+        <v>416</v>
+      </c>
+      <c r="C57" s="2"/>
+      <c r="D57" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="E57" s="2"/>
+      <c r="F57" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="G57" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="H57" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="I57" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="J57" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="K57" t="s" s="2">
+        <v>401</v>
+      </c>
+      <c r="L57" t="s" s="2">
+        <v>417</v>
+      </c>
+      <c r="M57" t="s" s="2">
+        <v>418</v>
+      </c>
+      <c r="N57" s="2"/>
+      <c r="O57" t="s" s="2">
+        <v>419</v>
+      </c>
+      <c r="P57" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Q57" s="2"/>
+      <c r="R57" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="S57" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="T57" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="U57" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="V57" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="W57" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="X57" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Y57" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Z57" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AA57" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AB57" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC57" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD57" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE57" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AF57" t="s" s="2">
+        <v>416</v>
+      </c>
+      <c r="AG57" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AH57" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AI57" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AJ57" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="AK57" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AL57" t="s" s="2">
+        <v>389</v>
+      </c>
+      <c r="AM57" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AN57" t="s" s="2">
+        <v>73</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AN56">
+  <autoFilter ref="A1:AN57">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -7944,7 +8187,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI55">
+  <conditionalFormatting sqref="A2:AI56">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/StructureDefinition-be-performer-task.xlsx
+++ b/StructureDefinition-be-performer-task.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-15T09:11:04+00:00</t>
+    <t>2024-03-15T09:12:22+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-be-performer-task.xlsx
+++ b/StructureDefinition-be-performer-task.xlsx
@@ -10,13 +10,13 @@
     <sheet name="Elements" r:id="rId4" sheetId="2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AN$57</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AN$61</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2085" uniqueCount="420">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2227" uniqueCount="437">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-15T09:12:22+00:00</t>
+    <t>2024-09-24T14:40:03+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -512,261 +512,266 @@
     <t>Task.basedOn</t>
   </si>
   <si>
+    <t xml:space="preserve">Reference(https://www.ehealth.fgov.be/standards/fhir/referral/StructureDefinition/be-organization-task)
+</t>
+  </si>
+  <si>
+    <t>Request fulfilled by this task</t>
+  </si>
+  <si>
+    <t>BasedOn refers to a higher-level authorization that triggered the creation of the task.  It references a "request" resource such as a ServiceRequest, MedicationRequest, ServiceRequest, CarePlan, etc. which is distinct from the "request" resource the task is seeking to fulfill.  This latter resource is referenced by FocusOn.  For example, based on a ServiceRequest (= BasedOn), a task is created to fulfill a procedureRequest ( = FocusOn ) to collect a specimen from a patient.</t>
+  </si>
+  <si>
+    <t>Request.basedOn, Event.basedOn</t>
+  </si>
+  <si>
+    <t>.outboundRelationship[typeCode=FLFS].target[moodCode=INT]</t>
+  </si>
+  <si>
+    <t>Task.groupIdentifier</t>
+  </si>
+  <si>
+    <t>Requisition or grouper id</t>
+  </si>
+  <si>
+    <t>An identifier that links together multiple tasks and other requests that were created in the same context.</t>
+  </si>
+  <si>
+    <t>Billing and/or reporting can be linked to whether multiple requests were created as a single unit.</t>
+  </si>
+  <si>
+    <t>Request.groupIdentifier</t>
+  </si>
+  <si>
+    <t>.inboundRelationship[typeCode=COMP].source[moodCode=INT].id</t>
+  </si>
+  <si>
+    <t>Task.partOf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(https://www.ehealth.fgov.be/standards/fhir/referral/StructureDefinition/be-referral-task)
+</t>
+  </si>
+  <si>
+    <t>Reference to the BeReferral task linked to the prescription</t>
+  </si>
+  <si>
+    <t>Task that this particular task is part of.</t>
+  </si>
+  <si>
+    <t>This should usually be 0..1.</t>
+  </si>
+  <si>
+    <t>Allows tasks to be broken down into sub-steps (and this division can occur independent of the original task).</t>
+  </si>
+  <si>
+    <t>Event.partOf</t>
+  </si>
+  <si>
+    <t>.inboundRelationship[typeCode=COMP].source[moodCode=INT]</t>
+  </si>
+  <si>
+    <t>Task.status</t>
+  </si>
+  <si>
+    <t>draft | requested | received | accepted | +</t>
+  </si>
+  <si>
+    <t>The current status of the task.</t>
+  </si>
+  <si>
+    <t>These states enable coordination of task status with off-the-shelf workflow solutions that support automation of tasks.</t>
+  </si>
+  <si>
+    <t>required</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/task-status|4.0.1</t>
+  </si>
+  <si>
+    <t>Request.status, Event.status</t>
+  </si>
+  <si>
+    <t>.statusCode</t>
+  </si>
+  <si>
+    <t>FiveWs.status</t>
+  </si>
+  <si>
+    <t>Task.statusReason</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CodeableConcept
+</t>
+  </si>
+  <si>
+    <t>Reason for current status</t>
+  </si>
+  <si>
+    <t>An explanation as to why this task is held, failed, was refused, etc.</t>
+  </si>
+  <si>
+    <t>This applies to the current status.  Look at the history of the task to see reasons for past statuses.</t>
+  </si>
+  <si>
+    <t>https://www.ehealth.fgov.be/standards/fhir/referral/ValueSet/be-vs-performer-task-status-reason</t>
+  </si>
+  <si>
+    <t>.inboundRelationship[typeCode=SUBJ].source[classCode=CACT, moodCode=EVN, code="status change"].reasonCode</t>
+  </si>
+  <si>
+    <t>Task.businessStatus</t>
+  </si>
+  <si>
+    <t>E.g. "Specimen collected", "IV prepped"</t>
+  </si>
+  <si>
+    <t>Contains business-specific nuances of the business state.</t>
+  </si>
+  <si>
+    <t>There's often a need to track substates of a task - this is often variable by specific workflow implementation.</t>
+  </si>
+  <si>
+    <t>example</t>
+  </si>
+  <si>
+    <t>The domain-specific business-contextual sub-state of the task.  For example: "Blood drawn", "IV inserted", "Awaiting physician signature", etc.</t>
+  </si>
+  <si>
+    <t>.inboundRelationship[typeCode=SUBJ].source[classCode=OBS, moodCode=EVN, code="business status"]</t>
+  </si>
+  <si>
+    <t>Task.intent</t>
+  </si>
+  <si>
+    <t>unknown | proposal | plan | order | original-order | reflex-order | filler-order | instance-order | option</t>
+  </si>
+  <si>
+    <t>Indicates the "level" of actionability associated with the Task, i.e. i+R[9]Cs this a proposed task, a planned task, an actionable task, etc.</t>
+  </si>
+  <si>
+    <t>This element is immutable.  Proposed tasks, planned tasks, etc. must be distinct instances.
+In most cases, Tasks will have an intent of "order".</t>
+  </si>
+  <si>
+    <t>https://www.ehealth.fgov.be/standards/fhir/referral/ValueSet/be-vs-task-intent</t>
+  </si>
+  <si>
+    <t>Request.intent</t>
+  </si>
+  <si>
+    <t>.moodCode</t>
+  </si>
+  <si>
+    <t>FiveWs.class</t>
+  </si>
+  <si>
+    <t>Task.priority</t>
+  </si>
+  <si>
+    <t>routine | urgent | asap | stat</t>
+  </si>
+  <si>
+    <t>Indicates how quickly the Task should be addressed with respect to other requests.</t>
+  </si>
+  <si>
+    <t>Used to identify the service level expected while performing a task.</t>
+  </si>
+  <si>
+    <t>If missing, this task should be performed with normal priority</t>
+  </si>
+  <si>
+    <t>The task's priority.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/request-priority|4.0.1</t>
+  </si>
+  <si>
+    <t>Request.priority</t>
+  </si>
+  <si>
+    <t>.priorityCode</t>
+  </si>
+  <si>
+    <t>FiveWs.grade</t>
+  </si>
+  <si>
+    <t>Task.code</t>
+  </si>
+  <si>
+    <t>Task Type</t>
+  </si>
+  <si>
+    <t>A name or code (or both) briefly describing what the task involves.</t>
+  </si>
+  <si>
+    <t>The title (eg "My Tasks", "Outstanding Tasks for Patient X") should go into the code.</t>
+  </si>
+  <si>
+    <t>Codes to identify what the task involves.  These will typically be specific to a particular workflow.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/task-code</t>
+  </si>
+  <si>
+    <t>Request.code, Event.code</t>
+  </si>
+  <si>
+    <t>.code</t>
+  </si>
+  <si>
+    <t>FiveWs.what[x]</t>
+  </si>
+  <si>
+    <t>Task.description</t>
+  </si>
+  <si>
+    <t xml:space="preserve">string
+</t>
+  </si>
+  <si>
+    <t>Human-readable explanation of task</t>
+  </si>
+  <si>
+    <t>A free-text description of what is to be performed.</t>
+  </si>
+  <si>
+    <t>.text</t>
+  </si>
+  <si>
+    <t>Task.focus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(https://www.ehealth.fgov.be/standards/fhir/referral/StructureDefinition/be-referral-servicerequest|https://www.ehealth.fgov.be/standards/fhir/referral/StructureDefinition/be-annex-81)
+</t>
+  </si>
+  <si>
+    <t>What task is acting on</t>
+  </si>
+  <si>
+    <t>The request being actioned or the resource being manipulated by this task.</t>
+  </si>
+  <si>
+    <t>If multiple resources need to be manipulated, use sub-tasks.  (This ensures that status can be tracked independently for each referenced resource.).</t>
+  </si>
+  <si>
+    <t>Used to identify the thing to be done.</t>
+  </si>
+  <si>
+    <t>.outboundRelationship[typeCode=SUBJ].target</t>
+  </si>
+  <si>
+    <t>Task.for</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Patient
+</t>
+  </si>
+  <si>
     <t xml:space="preserve">Reference(Resource)
 </t>
   </si>
   <si>
-    <t>Request fulfilled by this task</t>
-  </si>
-  <si>
-    <t>BasedOn refers to a higher-level authorization that triggered the creation of the task.  It references a "request" resource such as a ServiceRequest, MedicationRequest, ServiceRequest, CarePlan, etc. which is distinct from the "request" resource the task is seeking to fulfill.  This latter resource is referenced by FocusOn.  For example, based on a ServiceRequest (= BasedOn), a task is created to fulfill a procedureRequest ( = FocusOn ) to collect a specimen from a patient.</t>
-  </si>
-  <si>
-    <t>Request.basedOn, Event.basedOn</t>
-  </si>
-  <si>
-    <t>.outboundRelationship[typeCode=FLFS].target[moodCode=INT]</t>
-  </si>
-  <si>
-    <t>Task.groupIdentifier</t>
-  </si>
-  <si>
-    <t>Requisition or grouper id</t>
-  </si>
-  <si>
-    <t>An identifier that links together multiple tasks and other requests that were created in the same context.</t>
-  </si>
-  <si>
-    <t>Billing and/or reporting can be linked to whether multiple requests were created as a single unit.</t>
-  </si>
-  <si>
-    <t>Request.groupIdentifier</t>
-  </si>
-  <si>
-    <t>.inboundRelationship[typeCode=COMP].source[moodCode=INT].id</t>
-  </si>
-  <si>
-    <t>Task.partOf</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference(https://www.ehealth.fgov.be/standards/fhir/referral/StructureDefinition/be-referral-task)
-</t>
-  </si>
-  <si>
-    <t>Reference to the BeReferral task linked to the prescription</t>
-  </si>
-  <si>
-    <t>Task that this particular task is part of.</t>
-  </si>
-  <si>
-    <t>This should usually be 0..1.</t>
-  </si>
-  <si>
-    <t>Allows tasks to be broken down into sub-steps (and this division can occur independent of the original task).</t>
-  </si>
-  <si>
-    <t>Event.partOf</t>
-  </si>
-  <si>
-    <t>.inboundRelationship[typeCode=COMP].source[moodCode=INT]</t>
-  </si>
-  <si>
-    <t>Task.status</t>
-  </si>
-  <si>
-    <t>draft | requested | received | accepted | +</t>
-  </si>
-  <si>
-    <t>The current status of the task.</t>
-  </si>
-  <si>
-    <t>These states enable coordination of task status with off-the-shelf workflow solutions that support automation of tasks.</t>
-  </si>
-  <si>
-    <t>required</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/task-status|4.0.1</t>
-  </si>
-  <si>
-    <t>Request.status, Event.status</t>
-  </si>
-  <si>
-    <t>.statusCode</t>
-  </si>
-  <si>
-    <t>FiveWs.status</t>
-  </si>
-  <si>
-    <t>Task.statusReason</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CodeableConcept
-</t>
-  </si>
-  <si>
-    <t>Reason for current status</t>
-  </si>
-  <si>
-    <t>An explanation as to why this task is held, failed, was refused, etc.</t>
-  </si>
-  <si>
-    <t>This applies to the current status.  Look at the history of the task to see reasons for past statuses.</t>
-  </si>
-  <si>
-    <t>https://www.ehealth.fgov.be/standards/fhir/referral/ValueSet/be-vs-performer-task-status-reason</t>
-  </si>
-  <si>
-    <t>.inboundRelationship[typeCode=SUBJ].source[classCode=CACT, moodCode=EVN, code="status change"].reasonCode</t>
-  </si>
-  <si>
-    <t>Task.businessStatus</t>
-  </si>
-  <si>
-    <t>E.g. "Specimen collected", "IV prepped"</t>
-  </si>
-  <si>
-    <t>Contains business-specific nuances of the business state.</t>
-  </si>
-  <si>
-    <t>There's often a need to track substates of a task - this is often variable by specific workflow implementation.</t>
-  </si>
-  <si>
-    <t>example</t>
-  </si>
-  <si>
-    <t>The domain-specific business-contextual sub-state of the task.  For example: "Blood drawn", "IV inserted", "Awaiting physician signature", etc.</t>
-  </si>
-  <si>
-    <t>.inboundRelationship[typeCode=SUBJ].source[classCode=OBS, moodCode=EVN, code="business status"]</t>
-  </si>
-  <si>
-    <t>Task.intent</t>
-  </si>
-  <si>
-    <t>unknown | proposal | plan | order | original-order | reflex-order | filler-order | instance-order | option</t>
-  </si>
-  <si>
-    <t>Indicates the "level" of actionability associated with the Task, i.e. i+R[9]Cs this a proposed task, a planned task, an actionable task, etc.</t>
-  </si>
-  <si>
-    <t>This element is immutable.  Proposed tasks, planned tasks, etc. must be distinct instances.
-In most cases, Tasks will have an intent of "order".</t>
-  </si>
-  <si>
-    <t>Distinguishes whether the task is a proposal, plan or full order.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/task-intent|4.0.1</t>
-  </si>
-  <si>
-    <t>Request.intent</t>
-  </si>
-  <si>
-    <t>.moodCode</t>
-  </si>
-  <si>
-    <t>FiveWs.class</t>
-  </si>
-  <si>
-    <t>Task.priority</t>
-  </si>
-  <si>
-    <t>routine | urgent | asap | stat</t>
-  </si>
-  <si>
-    <t>Indicates how quickly the Task should be addressed with respect to other requests.</t>
-  </si>
-  <si>
-    <t>Used to identify the service level expected while performing a task.</t>
-  </si>
-  <si>
-    <t>If missing, this task should be performed with normal priority</t>
-  </si>
-  <si>
-    <t>The task's priority.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/request-priority|4.0.1</t>
-  </si>
-  <si>
-    <t>Request.priority</t>
-  </si>
-  <si>
-    <t>.priorityCode</t>
-  </si>
-  <si>
-    <t>FiveWs.grade</t>
-  </si>
-  <si>
-    <t>Task.code</t>
-  </si>
-  <si>
-    <t>Task Type</t>
-  </si>
-  <si>
-    <t>A name or code (or both) briefly describing what the task involves.</t>
-  </si>
-  <si>
-    <t>The title (eg "My Tasks", "Outstanding Tasks for Patient X") should go into the code.</t>
-  </si>
-  <si>
-    <t>Codes to identify what the task involves.  These will typically be specific to a particular workflow.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/task-code</t>
-  </si>
-  <si>
-    <t>Request.code, Event.code</t>
-  </si>
-  <si>
-    <t>.code</t>
-  </si>
-  <si>
-    <t>FiveWs.what[x]</t>
-  </si>
-  <si>
-    <t>Task.description</t>
-  </si>
-  <si>
-    <t xml:space="preserve">string
-</t>
-  </si>
-  <si>
-    <t>Human-readable explanation of task</t>
-  </si>
-  <si>
-    <t>A free-text description of what is to be performed.</t>
-  </si>
-  <si>
-    <t>.text</t>
-  </si>
-  <si>
-    <t>Task.focus</t>
-  </si>
-  <si>
-    <t>What task is acting on</t>
-  </si>
-  <si>
-    <t>The request being actioned or the resource being manipulated by this task.</t>
-  </si>
-  <si>
-    <t>If multiple resources need to be manipulated, use sub-tasks.  (This ensures that status can be tracked independently for each referenced resource.).</t>
-  </si>
-  <si>
-    <t>Used to identify the thing to be done.</t>
-  </si>
-  <si>
-    <t>.outboundRelationship[typeCode=SUBJ].target</t>
-  </si>
-  <si>
-    <t>Task.for</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Patient
-</t>
-  </si>
-  <si>
     <t>Beneficiary of the Task</t>
   </si>
   <si>
@@ -832,6 +837,72 @@
     <t>FiveWs.done[x]</t>
   </si>
   <si>
+    <t>Task.executionPeriod.id</t>
+  </si>
+  <si>
+    <t>Unique id for inter-element referencing</t>
+  </si>
+  <si>
+    <t>Unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
+  </si>
+  <si>
+    <t>Element.id</t>
+  </si>
+  <si>
+    <t>n/a</t>
+  </si>
+  <si>
+    <t>Task.executionPeriod.extension</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">value:url}
+</t>
+  </si>
+  <si>
+    <t>Extensions are always sliced by (at least) url</t>
+  </si>
+  <si>
+    <t>open</t>
+  </si>
+  <si>
+    <t>Element.extension</t>
+  </si>
+  <si>
+    <t>Task.executionPeriod.start</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dateTime {https://www.ehealth.fgov.be/standards/fhir/referral/StructureDefinition/be-year-month-day}
+</t>
+  </si>
+  <si>
+    <t>Primitive Type dateTime</t>
+  </si>
+  <si>
+    <t>A date, date-time or partial date (e.g. just year or year + month).  If hours and minutes are specified, a time zone SHALL be populated. The format is a union of the schema types gYear, gYearMonth, date and dateTime. Seconds must be provided due to schema type constraints but may be zero-filled and may be ignored.                 Dates SHALL be valid dates.</t>
+  </si>
+  <si>
+    <t>If the low element is missing, the meaning is that the low boundary is not known.</t>
+  </si>
+  <si>
+    <t>Period.start</t>
+  </si>
+  <si>
+    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+be-inv-year-month-day:date SHALL be of format YYYY-MM-DD {empty() or toString().length()=10}</t>
+  </si>
+  <si>
+    <t>Task.executionPeriod.end</t>
+  </si>
+  <si>
+    <t>The high value includes any matching date/time. i.e. 2012-02-03T10:00:00 is in a period that has an end value of 2012-02-03.</t>
+  </si>
+  <si>
+    <t>Period.end</t>
+  </si>
+  <si>
     <t>Task.authoredOn</t>
   </si>
   <si>
@@ -856,6 +927,10 @@
 </t>
   </si>
   <si>
+    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+be-inv-long-date:date SHALL contain a long date (YYYY-MM-DDThh:mm:ss+zz:zz) {empty() or toString().length()=25}</t>
+  </si>
+  <si>
     <t>Request.authoredOn</t>
   </si>
   <si>
@@ -1121,25 +1196,7 @@
     <t>Task.restriction.id</t>
   </si>
   <si>
-    <t>Unique id for inter-element referencing</t>
-  </si>
-  <si>
-    <t>Unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
-  </si>
-  <si>
-    <t>Element.id</t>
-  </si>
-  <si>
-    <t>n/a</t>
-  </si>
-  <si>
     <t>Task.restriction.extension</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
-  </si>
-  <si>
-    <t>Element.extension</t>
   </si>
   <si>
     <t>Task.restriction.modifierExtension</t>
@@ -1628,7 +1685,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AN57"/>
+  <dimension ref="A1:AN61"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1665,7 +1722,7 @@
     <col min="26" max="26" width="89.97265625" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="6.34765625" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="22.71875" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="20.59375" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="42.03515625" customWidth="true" bestFit="true"/>
     <col min="30" max="30" width="17.21484375" customWidth="true" bestFit="true"/>
     <col min="31" max="31" width="14.4140625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="32" max="32" width="34.859375" customWidth="true" bestFit="true" hidden="true"/>
@@ -3911,11 +3968,9 @@
       <c r="X20" t="s" s="2">
         <v>182</v>
       </c>
-      <c r="Y20" t="s" s="2">
+      <c r="Y20" s="2"/>
+      <c r="Z20" t="s" s="2">
         <v>205</v>
-      </c>
-      <c r="Z20" t="s" s="2">
-        <v>206</v>
       </c>
       <c r="AA20" t="s" s="2">
         <v>73</v>
@@ -3948,13 +4003,13 @@
         <v>95</v>
       </c>
       <c r="AK20" t="s" s="2">
+        <v>206</v>
+      </c>
+      <c r="AL20" t="s" s="2">
         <v>207</v>
       </c>
-      <c r="AL20" t="s" s="2">
+      <c r="AM20" t="s" s="2">
         <v>208</v>
-      </c>
-      <c r="AM20" t="s" s="2">
-        <v>209</v>
       </c>
       <c r="AN20" t="s" s="2">
         <v>73</v>
@@ -3962,10 +4017,10 @@
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
@@ -3991,20 +4046,20 @@
         <v>103</v>
       </c>
       <c r="L21" t="s" s="2">
+        <v>210</v>
+      </c>
+      <c r="M21" t="s" s="2">
         <v>211</v>
-      </c>
-      <c r="M21" t="s" s="2">
-        <v>212</v>
       </c>
       <c r="N21" s="2"/>
       <c r="O21" t="s" s="2">
+        <v>212</v>
+      </c>
+      <c r="P21" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Q21" t="s" s="2">
         <v>213</v>
-      </c>
-      <c r="P21" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="Q21" t="s" s="2">
-        <v>214</v>
       </c>
       <c r="R21" t="s" s="2">
         <v>73</v>
@@ -4028,11 +4083,11 @@
         <v>182</v>
       </c>
       <c r="Y21" t="s" s="2">
+        <v>214</v>
+      </c>
+      <c r="Z21" t="s" s="2">
         <v>215</v>
       </c>
-      <c r="Z21" t="s" s="2">
-        <v>216</v>
-      </c>
       <c r="AA21" t="s" s="2">
         <v>73</v>
       </c>
@@ -4049,7 +4104,7 @@
         <v>73</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>74</v>
@@ -4064,13 +4119,13 @@
         <v>95</v>
       </c>
       <c r="AK21" t="s" s="2">
+        <v>216</v>
+      </c>
+      <c r="AL21" t="s" s="2">
         <v>217</v>
       </c>
-      <c r="AL21" t="s" s="2">
+      <c r="AM21" t="s" s="2">
         <v>218</v>
-      </c>
-      <c r="AM21" t="s" s="2">
-        <v>219</v>
       </c>
       <c r="AN21" t="s" s="2">
         <v>73</v>
@@ -4078,10 +4133,10 @@
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
@@ -4107,13 +4162,13 @@
         <v>188</v>
       </c>
       <c r="L22" t="s" s="2">
+        <v>220</v>
+      </c>
+      <c r="M22" t="s" s="2">
         <v>221</v>
       </c>
-      <c r="M22" t="s" s="2">
+      <c r="N22" t="s" s="2">
         <v>222</v>
-      </c>
-      <c r="N22" t="s" s="2">
-        <v>223</v>
       </c>
       <c r="O22" s="2"/>
       <c r="P22" t="s" s="2">
@@ -4142,11 +4197,11 @@
         <v>198</v>
       </c>
       <c r="Y22" t="s" s="2">
+        <v>223</v>
+      </c>
+      <c r="Z22" t="s" s="2">
         <v>224</v>
       </c>
-      <c r="Z22" t="s" s="2">
-        <v>225</v>
-      </c>
       <c r="AA22" t="s" s="2">
         <v>73</v>
       </c>
@@ -4163,7 +4218,7 @@
         <v>73</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>74</v>
@@ -4178,13 +4233,13 @@
         <v>95</v>
       </c>
       <c r="AK22" t="s" s="2">
+        <v>225</v>
+      </c>
+      <c r="AL22" t="s" s="2">
         <v>226</v>
       </c>
-      <c r="AL22" t="s" s="2">
+      <c r="AM22" t="s" s="2">
         <v>227</v>
-      </c>
-      <c r="AM22" t="s" s="2">
-        <v>228</v>
       </c>
       <c r="AN22" t="s" s="2">
         <v>73</v>
@@ -4192,10 +4247,10 @@
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
@@ -4218,13 +4273,13 @@
         <v>84</v>
       </c>
       <c r="K23" t="s" s="2">
+        <v>229</v>
+      </c>
+      <c r="L23" t="s" s="2">
         <v>230</v>
       </c>
-      <c r="L23" t="s" s="2">
+      <c r="M23" t="s" s="2">
         <v>231</v>
-      </c>
-      <c r="M23" t="s" s="2">
-        <v>232</v>
       </c>
       <c r="N23" s="2"/>
       <c r="O23" s="2"/>
@@ -4275,7 +4330,7 @@
         <v>73</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>74</v>
@@ -4293,7 +4348,7 @@
         <v>73</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="AM23" t="s" s="2">
         <v>73</v>
@@ -4304,10 +4359,10 @@
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
@@ -4330,7 +4385,7 @@
         <v>84</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>159</v>
+        <v>234</v>
       </c>
       <c r="L24" t="s" s="2">
         <v>235</v>
@@ -4391,7 +4446,7 @@
         <v>73</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>74</v>
@@ -4412,7 +4467,7 @@
         <v>239</v>
       </c>
       <c r="AM24" t="s" s="2">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="AN24" t="s" s="2">
         <v>73</v>
@@ -4446,17 +4501,17 @@
         <v>84</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>159</v>
+        <v>242</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="N25" s="2"/>
       <c r="O25" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="P25" t="s" s="2">
         <v>73</v>
@@ -4520,13 +4575,13 @@
         <v>95</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="AN25" t="s" s="2">
         <v>73</v>
@@ -4534,10 +4589,10 @@
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -4560,17 +4615,17 @@
         <v>84</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="N26" s="2"/>
       <c r="O26" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="P26" t="s" s="2">
         <v>73</v>
@@ -4619,7 +4674,7 @@
         <v>73</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>74</v>
@@ -4634,13 +4689,13 @@
         <v>95</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="AN26" t="s" s="2">
         <v>73</v>
@@ -4648,10 +4703,10 @@
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
@@ -4674,13 +4729,13 @@
         <v>84</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="N27" s="2"/>
       <c r="O27" s="2"/>
@@ -4731,7 +4786,7 @@
         <v>73</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>74</v>
@@ -4746,13 +4801,13 @@
         <v>95</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="AN27" t="s" s="2">
         <v>73</v>
@@ -4760,14 +4815,14 @@
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
-        <v>264</v>
+        <v>73</v>
       </c>
       <c r="E28" s="2"/>
       <c r="F28" t="s" s="2">
@@ -4786,18 +4841,16 @@
         <v>73</v>
       </c>
       <c r="K28" t="s" s="2">
+        <v>229</v>
+      </c>
+      <c r="L28" t="s" s="2">
         <v>265</v>
       </c>
-      <c r="L28" t="s" s="2">
+      <c r="M28" t="s" s="2">
         <v>266</v>
       </c>
-      <c r="M28" t="s" s="2">
-        <v>267</v>
-      </c>
       <c r="N28" s="2"/>
-      <c r="O28" t="s" s="2">
-        <v>268</v>
-      </c>
+      <c r="O28" s="2"/>
       <c r="P28" t="s" s="2">
         <v>73</v>
       </c>
@@ -4845,7 +4898,7 @@
         <v>73</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>74</v>
@@ -4854,19 +4907,19 @@
         <v>83</v>
       </c>
       <c r="AI28" t="s" s="2">
-        <v>269</v>
+        <v>73</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>95</v>
+        <v>73</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>270</v>
+        <v>73</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>272</v>
+        <v>73</v>
       </c>
       <c r="AN28" t="s" s="2">
         <v>73</v>
@@ -4874,21 +4927,21 @@
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
-        <v>274</v>
+        <v>128</v>
       </c>
       <c r="E29" s="2"/>
       <c r="F29" t="s" s="2">
         <v>74</v>
       </c>
       <c r="G29" t="s" s="2">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="H29" t="s" s="2">
         <v>73</v>
@@ -4897,21 +4950,21 @@
         <v>73</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>84</v>
+        <v>73</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>265</v>
+        <v>129</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>275</v>
+        <v>130</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>276</v>
-      </c>
-      <c r="N29" s="2"/>
-      <c r="O29" t="s" s="2">
-        <v>277</v>
-      </c>
+        <v>270</v>
+      </c>
+      <c r="N29" t="s" s="2">
+        <v>132</v>
+      </c>
+      <c r="O29" s="2"/>
       <c r="P29" t="s" s="2">
         <v>73</v>
       </c>
@@ -4947,37 +5000,37 @@
         <v>73</v>
       </c>
       <c r="AB29" t="s" s="2">
-        <v>73</v>
+        <v>271</v>
       </c>
       <c r="AC29" t="s" s="2">
-        <v>73</v>
+        <v>272</v>
       </c>
       <c r="AD29" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>73</v>
+        <v>273</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AH29" t="s" s="2">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="AI29" t="s" s="2">
-        <v>269</v>
+        <v>73</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>95</v>
+        <v>134</v>
       </c>
       <c r="AK29" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>278</v>
+        <v>268</v>
       </c>
       <c r="AM29" t="s" s="2">
         <v>73</v>
@@ -4988,10 +5041,10 @@
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -5011,21 +5064,21 @@
         <v>73</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>84</v>
+        <v>73</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>282</v>
-      </c>
-      <c r="N30" s="2"/>
-      <c r="O30" t="s" s="2">
-        <v>283</v>
-      </c>
+        <v>278</v>
+      </c>
+      <c r="N30" t="s" s="2">
+        <v>279</v>
+      </c>
+      <c r="O30" s="2"/>
       <c r="P30" t="s" s="2">
         <v>73</v>
       </c>
@@ -5073,7 +5126,7 @@
         <v>73</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>74</v>
@@ -5085,16 +5138,16 @@
         <v>73</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>95</v>
+        <v>281</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>284</v>
+        <v>73</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>285</v>
+        <v>73</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>286</v>
+        <v>73</v>
       </c>
       <c r="AN30" t="s" s="2">
         <v>73</v>
@@ -5102,10 +5155,10 @@
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>287</v>
+        <v>282</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>287</v>
+        <v>282</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -5116,7 +5169,7 @@
         <v>74</v>
       </c>
       <c r="G31" t="s" s="2">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="H31" t="s" s="2">
         <v>73</v>
@@ -5128,18 +5181,18 @@
         <v>73</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>188</v>
+        <v>276</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>288</v>
+        <v>277</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>289</v>
-      </c>
-      <c r="N31" s="2"/>
-      <c r="O31" t="s" s="2">
-        <v>290</v>
-      </c>
+        <v>278</v>
+      </c>
+      <c r="N31" t="s" s="2">
+        <v>283</v>
+      </c>
+      <c r="O31" s="2"/>
       <c r="P31" t="s" s="2">
         <v>73</v>
       </c>
@@ -5163,13 +5216,13 @@
         <v>73</v>
       </c>
       <c r="X31" t="s" s="2">
-        <v>107</v>
+        <v>73</v>
       </c>
       <c r="Y31" t="s" s="2">
-        <v>291</v>
+        <v>73</v>
       </c>
       <c r="Z31" t="s" s="2">
-        <v>292</v>
+        <v>73</v>
       </c>
       <c r="AA31" t="s" s="2">
         <v>73</v>
@@ -5187,28 +5240,28 @@
         <v>73</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AH31" t="s" s="2">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="AI31" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>95</v>
+        <v>281</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>293</v>
+        <v>73</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>294</v>
+        <v>73</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>295</v>
+        <v>73</v>
       </c>
       <c r="AN31" t="s" s="2">
         <v>73</v>
@@ -5216,14 +5269,14 @@
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>296</v>
+        <v>285</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>296</v>
+        <v>285</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
-        <v>297</v>
+        <v>286</v>
       </c>
       <c r="E32" s="2"/>
       <c r="F32" t="s" s="2">
@@ -5239,22 +5292,20 @@
         <v>73</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>84</v>
+        <v>73</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>298</v>
+        <v>287</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>299</v>
+        <v>288</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>300</v>
-      </c>
-      <c r="N32" t="s" s="2">
-        <v>301</v>
-      </c>
+        <v>289</v>
+      </c>
+      <c r="N32" s="2"/>
       <c r="O32" t="s" s="2">
-        <v>302</v>
+        <v>290</v>
       </c>
       <c r="P32" t="s" s="2">
         <v>73</v>
@@ -5303,7 +5354,7 @@
         <v>73</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>296</v>
+        <v>285</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>74</v>
@@ -5312,16 +5363,16 @@
         <v>83</v>
       </c>
       <c r="AI32" t="s" s="2">
-        <v>73</v>
+        <v>291</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>95</v>
+        <v>292</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>303</v>
+        <v>293</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>304</v>
+        <v>294</v>
       </c>
       <c r="AM32" t="s" s="2">
         <v>295</v>
@@ -5332,14 +5383,14 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>305</v>
+        <v>296</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>305</v>
+        <v>296</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
-        <v>73</v>
+        <v>297</v>
       </c>
       <c r="E33" s="2"/>
       <c r="F33" t="s" s="2">
@@ -5358,17 +5409,17 @@
         <v>84</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>306</v>
+        <v>287</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>307</v>
+        <v>298</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>308</v>
+        <v>299</v>
       </c>
       <c r="N33" s="2"/>
       <c r="O33" t="s" s="2">
-        <v>309</v>
+        <v>300</v>
       </c>
       <c r="P33" t="s" s="2">
         <v>73</v>
@@ -5417,7 +5468,7 @@
         <v>73</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>305</v>
+        <v>296</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>74</v>
@@ -5426,19 +5477,19 @@
         <v>83</v>
       </c>
       <c r="AI33" t="s" s="2">
-        <v>73</v>
+        <v>291</v>
       </c>
       <c r="AJ33" t="s" s="2">
         <v>95</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>310</v>
+        <v>73</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>311</v>
+        <v>301</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>312</v>
+        <v>73</v>
       </c>
       <c r="AN33" t="s" s="2">
         <v>73</v>
@@ -5446,10 +5497,10 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>313</v>
+        <v>302</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>313</v>
+        <v>302</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -5469,21 +5520,21 @@
         <v>73</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>73</v>
+        <v>84</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>188</v>
+        <v>303</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>314</v>
+        <v>304</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>315</v>
-      </c>
-      <c r="N34" t="s" s="2">
-        <v>316</v>
-      </c>
-      <c r="O34" s="2"/>
+        <v>305</v>
+      </c>
+      <c r="N34" s="2"/>
+      <c r="O34" t="s" s="2">
+        <v>306</v>
+      </c>
       <c r="P34" t="s" s="2">
         <v>73</v>
       </c>
@@ -5507,10 +5558,10 @@
         <v>73</v>
       </c>
       <c r="X34" t="s" s="2">
-        <v>198</v>
+        <v>73</v>
       </c>
       <c r="Y34" t="s" s="2">
-        <v>317</v>
+        <v>73</v>
       </c>
       <c r="Z34" t="s" s="2">
         <v>73</v>
@@ -5531,7 +5582,7 @@
         <v>73</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>313</v>
+        <v>302</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>74</v>
@@ -5546,24 +5597,24 @@
         <v>95</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>318</v>
+        <v>307</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>319</v>
+        <v>308</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>320</v>
+        <v>309</v>
       </c>
       <c r="AN34" t="s" s="2">
-        <v>321</v>
+        <v>73</v>
       </c>
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>322</v>
+        <v>310</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>322</v>
+        <v>310</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -5574,7 +5625,7 @@
         <v>74</v>
       </c>
       <c r="G35" t="s" s="2">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="H35" t="s" s="2">
         <v>73</v>
@@ -5586,18 +5637,18 @@
         <v>73</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>159</v>
+        <v>188</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>323</v>
-      </c>
-      <c r="N35" t="s" s="2">
-        <v>324</v>
-      </c>
-      <c r="O35" s="2"/>
+        <v>312</v>
+      </c>
+      <c r="N35" s="2"/>
+      <c r="O35" t="s" s="2">
+        <v>313</v>
+      </c>
       <c r="P35" t="s" s="2">
         <v>73</v>
       </c>
@@ -5621,13 +5672,13 @@
         <v>73</v>
       </c>
       <c r="X35" t="s" s="2">
-        <v>73</v>
+        <v>107</v>
       </c>
       <c r="Y35" t="s" s="2">
-        <v>73</v>
+        <v>314</v>
       </c>
       <c r="Z35" t="s" s="2">
-        <v>73</v>
+        <v>315</v>
       </c>
       <c r="AA35" t="s" s="2">
         <v>73</v>
@@ -5645,13 +5696,13 @@
         <v>73</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>322</v>
+        <v>310</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AH35" t="s" s="2">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="AI35" t="s" s="2">
         <v>73</v>
@@ -5660,13 +5711,13 @@
         <v>95</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>325</v>
+        <v>316</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>326</v>
+        <v>317</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="AN35" t="s" s="2">
         <v>73</v>
@@ -5674,42 +5725,46 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>327</v>
+        <v>319</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>327</v>
+        <v>319</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
-        <v>73</v>
+        <v>320</v>
       </c>
       <c r="E36" s="2"/>
       <c r="F36" t="s" s="2">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="G36" t="s" s="2">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="H36" t="s" s="2">
-        <v>73</v>
+        <v>84</v>
       </c>
       <c r="I36" t="s" s="2">
         <v>73</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>73</v>
+        <v>84</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>328</v>
+        <v>321</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>329</v>
+        <v>322</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>330</v>
-      </c>
-      <c r="N36" s="2"/>
-      <c r="O36" s="2"/>
+        <v>323</v>
+      </c>
+      <c r="N36" t="s" s="2">
+        <v>324</v>
+      </c>
+      <c r="O36" t="s" s="2">
+        <v>325</v>
+      </c>
       <c r="P36" t="s" s="2">
         <v>73</v>
       </c>
@@ -5757,13 +5812,13 @@
         <v>73</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>327</v>
+        <v>319</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AH36" t="s" s="2">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="AI36" t="s" s="2">
         <v>73</v>
@@ -5772,24 +5827,24 @@
         <v>95</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>331</v>
+        <v>326</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>332</v>
+        <v>327</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>73</v>
+        <v>318</v>
       </c>
       <c r="AN36" t="s" s="2">
-        <v>333</v>
+        <v>73</v>
       </c>
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>334</v>
+        <v>328</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>334</v>
+        <v>328</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -5800,7 +5855,7 @@
         <v>74</v>
       </c>
       <c r="G37" t="s" s="2">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="H37" t="s" s="2">
         <v>73</v>
@@ -5809,19 +5864,21 @@
         <v>73</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>73</v>
+        <v>84</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>335</v>
+        <v>329</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>336</v>
+        <v>330</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>337</v>
+        <v>331</v>
       </c>
       <c r="N37" s="2"/>
-      <c r="O37" s="2"/>
+      <c r="O37" t="s" s="2">
+        <v>332</v>
+      </c>
       <c r="P37" t="s" s="2">
         <v>73</v>
       </c>
@@ -5869,13 +5926,13 @@
         <v>73</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>334</v>
+        <v>328</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AH37" t="s" s="2">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="AI37" t="s" s="2">
         <v>73</v>
@@ -5884,13 +5941,13 @@
         <v>95</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>338</v>
+        <v>333</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>339</v>
+        <v>334</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>73</v>
+        <v>335</v>
       </c>
       <c r="AN37" t="s" s="2">
         <v>73</v>
@@ -5898,21 +5955,21 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
-        <v>341</v>
+        <v>73</v>
       </c>
       <c r="E38" s="2"/>
       <c r="F38" t="s" s="2">
         <v>74</v>
       </c>
       <c r="G38" t="s" s="2">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="H38" t="s" s="2">
         <v>73</v>
@@ -5924,16 +5981,16 @@
         <v>73</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>342</v>
+        <v>188</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>343</v>
+        <v>337</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>344</v>
+        <v>338</v>
       </c>
       <c r="N38" t="s" s="2">
-        <v>345</v>
+        <v>339</v>
       </c>
       <c r="O38" s="2"/>
       <c r="P38" t="s" s="2">
@@ -5959,10 +6016,10 @@
         <v>73</v>
       </c>
       <c r="X38" t="s" s="2">
-        <v>73</v>
+        <v>198</v>
       </c>
       <c r="Y38" t="s" s="2">
-        <v>73</v>
+        <v>340</v>
       </c>
       <c r="Z38" t="s" s="2">
         <v>73</v>
@@ -5983,13 +6040,13 @@
         <v>73</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AH38" t="s" s="2">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="AI38" t="s" s="2">
         <v>73</v>
@@ -5998,24 +6055,24 @@
         <v>95</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>346</v>
+        <v>341</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>347</v>
+        <v>342</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>73</v>
+        <v>343</v>
       </c>
       <c r="AN38" t="s" s="2">
-        <v>73</v>
+        <v>344</v>
       </c>
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -6038,18 +6095,18 @@
         <v>73</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>349</v>
+        <v>242</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>350</v>
+        <v>337</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>351</v>
-      </c>
-      <c r="N39" s="2"/>
-      <c r="O39" t="s" s="2">
-        <v>352</v>
-      </c>
+        <v>346</v>
+      </c>
+      <c r="N39" t="s" s="2">
+        <v>347</v>
+      </c>
+      <c r="O39" s="2"/>
       <c r="P39" t="s" s="2">
         <v>73</v>
       </c>
@@ -6097,7 +6154,7 @@
         <v>73</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>74</v>
@@ -6112,13 +6169,13 @@
         <v>95</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>73</v>
+        <v>348</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>353</v>
+        <v>349</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>73</v>
+        <v>343</v>
       </c>
       <c r="AN39" t="s" s="2">
         <v>73</v>
@@ -6126,10 +6183,10 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -6140,7 +6197,7 @@
         <v>74</v>
       </c>
       <c r="G40" t="s" s="2">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="H40" t="s" s="2">
         <v>73</v>
@@ -6152,13 +6209,13 @@
         <v>73</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>230</v>
+        <v>351</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="N40" s="2"/>
       <c r="O40" s="2"/>
@@ -6209,43 +6266,43 @@
         <v>73</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>357</v>
+        <v>350</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AH40" t="s" s="2">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="AI40" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>73</v>
+        <v>95</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>73</v>
+        <v>354</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="AM40" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AN40" t="s" s="2">
-        <v>73</v>
+        <v>356</v>
       </c>
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
-        <v>128</v>
+        <v>73</v>
       </c>
       <c r="E41" s="2"/>
       <c r="F41" t="s" s="2">
@@ -6264,17 +6321,15 @@
         <v>73</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>129</v>
+        <v>358</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>130</v>
+        <v>359</v>
       </c>
       <c r="M41" t="s" s="2">
         <v>360</v>
       </c>
-      <c r="N41" t="s" s="2">
-        <v>132</v>
-      </c>
+      <c r="N41" s="2"/>
       <c r="O41" s="2"/>
       <c r="P41" t="s" s="2">
         <v>73</v>
@@ -6323,7 +6378,7 @@
         <v>73</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>74</v>
@@ -6335,13 +6390,13 @@
         <v>73</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>134</v>
+        <v>95</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>73</v>
+        <v>361</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>358</v>
+        <v>362</v>
       </c>
       <c r="AM41" t="s" s="2">
         <v>73</v>
@@ -6352,14 +6407,14 @@
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="E42" s="2"/>
       <c r="F42" t="s" s="2">
@@ -6372,26 +6427,24 @@
         <v>73</v>
       </c>
       <c r="I42" t="s" s="2">
-        <v>84</v>
+        <v>73</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>84</v>
+        <v>73</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>129</v>
+        <v>365</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="N42" t="s" s="2">
-        <v>132</v>
-      </c>
-      <c r="O42" t="s" s="2">
-        <v>138</v>
-      </c>
+        <v>368</v>
+      </c>
+      <c r="O42" s="2"/>
       <c r="P42" t="s" s="2">
         <v>73</v>
       </c>
@@ -6439,7 +6492,7 @@
         <v>73</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>74</v>
@@ -6451,13 +6504,13 @@
         <v>73</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>134</v>
+        <v>95</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>73</v>
+        <v>369</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>126</v>
+        <v>370</v>
       </c>
       <c r="AM42" t="s" s="2">
         <v>73</v>
@@ -6468,10 +6521,10 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>367</v>
+        <v>371</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>367</v>
+        <v>371</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -6494,17 +6547,17 @@
         <v>73</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>368</v>
+        <v>372</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>369</v>
+        <v>373</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>370</v>
+        <v>374</v>
       </c>
       <c r="N43" s="2"/>
       <c r="O43" t="s" s="2">
-        <v>371</v>
+        <v>375</v>
       </c>
       <c r="P43" t="s" s="2">
         <v>73</v>
@@ -6553,7 +6606,7 @@
         <v>73</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>367</v>
+        <v>371</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>74</v>
@@ -6571,7 +6624,7 @@
         <v>73</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>372</v>
+        <v>376</v>
       </c>
       <c r="AM43" t="s" s="2">
         <v>73</v>
@@ -6582,10 +6635,10 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>373</v>
+        <v>377</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>373</v>
+        <v>377</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -6608,20 +6661,16 @@
         <v>73</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>257</v>
+        <v>229</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>374</v>
+        <v>265</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>375</v>
-      </c>
-      <c r="N44" t="s" s="2">
-        <v>376</v>
-      </c>
-      <c r="O44" t="s" s="2">
-        <v>377</v>
-      </c>
+        <v>266</v>
+      </c>
+      <c r="N44" s="2"/>
+      <c r="O44" s="2"/>
       <c r="P44" t="s" s="2">
         <v>73</v>
       </c>
@@ -6669,7 +6718,7 @@
         <v>73</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>373</v>
+        <v>267</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>74</v>
@@ -6681,13 +6730,13 @@
         <v>73</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>95</v>
+        <v>73</v>
       </c>
       <c r="AK44" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>378</v>
+        <v>268</v>
       </c>
       <c r="AM44" t="s" s="2">
         <v>73</v>
@@ -6698,14 +6747,14 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
-        <v>73</v>
+        <v>128</v>
       </c>
       <c r="E45" s="2"/>
       <c r="F45" t="s" s="2">
@@ -6724,15 +6773,17 @@
         <v>73</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>380</v>
+        <v>129</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>381</v>
+        <v>130</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>382</v>
-      </c>
-      <c r="N45" s="2"/>
+        <v>270</v>
+      </c>
+      <c r="N45" t="s" s="2">
+        <v>132</v>
+      </c>
       <c r="O45" s="2"/>
       <c r="P45" t="s" s="2">
         <v>73</v>
@@ -6781,7 +6832,7 @@
         <v>73</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>379</v>
+        <v>274</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>74</v>
@@ -6793,13 +6844,13 @@
         <v>73</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>95</v>
+        <v>134</v>
       </c>
       <c r="AK45" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>383</v>
+        <v>268</v>
       </c>
       <c r="AM45" t="s" s="2">
         <v>73</v>
@@ -6810,14 +6861,14 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>384</v>
+        <v>379</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>384</v>
+        <v>379</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
-        <v>385</v>
+        <v>380</v>
       </c>
       <c r="E46" s="2"/>
       <c r="F46" t="s" s="2">
@@ -6830,23 +6881,25 @@
         <v>73</v>
       </c>
       <c r="I46" t="s" s="2">
-        <v>73</v>
+        <v>84</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>73</v>
+        <v>84</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>349</v>
+        <v>129</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>386</v>
+        <v>381</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>387</v>
-      </c>
-      <c r="N46" s="2"/>
+        <v>382</v>
+      </c>
+      <c r="N46" t="s" s="2">
+        <v>132</v>
+      </c>
       <c r="O46" t="s" s="2">
-        <v>388</v>
+        <v>138</v>
       </c>
       <c r="P46" t="s" s="2">
         <v>73</v>
@@ -6895,7 +6948,7 @@
         <v>73</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>74</v>
@@ -6907,13 +6960,13 @@
         <v>73</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>95</v>
+        <v>134</v>
       </c>
       <c r="AK46" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>389</v>
+        <v>126</v>
       </c>
       <c r="AM46" t="s" s="2">
         <v>73</v>
@@ -6924,10 +6977,10 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>390</v>
+        <v>384</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>390</v>
+        <v>384</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -6950,16 +7003,18 @@
         <v>73</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>230</v>
+        <v>385</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>355</v>
+        <v>386</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>356</v>
+        <v>387</v>
       </c>
       <c r="N47" s="2"/>
-      <c r="O47" s="2"/>
+      <c r="O47" t="s" s="2">
+        <v>388</v>
+      </c>
       <c r="P47" t="s" s="2">
         <v>73</v>
       </c>
@@ -7007,7 +7062,7 @@
         <v>73</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>357</v>
+        <v>384</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>74</v>
@@ -7019,13 +7074,13 @@
         <v>73</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>73</v>
+        <v>95</v>
       </c>
       <c r="AK47" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>358</v>
+        <v>389</v>
       </c>
       <c r="AM47" t="s" s="2">
         <v>73</v>
@@ -7036,21 +7091,21 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
-        <v>128</v>
+        <v>73</v>
       </c>
       <c r="E48" s="2"/>
       <c r="F48" t="s" s="2">
         <v>74</v>
       </c>
       <c r="G48" t="s" s="2">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="H48" t="s" s="2">
         <v>73</v>
@@ -7062,18 +7117,20 @@
         <v>73</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>129</v>
+        <v>258</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>130</v>
+        <v>391</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>360</v>
+        <v>392</v>
       </c>
       <c r="N48" t="s" s="2">
-        <v>132</v>
-      </c>
-      <c r="O48" s="2"/>
+        <v>393</v>
+      </c>
+      <c r="O48" t="s" s="2">
+        <v>394</v>
+      </c>
       <c r="P48" t="s" s="2">
         <v>73</v>
       </c>
@@ -7121,25 +7178,25 @@
         <v>73</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>361</v>
+        <v>390</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AH48" t="s" s="2">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="AI48" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>134</v>
+        <v>95</v>
       </c>
       <c r="AK48" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>358</v>
+        <v>395</v>
       </c>
       <c r="AM48" t="s" s="2">
         <v>73</v>
@@ -7150,14 +7207,14 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>392</v>
+        <v>396</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>392</v>
+        <v>396</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
-        <v>363</v>
+        <v>73</v>
       </c>
       <c r="E49" s="2"/>
       <c r="F49" t="s" s="2">
@@ -7170,26 +7227,22 @@
         <v>73</v>
       </c>
       <c r="I49" t="s" s="2">
-        <v>84</v>
+        <v>73</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>84</v>
+        <v>73</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>129</v>
+        <v>397</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>364</v>
+        <v>398</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>365</v>
-      </c>
-      <c r="N49" t="s" s="2">
-        <v>132</v>
-      </c>
-      <c r="O49" t="s" s="2">
-        <v>138</v>
-      </c>
+        <v>399</v>
+      </c>
+      <c r="N49" s="2"/>
+      <c r="O49" s="2"/>
       <c r="P49" t="s" s="2">
         <v>73</v>
       </c>
@@ -7237,7 +7290,7 @@
         <v>73</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>366</v>
+        <v>396</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>74</v>
@@ -7249,13 +7302,13 @@
         <v>73</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>134</v>
+        <v>95</v>
       </c>
       <c r="AK49" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>126</v>
+        <v>400</v>
       </c>
       <c r="AM49" t="s" s="2">
         <v>73</v>
@@ -7266,21 +7319,21 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>393</v>
+        <v>401</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>393</v>
+        <v>401</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
-        <v>394</v>
+        <v>402</v>
       </c>
       <c r="E50" s="2"/>
       <c r="F50" t="s" s="2">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="G50" t="s" s="2">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="H50" t="s" s="2">
         <v>73</v>
@@ -7292,19 +7345,17 @@
         <v>73</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>188</v>
+        <v>372</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>395</v>
+        <v>403</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>396</v>
-      </c>
-      <c r="N50" t="s" s="2">
-        <v>397</v>
-      </c>
+        <v>404</v>
+      </c>
+      <c r="N50" s="2"/>
       <c r="O50" t="s" s="2">
-        <v>398</v>
+        <v>405</v>
       </c>
       <c r="P50" t="s" s="2">
         <v>73</v>
@@ -7329,10 +7380,10 @@
         <v>73</v>
       </c>
       <c r="X50" t="s" s="2">
-        <v>198</v>
+        <v>73</v>
       </c>
       <c r="Y50" t="s" s="2">
-        <v>399</v>
+        <v>73</v>
       </c>
       <c r="Z50" t="s" s="2">
         <v>73</v>
@@ -7353,13 +7404,13 @@
         <v>73</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>393</v>
+        <v>401</v>
       </c>
       <c r="AG50" t="s" s="2">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="AH50" t="s" s="2">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="AI50" t="s" s="2">
         <v>73</v>
@@ -7371,7 +7422,7 @@
         <v>73</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>389</v>
+        <v>406</v>
       </c>
       <c r="AM50" t="s" s="2">
         <v>73</v>
@@ -7382,10 +7433,10 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>400</v>
+        <v>407</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>400</v>
+        <v>407</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -7393,7 +7444,7 @@
       </c>
       <c r="E51" s="2"/>
       <c r="F51" t="s" s="2">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="G51" t="s" s="2">
         <v>83</v>
@@ -7408,13 +7459,13 @@
         <v>73</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>401</v>
+        <v>229</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>402</v>
+        <v>265</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>403</v>
+        <v>266</v>
       </c>
       <c r="N51" s="2"/>
       <c r="O51" s="2"/>
@@ -7465,10 +7516,10 @@
         <v>73</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>400</v>
+        <v>267</v>
       </c>
       <c r="AG51" t="s" s="2">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="AH51" t="s" s="2">
         <v>83</v>
@@ -7477,13 +7528,13 @@
         <v>73</v>
       </c>
       <c r="AJ51" t="s" s="2">
-        <v>95</v>
+        <v>73</v>
       </c>
       <c r="AK51" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>389</v>
+        <v>268</v>
       </c>
       <c r="AM51" t="s" s="2">
         <v>73</v>
@@ -7494,14 +7545,14 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>404</v>
+        <v>408</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>404</v>
+        <v>408</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
-        <v>73</v>
+        <v>128</v>
       </c>
       <c r="E52" s="2"/>
       <c r="F52" t="s" s="2">
@@ -7520,18 +7571,18 @@
         <v>73</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>349</v>
+        <v>129</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>405</v>
+        <v>130</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>406</v>
-      </c>
-      <c r="N52" s="2"/>
-      <c r="O52" t="s" s="2">
-        <v>407</v>
-      </c>
+        <v>270</v>
+      </c>
+      <c r="N52" t="s" s="2">
+        <v>132</v>
+      </c>
+      <c r="O52" s="2"/>
       <c r="P52" t="s" s="2">
         <v>73</v>
       </c>
@@ -7579,7 +7630,7 @@
         <v>73</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>404</v>
+        <v>274</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>74</v>
@@ -7591,13 +7642,13 @@
         <v>73</v>
       </c>
       <c r="AJ52" t="s" s="2">
-        <v>95</v>
+        <v>134</v>
       </c>
       <c r="AK52" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>389</v>
+        <v>268</v>
       </c>
       <c r="AM52" t="s" s="2">
         <v>73</v>
@@ -7608,42 +7659,46 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
-        <v>73</v>
+        <v>380</v>
       </c>
       <c r="E53" s="2"/>
       <c r="F53" t="s" s="2">
         <v>74</v>
       </c>
       <c r="G53" t="s" s="2">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="H53" t="s" s="2">
         <v>73</v>
       </c>
       <c r="I53" t="s" s="2">
-        <v>73</v>
+        <v>84</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>73</v>
+        <v>84</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>230</v>
+        <v>129</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>355</v>
+        <v>381</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>356</v>
-      </c>
-      <c r="N53" s="2"/>
-      <c r="O53" s="2"/>
+        <v>382</v>
+      </c>
+      <c r="N53" t="s" s="2">
+        <v>132</v>
+      </c>
+      <c r="O53" t="s" s="2">
+        <v>138</v>
+      </c>
       <c r="P53" t="s" s="2">
         <v>73</v>
       </c>
@@ -7691,25 +7746,25 @@
         <v>73</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>357</v>
+        <v>383</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AH53" t="s" s="2">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="AI53" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AJ53" t="s" s="2">
-        <v>73</v>
+        <v>134</v>
       </c>
       <c r="AK53" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AL53" t="s" s="2">
-        <v>358</v>
+        <v>126</v>
       </c>
       <c r="AM53" t="s" s="2">
         <v>73</v>
@@ -7720,21 +7775,21 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
-        <v>128</v>
+        <v>411</v>
       </c>
       <c r="E54" s="2"/>
       <c r="F54" t="s" s="2">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="G54" t="s" s="2">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="H54" t="s" s="2">
         <v>73</v>
@@ -7746,18 +7801,20 @@
         <v>73</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>129</v>
+        <v>188</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>130</v>
+        <v>412</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>360</v>
+        <v>413</v>
       </c>
       <c r="N54" t="s" s="2">
-        <v>132</v>
-      </c>
-      <c r="O54" s="2"/>
+        <v>414</v>
+      </c>
+      <c r="O54" t="s" s="2">
+        <v>415</v>
+      </c>
       <c r="P54" t="s" s="2">
         <v>73</v>
       </c>
@@ -7781,10 +7838,10 @@
         <v>73</v>
       </c>
       <c r="X54" t="s" s="2">
-        <v>73</v>
+        <v>198</v>
       </c>
       <c r="Y54" t="s" s="2">
-        <v>73</v>
+        <v>416</v>
       </c>
       <c r="Z54" t="s" s="2">
         <v>73</v>
@@ -7805,25 +7862,25 @@
         <v>73</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>361</v>
+        <v>410</v>
       </c>
       <c r="AG54" t="s" s="2">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="AH54" t="s" s="2">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="AI54" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AJ54" t="s" s="2">
-        <v>134</v>
+        <v>95</v>
       </c>
       <c r="AK54" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AL54" t="s" s="2">
-        <v>358</v>
+        <v>406</v>
       </c>
       <c r="AM54" t="s" s="2">
         <v>73</v>
@@ -7834,46 +7891,42 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>410</v>
+        <v>417</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>410</v>
+        <v>417</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
-        <v>363</v>
+        <v>73</v>
       </c>
       <c r="E55" s="2"/>
       <c r="F55" t="s" s="2">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="G55" t="s" s="2">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="H55" t="s" s="2">
         <v>73</v>
       </c>
       <c r="I55" t="s" s="2">
-        <v>84</v>
+        <v>73</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>84</v>
+        <v>73</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>129</v>
+        <v>418</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>364</v>
+        <v>419</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>365</v>
-      </c>
-      <c r="N55" t="s" s="2">
-        <v>132</v>
-      </c>
-      <c r="O55" t="s" s="2">
-        <v>138</v>
-      </c>
+        <v>420</v>
+      </c>
+      <c r="N55" s="2"/>
+      <c r="O55" s="2"/>
       <c r="P55" t="s" s="2">
         <v>73</v>
       </c>
@@ -7921,25 +7974,25 @@
         <v>73</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>366</v>
+        <v>417</v>
       </c>
       <c r="AG55" t="s" s="2">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="AH55" t="s" s="2">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="AI55" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AJ55" t="s" s="2">
-        <v>134</v>
+        <v>95</v>
       </c>
       <c r="AK55" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AL55" t="s" s="2">
-        <v>126</v>
+        <v>406</v>
       </c>
       <c r="AM55" t="s" s="2">
         <v>73</v>
@@ -7950,21 +8003,21 @@
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>411</v>
+        <v>421</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>411</v>
+        <v>421</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
-        <v>394</v>
+        <v>73</v>
       </c>
       <c r="E56" s="2"/>
       <c r="F56" t="s" s="2">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="G56" t="s" s="2">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="H56" t="s" s="2">
         <v>73</v>
@@ -7976,17 +8029,17 @@
         <v>73</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>188</v>
+        <v>372</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>412</v>
+        <v>422</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>413</v>
+        <v>423</v>
       </c>
       <c r="N56" s="2"/>
       <c r="O56" t="s" s="2">
-        <v>414</v>
+        <v>424</v>
       </c>
       <c r="P56" t="s" s="2">
         <v>73</v>
@@ -8011,10 +8064,10 @@
         <v>73</v>
       </c>
       <c r="X56" t="s" s="2">
-        <v>198</v>
+        <v>73</v>
       </c>
       <c r="Y56" t="s" s="2">
-        <v>415</v>
+        <v>73</v>
       </c>
       <c r="Z56" t="s" s="2">
         <v>73</v>
@@ -8035,13 +8088,13 @@
         <v>73</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>411</v>
+        <v>421</v>
       </c>
       <c r="AG56" t="s" s="2">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="AH56" t="s" s="2">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="AI56" t="s" s="2">
         <v>73</v>
@@ -8053,7 +8106,7 @@
         <v>73</v>
       </c>
       <c r="AL56" t="s" s="2">
-        <v>389</v>
+        <v>406</v>
       </c>
       <c r="AM56" t="s" s="2">
         <v>73</v>
@@ -8064,10 +8117,10 @@
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>416</v>
+        <v>425</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>416</v>
+        <v>425</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
@@ -8075,7 +8128,7 @@
       </c>
       <c r="E57" s="2"/>
       <c r="F57" t="s" s="2">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="G57" t="s" s="2">
         <v>83</v>
@@ -8090,18 +8143,16 @@
         <v>73</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>401</v>
+        <v>229</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>417</v>
+        <v>265</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>418</v>
+        <v>266</v>
       </c>
       <c r="N57" s="2"/>
-      <c r="O57" t="s" s="2">
-        <v>419</v>
-      </c>
+      <c r="O57" s="2"/>
       <c r="P57" t="s" s="2">
         <v>73</v>
       </c>
@@ -8149,10 +8200,10 @@
         <v>73</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>416</v>
+        <v>267</v>
       </c>
       <c r="AG57" t="s" s="2">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="AH57" t="s" s="2">
         <v>83</v>
@@ -8161,23 +8212,481 @@
         <v>73</v>
       </c>
       <c r="AJ57" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AK57" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AL57" t="s" s="2">
+        <v>268</v>
+      </c>
+      <c r="AM57" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AN57" t="s" s="2">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="58" hidden="true">
+      <c r="A58" t="s" s="2">
+        <v>426</v>
+      </c>
+      <c r="B58" t="s" s="2">
+        <v>426</v>
+      </c>
+      <c r="C58" s="2"/>
+      <c r="D58" t="s" s="2">
+        <v>128</v>
+      </c>
+      <c r="E58" s="2"/>
+      <c r="F58" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="G58" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="H58" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="I58" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="J58" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="K58" t="s" s="2">
+        <v>129</v>
+      </c>
+      <c r="L58" t="s" s="2">
+        <v>130</v>
+      </c>
+      <c r="M58" t="s" s="2">
+        <v>270</v>
+      </c>
+      <c r="N58" t="s" s="2">
+        <v>132</v>
+      </c>
+      <c r="O58" s="2"/>
+      <c r="P58" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Q58" s="2"/>
+      <c r="R58" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="S58" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="T58" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="U58" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="V58" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="W58" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="X58" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Y58" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Z58" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AA58" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AB58" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC58" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD58" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE58" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AF58" t="s" s="2">
+        <v>274</v>
+      </c>
+      <c r="AG58" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AH58" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AI58" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AJ58" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="AK58" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AL58" t="s" s="2">
+        <v>268</v>
+      </c>
+      <c r="AM58" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AN58" t="s" s="2">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="59" hidden="true">
+      <c r="A59" t="s" s="2">
+        <v>427</v>
+      </c>
+      <c r="B59" t="s" s="2">
+        <v>427</v>
+      </c>
+      <c r="C59" s="2"/>
+      <c r="D59" t="s" s="2">
+        <v>380</v>
+      </c>
+      <c r="E59" s="2"/>
+      <c r="F59" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="G59" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="H59" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="I59" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="J59" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="K59" t="s" s="2">
+        <v>129</v>
+      </c>
+      <c r="L59" t="s" s="2">
+        <v>381</v>
+      </c>
+      <c r="M59" t="s" s="2">
+        <v>382</v>
+      </c>
+      <c r="N59" t="s" s="2">
+        <v>132</v>
+      </c>
+      <c r="O59" t="s" s="2">
+        <v>138</v>
+      </c>
+      <c r="P59" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Q59" s="2"/>
+      <c r="R59" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="S59" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="T59" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="U59" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="V59" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="W59" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="X59" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Y59" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Z59" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AA59" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AB59" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC59" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD59" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE59" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AF59" t="s" s="2">
+        <v>383</v>
+      </c>
+      <c r="AG59" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AH59" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AI59" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AJ59" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="AK59" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AL59" t="s" s="2">
+        <v>126</v>
+      </c>
+      <c r="AM59" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AN59" t="s" s="2">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="60" hidden="true">
+      <c r="A60" t="s" s="2">
+        <v>428</v>
+      </c>
+      <c r="B60" t="s" s="2">
+        <v>428</v>
+      </c>
+      <c r="C60" s="2"/>
+      <c r="D60" t="s" s="2">
+        <v>411</v>
+      </c>
+      <c r="E60" s="2"/>
+      <c r="F60" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="G60" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="H60" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="I60" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="J60" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="K60" t="s" s="2">
+        <v>188</v>
+      </c>
+      <c r="L60" t="s" s="2">
+        <v>429</v>
+      </c>
+      <c r="M60" t="s" s="2">
+        <v>430</v>
+      </c>
+      <c r="N60" s="2"/>
+      <c r="O60" t="s" s="2">
+        <v>431</v>
+      </c>
+      <c r="P60" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Q60" s="2"/>
+      <c r="R60" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="S60" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="T60" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="U60" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="V60" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="W60" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="X60" t="s" s="2">
+        <v>198</v>
+      </c>
+      <c r="Y60" t="s" s="2">
+        <v>432</v>
+      </c>
+      <c r="Z60" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AA60" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AB60" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC60" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD60" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE60" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AF60" t="s" s="2">
+        <v>428</v>
+      </c>
+      <c r="AG60" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AH60" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AI60" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AJ60" t="s" s="2">
         <v>95</v>
       </c>
-      <c r="AK57" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AL57" t="s" s="2">
-        <v>389</v>
-      </c>
-      <c r="AM57" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AN57" t="s" s="2">
+      <c r="AK60" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AL60" t="s" s="2">
+        <v>406</v>
+      </c>
+      <c r="AM60" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AN60" t="s" s="2">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="61" hidden="true">
+      <c r="A61" t="s" s="2">
+        <v>433</v>
+      </c>
+      <c r="B61" t="s" s="2">
+        <v>433</v>
+      </c>
+      <c r="C61" s="2"/>
+      <c r="D61" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="E61" s="2"/>
+      <c r="F61" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="G61" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="H61" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="I61" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="J61" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="K61" t="s" s="2">
+        <v>418</v>
+      </c>
+      <c r="L61" t="s" s="2">
+        <v>434</v>
+      </c>
+      <c r="M61" t="s" s="2">
+        <v>435</v>
+      </c>
+      <c r="N61" s="2"/>
+      <c r="O61" t="s" s="2">
+        <v>436</v>
+      </c>
+      <c r="P61" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Q61" s="2"/>
+      <c r="R61" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="S61" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="T61" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="U61" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="V61" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="W61" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="X61" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Y61" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Z61" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AA61" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AB61" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC61" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD61" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE61" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AF61" t="s" s="2">
+        <v>433</v>
+      </c>
+      <c r="AG61" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AH61" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AI61" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AJ61" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="AK61" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AL61" t="s" s="2">
+        <v>406</v>
+      </c>
+      <c r="AM61" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AN61" t="s" s="2">
         <v>73</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AN57">
+  <autoFilter ref="A1:AN61">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -8187,7 +8696,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI56">
+  <conditionalFormatting sqref="A2:AI60">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/StructureDefinition-be-performer-task.xlsx
+++ b/StructureDefinition-be-performer-task.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-24T14:40:03+00:00</t>
+    <t>2024-09-24T14:41:18+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-be-performer-task.xlsx
+++ b/StructureDefinition-be-performer-task.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-24T14:41:18+00:00</t>
+    <t>2024-09-24T14:42:10+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
